--- a/data/В пути АЛМ.xlsx
+++ b/data/В пути АЛМ.xlsx
@@ -23,7 +23,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+  <si>
+    <t>Дата</t>
+  </si>
   <si>
     <t>Склад</t>
   </si>
@@ -34,28 +37,73 @@
     <t>Номенклатура</t>
   </si>
   <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Есть общие обороты за день</t>
+  </si>
+  <si>
+    <t>Расход</t>
+  </si>
+  <si>
     <t>Кон ост</t>
   </si>
   <si>
+    <t>06.02.2024 0:00:00</t>
+  </si>
+  <si>
     <t>Алматы в Пути</t>
   </si>
   <si>
+    <t>187050</t>
+  </si>
+  <si>
+    <t>Набор одноразовой посуды "Пикничок" [6 стак. 200 мл, ПП+6 тар. d205 мм, ПС+6 вил.+ 6 нож.+6 салф.]</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>100028</t>
+  </si>
+  <si>
+    <t>Коробка для пиццы 330х330х40 мм, крафт, микрогофрокарт.Т-11 Е, 50 шт/кор (OOO КТК)</t>
+  </si>
+  <si>
     <t>103896</t>
   </si>
   <si>
     <t>Салфетки 250х250 мм 1-сл., бел., бум., 100 шт/упак (ИП Головкин С.В.)</t>
   </si>
   <si>
+    <t>279508</t>
+  </si>
+  <si>
+    <t>Чековая лента 57мм х 25м, d12 мм, бел., термобум. "Честный чек"</t>
+  </si>
+  <si>
+    <t>461300</t>
+  </si>
+  <si>
+    <t>Мешок для мусора 120 л, 105х68 см, 38 мкм, с завязками, зел., ПВД, 10 шт/рул "Greencity"</t>
+  </si>
+  <si>
     <t>108601</t>
   </si>
   <si>
     <t>Салфетка из вискозы 300х340 мм, 80 гр/м2, цвет в ассорт., 3 шт/упак "Чисто-Солнышко"</t>
   </si>
   <si>
-    <t>101043</t>
-  </si>
-  <si>
-    <t>Палочки для шашлыка 200 мм, d2,5 мм, бамбук, 100 шт/упак "GREEN MYSTERY"</t>
+    <t>101332</t>
+  </si>
+  <si>
+    <t>Полотно холстопрошивное 800мм х 50м Стандарт, 180 гр/м2, бел. (ООО Намтекс)</t>
+  </si>
+  <si>
+    <t>101947</t>
+  </si>
+  <si>
+    <t>Клейкая лента 48мм х 120м, 40 мкм, прозр., 6 рул/упак "Фрегат"</t>
   </si>
   <si>
     <t>107441</t>
@@ -64,10 +112,10 @@
     <t>Крышка для стакана d95 мм куполообразная без отверстия, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
   </si>
   <si>
-    <t>102319</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d80 мм с клапаном, черн., ПС, 100 шт/упак "Kado-Prim"</t>
+    <t>107469</t>
+  </si>
+  <si>
+    <t>Капхолдер [манжета] 288х56 мм, крафт, карт., 450 шт/кор (ООО Типография Альбатрос)</t>
   </si>
   <si>
     <t>102853</t>
@@ -100,10 +148,16 @@
     <t>Стакан одноразовый 200 мл, прозр., ПП, 100 шт/упак (ООО Флайпак-С)</t>
   </si>
   <si>
-    <t>115416</t>
-  </si>
-  <si>
-    <t>Стакан-шейкер одноразовый 200 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+    <t>104218</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 200 мл, бел., ПП, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>104217</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 200 мл, прозр., ПП, 100 шт/упак "МИСТЕРИЯ"</t>
   </si>
   <si>
     <t>140080</t>
@@ -112,12 +166,6 @@
     <t>Вилка одноразовая 165 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
   </si>
   <si>
-    <t>143080</t>
-  </si>
-  <si>
-    <t>Ложка одноразовая 125 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
     <t>103535</t>
   </si>
   <si>
@@ -136,34 +184,70 @@
     <t>Тарелка одноразовая мелкая d167 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
   </si>
   <si>
+    <t>124185</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d210 мм, зел., ПС, 50 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>124186</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d210 мм, красн., ПС, 50 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>124187</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d210 мм, желт., ПС, 50 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>124188</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d210 мм, син., ПС, 50 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
     <t>121490</t>
   </si>
   <si>
     <t>Тарелка одноразовая глубокая 475 мл, d153 мм, бел., ПП, 50 шт/упак "МИСТЕРИЯ"</t>
   </si>
   <si>
-    <t>102338</t>
-  </si>
-  <si>
-    <t>Контейнер 500 мл 1-секц., овал 159х130х55 мм, неразъем.крышка, прозр., ОПС, 330 шт/кор "Протэк"</t>
-  </si>
-  <si>
-    <t>105399</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру d200хh52 мм, прозр., ОПС, 400 шт/кор "Kado-Prim"</t>
-  </si>
-  <si>
-    <t>106096</t>
-  </si>
-  <si>
-    <t>Обертка для бургеров и хот-догов 320х305 мм, диз. "Рог изобилия", разноцв., бум., 2000 шт/кор (ООО Ф</t>
-  </si>
-  <si>
-    <t>106417</t>
-  </si>
-  <si>
-    <t>Контейнер 850 мл 1-секц. d200хh65 мм, без крышки, черн., ПС, 400 шт/кор "Kado-Prim"</t>
+    <t>154625</t>
+  </si>
+  <si>
+    <t>Контейнер 500 мл 1-секц. 108х82х106 мм, серия 108, без крышки, прозр., ПП, 100 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>159474</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 124,5х124,5х13,1 мм, прозр., ПЭТ, 25 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>159625</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 108х82х3 мм, прозр., ПП, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>501111</t>
+  </si>
+  <si>
+    <t>Комплект столовых приборов №1 [вил. Кристалл 180 мм, черн., ПС], 300 шт/кор (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>263153</t>
+  </si>
+  <si>
+    <t>Упаковка для кондит. изделий 1480 мл, 1-секц. 212х137х67[200х124х61] мм, неразъем.крышка, прозр., ОП</t>
+  </si>
+  <si>
+    <t>187400</t>
+  </si>
+  <si>
+    <t>Комплект столовых приборов на несколько персон [лож.ст.+ вил.: 173,5 мм, син., ПП, 5 шт + нож 178,5 </t>
   </si>
   <si>
     <t>107468</t>
@@ -172,22 +256,28 @@
     <t>Капхолдер [манжета] 270х55 мм, крафт, карт., 50 шт/упак (ООО ПК Растр)</t>
   </si>
   <si>
-    <t>254501</t>
-  </si>
-  <si>
-    <t>Ланч-бокс 1-секц. 250х210х65 мм, бел., ВПС 100 шт/кор "Алпина"</t>
-  </si>
-  <si>
-    <t>152474</t>
-  </si>
-  <si>
-    <t>Контейнер 250 мл 1-секц., овал 159х130х30 мм, неразъем.крышка, прозр., ОПС, 350 шт/кор "Протэк"</t>
-  </si>
-  <si>
-    <t>153470</t>
-  </si>
-  <si>
-    <t>Контейнер 350 мл 1-секц., овал 159х130х40 мм, неразъем.крышка, прозр., ОПС, 350 шт/кор "Протэк"</t>
+    <t>106268</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая 165 мм, зел., ПС, 12 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>106277</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая 165 мм, красн., ПС, 12 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>191609</t>
+  </si>
+  <si>
+    <t>Коробка для бургера [бургербокс] 152х152х80 мм, бел., сах.тростник, 50 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>224245</t>
+  </si>
+  <si>
+    <t>Пакет Zip-Lock 80х120 мм, прозр., ПВД, 100 шт/упак (T.Z.W.P.)</t>
   </si>
   <si>
     <t>111613</t>
@@ -196,16 +286,106 @@
     <t>Пакет [280+150]х320 мм с круч. ручками, крафт, бум., 250 шт/кор (ООО Демарт)</t>
   </si>
   <si>
+    <t>111770</t>
+  </si>
+  <si>
+    <t>Мешок для мусора 60 л, 68х58 см, 10 мкм, зел., ПНД, 20 шт/рул "VitaLux"</t>
+  </si>
+  <si>
     <t>112308</t>
   </si>
   <si>
     <t>Пакет вакуум. 160х250 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
   </si>
   <si>
-    <t>113289</t>
-  </si>
-  <si>
-    <t>Чековая лента 80мм х 80м, d12 мм, бел., термобум. "Честный чек"</t>
+    <t>112713</t>
+  </si>
+  <si>
+    <t>Размешиватель 180 мм, древ. волокно, 1000 шт/упак (ООО Компания Лемио)</t>
+  </si>
+  <si>
+    <t>113354</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 185 мл 1 сл., d73 мм, бел., карт., 100 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113367</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 250 мл 1 сл., d80 мм, бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113368</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 300 мл 1 сл., d90 мм, бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113369</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 250 мл 1 сл., d80 мм, черн., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113370</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 300 мл 1 сл., d90 мм, черн., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113371</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 400 мл 1 сл., d90 мм, черн., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113373</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 250 мл 1 сл., d80 мм, диз. "Big City Life", карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113375</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 400 мл 1 сл., d90 мм, диз. "Big City Life", карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113379</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 400 мл 1 сл., d90 мм, красн., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113381</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 250 мл 1 сл., d80 мм, крафт-бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113382</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 300 мл 1 сл., d90 мм, крафт-бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113383</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 400 мл 1 сл., d90 мм, крафт-бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113385</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 300 мл 2 сл., d90 мм, крафт-бел., карт., 20 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113386</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 400 мл 2 сл., d90 мм, крафт-бел., карт., 18 шт/упак (ООО Паперскоп Рус)</t>
   </si>
   <si>
     <t>113387</t>
@@ -214,6 +394,12 @@
     <t>Размешиватель 140 мм, инд. упак., древ. волокно, 250 шт/упак (H.T.B.-E.T.Co.)</t>
   </si>
   <si>
+    <t>113394</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 400 мл 2 сл., d90 мм, диз. "Big City Life", карт., 18 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
     <t>113606</t>
   </si>
   <si>
@@ -226,13 +412,22 @@
     <t>Мешок для мусора 150 л, [70+40]х120 см, 55 мкм, черн., ПВД, 50 шт/упак (ООО Техинвест Плюс)</t>
   </si>
   <si>
-    <t>114531</t>
-  </si>
-  <si>
-    <t>Губка поролоновая для посуды 110х80х30 мм XXXL, цвет в ассорт., 10 шт/упак (ООО ПФ Прайд)</t>
-  </si>
-  <si>
-    <t>114628</t>
+    <t>114373</t>
+  </si>
+  <si>
+    <t>Китайские палочки h220хd5 мм, инд. ПЭ упак. с зубочисткой, бамбук, 100 пар/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>114458</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 185 мл 1 сл., d73 мм, бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>114700</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 240 мм, d8 мм, черн., пласт. прямые, 150 шт/упак (ООО ПК Диапазон)</t>
   </si>
   <si>
     <t>114751</t>
@@ -253,22 +448,16 @@
     <t>Трубочки для коктейлей 210 мм, d7 мм, черн., пласт. прямые в инд. упаковке, 200 шт/упак (ООО ПК Диап</t>
   </si>
   <si>
-    <t>115490</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру 232х182х8,5 мм, прозр., ПП, 400 шт/кор "Kado-Prim"</t>
-  </si>
-  <si>
-    <t>115491</t>
-  </si>
-  <si>
-    <t>Контейнер 1400[2х700] мл 2-секц., 227х177х36 мм, без крышки, бел., ПП, 400 шт/кор "Kado-Prim"</t>
-  </si>
-  <si>
-    <t>108394</t>
-  </si>
-  <si>
-    <t>Пленка пищевая 450мм х 900м 9 мкм, прозр., ПВХ "P.V.Ran"</t>
+    <t>115639</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 300 мл 2 сл., d90 мм, диз. "Big City Life", карт., 20 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>115646</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 250 мл 2 сл., d80 мм, диз. "Big City Life", карт., 20 шт/упак (ООО Паперскоп Рус)</t>
   </si>
 </sst>
 </file>
@@ -361,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="0" applyAlignment="true">
       <alignment horizontal="left"/>
@@ -372,11 +561,23 @@
     <xf numFmtId="0" fontId="0" borderId="2" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
     <xf numFmtId="1" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -397,19 +598,23 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="D40"/>
+  <dimension ref="H68"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" customHeight="true" defaultRowHeight="11.429"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="1" customWidth="true"/>
-    <col min="2" max="2" width="11.66796875" style="1" customWidth="true"/>
-    <col min="3" max="3" width="74.66796875" style="1" customWidth="true"/>
-    <col min="4" max="4" width="10.5" style="1" customWidth="true"/>
+    <col min="1" max="1" width="23.33203125" style="1" customWidth="true"/>
+    <col min="2" max="2" width="17.5" style="1" customWidth="true"/>
+    <col min="3" max="3" width="11.66796875" style="1" customWidth="true"/>
+    <col min="4" max="4" width="74.66796875" style="1" customWidth="true"/>
+    <col min="5" max="5" width="11.66796875" style="1" customWidth="true"/>
+    <col min="6" max="6" width="17.83203125" style="1" customWidth="true"/>
+    <col min="7" max="7" width="10.83203125" style="1" customWidth="true"/>
+    <col min="8" max="8" width="12.83203125" style="1" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" customHeight="true">
+    <row r="1" ht="38" customHeight="true">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -422,551 +627,1607 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" ht="11" customHeight="true">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="22" customHeight="true">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>4872</v>
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>173.22</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="e"/>
+      <c r="H2" s="6" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="3" ht="22" customHeight="true">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>350</v>
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>72.78</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="e"/>
+      <c r="H3" s="7" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="4" ht="11" customHeight="true">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" ht="22" customHeight="true">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>92.85</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="e"/>
+      <c r="H4" s="7" t="n">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="5" ht="11" customHeight="true">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>44000</v>
-      </c>
-    </row>
-    <row r="6" ht="11" customHeight="true">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>86.56</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="e"/>
+      <c r="H5" s="7" t="n">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="6" ht="22" customHeight="true">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>730000</v>
-      </c>
-    </row>
-    <row r="7" ht="11" customHeight="true">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>276.99</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="e"/>
+      <c r="H6" s="6" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" ht="22" customHeight="true">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>13650</v>
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>128.33</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="e"/>
+      <c r="H7" s="6" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="8" ht="11" customHeight="true">
       <c r="A8" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="9" ht="22" customHeight="true">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v>6504.69</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="e"/>
+      <c r="H8" s="6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" ht="11" customHeight="true">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="10" ht="11" customHeight="true">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>246.62</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="e"/>
+      <c r="H9" s="6" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" ht="22" customHeight="true">
       <c r="A10" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="11" ht="11" customHeight="true">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="e"/>
+      <c r="H10" s="7" t="n">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="11" ht="22" customHeight="true">
       <c r="A11" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>80000</v>
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="e"/>
+      <c r="H11" s="7" t="n">
+        <v>9000</v>
       </c>
     </row>
     <row r="12" ht="11" customHeight="true">
       <c r="A12" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>1000</v>
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>20.65</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="e"/>
+      <c r="H12" s="7" t="n">
+        <v>5200</v>
       </c>
     </row>
     <row r="13" ht="11" customHeight="true">
       <c r="A13" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>62000</v>
-      </c>
-    </row>
-    <row r="14" ht="11" customHeight="true">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5" t="e"/>
+      <c r="H13" s="7" t="n">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="14" ht="22" customHeight="true">
       <c r="A14" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>12000</v>
+        <v>35</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>8.62</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5" t="e"/>
+      <c r="H14" s="7" t="n">
+        <v>20000</v>
       </c>
     </row>
     <row r="15" ht="11" customHeight="true">
       <c r="A15" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>360000</v>
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5" t="e"/>
+      <c r="H15" s="7" t="n">
+        <v>12000</v>
       </c>
     </row>
     <row r="16" ht="11" customHeight="true">
       <c r="A16" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>46800</v>
+        <v>39</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5" t="e"/>
+      <c r="H16" s="7" t="n">
+        <v>80000</v>
       </c>
     </row>
     <row r="17" ht="11" customHeight="true">
       <c r="A17" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="4" t="n">
-        <v>25600</v>
+        <v>41</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="5" t="e"/>
+      <c r="H17" s="7" t="n">
+        <v>36000</v>
       </c>
     </row>
     <row r="18" ht="11" customHeight="true">
       <c r="A18" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="19" ht="22" customHeight="true">
+        <v>43</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="5" t="e"/>
+      <c r="H18" s="7" t="n">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="19" ht="11" customHeight="true">
       <c r="A19" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="4" t="n">
-        <v>16500</v>
+        <v>45</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="5" t="e"/>
+      <c r="H19" s="7" t="n">
+        <v>50000</v>
       </c>
     </row>
     <row r="20" ht="11" customHeight="true">
       <c r="A20" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="4" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="21" ht="22" customHeight="true">
+        <v>47</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="5" t="e"/>
+      <c r="H20" s="7" t="n">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="21" ht="11" customHeight="true">
       <c r="A21" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="4" t="n">
-        <v>76000</v>
+        <v>49</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>9.06</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5" t="e"/>
+      <c r="H21" s="7" t="n">
+        <v>46800</v>
       </c>
     </row>
     <row r="22" ht="11" customHeight="true">
       <c r="A22" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="4" t="n">
-        <v>1200</v>
+        <v>51</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="5" t="e"/>
+      <c r="H22" s="7" t="n">
+        <v>25600</v>
       </c>
     </row>
     <row r="23" ht="11" customHeight="true">
       <c r="A23" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="4" t="n">
-        <v>35100</v>
+        <v>53</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="5" t="e"/>
+      <c r="H23" s="7" t="n">
+        <v>1200</v>
       </c>
     </row>
     <row r="24" ht="11" customHeight="true">
       <c r="A24" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="4" t="n">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="25" ht="22" customHeight="true">
+        <v>55</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5" t="e"/>
+      <c r="H24" s="7" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="25" ht="11" customHeight="true">
       <c r="A25" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="4" t="n">
-        <v>5250</v>
-      </c>
-    </row>
-    <row r="26" ht="22" customHeight="true">
+        <v>57</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="5" t="e"/>
+      <c r="H25" s="7" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="26" ht="11" customHeight="true">
       <c r="A26" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="4" t="n">
-        <v>5250</v>
+        <v>59</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="5" t="e"/>
+      <c r="H26" s="7" t="n">
+        <v>1200</v>
       </c>
     </row>
     <row r="27" ht="11" customHeight="true">
       <c r="A27" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="4" t="n">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="28" ht="11" customHeight="true">
+        <v>61</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="5" t="e"/>
+      <c r="H27" s="7" t="n">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="28" ht="22" customHeight="true">
       <c r="A28" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="5" t="n">
-        <v>30</v>
+        <v>63</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>8.45</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5" t="e"/>
+      <c r="H28" s="7" t="n">
+        <v>15000</v>
       </c>
     </row>
     <row r="29" ht="11" customHeight="true">
       <c r="A29" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="4" t="n">
-        <v>3150</v>
+        <v>65</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="5" t="e"/>
+      <c r="H29" s="7" t="n">
+        <v>7000</v>
       </c>
     </row>
     <row r="30" ht="11" customHeight="true">
       <c r="A30" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="4" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="31" ht="11" customHeight="true">
+        <v>67</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="5" t="e"/>
+      <c r="H30" s="7" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="31" ht="22" customHeight="true">
       <c r="A31" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="4" t="n">
-        <v>75000</v>
+        <v>69</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="5" t="e"/>
+      <c r="H31" s="7" t="n">
+        <v>1800</v>
       </c>
     </row>
     <row r="32" ht="22" customHeight="true">
       <c r="A32" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="5" t="n">
-        <v>292</v>
+        <v>71</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>25.18</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="5" t="e"/>
+      <c r="H32" s="7" t="n">
+        <v>1600</v>
       </c>
     </row>
     <row r="33" ht="22" customHeight="true">
       <c r="A33" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="5" t="n">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>167.8</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="5" t="e"/>
+      <c r="H33" s="6" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="34" ht="11" customHeight="true">
       <c r="A34" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="4" t="n">
-        <v>27510</v>
+        <v>75</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="4" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="5" t="e"/>
+      <c r="H34" s="7" t="n">
+        <v>13500</v>
       </c>
     </row>
     <row r="35" ht="11" customHeight="true">
       <c r="A35" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="5" t="n">
-        <v>800</v>
+        <v>77</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="9" t="e"/>
+      <c r="F35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="5" t="e"/>
+      <c r="H35" s="7" t="n">
+        <v>3240</v>
       </c>
     </row>
     <row r="36" ht="11" customHeight="true">
       <c r="A36" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="4" t="n">
-        <v>12000</v>
+        <v>79</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="9" t="e"/>
+      <c r="F36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="5" t="e"/>
+      <c r="H36" s="7" t="n">
+        <v>3240</v>
       </c>
     </row>
     <row r="37" ht="22" customHeight="true">
       <c r="A37" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="4" t="n">
-        <v>2100</v>
+        <v>81</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="4" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="5" t="e"/>
+      <c r="H37" s="7" t="n">
+        <v>20000</v>
       </c>
     </row>
     <row r="38" ht="11" customHeight="true">
       <c r="A38" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="5" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="39" ht="22" customHeight="true">
+        <v>83</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>101.39</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="5" t="e"/>
+      <c r="H38" s="6" t="n">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39" ht="11" customHeight="true">
       <c r="A39" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="5" t="n">
-        <v>400</v>
+        <v>85</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>33.17</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="5" t="e"/>
+      <c r="H39" s="7" t="n">
+        <v>6000</v>
       </c>
     </row>
     <row r="40" ht="11" customHeight="true">
       <c r="A40" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="5" t="n">
-        <v>63</v>
+        <v>87</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="4" t="n">
+        <v>247.93</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="5" t="e"/>
+      <c r="H40" s="6" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" ht="11" customHeight="true">
+      <c r="A41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>1607.33</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="5" t="e"/>
+      <c r="H41" s="6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" ht="11" customHeight="true">
+      <c r="A42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="5" t="e"/>
+      <c r="H42" s="7" t="n">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="43" ht="11" customHeight="true">
+      <c r="A43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="4" t="n">
+        <v>8.55</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="5" t="e"/>
+      <c r="H43" s="7" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="44" ht="11" customHeight="true">
+      <c r="A44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="5" t="e"/>
+      <c r="H44" s="7" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="45" ht="11" customHeight="true">
+      <c r="A45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="4" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="5" t="e"/>
+      <c r="H45" s="7" t="n">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="46" ht="11" customHeight="true">
+      <c r="A46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="4" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="5" t="e"/>
+      <c r="H46" s="7" t="n">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="47" ht="11" customHeight="true">
+      <c r="A47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="4" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="5" t="e"/>
+      <c r="H47" s="7" t="n">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="48" ht="11" customHeight="true">
+      <c r="A48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="4" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="5" t="e"/>
+      <c r="H48" s="7" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="49" ht="22" customHeight="true">
+      <c r="A49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" s="4" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="5" t="e"/>
+      <c r="H49" s="7" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="50" ht="22" customHeight="true">
+      <c r="A50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" s="4" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="5" t="e"/>
+      <c r="H50" s="7" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="51" ht="22" customHeight="true">
+      <c r="A51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="4" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="5" t="e"/>
+      <c r="H51" s="7" t="n">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="52" ht="22" customHeight="true">
+      <c r="A52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" s="4" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="5" t="e"/>
+      <c r="H52" s="7" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="53" ht="22" customHeight="true">
+      <c r="A53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" s="4" t="n">
+        <v>17.66</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="5" t="e"/>
+      <c r="H53" s="7" t="n">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="54" ht="22" customHeight="true">
+      <c r="A54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E54" s="4" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="5" t="e"/>
+      <c r="H54" s="7" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="55" ht="22" customHeight="true">
+      <c r="A55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" s="4" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="5" t="e"/>
+      <c r="H55" s="7" t="n">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="56" ht="22" customHeight="true">
+      <c r="A56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E56" s="4" t="n">
+        <v>34.57</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="5" t="e"/>
+      <c r="H56" s="7" t="n">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="57" ht="11" customHeight="true">
+      <c r="A57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" s="3" t="e"/>
+      <c r="F57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="5" t="e"/>
+      <c r="H57" s="7" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="58" ht="22" customHeight="true">
+      <c r="A58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E58" s="4" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="5" t="e"/>
+      <c r="H58" s="7" t="n">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="59" ht="11" customHeight="true">
+      <c r="A59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E59" s="3" t="e"/>
+      <c r="F59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="5" t="e"/>
+      <c r="H59" s="7" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="60" ht="22" customHeight="true">
+      <c r="A60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>4844.78</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="5" t="e"/>
+      <c r="H60" s="6" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="61" ht="22" customHeight="true">
+      <c r="A61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E61" s="3" t="e"/>
+      <c r="F61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="5" t="e"/>
+      <c r="H61" s="7" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="62" ht="11" customHeight="true">
+      <c r="A62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" s="9" t="e"/>
+      <c r="F62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="5" t="e"/>
+      <c r="H62" s="7" t="n">
+        <v>1084000</v>
+      </c>
+    </row>
+    <row r="63" ht="22" customHeight="true">
+      <c r="A63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E63" s="4" t="n">
+        <v>239.32</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="5" t="e"/>
+      <c r="H63" s="6" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="64" ht="11" customHeight="true">
+      <c r="A64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E64" s="4" t="n">
+        <v>541.88</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="5" t="e"/>
+      <c r="H64" s="6" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" ht="11" customHeight="true">
+      <c r="A65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E65" s="3" t="e"/>
+      <c r="F65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="5" t="e"/>
+      <c r="H65" s="7" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="66" ht="22" customHeight="true">
+      <c r="A66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E66" s="4" t="n">
+        <v>417.95</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="5" t="e"/>
+      <c r="H66" s="7" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="67" ht="22" customHeight="true">
+      <c r="A67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E67" s="3" t="e"/>
+      <c r="F67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="5" t="e"/>
+      <c r="H67" s="7" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="68" ht="22" customHeight="true">
+      <c r="A68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E68" s="3" t="e"/>
+      <c r="F68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="5" t="e"/>
+      <c r="H68" s="7" t="n">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/data/В пути АЛМ.xlsx
+++ b/data/В пути АЛМ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
   <si>
     <t>Дата</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>06.02.2024 0:00:00</t>
+    <t>09.02.2024 0:00:00</t>
   </si>
   <si>
     <t>Алматы в Пути</t>
@@ -64,6 +64,18 @@
     <t>Нет</t>
   </si>
   <si>
+    <t>101228</t>
+  </si>
+  <si>
+    <t>Коробка для пиццы 330х330х40 мм, бел., микрогофрокарт.Т-11 Е, 50 шт/кор (OOO КТК)</t>
+  </si>
+  <si>
+    <t>100024</t>
+  </si>
+  <si>
+    <t>Коробка для пиццы 300х300х40 мм, бел., микрогофрокарт.Т-11 Е, 50 шт/кор (OOO КТК)</t>
+  </si>
+  <si>
     <t>100028</t>
   </si>
   <si>
@@ -76,12 +88,30 @@
     <t>Салфетки 250х250 мм 1-сл., бел., бум., 100 шт/упак (ИП Головкин С.В.)</t>
   </si>
   <si>
+    <t>345021</t>
+  </si>
+  <si>
+    <t>Вилочка для канапе 110 мм, цвет в ассорт., ПС, 250 шт/упак (ООО РТС)</t>
+  </si>
+  <si>
     <t>279508</t>
   </si>
   <si>
     <t>Чековая лента 57мм х 25м, d12 мм, бел., термобум. "Честный чек"</t>
   </si>
   <si>
+    <t>105654</t>
+  </si>
+  <si>
+    <t>Чековая лента 80мм х 60м, d12 мм, бел., термобум. (ООО НБК Трейд)</t>
+  </si>
+  <si>
+    <t>107157</t>
+  </si>
+  <si>
+    <t>Чековая лента 57мм х 27м, d12 мм, бел., термобум. (ООО НБК Трейд)</t>
+  </si>
+  <si>
     <t>461300</t>
   </si>
   <si>
@@ -94,18 +124,54 @@
     <t>Салфетка из вискозы 300х340 мм, 80 гр/м2, цвет в ассорт., 3 шт/упак "Чисто-Солнышко"</t>
   </si>
   <si>
+    <t>591810</t>
+  </si>
+  <si>
+    <t>Поддон 120х80х15 см "подЕВРО", без клейма (ООО ПаллетТрейд)</t>
+  </si>
+  <si>
+    <t>101032</t>
+  </si>
+  <si>
+    <t>Зубочистки 65 мм в инд. бум. упаковке, бамбук, 1000 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
     <t>101332</t>
   </si>
   <si>
     <t>Полотно холстопрошивное 800мм х 50м Стандарт, 180 гр/м2, бел. (ООО Намтекс)</t>
   </si>
   <si>
+    <t>847281</t>
+  </si>
+  <si>
+    <t>Средство для мытья пароконвектоматов "Pro-Brite" Strong, концентрат, канистра, 5000 мл</t>
+  </si>
+  <si>
+    <t>103089</t>
+  </si>
+  <si>
+    <t>Средство для очистки кухонного оборудования щелочное "Pro-Brite" Amol, концентрат, триггер, 500 мл</t>
+  </si>
+  <si>
+    <t>101694</t>
+  </si>
+  <si>
+    <t>Мыло кусковое хозяйственное "Калужский блеск" 72%, 200 г</t>
+  </si>
+  <si>
     <t>101947</t>
   </si>
   <si>
     <t>Клейкая лента 48мм х 120м, 40 мкм, прозр., 6 рул/упак "Фрегат"</t>
   </si>
   <si>
+    <t>100281</t>
+  </si>
+  <si>
+    <t>Средство для очистки сантехники "Pro-Brite" Super Dolphy, изогнутое горло, 750 мл</t>
+  </si>
+  <si>
     <t>107441</t>
   </si>
   <si>
@@ -166,6 +232,24 @@
     <t>Вилка одноразовая 165 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
   </si>
   <si>
+    <t>103508</t>
+  </si>
+  <si>
+    <t>Вилка одноразовая 165 мм, желт., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>141080</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая 165 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>143080</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая 125 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
     <t>103535</t>
   </si>
   <si>
@@ -214,18 +298,72 @@
     <t>Тарелка одноразовая глубокая 475 мл, d153 мм, бел., ПП, 50 шт/упак "МИСТЕРИЯ"</t>
   </si>
   <si>
+    <t>296215</t>
+  </si>
+  <si>
+    <t>Контейнер для пресервов 360 мл, d112хh55 мм, форма "Банка", крышка в компл., прозр., ПП, 216 шт/кор </t>
+  </si>
+  <si>
+    <t>150497</t>
+  </si>
+  <si>
+    <t>Контейнер 125 мл 1-секц. 108х82х25 мм, серия 108, без крышки, прозр., ПП, 100 шт/упак (ООО Алькор)</t>
+  </si>
+  <si>
+    <t>104309</t>
+  </si>
+  <si>
+    <t>Контейнер 250 мл 1-секц. 124,5х124,5х38,4 мм, без крышки, черн., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>154226</t>
+  </si>
+  <si>
+    <t>Контейнер 750 мл 1-секц. d194хh54,6 мм, без крышки, черн., ПЭТ, 75 шт/упак "ПолиЭр"</t>
+  </si>
+  <si>
     <t>154625</t>
   </si>
   <si>
     <t>Контейнер 500 мл 1-секц. 108х82х106 мм, серия 108, без крышки, прозр., ПП, 100 шт/упак "Upax-Unity"</t>
   </si>
   <si>
+    <t>107209</t>
+  </si>
+  <si>
+    <t>Контейнер 700 мл 1-секц. 230х170х37 мм, без крышки, черн., ПП, 50 шт/упак "ПолиЭр"</t>
+  </si>
+  <si>
+    <t>158229</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру d194хh40,5 мм, прозр., ПЭТ, 75 шт/упак "ПолиЭр"</t>
+  </si>
+  <si>
+    <t>102915</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру купол. 230х170х22,5 мм, прозр., ПП, 50 шт/упак "ПолиЭр"</t>
+  </si>
+  <si>
     <t>159474</t>
   </si>
   <si>
     <t>Крышка к контейнеру 124,5х124,5х13,1 мм, прозр., ПЭТ, 25 шт/упак "Upax-Unity"</t>
   </si>
   <si>
+    <t>159487</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру d99хh13,3 мм, прозр., ПЭТ, 50 шт/упак "ПолиЭр"</t>
+  </si>
+  <si>
+    <t>159497</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 108х82х8 мм, прозр., ПП, 100 шт/упак (ООО Алькор)</t>
+  </si>
+  <si>
     <t>159625</t>
   </si>
   <si>
@@ -238,12 +376,30 @@
     <t>Комплект столовых приборов №1 [вил. Кристалл 180 мм, черн., ПС], 300 шт/кор (ООО ВЗЛП)</t>
   </si>
   <si>
+    <t>501110</t>
+  </si>
+  <si>
+    <t>Комплект столовых приборов №1 [лож.ст. Кристалл 180 мм, черн., ПС], 300 шт/кор (ООО ВЗЛП)</t>
+  </si>
+  <si>
     <t>263153</t>
   </si>
   <si>
     <t>Упаковка для кондит. изделий 1480 мл, 1-секц. 212х137х67[200х124х61] мм, неразъем.крышка, прозр., ОП</t>
   </si>
   <si>
+    <t>106360</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру купол. 114х114х56 мм, прозр., ПЭТ, 50 шт/упак "OSQ" LidSmartPack 300</t>
+  </si>
+  <si>
+    <t>106367</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру купол. 142х142х56 мм, прозр., ПЭТ, 450 шт/кор "OSQ" LidSmartPack 550</t>
+  </si>
+  <si>
     <t>187400</t>
   </si>
   <si>
@@ -256,6 +412,18 @@
     <t>Капхолдер [манжета] 270х55 мм, крафт, карт., 50 шт/упак (ООО ПК Растр)</t>
   </si>
   <si>
+    <t>104409</t>
+  </si>
+  <si>
+    <t>Контейнер 300 мл, 100х100х49 мм, без окна, без крышки, крафт, карт., 50 шт/упак "OSQ Eco SmartPack</t>
+  </si>
+  <si>
+    <t>191230</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d225 мм, бел., сах. тростник, 50 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
     <t>106268</t>
   </si>
   <si>
@@ -268,18 +436,78 @@
     <t>Ложка одноразовая 165 мм, красн., ПС, 12 шт/упак "МИСТЕРИЯ"</t>
   </si>
   <si>
+    <t>345044</t>
+  </si>
+  <si>
+    <t>Размешиватель 140 мм, древ. волокно, 500 шт/упак (ООО Компания Лемио)</t>
+  </si>
+  <si>
+    <t>591288</t>
+  </si>
+  <si>
+    <t>Форма для фуршетов 200 мл 80х80х60 мм, диз. "Средняя Пагода", прозр., ПС, 12 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>183210</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d210 мм, желт., ПС, 12 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
     <t>191609</t>
   </si>
   <si>
     <t>Коробка для бургера [бургербокс] 152х152х80 мм, бел., сах.тростник, 50 шт/упак "GREEN MYSTERY"</t>
   </si>
   <si>
+    <t>191610</t>
+  </si>
+  <si>
+    <t>Коробка для бургера [бургербокс] 154х152х88 мм, бел., сах.тростник, 50 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>224128</t>
+  </si>
+  <si>
+    <t>Пакет Zip-Lock 50х70 мм, прозр., ПВД, 100 шт/упак (T.Z.W.P.)</t>
+  </si>
+  <si>
+    <t>224157</t>
+  </si>
+  <si>
+    <t>Пакет Zip-Lock 60х80 мм, прозр., ПВД, 100 шт/упак (T.Z.W.P.)</t>
+  </si>
+  <si>
     <t>224245</t>
   </si>
   <si>
     <t>Пакет Zip-Lock 80х120 мм, прозр., ПВД, 100 шт/упак (T.Z.W.P.)</t>
   </si>
   <si>
+    <t>224424</t>
+  </si>
+  <si>
+    <t>Пакет Zip-Lock 120х170 мм, прозр., ПВД, 100 шт/упак (T.Z.W.P.)</t>
+  </si>
+  <si>
+    <t>111453</t>
+  </si>
+  <si>
+    <t>Коробка для картофеля фри 126х50х135 мм, L, крафт, карт., 50 шт/упак "OSQ" Eco Fry</t>
+  </si>
+  <si>
+    <t>111577</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 220х140х13,5 мм, прозр., ПЭТ 400 шт/кор "OSQ" OpSalad 800</t>
+  </si>
+  <si>
+    <t>111580</t>
+  </si>
+  <si>
+    <t>Коробка для кондит. изделий 180х110х55 мм, с окном, неразъем.крышка, крафт-бел., карт., 50 шт/упак "</t>
+  </si>
+  <si>
     <t>111613</t>
   </si>
   <si>
@@ -292,18 +520,78 @@
     <t>Мешок для мусора 60 л, 68х58 см, 10 мкм, зел., ПНД, 20 шт/рул "VitaLux"</t>
   </si>
   <si>
+    <t>111875</t>
+  </si>
+  <si>
+    <t>Контейнер 800 мл, 209х127х55 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
+  </si>
+  <si>
+    <t>111884</t>
+  </si>
+  <si>
+    <t>Крышка для формы алюм. 140х115 мм, карт.фольг., 100 шт/упак (ООО Ламкарт)</t>
+  </si>
+  <si>
+    <t>112141</t>
+  </si>
+  <si>
+    <t>Пакет пищевой [110+40]х155 мм без руч., без окна, бел., бум., 25000 шт/кор (ООО Демарт)</t>
+  </si>
+  <si>
+    <t>112306</t>
+  </si>
+  <si>
+    <t>Пакет вакуум. 200х300 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
+  </si>
+  <si>
     <t>112308</t>
   </si>
   <si>
     <t>Пакет вакуум. 160х250 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
   </si>
   <si>
+    <t>112340</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 175х130х13,5 мм, прозр., ПЭТ 50 шт/упак "OSQ" OpSalad 500</t>
+  </si>
+  <si>
+    <t>112341</t>
+  </si>
+  <si>
+    <t>Контейнер 500 мл, 164х115х45 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
+  </si>
+  <si>
+    <t>112619</t>
+  </si>
+  <si>
+    <t>Коробка для торта 180х180х100 мм, с окном, неразъем.крышка, без руч., бел., карт., 120 шт/кор "Forge</t>
+  </si>
+  <si>
+    <t>112638</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру купол. d150хh38 мм, прозр., ПЭТ, 45 шт/упак "OSQ" Round Bowl dome lid</t>
+  </si>
+  <si>
     <t>112713</t>
   </si>
   <si>
     <t>Размешиватель 180 мм, древ. волокно, 1000 шт/упак (ООО Компания Лемио)</t>
   </si>
   <si>
+    <t>113104</t>
+  </si>
+  <si>
+    <t>Упаковка 240х240х100 мм, бел., карт., 15 шт/упак "Forgenika" Cake Roll II Window White</t>
+  </si>
+  <si>
+    <t>113289</t>
+  </si>
+  <si>
+    <t>Чековая лента 80мм х 80м, d12 мм, бел., термобум. "Честный чек"</t>
+  </si>
+  <si>
     <t>113354</t>
   </si>
   <si>
@@ -406,6 +694,18 @@
     <t>Размешиватель 140 мм, инд. упак., бамбук, 250 шт/упак "GREEN MYSTERY"</t>
   </si>
   <si>
+    <t>114019</t>
+  </si>
+  <si>
+    <t>Держатель для стаканов 2 яч. 90х180х50 мм, крафт-бел., карт., 450 шт/кор "OSQ" Eco CupHolder double</t>
+  </si>
+  <si>
+    <t>114028</t>
+  </si>
+  <si>
+    <t>Мешок кондитерский в рулоне 1-сл., 53 см, 90 мкм, прозр., ПЭ, 100 шт/рул (ООО Компания Лемио)</t>
+  </si>
+  <si>
     <t>114166</t>
   </si>
   <si>
@@ -424,6 +724,36 @@
     <t>Стакан бумажный 185 мл 1 сл., d73 мм, бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
   </si>
   <si>
+    <t>114506</t>
+  </si>
+  <si>
+    <t>Коробка для бургера [бургербокс] 120х120х70 мм, L, крафт-бел., карт., 60 шт/упак "OSQ"</t>
+  </si>
+  <si>
+    <t>114508</t>
+  </si>
+  <si>
+    <t>Упаковка [коробка] для сэндвичей 130х130х40 мм, с окном, неразъем.крышка, крафт-бел., карт., 50 шт/у</t>
+  </si>
+  <si>
+    <t>114509</t>
+  </si>
+  <si>
+    <t>Контейнер 1000 мл, 200х120х40 мм, с окном, неразъем.крышка, крафт-бел., карт., 25 шт/упак "OSQ" Eco </t>
+  </si>
+  <si>
+    <t>114514</t>
+  </si>
+  <si>
+    <t>Контейнер 1555 мл, 200х200х55 мм, с окном, неразъем.крышка, крафт-бел., карт., 25 шт/упак "OSQ" Eco </t>
+  </si>
+  <si>
+    <t>114531</t>
+  </si>
+  <si>
+    <t>Губка поролоновая для посуды 110х80х30 мм XXXL, цвет в ассорт., 10 шт/упак (ООО ПФ Прайд)</t>
+  </si>
+  <si>
     <t>114700</t>
   </si>
   <si>
@@ -442,6 +772,18 @@
     <t>Пакет [240+140]х280 мм с круч. ручками, крафт, бум., 250 шт/кор (ООО Кировпейпер)</t>
   </si>
   <si>
+    <t>114851</t>
+  </si>
+  <si>
+    <t>Контейнер 1500 мл, 200х200х45 мм, с окном, неразъем.крышка, крафт-бел., карт., 25 шт/упак "OSQ" Eco </t>
+  </si>
+  <si>
+    <t>114852</t>
+  </si>
+  <si>
+    <t>Контейнер 550 мл, 130х130х49 мм, без окна, без крышки, бел, карт., 50 шт/упак "OSQ" Eco SmartPack</t>
+  </si>
+  <si>
     <t>114977</t>
   </si>
   <si>
@@ -458,6 +800,18 @@
   </si>
   <si>
     <t>Стакан бумажный 250 мл 2 сл., d80 мм, диз. "Big City Life", карт., 20 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>115692</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d180 мм, бел., карт, 100 шт/упак "OSQ" Plate 180 WB</t>
+  </si>
+  <si>
+    <t>115693</t>
+  </si>
+  <si>
+    <t>Подложка d240 мм 0,8 мм, золот.-сереб., карт. фольг., 100 шт/упак "Pasticciere"</t>
   </si>
 </sst>
 </file>
@@ -598,7 +952,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H68"/>
+  <dimension ref="H127"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -611,7 +965,7 @@
     <col min="5" max="5" width="11.66796875" style="1" customWidth="true"/>
     <col min="6" max="6" width="17.83203125" style="1" customWidth="true"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="true"/>
-    <col min="8" max="8" width="12.83203125" style="1" customWidth="true"/>
+    <col min="8" max="8" width="10.5" style="1" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="38" customHeight="true">
@@ -678,17 +1032,17 @@
         <v>14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>72.78</v>
+        <v>74.67</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="5" t="e"/>
       <c r="H3" s="7" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="4" ht="11" customHeight="true">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" ht="22" customHeight="true">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -702,17 +1056,17 @@
         <v>16</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>92.85</v>
+        <v>66.45</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="5" t="e"/>
-      <c r="H4" s="7" t="n">
-        <v>4032</v>
-      </c>
-    </row>
-    <row r="5" ht="11" customHeight="true">
+      <c r="H4" s="6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" ht="22" customHeight="true">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -726,17 +1080,17 @@
         <v>18</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>86.56</v>
+        <v>72.78</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="5" t="e"/>
       <c r="H5" s="7" t="n">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="6" ht="22" customHeight="true">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" ht="11" customHeight="true">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -750,17 +1104,17 @@
         <v>20</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>276.99</v>
+        <v>92.85</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="5" t="e"/>
-      <c r="H6" s="6" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" ht="22" customHeight="true">
+      <c r="H6" s="7" t="n">
+        <v>12432</v>
+      </c>
+    </row>
+    <row r="7" ht="11" customHeight="true">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -774,14 +1128,14 @@
         <v>22</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>128.33</v>
+        <v>640.58</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="5" t="e"/>
-      <c r="H7" s="6" t="n">
-        <v>250</v>
+      <c r="H7" s="7" t="n">
+        <v>1605</v>
       </c>
     </row>
     <row r="8" ht="11" customHeight="true">
@@ -797,15 +1151,15 @@
       <c r="D8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="8" t="n">
-        <v>6504.69</v>
+      <c r="E8" s="4" t="n">
+        <v>86.56</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="5" t="e"/>
-      <c r="H8" s="6" t="n">
-        <v>6</v>
+      <c r="H8" s="7" t="n">
+        <v>1080</v>
       </c>
     </row>
     <row r="9" ht="11" customHeight="true">
@@ -822,17 +1176,17 @@
         <v>26</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>246.62</v>
+        <v>243.28</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="5" t="e"/>
-      <c r="H9" s="6" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" ht="22" customHeight="true">
+      <c r="H9" s="7" t="n">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="10" ht="11" customHeight="true">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -846,14 +1200,14 @@
         <v>28</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>6.3</v>
+        <v>95.47</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="5" t="e"/>
-      <c r="H10" s="7" t="n">
-        <v>41000</v>
+      <c r="H10" s="6" t="n">
+        <v>464</v>
       </c>
     </row>
     <row r="11" ht="22" customHeight="true">
@@ -870,17 +1224,17 @@
         <v>30</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>5.77</v>
+        <v>276.99</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="5" t="e"/>
-      <c r="H11" s="7" t="n">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="12" ht="11" customHeight="true">
+      <c r="H11" s="6" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" ht="22" customHeight="true">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -894,14 +1248,14 @@
         <v>32</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>20.65</v>
+        <v>128.33</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="5" t="e"/>
-      <c r="H12" s="7" t="n">
-        <v>5200</v>
+      <c r="H12" s="6" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="13" ht="11" customHeight="true">
@@ -917,18 +1271,18 @@
       <c r="D13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="4" t="n">
-        <v>12.11</v>
+      <c r="E13" s="8" t="n">
+        <v>1862</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="5" t="e"/>
-      <c r="H13" s="7" t="n">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="14" ht="22" customHeight="true">
+      <c r="H13" s="6" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" ht="11" customHeight="true">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -942,14 +1296,14 @@
         <v>36</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>8.62</v>
+        <v>230.54</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="e"/>
-      <c r="H14" s="7" t="n">
-        <v>20000</v>
+      <c r="H14" s="6" t="n">
+        <v>760</v>
       </c>
     </row>
     <row r="15" ht="11" customHeight="true">
@@ -965,18 +1319,18 @@
       <c r="D15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="4" t="n">
-        <v>2.36</v>
+      <c r="E15" s="8" t="n">
+        <v>6504.69</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="5" t="e"/>
-      <c r="H15" s="7" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="16" ht="11" customHeight="true">
+      <c r="H15" s="6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" ht="22" customHeight="true">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -989,18 +1343,18 @@
       <c r="D16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="4" t="n">
-        <v>3.02</v>
+      <c r="E16" s="8" t="n">
+        <v>5003.67</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="5" t="e"/>
-      <c r="H16" s="7" t="n">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="17" ht="11" customHeight="true">
+      <c r="H16" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" ht="22" customHeight="true">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1014,14 +1368,14 @@
         <v>42</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>2.96</v>
+        <v>898.12</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="5" t="e"/>
-      <c r="H17" s="7" t="n">
-        <v>36000</v>
+      <c r="H17" s="6" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="11" customHeight="true">
@@ -1038,14 +1392,14 @@
         <v>44</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>2.79</v>
+        <v>90.12</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="5" t="e"/>
-      <c r="H18" s="7" t="n">
-        <v>80000</v>
+      <c r="H18" s="6" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="19" ht="11" customHeight="true">
@@ -1062,14 +1416,14 @@
         <v>46</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>3.14</v>
+        <v>246.62</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="5" t="e"/>
-      <c r="H19" s="7" t="n">
-        <v>50000</v>
+      <c r="H19" s="6" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="20" ht="11" customHeight="true">
@@ -1086,17 +1440,17 @@
         <v>48</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>0.59</v>
+        <v>676.03</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="5" t="e"/>
-      <c r="H20" s="7" t="n">
-        <v>360000</v>
-      </c>
-    </row>
-    <row r="21" ht="11" customHeight="true">
+      <c r="H20" s="6" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" ht="22" customHeight="true">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1110,17 +1464,17 @@
         <v>50</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>9.06</v>
+        <v>6.3</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="5" t="e"/>
       <c r="H21" s="7" t="n">
-        <v>46800</v>
-      </c>
-    </row>
-    <row r="22" ht="11" customHeight="true">
+        <v>121000</v>
+      </c>
+    </row>
+    <row r="22" ht="22" customHeight="true">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1134,14 +1488,14 @@
         <v>52</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>6.98</v>
+        <v>5.77</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="5" t="e"/>
       <c r="H22" s="7" t="n">
-        <v>25600</v>
+        <v>41850</v>
       </c>
     </row>
     <row r="23" ht="11" customHeight="true">
@@ -1158,14 +1512,14 @@
         <v>54</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>7.91</v>
+        <v>20.65</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="5" t="e"/>
       <c r="H23" s="7" t="n">
-        <v>1200</v>
+        <v>10920</v>
       </c>
     </row>
     <row r="24" ht="11" customHeight="true">
@@ -1182,17 +1536,17 @@
         <v>56</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>7.91</v>
+        <v>12.11</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="5" t="e"/>
       <c r="H24" s="7" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="25" ht="11" customHeight="true">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="25" ht="22" customHeight="true">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
@@ -1206,14 +1560,14 @@
         <v>58</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>7.91</v>
+        <v>8.62</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="5" t="e"/>
       <c r="H25" s="7" t="n">
-        <v>1200</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="26" ht="11" customHeight="true">
@@ -1230,14 +1584,14 @@
         <v>60</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>7.91</v>
+        <v>2.36</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="5" t="e"/>
       <c r="H26" s="7" t="n">
-        <v>1200</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="27" ht="11" customHeight="true">
@@ -1254,17 +1608,17 @@
         <v>62</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>9.27</v>
+        <v>3.02</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="5" t="e"/>
       <c r="H27" s="7" t="n">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="28" ht="22" customHeight="true">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="28" ht="11" customHeight="true">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -1278,14 +1632,14 @@
         <v>64</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>8.45</v>
+        <v>2.96</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="5" t="e"/>
       <c r="H28" s="7" t="n">
-        <v>15000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="29" ht="11" customHeight="true">
@@ -1302,14 +1656,14 @@
         <v>66</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>7.86</v>
+        <v>2.79</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="5" t="e"/>
       <c r="H29" s="7" t="n">
-        <v>7000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="30" ht="11" customHeight="true">
@@ -1326,17 +1680,17 @@
         <v>68</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>3.75</v>
+        <v>3.14</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="5" t="e"/>
       <c r="H30" s="7" t="n">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="31" ht="22" customHeight="true">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="31" ht="11" customHeight="true">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
@@ -1350,17 +1704,17 @@
         <v>70</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>9.83</v>
+        <v>4.85</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="5" t="e"/>
       <c r="H31" s="7" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="32" ht="22" customHeight="true">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="32" ht="11" customHeight="true">
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
@@ -1374,17 +1728,17 @@
         <v>72</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>25.18</v>
+        <v>4.15</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="5" t="e"/>
       <c r="H32" s="7" t="n">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="33" ht="22" customHeight="true">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="33" ht="11" customHeight="true">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
@@ -1398,14 +1752,14 @@
         <v>74</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>167.8</v>
+        <v>2.02</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="5" t="e"/>
-      <c r="H33" s="6" t="n">
-        <v>100</v>
+      <c r="H33" s="7" t="n">
+        <v>36000</v>
       </c>
     </row>
     <row r="34" ht="11" customHeight="true">
@@ -1422,14 +1776,14 @@
         <v>76</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>5.37</v>
+        <v>0.59</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="5" t="e"/>
       <c r="H34" s="7" t="n">
-        <v>13500</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="35" ht="11" customHeight="true">
@@ -1445,13 +1799,15 @@
       <c r="D35" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="9" t="e"/>
+      <c r="E35" s="4" t="n">
+        <v>9.06</v>
+      </c>
       <c r="F35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="5" t="e"/>
       <c r="H35" s="7" t="n">
-        <v>3240</v>
+        <v>46800</v>
       </c>
     </row>
     <row r="36" ht="11" customHeight="true">
@@ -1467,16 +1823,18 @@
       <c r="D36" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="9" t="e"/>
+      <c r="E36" s="4" t="n">
+        <v>6.98</v>
+      </c>
       <c r="F36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="5" t="e"/>
       <c r="H36" s="7" t="n">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="37" ht="22" customHeight="true">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="37" ht="11" customHeight="true">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
@@ -1490,14 +1848,14 @@
         <v>82</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>23.17</v>
+        <v>7.91</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="5" t="e"/>
       <c r="H37" s="7" t="n">
-        <v>20000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="38" ht="11" customHeight="true">
@@ -1514,14 +1872,14 @@
         <v>84</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>101.39</v>
+        <v>7.91</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="5" t="e"/>
-      <c r="H38" s="6" t="n">
-        <v>281</v>
+      <c r="H38" s="7" t="n">
+        <v>1200</v>
       </c>
     </row>
     <row r="39" ht="11" customHeight="true">
@@ -1538,14 +1896,14 @@
         <v>86</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>33.17</v>
+        <v>7.91</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="5" t="e"/>
       <c r="H39" s="7" t="n">
-        <v>6000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="40" ht="11" customHeight="true">
@@ -1562,14 +1920,14 @@
         <v>88</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>247.93</v>
+        <v>7.91</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="5" t="e"/>
-      <c r="H40" s="6" t="n">
-        <v>160</v>
+      <c r="H40" s="7" t="n">
+        <v>1200</v>
       </c>
     </row>
     <row r="41" ht="11" customHeight="true">
@@ -1585,18 +1943,18 @@
       <c r="D41" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E41" s="8" t="n">
-        <v>1607.33</v>
+      <c r="E41" s="4" t="n">
+        <v>9.27</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="5" t="e"/>
-      <c r="H41" s="6" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" ht="11" customHeight="true">
+      <c r="H41" s="7" t="n">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="42" ht="22" customHeight="true">
       <c r="A42" s="3" t="s">
         <v>8</v>
       </c>
@@ -1610,17 +1968,17 @@
         <v>92</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1.31</v>
+        <v>29.32</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="5" t="e"/>
       <c r="H42" s="7" t="n">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="43" ht="11" customHeight="true">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="43" ht="22" customHeight="true">
       <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
@@ -1634,7 +1992,7 @@
         <v>94</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>8.55</v>
+        <v>4.41</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>12</v>
@@ -1644,7 +2002,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="44" ht="11" customHeight="true">
+    <row r="44" ht="22" customHeight="true">
       <c r="A44" s="3" t="s">
         <v>8</v>
       </c>
@@ -1658,17 +2016,17 @@
         <v>96</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>10.23</v>
+        <v>6.75</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="5" t="e"/>
       <c r="H44" s="7" t="n">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="45" ht="11" customHeight="true">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="45" ht="22" customHeight="true">
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1682,17 +2040,17 @@
         <v>98</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>16.52</v>
+        <v>30.72</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="5" t="e"/>
       <c r="H45" s="7" t="n">
-        <v>105000</v>
-      </c>
-    </row>
-    <row r="46" ht="11" customHeight="true">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="46" ht="22" customHeight="true">
       <c r="A46" s="3" t="s">
         <v>8</v>
       </c>
@@ -1706,14 +2064,14 @@
         <v>100</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>11.13</v>
+        <v>8.45</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="5" t="e"/>
       <c r="H46" s="7" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="47" ht="11" customHeight="true">
@@ -1730,14 +2088,14 @@
         <v>102</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>14.92</v>
+        <v>54.82</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="5" t="e"/>
       <c r="H47" s="7" t="n">
-        <v>49000</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="48" ht="11" customHeight="true">
@@ -1754,17 +2112,17 @@
         <v>104</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>20.14</v>
+        <v>30.44</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="5" t="e"/>
       <c r="H48" s="7" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="49" ht="22" customHeight="true">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="49" ht="11" customHeight="true">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
@@ -1778,17 +2136,17 @@
         <v>106</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>10.4</v>
+        <v>36.03</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="5" t="e"/>
       <c r="H49" s="7" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="50" ht="22" customHeight="true">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="50" ht="11" customHeight="true">
       <c r="A50" s="3" t="s">
         <v>8</v>
       </c>
@@ -1802,17 +2160,17 @@
         <v>108</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>18.29</v>
+        <v>7.86</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G50" s="5" t="e"/>
       <c r="H50" s="7" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="51" ht="22" customHeight="true">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="51" ht="11" customHeight="true">
       <c r="A51" s="3" t="s">
         <v>8</v>
       </c>
@@ -1826,17 +2184,17 @@
         <v>110</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>17.73</v>
+        <v>9.61</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G51" s="5" t="e"/>
       <c r="H51" s="7" t="n">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="52" ht="22" customHeight="true">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="52" ht="11" customHeight="true">
       <c r="A52" s="3" t="s">
         <v>8</v>
       </c>
@@ -1850,17 +2208,17 @@
         <v>112</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>11.13</v>
+        <v>3.88</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G52" s="5" t="e"/>
       <c r="H52" s="7" t="n">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="53" ht="22" customHeight="true">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="53" ht="11" customHeight="true">
       <c r="A53" s="3" t="s">
         <v>8</v>
       </c>
@@ -1874,14 +2232,14 @@
         <v>114</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>17.66</v>
+        <v>3.75</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G53" s="5" t="e"/>
       <c r="H53" s="7" t="n">
-        <v>39000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="54" ht="22" customHeight="true">
@@ -1898,14 +2256,14 @@
         <v>116</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>21.05</v>
+        <v>9.83</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G54" s="5" t="e"/>
       <c r="H54" s="7" t="n">
-        <v>5000</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="55" ht="22" customHeight="true">
@@ -1922,14 +2280,14 @@
         <v>118</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>26.66</v>
+        <v>10.56</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G55" s="5" t="e"/>
       <c r="H55" s="7" t="n">
-        <v>11200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="56" ht="22" customHeight="true">
@@ -1946,17 +2304,17 @@
         <v>120</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>34.57</v>
+        <v>25.18</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G56" s="5" t="e"/>
       <c r="H56" s="7" t="n">
-        <v>5040</v>
-      </c>
-    </row>
-    <row r="57" ht="11" customHeight="true">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="57" ht="22" customHeight="true">
       <c r="A57" s="3" t="s">
         <v>8</v>
       </c>
@@ -1969,13 +2327,15 @@
       <c r="D57" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E57" s="3" t="e"/>
+      <c r="E57" s="4" t="n">
+        <v>31.43</v>
+      </c>
       <c r="F57" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G57" s="5" t="e"/>
-      <c r="H57" s="7" t="n">
-        <v>20000</v>
+      <c r="H57" s="6" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="58" ht="22" customHeight="true">
@@ -1991,18 +2351,16 @@
       <c r="D58" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E58" s="4" t="n">
-        <v>35.08</v>
-      </c>
+      <c r="E58" s="3" t="e"/>
       <c r="F58" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G58" s="5" t="e"/>
-      <c r="H58" s="7" t="n">
-        <v>5040</v>
-      </c>
-    </row>
-    <row r="59" ht="11" customHeight="true">
+      <c r="H58" s="6" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="59" ht="22" customHeight="true">
       <c r="A59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2015,16 +2373,18 @@
       <c r="D59" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E59" s="3" t="e"/>
+      <c r="E59" s="4" t="n">
+        <v>167.8</v>
+      </c>
       <c r="F59" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G59" s="5" t="e"/>
-      <c r="H59" s="7" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="60" ht="22" customHeight="true">
+      <c r="H59" s="6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" ht="11" customHeight="true">
       <c r="A60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2037,15 +2397,15 @@
       <c r="D60" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E60" s="8" t="n">
-        <v>4844.78</v>
+      <c r="E60" s="4" t="n">
+        <v>5.37</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G60" s="5" t="e"/>
-      <c r="H60" s="6" t="n">
-        <v>292</v>
+      <c r="H60" s="7" t="n">
+        <v>13500</v>
       </c>
     </row>
     <row r="61" ht="22" customHeight="true">
@@ -2061,16 +2421,18 @@
       <c r="D61" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E61" s="3" t="e"/>
+      <c r="E61" s="4" t="n">
+        <v>32.9</v>
+      </c>
       <c r="F61" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G61" s="5" t="e"/>
-      <c r="H61" s="7" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="62" ht="11" customHeight="true">
+      <c r="H61" s="6" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="62" ht="22" customHeight="true">
       <c r="A62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2083,16 +2445,18 @@
       <c r="D62" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E62" s="9" t="e"/>
+      <c r="E62" s="4" t="n">
+        <v>27.34</v>
+      </c>
       <c r="F62" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G62" s="5" t="e"/>
       <c r="H62" s="7" t="n">
-        <v>1084000</v>
-      </c>
-    </row>
-    <row r="63" ht="22" customHeight="true">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="63" ht="11" customHeight="true">
       <c r="A63" s="3" t="s">
         <v>8</v>
       </c>
@@ -2105,15 +2469,13 @@
       <c r="D63" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E63" s="4" t="n">
-        <v>239.32</v>
-      </c>
+      <c r="E63" s="9" t="e"/>
       <c r="F63" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G63" s="5" t="e"/>
-      <c r="H63" s="6" t="n">
-        <v>280</v>
+      <c r="H63" s="7" t="n">
+        <v>3240</v>
       </c>
     </row>
     <row r="64" ht="11" customHeight="true">
@@ -2129,15 +2491,13 @@
       <c r="D64" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E64" s="4" t="n">
-        <v>541.88</v>
-      </c>
+      <c r="E64" s="9" t="e"/>
       <c r="F64" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G64" s="5" t="e"/>
-      <c r="H64" s="6" t="n">
-        <v>300</v>
+      <c r="H64" s="7" t="n">
+        <v>3240</v>
       </c>
     </row>
     <row r="65" ht="11" customHeight="true">
@@ -2153,13 +2513,15 @@
       <c r="D65" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E65" s="3" t="e"/>
+      <c r="E65" s="4" t="n">
+        <v>1.13</v>
+      </c>
       <c r="F65" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G65" s="5" t="e"/>
       <c r="H65" s="7" t="n">
-        <v>6000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="66" ht="22" customHeight="true">
@@ -2175,18 +2537,16 @@
       <c r="D66" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E66" s="4" t="n">
-        <v>417.95</v>
-      </c>
+      <c r="E66" s="3" t="e"/>
       <c r="F66" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G66" s="5" t="e"/>
       <c r="H66" s="7" t="n">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="67" ht="22" customHeight="true">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="67" ht="11" customHeight="true">
       <c r="A67" s="3" t="s">
         <v>8</v>
       </c>
@@ -2199,13 +2559,15 @@
       <c r="D67" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E67" s="3" t="e"/>
+      <c r="E67" s="4" t="n">
+        <v>7.87</v>
+      </c>
       <c r="F67" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G67" s="5" t="e"/>
       <c r="H67" s="7" t="n">
-        <v>2400</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="68" ht="22" customHeight="true">
@@ -2221,13 +2583,1413 @@
       <c r="D68" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E68" s="3" t="e"/>
+      <c r="E68" s="4" t="n">
+        <v>23.17</v>
+      </c>
       <c r="F68" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G68" s="5" t="e"/>
       <c r="H68" s="7" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="69" ht="22" customHeight="true">
+      <c r="A69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E69" s="4" t="n">
+        <v>27.49</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="5" t="e"/>
+      <c r="H69" s="7" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="70" ht="11" customHeight="true">
+      <c r="A70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E70" s="4" t="n">
+        <v>41.77</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="5" t="e"/>
+      <c r="H70" s="6" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="71" ht="11" customHeight="true">
+      <c r="A71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E71" s="4" t="n">
+        <v>53.94</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="5" t="e"/>
+      <c r="H71" s="7" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="72" ht="11" customHeight="true">
+      <c r="A72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E72" s="4" t="n">
+        <v>101.39</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="5" t="e"/>
+      <c r="H72" s="6" t="n">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="73" ht="11" customHeight="true">
+      <c r="A73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E73" s="4" t="n">
+        <v>204.91</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="5" t="e"/>
+      <c r="H73" s="6" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74" ht="11" customHeight="true">
+      <c r="A74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E74" s="4" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="5" t="e"/>
+      <c r="H74" s="7" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="75" ht="11" customHeight="true">
+      <c r="A75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E75" s="4" t="n">
+        <v>29.68</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="5" t="e"/>
+      <c r="H75" s="7" t="n">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="76" ht="22" customHeight="true">
+      <c r="A76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E76" s="4" t="n">
+        <v>62.99</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="5" t="e"/>
+      <c r="H76" s="7" t="n">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="77" ht="11" customHeight="true">
+      <c r="A77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E77" s="4" t="n">
+        <v>33.17</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="5" t="e"/>
+      <c r="H77" s="7" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="78" ht="11" customHeight="true">
+      <c r="A78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E78" s="4" t="n">
+        <v>247.93</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="5" t="e"/>
+      <c r="H78" s="6" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" ht="22" customHeight="true">
+      <c r="A79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E79" s="4" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="5" t="e"/>
+      <c r="H79" s="7" t="n">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="80" ht="11" customHeight="true">
+      <c r="A80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E80" s="4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="5" t="e"/>
+      <c r="H80" s="7" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="81" ht="22" customHeight="true">
+      <c r="A81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E81" s="4" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="5" t="e"/>
+      <c r="H81" s="7" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="82" ht="11" customHeight="true">
+      <c r="A82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E82" s="8" t="n">
+        <v>2419.73</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="5" t="e"/>
+      <c r="H82" s="6" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" ht="11" customHeight="true">
+      <c r="A83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E83" s="8" t="n">
+        <v>1607.33</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="5" t="e"/>
+      <c r="H83" s="6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" ht="11" customHeight="true">
+      <c r="A84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E84" s="4" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="5" t="e"/>
+      <c r="H84" s="7" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="85" ht="22" customHeight="true">
+      <c r="A85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E85" s="4" t="n">
+        <v>19.96</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="5" t="e"/>
+      <c r="H85" s="7" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="86" ht="22" customHeight="true">
+      <c r="A86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E86" s="4" t="n">
+        <v>169.33</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="5" t="e"/>
+      <c r="H86" s="7" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="87" ht="22" customHeight="true">
+      <c r="A87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E87" s="4" t="n">
+        <v>159.42</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="5" t="e"/>
+      <c r="H87" s="7" t="n">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="88" ht="11" customHeight="true">
+      <c r="A88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E88" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="5" t="e"/>
+      <c r="H88" s="7" t="n">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="89" ht="11" customHeight="true">
+      <c r="A89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E89" s="4" t="n">
+        <v>213.11</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="5" t="e"/>
+      <c r="H89" s="6" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="90" ht="11" customHeight="true">
+      <c r="A90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E90" s="4" t="n">
+        <v>412.05</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="5" t="e"/>
+      <c r="H90" s="6" t="n">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="91" ht="11" customHeight="true">
+      <c r="A91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E91" s="4" t="n">
+        <v>8.55</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="5" t="e"/>
+      <c r="H91" s="7" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="92" ht="11" customHeight="true">
+      <c r="A92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E92" s="4" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="5" t="e"/>
+      <c r="H92" s="7" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="93" ht="11" customHeight="true">
+      <c r="A93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E93" s="4" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="5" t="e"/>
+      <c r="H93" s="7" t="n">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="94" ht="11" customHeight="true">
+      <c r="A94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E94" s="4" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="5" t="e"/>
+      <c r="H94" s="7" t="n">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="95" ht="11" customHeight="true">
+      <c r="A95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E95" s="4" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" s="5" t="e"/>
+      <c r="H95" s="7" t="n">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="96" ht="11" customHeight="true">
+      <c r="A96" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E96" s="4" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" s="5" t="e"/>
+      <c r="H96" s="7" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="97" ht="22" customHeight="true">
+      <c r="A97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E97" s="4" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="5" t="e"/>
+      <c r="H97" s="7" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="98" ht="22" customHeight="true">
+      <c r="A98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E98" s="4" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="5" t="e"/>
+      <c r="H98" s="7" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="99" ht="22" customHeight="true">
+      <c r="A99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E99" s="4" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="5" t="e"/>
+      <c r="H99" s="7" t="n">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="100" ht="22" customHeight="true">
+      <c r="A100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E100" s="4" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="5" t="e"/>
+      <c r="H100" s="7" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="101" ht="22" customHeight="true">
+      <c r="A101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E101" s="4" t="n">
+        <v>17.66</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" s="5" t="e"/>
+      <c r="H101" s="7" t="n">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="102" ht="22" customHeight="true">
+      <c r="A102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E102" s="4" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="5" t="e"/>
+      <c r="H102" s="7" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="103" ht="22" customHeight="true">
+      <c r="A103" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E103" s="4" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="5" t="e"/>
+      <c r="H103" s="7" t="n">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="104" ht="22" customHeight="true">
+      <c r="A104" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E104" s="4" t="n">
+        <v>34.57</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" s="5" t="e"/>
+      <c r="H104" s="7" t="n">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="105" ht="11" customHeight="true">
+      <c r="A105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E105" s="3" t="e"/>
+      <c r="F105" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" s="5" t="e"/>
+      <c r="H105" s="7" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="106" ht="22" customHeight="true">
+      <c r="A106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E106" s="4" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" s="5" t="e"/>
+      <c r="H106" s="7" t="n">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="107" ht="11" customHeight="true">
+      <c r="A107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E107" s="3" t="e"/>
+      <c r="F107" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="5" t="e"/>
+      <c r="H107" s="7" t="n">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="108" ht="22" customHeight="true">
+      <c r="A108" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E108" s="4" t="n">
+        <v>20.02</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="5" t="e"/>
+      <c r="H108" s="7" t="n">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="109" ht="22" customHeight="true">
+      <c r="A109" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E109" s="8" t="n">
+        <v>3038.81</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" s="5" t="e"/>
+      <c r="H109" s="6" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" ht="22" customHeight="true">
+      <c r="A110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E110" s="8" t="n">
+        <v>4844.78</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="5" t="e"/>
+      <c r="H110" s="6" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="111" ht="22" customHeight="true">
+      <c r="A111" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E111" s="3" t="e"/>
+      <c r="F111" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="5" t="e"/>
+      <c r="H111" s="7" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="112" ht="11" customHeight="true">
+      <c r="A112" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E112" s="9" t="e"/>
+      <c r="F112" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" s="5" t="e"/>
+      <c r="H112" s="7" t="n">
+        <v>1084000</v>
+      </c>
+    </row>
+    <row r="113" ht="22" customHeight="true">
+      <c r="A113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E113" s="4" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="5" t="e"/>
+      <c r="H113" s="7" t="n">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="114" ht="22" customHeight="true">
+      <c r="A114" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E114" s="4" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="5" t="e"/>
+      <c r="H114" s="7" t="n">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="115" ht="22" customHeight="true">
+      <c r="A115" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E115" s="4" t="n">
+        <v>44.57</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="5" t="e"/>
+      <c r="H115" s="7" t="n">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="116" ht="22" customHeight="true">
+      <c r="A116" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E116" s="4" t="n">
+        <v>76.68</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" s="5" t="e"/>
+      <c r="H116" s="7" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="117" ht="22" customHeight="true">
+      <c r="A117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E117" s="4" t="n">
+        <v>287.68</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" s="5" t="e"/>
+      <c r="H117" s="6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" ht="22" customHeight="true">
+      <c r="A118" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E118" s="4" t="n">
+        <v>239.32</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="5" t="e"/>
+      <c r="H118" s="6" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="119" ht="11" customHeight="true">
+      <c r="A119" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E119" s="4" t="n">
+        <v>541.88</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" s="5" t="e"/>
+      <c r="H119" s="6" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="120" ht="11" customHeight="true">
+      <c r="A120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E120" s="3" t="e"/>
+      <c r="F120" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" s="5" t="e"/>
+      <c r="H120" s="7" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="121" ht="22" customHeight="true">
+      <c r="A121" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E121" s="4" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" s="5" t="e"/>
+      <c r="H121" s="7" t="n">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="122" ht="22" customHeight="true">
+      <c r="A122" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E122" s="4" t="n">
+        <v>39.46</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" s="5" t="e"/>
+      <c r="H122" s="6" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="123" ht="22" customHeight="true">
+      <c r="A123" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E123" s="4" t="n">
+        <v>417.95</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" s="5" t="e"/>
+      <c r="H123" s="7" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="124" ht="22" customHeight="true">
+      <c r="A124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E124" s="3" t="e"/>
+      <c r="F124" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" s="5" t="e"/>
+      <c r="H124" s="7" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="125" ht="22" customHeight="true">
+      <c r="A125" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E125" s="3" t="e"/>
+      <c r="F125" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" s="5" t="e"/>
+      <c r="H125" s="7" t="n">
         <v>2000</v>
+      </c>
+    </row>
+    <row r="126" ht="11" customHeight="true">
+      <c r="A126" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E126" s="3" t="e"/>
+      <c r="F126" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" s="5" t="e"/>
+      <c r="H126" s="7" t="n">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="127" ht="11" customHeight="true">
+      <c r="A127" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E127" s="3" t="e"/>
+      <c r="F127" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" s="5" t="e"/>
+      <c r="H127" s="6" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/В пути АЛМ.xlsx
+++ b/data/В пути АЛМ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
   <si>
     <t>Дата</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>09.02.2024 0:00:00</t>
+    <t>12.02.2024 0:00:00</t>
   </si>
   <si>
     <t>Алматы в Пути</t>
@@ -580,6 +580,12 @@
     <t>Размешиватель 180 мм, древ. волокно, 1000 шт/упак (ООО Компания Лемио)</t>
   </si>
   <si>
+    <t>112795</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, черн., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
     <t>113104</t>
   </si>
   <si>
@@ -688,6 +694,30 @@
     <t>Стакан бумажный 400 мл 2 сл., d90 мм, диз. "Big City Life", карт., 18 шт/упак (ООО Паперскоп Рус)</t>
   </si>
   <si>
+    <t>113504</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, прозр., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>113506</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, бел., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>113508</t>
+  </si>
+  <si>
+    <t>Сахар порционный 5 г, стик, 1000 шт/кор (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>113511</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая Кристалл 180 мм, черн., ПС, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
     <t>113606</t>
   </si>
   <si>
@@ -784,10 +814,46 @@
     <t>Контейнер 550 мл, 130х130х49 мм, без окна, без крышки, бел, карт., 50 шт/упак "OSQ" Eco SmartPack</t>
   </si>
   <si>
+    <t>114919</t>
+  </si>
+  <si>
+    <t>Вилка одноразовая 173,5 мм, черн., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>114921</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая 173,5 мм, черн., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
     <t>114977</t>
   </si>
   <si>
     <t>Трубочки для коктейлей 210 мм, d7 мм, черн., пласт. прямые в инд. упаковке, 200 шт/упак (ООО ПК Диап</t>
+  </si>
+  <si>
+    <t>115601</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, оранж., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>115602</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, зел., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>115603</t>
+  </si>
+  <si>
+    <t>Соусник 50 мл, d63хh32 мм, неразъем. крышка, прозр., ПП, 80 шт/упак "Aerosnab"</t>
+  </si>
+  <si>
+    <t>115605</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d90 мм с боковым отверстием и питейником тип 3, бел., ПП, 50 шт/упак (ООО ВЗЛП)</t>
   </si>
   <si>
     <t>115639</t>
@@ -952,7 +1018,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H127"/>
+  <dimension ref="H138"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -3074,7 +3140,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="89" ht="11" customHeight="true">
+    <row r="89" ht="22" customHeight="true">
       <c r="A89" s="3" t="s">
         <v>8</v>
       </c>
@@ -3088,14 +3154,14 @@
         <v>186</v>
       </c>
       <c r="E89" s="4" t="n">
-        <v>213.11</v>
+        <v>8.57</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G89" s="5" t="e"/>
-      <c r="H89" s="6" t="n">
-        <v>225</v>
+      <c r="H89" s="7" t="n">
+        <v>350000</v>
       </c>
     </row>
     <row r="90" ht="11" customHeight="true">
@@ -3112,14 +3178,14 @@
         <v>188</v>
       </c>
       <c r="E90" s="4" t="n">
-        <v>412.05</v>
+        <v>213.11</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G90" s="5" t="e"/>
       <c r="H90" s="6" t="n">
-        <v>813</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91" ht="11" customHeight="true">
@@ -3136,14 +3202,14 @@
         <v>190</v>
       </c>
       <c r="E91" s="4" t="n">
-        <v>8.55</v>
+        <v>412.05</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G91" s="5" t="e"/>
-      <c r="H91" s="7" t="n">
-        <v>10000</v>
+      <c r="H91" s="6" t="n">
+        <v>813</v>
       </c>
     </row>
     <row r="92" ht="11" customHeight="true">
@@ -3160,14 +3226,14 @@
         <v>192</v>
       </c>
       <c r="E92" s="4" t="n">
-        <v>10.23</v>
+        <v>8.55</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G92" s="5" t="e"/>
       <c r="H92" s="7" t="n">
-        <v>50000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="93" ht="11" customHeight="true">
@@ -3184,14 +3250,14 @@
         <v>194</v>
       </c>
       <c r="E93" s="4" t="n">
-        <v>16.52</v>
+        <v>10.23</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G93" s="5" t="e"/>
       <c r="H93" s="7" t="n">
-        <v>105000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="94" ht="11" customHeight="true">
@@ -3208,14 +3274,14 @@
         <v>196</v>
       </c>
       <c r="E94" s="4" t="n">
-        <v>11.13</v>
+        <v>16.52</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G94" s="5" t="e"/>
       <c r="H94" s="7" t="n">
-        <v>26000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="95" ht="11" customHeight="true">
@@ -3232,14 +3298,14 @@
         <v>198</v>
       </c>
       <c r="E95" s="4" t="n">
-        <v>14.92</v>
+        <v>11.13</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G95" s="5" t="e"/>
       <c r="H95" s="7" t="n">
-        <v>49000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="96" ht="11" customHeight="true">
@@ -3256,17 +3322,17 @@
         <v>200</v>
       </c>
       <c r="E96" s="4" t="n">
-        <v>20.14</v>
+        <v>14.92</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G96" s="5" t="e"/>
       <c r="H96" s="7" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="97" ht="22" customHeight="true">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="97" ht="11" customHeight="true">
       <c r="A97" s="3" t="s">
         <v>8</v>
       </c>
@@ -3280,14 +3346,14 @@
         <v>202</v>
       </c>
       <c r="E97" s="4" t="n">
-        <v>10.4</v>
+        <v>20.14</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G97" s="5" t="e"/>
       <c r="H97" s="7" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="98" ht="22" customHeight="true">
@@ -3304,14 +3370,14 @@
         <v>204</v>
       </c>
       <c r="E98" s="4" t="n">
-        <v>18.29</v>
+        <v>10.4</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G98" s="5" t="e"/>
       <c r="H98" s="7" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="99" ht="22" customHeight="true">
@@ -3328,14 +3394,14 @@
         <v>206</v>
       </c>
       <c r="E99" s="4" t="n">
-        <v>17.73</v>
+        <v>18.29</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G99" s="5" t="e"/>
       <c r="H99" s="7" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="100" ht="22" customHeight="true">
@@ -3352,14 +3418,14 @@
         <v>208</v>
       </c>
       <c r="E100" s="4" t="n">
-        <v>11.13</v>
+        <v>17.73</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G100" s="5" t="e"/>
       <c r="H100" s="7" t="n">
-        <v>24000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="101" ht="22" customHeight="true">
@@ -3376,14 +3442,14 @@
         <v>210</v>
       </c>
       <c r="E101" s="4" t="n">
-        <v>17.66</v>
+        <v>11.13</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G101" s="5" t="e"/>
       <c r="H101" s="7" t="n">
-        <v>39000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="102" ht="22" customHeight="true">
@@ -3400,14 +3466,14 @@
         <v>212</v>
       </c>
       <c r="E102" s="4" t="n">
-        <v>21.05</v>
+        <v>17.66</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G102" s="5" t="e"/>
       <c r="H102" s="7" t="n">
-        <v>5000</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="103" ht="22" customHeight="true">
@@ -3424,14 +3490,14 @@
         <v>214</v>
       </c>
       <c r="E103" s="4" t="n">
-        <v>26.66</v>
+        <v>21.05</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G103" s="5" t="e"/>
       <c r="H103" s="7" t="n">
-        <v>11200</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="104" ht="22" customHeight="true">
@@ -3448,17 +3514,17 @@
         <v>216</v>
       </c>
       <c r="E104" s="4" t="n">
-        <v>34.57</v>
+        <v>26.66</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G104" s="5" t="e"/>
       <c r="H104" s="7" t="n">
-        <v>5040</v>
-      </c>
-    </row>
-    <row r="105" ht="11" customHeight="true">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="105" ht="22" customHeight="true">
       <c r="A105" s="3" t="s">
         <v>8</v>
       </c>
@@ -3471,16 +3537,18 @@
       <c r="D105" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E105" s="3" t="e"/>
+      <c r="E105" s="4" t="n">
+        <v>34.57</v>
+      </c>
       <c r="F105" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G105" s="5" t="e"/>
       <c r="H105" s="7" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="106" ht="22" customHeight="true">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="106" ht="11" customHeight="true">
       <c r="A106" s="3" t="s">
         <v>8</v>
       </c>
@@ -3493,18 +3561,16 @@
       <c r="D106" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E106" s="4" t="n">
-        <v>35.08</v>
-      </c>
+      <c r="E106" s="3" t="e"/>
       <c r="F106" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G106" s="5" t="e"/>
       <c r="H106" s="7" t="n">
-        <v>5040</v>
-      </c>
-    </row>
-    <row r="107" ht="11" customHeight="true">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="107" ht="22" customHeight="true">
       <c r="A107" s="3" t="s">
         <v>8</v>
       </c>
@@ -3517,13 +3583,15 @@
       <c r="D107" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E107" s="3" t="e"/>
+      <c r="E107" s="4" t="n">
+        <v>35.08</v>
+      </c>
       <c r="F107" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G107" s="5" t="e"/>
       <c r="H107" s="7" t="n">
-        <v>110000</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="108" ht="22" customHeight="true">
@@ -3540,14 +3608,14 @@
         <v>224</v>
       </c>
       <c r="E108" s="4" t="n">
-        <v>20.02</v>
+        <v>8.57</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G108" s="5" t="e"/>
       <c r="H108" s="7" t="n">
-        <v>22500</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="109" ht="22" customHeight="true">
@@ -3563,18 +3631,18 @@
       <c r="D109" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E109" s="8" t="n">
-        <v>3038.81</v>
+      <c r="E109" s="4" t="n">
+        <v>8.56</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G109" s="5" t="e"/>
-      <c r="H109" s="6" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="110" ht="22" customHeight="true">
+      <c r="H109" s="7" t="n">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="110" ht="11" customHeight="true">
       <c r="A110" s="3" t="s">
         <v>8</v>
       </c>
@@ -3587,18 +3655,18 @@
       <c r="D110" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E110" s="8" t="n">
-        <v>4844.78</v>
+      <c r="E110" s="4" t="n">
+        <v>2.89</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G110" s="5" t="e"/>
-      <c r="H110" s="6" t="n">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="111" ht="22" customHeight="true">
+      <c r="H110" s="7" t="n">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="111" ht="11" customHeight="true">
       <c r="A111" s="3" t="s">
         <v>8</v>
       </c>
@@ -3611,13 +3679,15 @@
       <c r="D111" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="E111" s="3" t="e"/>
+      <c r="E111" s="4" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F111" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G111" s="5" t="e"/>
       <c r="H111" s="7" t="n">
-        <v>1200</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="112" ht="11" customHeight="true">
@@ -3633,13 +3703,13 @@
       <c r="D112" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E112" s="9" t="e"/>
+      <c r="E112" s="3" t="e"/>
       <c r="F112" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G112" s="5" t="e"/>
       <c r="H112" s="7" t="n">
-        <v>1084000</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="113" ht="22" customHeight="true">
@@ -3656,14 +3726,14 @@
         <v>234</v>
       </c>
       <c r="E113" s="4" t="n">
-        <v>25.55</v>
+        <v>20.02</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G113" s="5" t="e"/>
       <c r="H113" s="7" t="n">
-        <v>4800</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="114" ht="22" customHeight="true">
@@ -3679,15 +3749,15 @@
       <c r="D114" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E114" s="4" t="n">
-        <v>21.96</v>
+      <c r="E114" s="8" t="n">
+        <v>3038.81</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G114" s="5" t="e"/>
-      <c r="H114" s="7" t="n">
-        <v>4800</v>
+      <c r="H114" s="6" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="115" ht="22" customHeight="true">
@@ -3703,15 +3773,15 @@
       <c r="D115" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E115" s="4" t="n">
-        <v>44.57</v>
+      <c r="E115" s="8" t="n">
+        <v>4844.78</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G115" s="5" t="e"/>
-      <c r="H115" s="7" t="n">
-        <v>3375</v>
+      <c r="H115" s="6" t="n">
+        <v>292</v>
       </c>
     </row>
     <row r="116" ht="22" customHeight="true">
@@ -3727,18 +3797,16 @@
       <c r="D116" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E116" s="4" t="n">
-        <v>76.68</v>
-      </c>
+      <c r="E116" s="3" t="e"/>
       <c r="F116" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G116" s="5" t="e"/>
       <c r="H116" s="7" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="117" ht="22" customHeight="true">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="117" ht="11" customHeight="true">
       <c r="A117" s="3" t="s">
         <v>8</v>
       </c>
@@ -3751,15 +3819,13 @@
       <c r="D117" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="E117" s="4" t="n">
-        <v>287.68</v>
-      </c>
+      <c r="E117" s="9" t="e"/>
       <c r="F117" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G117" s="5" t="e"/>
-      <c r="H117" s="6" t="n">
-        <v>20</v>
+      <c r="H117" s="7" t="n">
+        <v>1084000</v>
       </c>
     </row>
     <row r="118" ht="22" customHeight="true">
@@ -3776,17 +3842,17 @@
         <v>244</v>
       </c>
       <c r="E118" s="4" t="n">
-        <v>239.32</v>
+        <v>25.55</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G118" s="5" t="e"/>
-      <c r="H118" s="6" t="n">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="119" ht="11" customHeight="true">
+      <c r="H118" s="7" t="n">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="119" ht="22" customHeight="true">
       <c r="A119" s="3" t="s">
         <v>8</v>
       </c>
@@ -3800,17 +3866,17 @@
         <v>246</v>
       </c>
       <c r="E119" s="4" t="n">
-        <v>541.88</v>
+        <v>21.96</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G119" s="5" t="e"/>
-      <c r="H119" s="6" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="120" ht="11" customHeight="true">
+      <c r="H119" s="7" t="n">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="120" ht="22" customHeight="true">
       <c r="A120" s="3" t="s">
         <v>8</v>
       </c>
@@ -3823,13 +3889,15 @@
       <c r="D120" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="E120" s="3" t="e"/>
+      <c r="E120" s="4" t="n">
+        <v>44.57</v>
+      </c>
       <c r="F120" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G120" s="5" t="e"/>
       <c r="H120" s="7" t="n">
-        <v>6000</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="121" ht="22" customHeight="true">
@@ -3846,14 +3914,14 @@
         <v>250</v>
       </c>
       <c r="E121" s="4" t="n">
-        <v>63.5</v>
+        <v>76.68</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G121" s="5" t="e"/>
       <c r="H121" s="7" t="n">
-        <v>2625</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="122" ht="22" customHeight="true">
@@ -3870,14 +3938,14 @@
         <v>252</v>
       </c>
       <c r="E122" s="4" t="n">
-        <v>39.46</v>
+        <v>287.68</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G122" s="5" t="e"/>
       <c r="H122" s="6" t="n">
-        <v>900</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" ht="22" customHeight="true">
@@ -3894,17 +3962,17 @@
         <v>254</v>
       </c>
       <c r="E123" s="4" t="n">
-        <v>417.95</v>
+        <v>239.32</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G123" s="5" t="e"/>
-      <c r="H123" s="7" t="n">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="124" ht="22" customHeight="true">
+      <c r="H123" s="6" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="124" ht="11" customHeight="true">
       <c r="A124" s="3" t="s">
         <v>8</v>
       </c>
@@ -3917,16 +3985,18 @@
       <c r="D124" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E124" s="3" t="e"/>
+      <c r="E124" s="4" t="n">
+        <v>541.88</v>
+      </c>
       <c r="F124" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G124" s="5" t="e"/>
-      <c r="H124" s="7" t="n">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="125" ht="22" customHeight="true">
+      <c r="H124" s="6" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="125" ht="11" customHeight="true">
       <c r="A125" s="3" t="s">
         <v>8</v>
       </c>
@@ -3945,10 +4015,10 @@
       </c>
       <c r="G125" s="5" t="e"/>
       <c r="H125" s="7" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="126" ht="11" customHeight="true">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="126" ht="22" customHeight="true">
       <c r="A126" s="3" t="s">
         <v>8</v>
       </c>
@@ -3961,16 +4031,18 @@
       <c r="D126" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E126" s="3" t="e"/>
+      <c r="E126" s="4" t="n">
+        <v>63.5</v>
+      </c>
       <c r="F126" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G126" s="5" t="e"/>
       <c r="H126" s="7" t="n">
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="127" ht="11" customHeight="true">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="127" ht="22" customHeight="true">
       <c r="A127" s="3" t="s">
         <v>8</v>
       </c>
@@ -3983,12 +4055,270 @@
       <c r="D127" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="E127" s="3" t="e"/>
+      <c r="E127" s="4" t="n">
+        <v>39.46</v>
+      </c>
       <c r="F127" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G127" s="5" t="e"/>
       <c r="H127" s="6" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="128" ht="11" customHeight="true">
+      <c r="A128" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E128" s="4" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" s="5" t="e"/>
+      <c r="H128" s="7" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="129" ht="11" customHeight="true">
+      <c r="A129" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E129" s="4" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" s="5" t="e"/>
+      <c r="H129" s="7" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="130" ht="22" customHeight="true">
+      <c r="A130" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E130" s="4" t="n">
+        <v>417.95</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" s="5" t="e"/>
+      <c r="H130" s="7" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="131" ht="22" customHeight="true">
+      <c r="A131" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E131" s="4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G131" s="5" t="e"/>
+      <c r="H131" s="7" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="132" ht="22" customHeight="true">
+      <c r="A132" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E132" s="4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G132" s="5" t="e"/>
+      <c r="H132" s="7" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="133" ht="11" customHeight="true">
+      <c r="A133" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E133" s="4" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" s="5" t="e"/>
+      <c r="H133" s="7" t="n">
+        <v>20400</v>
+      </c>
+    </row>
+    <row r="134" ht="22" customHeight="true">
+      <c r="A134" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E134" s="4" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" s="5" t="e"/>
+      <c r="H134" s="7" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="135" ht="22" customHeight="true">
+      <c r="A135" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E135" s="3" t="e"/>
+      <c r="F135" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" s="5" t="e"/>
+      <c r="H135" s="7" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="136" ht="22" customHeight="true">
+      <c r="A136" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E136" s="3" t="e"/>
+      <c r="F136" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G136" s="5" t="e"/>
+      <c r="H136" s="7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="137" ht="11" customHeight="true">
+      <c r="A137" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E137" s="3" t="e"/>
+      <c r="F137" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G137" s="5" t="e"/>
+      <c r="H137" s="7" t="n">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="138" ht="11" customHeight="true">
+      <c r="A138" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E138" s="3" t="e"/>
+      <c r="F138" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G138" s="5" t="e"/>
+      <c r="H138" s="6" t="n">
         <v>100</v>
       </c>
     </row>

--- a/data/В пути АЛМ.xlsx
+++ b/data/В пути АЛМ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
   <si>
     <t>Дата</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>12.02.2024 0:00:00</t>
+    <t>14.02.2024 0:00:00</t>
   </si>
   <si>
     <t>Алматы в Пути</t>
@@ -436,12 +436,30 @@
     <t>Ложка одноразовая 165 мм, красн., ПС, 12 шт/упак "МИСТЕРИЯ"</t>
   </si>
   <si>
+    <t>106502</t>
+  </si>
+  <si>
+    <t>Размешиватель 140 мм, коричн., бамбук, 500 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
     <t>345044</t>
   </si>
   <si>
     <t>Размешиватель 140 мм, древ. волокно, 500 шт/упак (ООО Компания Лемио)</t>
   </si>
   <si>
+    <t>106552</t>
+  </si>
+  <si>
+    <t>Китайские палочки h220хd5 мм, инд. ПЭ упак., бамбук, 100 пар/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>106553</t>
+  </si>
+  <si>
+    <t>Китайские палочки h220хd5 мм, инд. ПЭ упак. с зубочисткой, бамбук, 100 пар/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
     <t>591288</t>
   </si>
   <si>
@@ -586,6 +604,18 @@
     <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, черн., ПП, 50 шт/упак (ООО ВЗЛП)</t>
   </si>
   <si>
+    <t>112808</t>
+  </si>
+  <si>
+    <t>Обертка для бургеров и хот-догов 105х450 мм, беж., бум., 1000 шт/кор (ООО Тек-Пак)</t>
+  </si>
+  <si>
+    <t>112831</t>
+  </si>
+  <si>
+    <t>Пакет [260+150]х350 мм с круч. ручками, крафт, бум., 350 шт/кор (ООО Тек-Пак)</t>
+  </si>
+  <si>
     <t>113104</t>
   </si>
   <si>
@@ -724,6 +754,18 @@
     <t>Размешиватель 140 мм, инд. упак., бамбук, 250 шт/упак "GREEN MYSTERY"</t>
   </si>
   <si>
+    <t>113938</t>
+  </si>
+  <si>
+    <t>Упаковка для бургера типа "Уголок" 155х170 мм, крафт, бум., 2000 шт/упак (ООО Тек-Пак)</t>
+  </si>
+  <si>
+    <t>113939</t>
+  </si>
+  <si>
+    <t>Упаковка для бургера типа "Уголок" 175х175 мм, крафт, бум., 2500 шт/упак (ООО Тек-Пак)</t>
+  </si>
+  <si>
     <t>114019</t>
   </si>
   <si>
@@ -745,9 +787,6 @@
     <t>114373</t>
   </si>
   <si>
-    <t>Китайские палочки h220хd5 мм, инд. ПЭ упак. с зубочисткой, бамбук, 100 пар/упак "GREEN MYSTERY"</t>
-  </si>
-  <si>
     <t>114458</t>
   </si>
   <si>
@@ -778,6 +817,12 @@
     <t>Контейнер 1555 мл, 200х200х55 мм, с окном, неразъем.крышка, крафт-бел., карт., 25 шт/упак "OSQ" Eco </t>
   </si>
   <si>
+    <t>114524</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d80 мм с пробивным слотом и заглушкой, бел., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
     <t>114531</t>
   </si>
   <si>
@@ -830,6 +875,18 @@
   </si>
   <si>
     <t>Трубочки для коктейлей 210 мм, d7 мм, черн., пласт. прямые в инд. упаковке, 200 шт/упак (ООО ПК Диап</t>
+  </si>
+  <si>
+    <t>115371</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 400 мл 1 сл., d90 мм, лого "Global Coffee", карт., 50 шт/упак</t>
+  </si>
+  <si>
+    <t>115374</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 500 мл 1 сл., d90 мм, лого "Global Coffee", карт., 50 шт/упак</t>
   </si>
   <si>
     <t>115601</t>
@@ -1018,7 +1075,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H138"/>
+  <dimension ref="H148"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -2580,17 +2637,17 @@
         <v>138</v>
       </c>
       <c r="E65" s="4" t="n">
-        <v>1.13</v>
+        <v>0.9</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G65" s="5" t="e"/>
       <c r="H65" s="7" t="n">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="66" ht="22" customHeight="true">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="66" ht="11" customHeight="true">
       <c r="A66" s="3" t="s">
         <v>8</v>
       </c>
@@ -2603,16 +2660,18 @@
       <c r="D66" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E66" s="3" t="e"/>
+      <c r="E66" s="4" t="n">
+        <v>1.13</v>
+      </c>
       <c r="F66" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G66" s="5" t="e"/>
       <c r="H66" s="7" t="n">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="67" ht="11" customHeight="true">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="67" ht="22" customHeight="true">
       <c r="A67" s="3" t="s">
         <v>8</v>
       </c>
@@ -2626,14 +2685,14 @@
         <v>142</v>
       </c>
       <c r="E67" s="4" t="n">
-        <v>7.87</v>
+        <v>4.3</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G67" s="5" t="e"/>
       <c r="H67" s="7" t="n">
-        <v>2880</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="68" ht="22" customHeight="true">
@@ -2650,14 +2709,14 @@
         <v>144</v>
       </c>
       <c r="E68" s="4" t="n">
-        <v>23.17</v>
+        <v>4.42</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G68" s="5" t="e"/>
       <c r="H68" s="7" t="n">
-        <v>20000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="69" ht="22" customHeight="true">
@@ -2673,15 +2732,13 @@
       <c r="D69" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E69" s="4" t="n">
-        <v>27.49</v>
-      </c>
+      <c r="E69" s="3" t="e"/>
       <c r="F69" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G69" s="5" t="e"/>
       <c r="H69" s="7" t="n">
-        <v>4000</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="70" ht="11" customHeight="true">
@@ -2698,17 +2755,17 @@
         <v>148</v>
       </c>
       <c r="E70" s="4" t="n">
-        <v>41.77</v>
+        <v>7.87</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G70" s="5" t="e"/>
-      <c r="H70" s="6" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="71" ht="11" customHeight="true">
+      <c r="H70" s="7" t="n">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="71" ht="22" customHeight="true">
       <c r="A71" s="3" t="s">
         <v>8</v>
       </c>
@@ -2722,17 +2779,17 @@
         <v>150</v>
       </c>
       <c r="E71" s="4" t="n">
-        <v>53.94</v>
+        <v>23.17</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G71" s="5" t="e"/>
       <c r="H71" s="7" t="n">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="72" ht="11" customHeight="true">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="72" ht="22" customHeight="true">
       <c r="A72" s="3" t="s">
         <v>8</v>
       </c>
@@ -2746,14 +2803,14 @@
         <v>152</v>
       </c>
       <c r="E72" s="4" t="n">
-        <v>101.39</v>
+        <v>27.49</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G72" s="5" t="e"/>
-      <c r="H72" s="6" t="n">
-        <v>441</v>
+      <c r="H72" s="7" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="73" ht="11" customHeight="true">
@@ -2770,14 +2827,14 @@
         <v>154</v>
       </c>
       <c r="E73" s="4" t="n">
-        <v>204.91</v>
+        <v>41.77</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G73" s="5" t="e"/>
       <c r="H73" s="6" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
     </row>
     <row r="74" ht="11" customHeight="true">
@@ -2794,14 +2851,14 @@
         <v>156</v>
       </c>
       <c r="E74" s="4" t="n">
-        <v>13.49</v>
+        <v>53.94</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G74" s="5" t="e"/>
       <c r="H74" s="7" t="n">
-        <v>4000</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="75" ht="11" customHeight="true">
@@ -2818,17 +2875,17 @@
         <v>158</v>
       </c>
       <c r="E75" s="4" t="n">
-        <v>29.68</v>
+        <v>101.39</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G75" s="5" t="e"/>
-      <c r="H75" s="7" t="n">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="76" ht="22" customHeight="true">
+      <c r="H75" s="6" t="n">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="76" ht="11" customHeight="true">
       <c r="A76" s="3" t="s">
         <v>8</v>
       </c>
@@ -2842,14 +2899,14 @@
         <v>160</v>
       </c>
       <c r="E76" s="4" t="n">
-        <v>62.99</v>
+        <v>204.91</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G76" s="5" t="e"/>
-      <c r="H76" s="7" t="n">
-        <v>4500</v>
+      <c r="H76" s="6" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="77" ht="11" customHeight="true">
@@ -2866,14 +2923,14 @@
         <v>162</v>
       </c>
       <c r="E77" s="4" t="n">
-        <v>33.17</v>
+        <v>13.49</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G77" s="5" t="e"/>
       <c r="H77" s="7" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="78" ht="11" customHeight="true">
@@ -2890,14 +2947,14 @@
         <v>164</v>
       </c>
       <c r="E78" s="4" t="n">
-        <v>247.93</v>
+        <v>29.68</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G78" s="5" t="e"/>
-      <c r="H78" s="6" t="n">
-        <v>160</v>
+      <c r="H78" s="7" t="n">
+        <v>32000</v>
       </c>
     </row>
     <row r="79" ht="22" customHeight="true">
@@ -2914,14 +2971,14 @@
         <v>166</v>
       </c>
       <c r="E79" s="4" t="n">
-        <v>27.28</v>
+        <v>62.99</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G79" s="5" t="e"/>
       <c r="H79" s="7" t="n">
-        <v>32000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="80" ht="11" customHeight="true">
@@ -2938,17 +2995,17 @@
         <v>168</v>
       </c>
       <c r="E80" s="4" t="n">
-        <v>4.1</v>
+        <v>33.17</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G80" s="5" t="e"/>
       <c r="H80" s="7" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="81" ht="22" customHeight="true">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="81" ht="11" customHeight="true">
       <c r="A81" s="3" t="s">
         <v>8</v>
       </c>
@@ -2962,17 +3019,17 @@
         <v>170</v>
       </c>
       <c r="E81" s="4" t="n">
-        <v>4.17</v>
+        <v>247.93</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G81" s="5" t="e"/>
-      <c r="H81" s="7" t="n">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="82" ht="11" customHeight="true">
+      <c r="H81" s="6" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" ht="22" customHeight="true">
       <c r="A82" s="3" t="s">
         <v>8</v>
       </c>
@@ -2985,15 +3042,15 @@
       <c r="D82" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E82" s="8" t="n">
-        <v>2419.73</v>
+      <c r="E82" s="4" t="n">
+        <v>27.28</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G82" s="5" t="e"/>
-      <c r="H82" s="6" t="n">
-        <v>105</v>
+      <c r="H82" s="7" t="n">
+        <v>32000</v>
       </c>
     </row>
     <row r="83" ht="11" customHeight="true">
@@ -3009,18 +3066,18 @@
       <c r="D83" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E83" s="8" t="n">
-        <v>1607.33</v>
+      <c r="E83" s="4" t="n">
+        <v>4.1</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G83" s="5" t="e"/>
-      <c r="H83" s="6" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" ht="11" customHeight="true">
+      <c r="H83" s="7" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="84" ht="22" customHeight="true">
       <c r="A84" s="3" t="s">
         <v>8</v>
       </c>
@@ -3034,17 +3091,17 @@
         <v>176</v>
       </c>
       <c r="E84" s="4" t="n">
-        <v>21.58</v>
+        <v>4.17</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G84" s="5" t="e"/>
       <c r="H84" s="7" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="85" ht="22" customHeight="true">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="85" ht="11" customHeight="true">
       <c r="A85" s="3" t="s">
         <v>8</v>
       </c>
@@ -3057,18 +3114,18 @@
       <c r="D85" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E85" s="4" t="n">
-        <v>19.96</v>
+      <c r="E85" s="8" t="n">
+        <v>2419.73</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G85" s="5" t="e"/>
-      <c r="H85" s="7" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="86" ht="22" customHeight="true">
+      <c r="H85" s="6" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" ht="11" customHeight="true">
       <c r="A86" s="3" t="s">
         <v>8</v>
       </c>
@@ -3081,18 +3138,18 @@
       <c r="D86" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="E86" s="4" t="n">
-        <v>169.33</v>
+      <c r="E86" s="8" t="n">
+        <v>1607.33</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G86" s="5" t="e"/>
-      <c r="H86" s="7" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="87" ht="22" customHeight="true">
+      <c r="H86" s="6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" ht="11" customHeight="true">
       <c r="A87" s="3" t="s">
         <v>8</v>
       </c>
@@ -3106,17 +3163,17 @@
         <v>182</v>
       </c>
       <c r="E87" s="4" t="n">
-        <v>159.42</v>
+        <v>21.58</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G87" s="5" t="e"/>
       <c r="H87" s="7" t="n">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="88" ht="11" customHeight="true">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="88" ht="22" customHeight="true">
       <c r="A88" s="3" t="s">
         <v>8</v>
       </c>
@@ -3130,14 +3187,14 @@
         <v>184</v>
       </c>
       <c r="E88" s="4" t="n">
-        <v>1.31</v>
+        <v>19.96</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G88" s="5" t="e"/>
       <c r="H88" s="7" t="n">
-        <v>260000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="89" ht="22" customHeight="true">
@@ -3154,17 +3211,17 @@
         <v>186</v>
       </c>
       <c r="E89" s="4" t="n">
-        <v>8.57</v>
+        <v>169.33</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G89" s="5" t="e"/>
       <c r="H89" s="7" t="n">
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="90" ht="11" customHeight="true">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="90" ht="22" customHeight="true">
       <c r="A90" s="3" t="s">
         <v>8</v>
       </c>
@@ -3178,14 +3235,14 @@
         <v>188</v>
       </c>
       <c r="E90" s="4" t="n">
-        <v>213.11</v>
+        <v>159.42</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G90" s="5" t="e"/>
-      <c r="H90" s="6" t="n">
-        <v>225</v>
+      <c r="H90" s="7" t="n">
+        <v>2700</v>
       </c>
     </row>
     <row r="91" ht="11" customHeight="true">
@@ -3202,17 +3259,17 @@
         <v>190</v>
       </c>
       <c r="E91" s="4" t="n">
-        <v>412.05</v>
+        <v>1.31</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G91" s="5" t="e"/>
-      <c r="H91" s="6" t="n">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="92" ht="11" customHeight="true">
+      <c r="H91" s="7" t="n">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="92" ht="22" customHeight="true">
       <c r="A92" s="3" t="s">
         <v>8</v>
       </c>
@@ -3226,14 +3283,14 @@
         <v>192</v>
       </c>
       <c r="E92" s="4" t="n">
-        <v>8.55</v>
+        <v>8.57</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G92" s="5" t="e"/>
       <c r="H92" s="7" t="n">
-        <v>10000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="93" ht="11" customHeight="true">
@@ -3250,14 +3307,14 @@
         <v>194</v>
       </c>
       <c r="E93" s="4" t="n">
-        <v>10.23</v>
+        <v>2.81</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G93" s="5" t="e"/>
       <c r="H93" s="7" t="n">
-        <v>50000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="94" ht="11" customHeight="true">
@@ -3274,14 +3331,14 @@
         <v>196</v>
       </c>
       <c r="E94" s="4" t="n">
-        <v>16.52</v>
+        <v>32.97</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G94" s="5" t="e"/>
       <c r="H94" s="7" t="n">
-        <v>105000</v>
+        <v>16800</v>
       </c>
     </row>
     <row r="95" ht="11" customHeight="true">
@@ -3298,14 +3355,14 @@
         <v>198</v>
       </c>
       <c r="E95" s="4" t="n">
-        <v>11.13</v>
+        <v>213.11</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G95" s="5" t="e"/>
-      <c r="H95" s="7" t="n">
-        <v>26000</v>
+      <c r="H95" s="6" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="96" ht="11" customHeight="true">
@@ -3322,14 +3379,14 @@
         <v>200</v>
       </c>
       <c r="E96" s="4" t="n">
-        <v>14.92</v>
+        <v>412.05</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G96" s="5" t="e"/>
-      <c r="H96" s="7" t="n">
-        <v>49000</v>
+      <c r="H96" s="6" t="n">
+        <v>813</v>
       </c>
     </row>
     <row r="97" ht="11" customHeight="true">
@@ -3346,17 +3403,17 @@
         <v>202</v>
       </c>
       <c r="E97" s="4" t="n">
-        <v>20.14</v>
+        <v>8.55</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G97" s="5" t="e"/>
       <c r="H97" s="7" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="98" ht="22" customHeight="true">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="98" ht="11" customHeight="true">
       <c r="A98" s="3" t="s">
         <v>8</v>
       </c>
@@ -3370,17 +3427,17 @@
         <v>204</v>
       </c>
       <c r="E98" s="4" t="n">
-        <v>10.4</v>
+        <v>10.23</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G98" s="5" t="e"/>
       <c r="H98" s="7" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="99" ht="22" customHeight="true">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="99" ht="11" customHeight="true">
       <c r="A99" s="3" t="s">
         <v>8</v>
       </c>
@@ -3394,17 +3451,17 @@
         <v>206</v>
       </c>
       <c r="E99" s="4" t="n">
-        <v>18.29</v>
+        <v>16.52</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G99" s="5" t="e"/>
       <c r="H99" s="7" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="100" ht="22" customHeight="true">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="100" ht="11" customHeight="true">
       <c r="A100" s="3" t="s">
         <v>8</v>
       </c>
@@ -3418,17 +3475,17 @@
         <v>208</v>
       </c>
       <c r="E100" s="4" t="n">
-        <v>17.73</v>
+        <v>11.13</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G100" s="5" t="e"/>
       <c r="H100" s="7" t="n">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="101" ht="22" customHeight="true">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="101" ht="11" customHeight="true">
       <c r="A101" s="3" t="s">
         <v>8</v>
       </c>
@@ -3442,17 +3499,17 @@
         <v>210</v>
       </c>
       <c r="E101" s="4" t="n">
-        <v>11.13</v>
+        <v>14.92</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G101" s="5" t="e"/>
       <c r="H101" s="7" t="n">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="102" ht="22" customHeight="true">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="102" ht="11" customHeight="true">
       <c r="A102" s="3" t="s">
         <v>8</v>
       </c>
@@ -3466,14 +3523,14 @@
         <v>212</v>
       </c>
       <c r="E102" s="4" t="n">
-        <v>17.66</v>
+        <v>20.14</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G102" s="5" t="e"/>
       <c r="H102" s="7" t="n">
-        <v>39000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="103" ht="22" customHeight="true">
@@ -3490,14 +3547,14 @@
         <v>214</v>
       </c>
       <c r="E103" s="4" t="n">
-        <v>21.05</v>
+        <v>10.4</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G103" s="5" t="e"/>
       <c r="H103" s="7" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="104" ht="22" customHeight="true">
@@ -3514,14 +3571,14 @@
         <v>216</v>
       </c>
       <c r="E104" s="4" t="n">
-        <v>26.66</v>
+        <v>18.29</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G104" s="5" t="e"/>
       <c r="H104" s="7" t="n">
-        <v>11200</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="105" ht="22" customHeight="true">
@@ -3538,17 +3595,17 @@
         <v>218</v>
       </c>
       <c r="E105" s="4" t="n">
-        <v>34.57</v>
+        <v>17.73</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G105" s="5" t="e"/>
       <c r="H105" s="7" t="n">
-        <v>5040</v>
-      </c>
-    </row>
-    <row r="106" ht="11" customHeight="true">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="106" ht="22" customHeight="true">
       <c r="A106" s="3" t="s">
         <v>8</v>
       </c>
@@ -3561,13 +3618,15 @@
       <c r="D106" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E106" s="3" t="e"/>
+      <c r="E106" s="4" t="n">
+        <v>11.13</v>
+      </c>
       <c r="F106" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G106" s="5" t="e"/>
       <c r="H106" s="7" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="107" ht="22" customHeight="true">
@@ -3584,14 +3643,14 @@
         <v>222</v>
       </c>
       <c r="E107" s="4" t="n">
-        <v>35.08</v>
+        <v>17.66</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G107" s="5" t="e"/>
       <c r="H107" s="7" t="n">
-        <v>5040</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="108" ht="22" customHeight="true">
@@ -3608,14 +3667,14 @@
         <v>224</v>
       </c>
       <c r="E108" s="4" t="n">
-        <v>8.57</v>
+        <v>21.05</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G108" s="5" t="e"/>
       <c r="H108" s="7" t="n">
-        <v>350000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="109" ht="22" customHeight="true">
@@ -3632,17 +3691,17 @@
         <v>226</v>
       </c>
       <c r="E109" s="4" t="n">
-        <v>8.56</v>
+        <v>26.66</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G109" s="5" t="e"/>
       <c r="H109" s="7" t="n">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="110" ht="11" customHeight="true">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="110" ht="22" customHeight="true">
       <c r="A110" s="3" t="s">
         <v>8</v>
       </c>
@@ -3656,14 +3715,14 @@
         <v>228</v>
       </c>
       <c r="E110" s="4" t="n">
-        <v>2.89</v>
+        <v>34.57</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G110" s="5" t="e"/>
       <c r="H110" s="7" t="n">
-        <v>360000</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="111" ht="11" customHeight="true">
@@ -3679,18 +3738,16 @@
       <c r="D111" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="E111" s="4" t="n">
-        <v>4.9</v>
-      </c>
+      <c r="E111" s="3" t="e"/>
       <c r="F111" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G111" s="5" t="e"/>
       <c r="H111" s="7" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="112" ht="11" customHeight="true">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="112" ht="22" customHeight="true">
       <c r="A112" s="3" t="s">
         <v>8</v>
       </c>
@@ -3703,13 +3760,15 @@
       <c r="D112" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E112" s="3" t="e"/>
+      <c r="E112" s="4" t="n">
+        <v>35.08</v>
+      </c>
       <c r="F112" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G112" s="5" t="e"/>
       <c r="H112" s="7" t="n">
-        <v>110000</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="113" ht="22" customHeight="true">
@@ -3726,14 +3785,14 @@
         <v>234</v>
       </c>
       <c r="E113" s="4" t="n">
-        <v>20.02</v>
+        <v>8.57</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G113" s="5" t="e"/>
       <c r="H113" s="7" t="n">
-        <v>22500</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="114" ht="22" customHeight="true">
@@ -3749,18 +3808,18 @@
       <c r="D114" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E114" s="8" t="n">
-        <v>3038.81</v>
+      <c r="E114" s="4" t="n">
+        <v>8.56</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G114" s="5" t="e"/>
-      <c r="H114" s="6" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="115" ht="22" customHeight="true">
+      <c r="H114" s="7" t="n">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="115" ht="11" customHeight="true">
       <c r="A115" s="3" t="s">
         <v>8</v>
       </c>
@@ -3773,18 +3832,18 @@
       <c r="D115" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E115" s="8" t="n">
-        <v>4844.78</v>
+      <c r="E115" s="4" t="n">
+        <v>2.89</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G115" s="5" t="e"/>
-      <c r="H115" s="6" t="n">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="116" ht="22" customHeight="true">
+      <c r="H115" s="7" t="n">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="116" ht="11" customHeight="true">
       <c r="A116" s="3" t="s">
         <v>8</v>
       </c>
@@ -3797,13 +3856,15 @@
       <c r="D116" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E116" s="3" t="e"/>
+      <c r="E116" s="4" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F116" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G116" s="5" t="e"/>
       <c r="H116" s="7" t="n">
-        <v>1200</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="117" ht="11" customHeight="true">
@@ -3819,13 +3880,13 @@
       <c r="D117" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="E117" s="9" t="e"/>
+      <c r="E117" s="3" t="e"/>
       <c r="F117" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G117" s="5" t="e"/>
       <c r="H117" s="7" t="n">
-        <v>1084000</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="118" ht="22" customHeight="true">
@@ -3842,14 +3903,14 @@
         <v>244</v>
       </c>
       <c r="E118" s="4" t="n">
-        <v>25.55</v>
+        <v>2.86</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G118" s="5" t="e"/>
       <c r="H118" s="7" t="n">
-        <v>4800</v>
+        <v>98000</v>
       </c>
     </row>
     <row r="119" ht="22" customHeight="true">
@@ -3865,15 +3926,13 @@
       <c r="D119" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E119" s="4" t="n">
-        <v>21.96</v>
-      </c>
+      <c r="E119" s="3" t="e"/>
       <c r="F119" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G119" s="5" t="e"/>
       <c r="H119" s="7" t="n">
-        <v>4800</v>
+        <v>106000</v>
       </c>
     </row>
     <row r="120" ht="22" customHeight="true">
@@ -3890,14 +3949,14 @@
         <v>248</v>
       </c>
       <c r="E120" s="4" t="n">
-        <v>44.57</v>
+        <v>20.02</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G120" s="5" t="e"/>
       <c r="H120" s="7" t="n">
-        <v>3375</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="121" ht="22" customHeight="true">
@@ -3913,15 +3972,15 @@
       <c r="D121" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="E121" s="4" t="n">
-        <v>76.68</v>
+      <c r="E121" s="8" t="n">
+        <v>3038.81</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G121" s="5" t="e"/>
-      <c r="H121" s="7" t="n">
-        <v>1500</v>
+      <c r="H121" s="6" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="122" ht="22" customHeight="true">
@@ -3937,15 +3996,15 @@
       <c r="D122" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E122" s="4" t="n">
-        <v>287.68</v>
+      <c r="E122" s="8" t="n">
+        <v>4844.78</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G122" s="5" t="e"/>
       <c r="H122" s="6" t="n">
-        <v>20</v>
+        <v>292</v>
       </c>
     </row>
     <row r="123" ht="22" customHeight="true">
@@ -3959,17 +4018,15 @@
         <v>253</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E123" s="4" t="n">
-        <v>239.32</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="E123" s="3" t="e"/>
       <c r="F123" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G123" s="5" t="e"/>
-      <c r="H123" s="6" t="n">
-        <v>320</v>
+      <c r="H123" s="7" t="n">
+        <v>1200</v>
       </c>
     </row>
     <row r="124" ht="11" customHeight="true">
@@ -3980,42 +4037,42 @@
         <v>9</v>
       </c>
       <c r="C124" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="E124" s="9" t="e"/>
+      <c r="F124" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" s="5" t="e"/>
+      <c r="H124" s="7" t="n">
+        <v>1084000</v>
+      </c>
+    </row>
+    <row r="125" ht="22" customHeight="true">
+      <c r="A125" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E124" s="4" t="n">
-        <v>541.88</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" s="5" t="e"/>
-      <c r="H124" s="6" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="125" ht="11" customHeight="true">
-      <c r="A125" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C125" s="3" t="s">
+      <c r="D125" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D125" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E125" s="3" t="e"/>
+      <c r="E125" s="4" t="n">
+        <v>25.55</v>
+      </c>
       <c r="F125" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G125" s="5" t="e"/>
       <c r="H125" s="7" t="n">
-        <v>6000</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="126" ht="22" customHeight="true">
@@ -4026,20 +4083,20 @@
         <v>9</v>
       </c>
       <c r="C126" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D126" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D126" s="3" t="s">
-        <v>260</v>
-      </c>
       <c r="E126" s="4" t="n">
-        <v>63.5</v>
+        <v>21.96</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G126" s="5" t="e"/>
       <c r="H126" s="7" t="n">
-        <v>2625</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="127" ht="22" customHeight="true">
@@ -4050,47 +4107,47 @@
         <v>9</v>
       </c>
       <c r="C127" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="E127" s="4" t="n">
+        <v>44.57</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" s="5" t="e"/>
+      <c r="H127" s="7" t="n">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="128" ht="22" customHeight="true">
+      <c r="A128" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="E127" s="4" t="n">
-        <v>39.46</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G127" s="5" t="e"/>
-      <c r="H127" s="6" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="128" ht="11" customHeight="true">
-      <c r="A128" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C128" s="3" t="s">
+      <c r="D128" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D128" s="3" t="s">
-        <v>264</v>
-      </c>
       <c r="E128" s="4" t="n">
-        <v>7.01</v>
+        <v>76.68</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G128" s="5" t="e"/>
       <c r="H128" s="7" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="129" ht="11" customHeight="true">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="129" ht="22" customHeight="true">
       <c r="A129" s="3" t="s">
         <v>8</v>
       </c>
@@ -4098,13 +4155,13 @@
         <v>9</v>
       </c>
       <c r="C129" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D129" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D129" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="E129" s="4" t="n">
-        <v>7.08</v>
+        <v>7.64</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>12</v>
@@ -4122,20 +4179,20 @@
         <v>9</v>
       </c>
       <c r="C130" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D130" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D130" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="E130" s="4" t="n">
-        <v>417.95</v>
+        <v>287.68</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G130" s="5" t="e"/>
-      <c r="H130" s="7" t="n">
-        <v>2100</v>
+      <c r="H130" s="6" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="131" ht="22" customHeight="true">
@@ -4146,44 +4203,44 @@
         <v>9</v>
       </c>
       <c r="C131" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D131" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="E131" s="4" t="n">
+        <v>239.32</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G131" s="5" t="e"/>
+      <c r="H131" s="6" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="132" ht="11" customHeight="true">
+      <c r="A132" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="E131" s="4" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G131" s="5" t="e"/>
-      <c r="H131" s="7" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="132" ht="22" customHeight="true">
-      <c r="A132" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C132" s="3" t="s">
+      <c r="D132" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D132" s="3" t="s">
-        <v>272</v>
-      </c>
       <c r="E132" s="4" t="n">
-        <v>8.6</v>
+        <v>541.88</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G132" s="5" t="e"/>
-      <c r="H132" s="7" t="n">
-        <v>10000</v>
+      <c r="H132" s="6" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="133" ht="11" customHeight="true">
@@ -4194,20 +4251,18 @@
         <v>9</v>
       </c>
       <c r="C133" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D133" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D133" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E133" s="4" t="n">
-        <v>6.89</v>
-      </c>
+      <c r="E133" s="3" t="e"/>
       <c r="F133" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G133" s="5" t="e"/>
       <c r="H133" s="7" t="n">
-        <v>20400</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="134" ht="22" customHeight="true">
@@ -4218,20 +4273,20 @@
         <v>9</v>
       </c>
       <c r="C134" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D134" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D134" s="3" t="s">
-        <v>276</v>
-      </c>
       <c r="E134" s="4" t="n">
-        <v>6.77</v>
+        <v>63.5</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G134" s="5" t="e"/>
       <c r="H134" s="7" t="n">
-        <v>5000</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="135" ht="22" customHeight="true">
@@ -4242,40 +4297,44 @@
         <v>9</v>
       </c>
       <c r="C135" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D135" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="E135" s="4" t="n">
+        <v>39.46</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" s="5" t="e"/>
+      <c r="H135" s="6" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="136" ht="11" customHeight="true">
+      <c r="A136" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="E135" s="3" t="e"/>
-      <c r="F135" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G135" s="5" t="e"/>
-      <c r="H135" s="7" t="n">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="136" ht="22" customHeight="true">
-      <c r="A136" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C136" s="3" t="s">
+      <c r="D136" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D136" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E136" s="3" t="e"/>
+      <c r="E136" s="4" t="n">
+        <v>7.01</v>
+      </c>
       <c r="F136" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G136" s="5" t="e"/>
       <c r="H136" s="7" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="137" ht="11" customHeight="true">
@@ -4286,39 +4345,271 @@
         <v>9</v>
       </c>
       <c r="C137" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D137" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="E137" s="3" t="e"/>
+      <c r="E137" s="4" t="n">
+        <v>7.08</v>
+      </c>
       <c r="F137" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G137" s="5" t="e"/>
       <c r="H137" s="7" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="138" ht="22" customHeight="true">
+      <c r="A138" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E138" s="4" t="n">
+        <v>417.95</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G138" s="5" t="e"/>
+      <c r="H138" s="7" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="139" ht="11" customHeight="true">
+      <c r="A139" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E139" s="3" t="e"/>
+      <c r="F139" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G139" s="5" t="e"/>
+      <c r="H139" s="7" t="n">
+        <v>304000</v>
+      </c>
+    </row>
+    <row r="140" ht="11" customHeight="true">
+      <c r="A140" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E140" s="3" t="e"/>
+      <c r="F140" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G140" s="5" t="e"/>
+      <c r="H140" s="7" t="n">
+        <v>194000</v>
+      </c>
+    </row>
+    <row r="141" ht="22" customHeight="true">
+      <c r="A141" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E141" s="4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G141" s="5" t="e"/>
+      <c r="H141" s="7" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="142" ht="22" customHeight="true">
+      <c r="A142" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E142" s="4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G142" s="5" t="e"/>
+      <c r="H142" s="7" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="143" ht="11" customHeight="true">
+      <c r="A143" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E143" s="4" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G143" s="5" t="e"/>
+      <c r="H143" s="7" t="n">
+        <v>20400</v>
+      </c>
+    </row>
+    <row r="144" ht="22" customHeight="true">
+      <c r="A144" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E144" s="4" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G144" s="5" t="e"/>
+      <c r="H144" s="7" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="145" ht="22" customHeight="true">
+      <c r="A145" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E145" s="3" t="e"/>
+      <c r="F145" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G145" s="5" t="e"/>
+      <c r="H145" s="7" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="146" ht="22" customHeight="true">
+      <c r="A146" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E146" s="3" t="e"/>
+      <c r="F146" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G146" s="5" t="e"/>
+      <c r="H146" s="7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="147" ht="11" customHeight="true">
+      <c r="A147" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E147" s="3" t="e"/>
+      <c r="F147" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G147" s="5" t="e"/>
+      <c r="H147" s="7" t="n">
         <v>5600</v>
       </c>
     </row>
-    <row r="138" ht="11" customHeight="true">
-      <c r="A138" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E138" s="3" t="e"/>
-      <c r="F138" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G138" s="5" t="e"/>
-      <c r="H138" s="6" t="n">
+    <row r="148" ht="11" customHeight="true">
+      <c r="A148" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E148" s="3" t="e"/>
+      <c r="F148" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G148" s="5" t="e"/>
+      <c r="H148" s="6" t="n">
         <v>100</v>
       </c>
     </row>

--- a/data/В пути АЛМ.xlsx
+++ b/data/В пути АЛМ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
   <si>
     <t>Дата</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>14.02.2024 0:00:00</t>
+    <t>16.02.2024 0:00:00</t>
   </si>
   <si>
     <t>Алматы в Пути</t>
@@ -598,12 +598,6 @@
     <t>Размешиватель 180 мм, древ. волокно, 1000 шт/упак (ООО Компания Лемио)</t>
   </si>
   <si>
-    <t>112795</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, черн., ПП, 50 шт/упак (ООО ВЗЛП)</t>
-  </si>
-  <si>
     <t>112808</t>
   </si>
   <si>
@@ -616,6 +610,12 @@
     <t>Пакет [260+150]х350 мм с круч. ручками, крафт, бум., 350 шт/кор (ООО Тек-Пак)</t>
   </si>
   <si>
+    <t>113073</t>
+  </si>
+  <si>
+    <t>Перчатки нитровиниловые, р-р M, неопудрен., черн., 50 пар/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
     <t>113104</t>
   </si>
   <si>
@@ -628,126 +628,12 @@
     <t>Чековая лента 80мм х 80м, d12 мм, бел., термобум. "Честный чек"</t>
   </si>
   <si>
-    <t>113354</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 185 мл 1 сл., d73 мм, бел., карт., 100 шт/упак (ООО Паперскоп Рус)</t>
-  </si>
-  <si>
-    <t>113367</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 250 мл 1 сл., d80 мм, бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
-  </si>
-  <si>
-    <t>113368</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 300 мл 1 сл., d90 мм, бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
-  </si>
-  <si>
-    <t>113369</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 250 мл 1 сл., d80 мм, черн., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
-  </si>
-  <si>
-    <t>113370</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 300 мл 1 сл., d90 мм, черн., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
-  </si>
-  <si>
-    <t>113371</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 400 мл 1 сл., d90 мм, черн., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
-  </si>
-  <si>
-    <t>113373</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 250 мл 1 сл., d80 мм, диз. "Big City Life", карт., 50 шт/упак (ООО Паперскоп Рус)</t>
-  </si>
-  <si>
-    <t>113375</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 400 мл 1 сл., d90 мм, диз. "Big City Life", карт., 50 шт/упак (ООО Паперскоп Рус)</t>
-  </si>
-  <si>
-    <t>113379</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 400 мл 1 сл., d90 мм, красн., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
-  </si>
-  <si>
-    <t>113381</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 250 мл 1 сл., d80 мм, крафт-бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
-  </si>
-  <si>
-    <t>113382</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 300 мл 1 сл., d90 мм, крафт-бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
-  </si>
-  <si>
-    <t>113383</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 400 мл 1 сл., d90 мм, крафт-бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
-  </si>
-  <si>
-    <t>113385</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 300 мл 2 сл., d90 мм, крафт-бел., карт., 20 шт/упак (ООО Паперскоп Рус)</t>
-  </si>
-  <si>
-    <t>113386</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 400 мл 2 сл., d90 мм, крафт-бел., карт., 18 шт/упак (ООО Паперскоп Рус)</t>
-  </si>
-  <si>
     <t>113387</t>
   </si>
   <si>
     <t>Размешиватель 140 мм, инд. упак., древ. волокно, 250 шт/упак (H.T.B.-E.T.Co.)</t>
   </si>
   <si>
-    <t>113394</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 400 мл 2 сл., d90 мм, диз. "Big City Life", карт., 18 шт/упак (ООО Паперскоп Рус)</t>
-  </si>
-  <si>
-    <t>113504</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, прозр., ПП, 50 шт/упак (ООО ВЗЛП)</t>
-  </si>
-  <si>
-    <t>113506</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, бел., ПП, 50 шт/упак (ООО ВЗЛП)</t>
-  </si>
-  <si>
-    <t>113508</t>
-  </si>
-  <si>
-    <t>Сахар порционный 5 г, стик, 1000 шт/кор (ООО ВЗЛП)</t>
-  </si>
-  <si>
-    <t>113511</t>
-  </si>
-  <si>
-    <t>Ложка одноразовая Кристалл 180 мм, черн., ПС, 50 шт/упак (ООО ВЗЛП)</t>
-  </si>
-  <si>
     <t>113606</t>
   </si>
   <si>
@@ -787,12 +673,6 @@
     <t>114373</t>
   </si>
   <si>
-    <t>114458</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 185 мл 1 сл., d73 мм, бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
-  </si>
-  <si>
     <t>114506</t>
   </si>
   <si>
@@ -859,18 +739,6 @@
     <t>Контейнер 550 мл, 130х130х49 мм, без окна, без крышки, бел, карт., 50 шт/упак "OSQ" Eco SmartPack</t>
   </si>
   <si>
-    <t>114919</t>
-  </si>
-  <si>
-    <t>Вилка одноразовая 173,5 мм, черн., ПП, 50 шт/упак (ООО ВЗЛП)</t>
-  </si>
-  <si>
-    <t>114921</t>
-  </si>
-  <si>
-    <t>Ложка одноразовая 173,5 мм, черн., ПП, 50 шт/упак (ООО ВЗЛП)</t>
-  </si>
-  <si>
     <t>114977</t>
   </si>
   <si>
@@ -887,42 +755,6 @@
   </si>
   <si>
     <t>Стакан бумажный 500 мл 1 сл., d90 мм, лого "Global Coffee", карт., 50 шт/упак</t>
-  </si>
-  <si>
-    <t>115601</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, оранж., ПП, 50 шт/упак (ООО ВЗЛП)</t>
-  </si>
-  <si>
-    <t>115602</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, зел., ПП, 50 шт/упак (ООО ВЗЛП)</t>
-  </si>
-  <si>
-    <t>115603</t>
-  </si>
-  <si>
-    <t>Соусник 50 мл, d63хh32 мм, неразъем. крышка, прозр., ПП, 80 шт/упак "Aerosnab"</t>
-  </si>
-  <si>
-    <t>115605</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d90 мм с боковым отверстием и питейником тип 3, бел., ПП, 50 шт/упак (ООО ВЗЛП)</t>
-  </si>
-  <si>
-    <t>115639</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 300 мл 2 сл., d90 мм, диз. "Big City Life", карт., 20 шт/упак (ООО Паперскоп Рус)</t>
-  </si>
-  <si>
-    <t>115646</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 250 мл 2 сл., d80 мм, диз. "Big City Life", карт., 20 шт/упак (ООО Паперскоп Рус)</t>
   </si>
   <si>
     <t>115692</t>
@@ -1075,7 +907,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H148"/>
+  <dimension ref="H120"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -2810,7 +2642,7 @@
       </c>
       <c r="G72" s="5" t="e"/>
       <c r="H72" s="7" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="73" ht="11" customHeight="true">
@@ -3269,7 +3101,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="92" ht="22" customHeight="true">
+    <row r="92" ht="11" customHeight="true">
       <c r="A92" s="3" t="s">
         <v>8</v>
       </c>
@@ -3283,14 +3115,14 @@
         <v>192</v>
       </c>
       <c r="E92" s="4" t="n">
-        <v>8.57</v>
+        <v>2.81</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G92" s="5" t="e"/>
       <c r="H92" s="7" t="n">
-        <v>350000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="93" ht="11" customHeight="true">
@@ -3307,14 +3139,14 @@
         <v>194</v>
       </c>
       <c r="E93" s="4" t="n">
-        <v>2.81</v>
+        <v>32.97</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G93" s="5" t="e"/>
       <c r="H93" s="7" t="n">
-        <v>240000</v>
+        <v>16800</v>
       </c>
     </row>
     <row r="94" ht="11" customHeight="true">
@@ -3331,14 +3163,14 @@
         <v>196</v>
       </c>
       <c r="E94" s="4" t="n">
-        <v>32.97</v>
+        <v>15.2</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G94" s="5" t="e"/>
       <c r="H94" s="7" t="n">
-        <v>16800</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="95" ht="11" customHeight="true">
@@ -3402,15 +3234,13 @@
       <c r="D97" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E97" s="4" t="n">
-        <v>8.55</v>
-      </c>
+      <c r="E97" s="3" t="e"/>
       <c r="F97" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G97" s="5" t="e"/>
       <c r="H97" s="7" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="98" ht="11" customHeight="true">
@@ -3426,18 +3256,16 @@
       <c r="D98" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E98" s="4" t="n">
-        <v>10.23</v>
-      </c>
+      <c r="E98" s="3" t="e"/>
       <c r="F98" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G98" s="5" t="e"/>
       <c r="H98" s="7" t="n">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="99" ht="11" customHeight="true">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="99" ht="22" customHeight="true">
       <c r="A99" s="3" t="s">
         <v>8</v>
       </c>
@@ -3451,17 +3279,17 @@
         <v>206</v>
       </c>
       <c r="E99" s="4" t="n">
-        <v>16.52</v>
+        <v>2.86</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G99" s="5" t="e"/>
       <c r="H99" s="7" t="n">
-        <v>105000</v>
-      </c>
-    </row>
-    <row r="100" ht="11" customHeight="true">
+        <v>98000</v>
+      </c>
+    </row>
+    <row r="100" ht="22" customHeight="true">
       <c r="A100" s="3" t="s">
         <v>8</v>
       </c>
@@ -3474,18 +3302,16 @@
       <c r="D100" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E100" s="4" t="n">
-        <v>11.13</v>
-      </c>
+      <c r="E100" s="3" t="e"/>
       <c r="F100" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G100" s="5" t="e"/>
       <c r="H100" s="7" t="n">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="101" ht="11" customHeight="true">
+        <v>106000</v>
+      </c>
+    </row>
+    <row r="101" ht="22" customHeight="true">
       <c r="A101" s="3" t="s">
         <v>8</v>
       </c>
@@ -3499,17 +3325,17 @@
         <v>210</v>
       </c>
       <c r="E101" s="4" t="n">
-        <v>14.92</v>
+        <v>20.02</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G101" s="5" t="e"/>
       <c r="H101" s="7" t="n">
-        <v>49000</v>
-      </c>
-    </row>
-    <row r="102" ht="11" customHeight="true">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="102" ht="22" customHeight="true">
       <c r="A102" s="3" t="s">
         <v>8</v>
       </c>
@@ -3522,15 +3348,15 @@
       <c r="D102" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E102" s="4" t="n">
-        <v>20.14</v>
+      <c r="E102" s="8" t="n">
+        <v>3038.81</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G102" s="5" t="e"/>
-      <c r="H102" s="7" t="n">
-        <v>12000</v>
+      <c r="H102" s="6" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="103" ht="22" customHeight="true">
@@ -3546,15 +3372,15 @@
       <c r="D103" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E103" s="4" t="n">
-        <v>10.4</v>
+      <c r="E103" s="8" t="n">
+        <v>4844.78</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G103" s="5" t="e"/>
-      <c r="H103" s="7" t="n">
-        <v>10000</v>
+      <c r="H103" s="6" t="n">
+        <v>292</v>
       </c>
     </row>
     <row r="104" ht="22" customHeight="true">
@@ -3568,17 +3394,15 @@
         <v>215</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E104" s="4" t="n">
-        <v>18.29</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="E104" s="3" t="e"/>
       <c r="F104" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G104" s="5" t="e"/>
       <c r="H104" s="7" t="n">
-        <v>12000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="105" ht="22" customHeight="true">
@@ -3589,20 +3413,20 @@
         <v>9</v>
       </c>
       <c r="C105" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D105" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="E105" s="4" t="n">
-        <v>17.73</v>
+        <v>25.55</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G105" s="5" t="e"/>
       <c r="H105" s="7" t="n">
-        <v>9000</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="106" ht="22" customHeight="true">
@@ -3613,20 +3437,20 @@
         <v>9</v>
       </c>
       <c r="C106" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>220</v>
-      </c>
       <c r="E106" s="4" t="n">
-        <v>11.13</v>
+        <v>21.96</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G106" s="5" t="e"/>
       <c r="H106" s="7" t="n">
-        <v>24000</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="107" ht="22" customHeight="true">
@@ -3637,20 +3461,20 @@
         <v>9</v>
       </c>
       <c r="C107" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D107" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D107" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="E107" s="4" t="n">
-        <v>17.66</v>
+        <v>44.57</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G107" s="5" t="e"/>
       <c r="H107" s="7" t="n">
-        <v>39000</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="108" ht="22" customHeight="true">
@@ -3661,20 +3485,20 @@
         <v>9</v>
       </c>
       <c r="C108" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D108" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D108" s="3" t="s">
-        <v>224</v>
-      </c>
       <c r="E108" s="4" t="n">
-        <v>21.05</v>
+        <v>76.68</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G108" s="5" t="e"/>
       <c r="H108" s="7" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="109" ht="22" customHeight="true">
@@ -3685,20 +3509,20 @@
         <v>9</v>
       </c>
       <c r="C109" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D109" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D109" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="E109" s="4" t="n">
-        <v>26.66</v>
+        <v>7.64</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G109" s="5" t="e"/>
       <c r="H109" s="7" t="n">
-        <v>11200</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="110" ht="22" customHeight="true">
@@ -3709,90 +3533,90 @@
         <v>9</v>
       </c>
       <c r="C110" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="E110" s="4" t="n">
+        <v>287.68</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="5" t="e"/>
+      <c r="H110" s="6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" ht="22" customHeight="true">
+      <c r="A111" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E110" s="4" t="n">
-        <v>34.57</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" s="5" t="e"/>
-      <c r="H110" s="7" t="n">
-        <v>5040</v>
-      </c>
-    </row>
-    <row r="111" ht="11" customHeight="true">
-      <c r="A111" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" s="3" t="s">
+      <c r="D111" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="E111" s="4" t="n">
+        <v>239.32</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="5" t="e"/>
+      <c r="H111" s="6" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="112" ht="11" customHeight="true">
+      <c r="A112" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="E111" s="3" t="e"/>
-      <c r="F111" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" s="5" t="e"/>
-      <c r="H111" s="7" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="112" ht="22" customHeight="true">
-      <c r="A112" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" s="3" t="s">
+      <c r="D112" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="E112" s="4" t="n">
+        <v>541.88</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" s="5" t="e"/>
+      <c r="H112" s="6" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="113" ht="11" customHeight="true">
+      <c r="A113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E112" s="4" t="n">
-        <v>35.08</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" s="5" t="e"/>
-      <c r="H112" s="7" t="n">
-        <v>5040</v>
-      </c>
-    </row>
-    <row r="113" ht="22" customHeight="true">
-      <c r="A113" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" s="3" t="s">
+      <c r="D113" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D113" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E113" s="4" t="n">
-        <v>8.57</v>
-      </c>
+      <c r="E113" s="3" t="e"/>
       <c r="F113" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G113" s="5" t="e"/>
       <c r="H113" s="7" t="n">
-        <v>350000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="114" ht="22" customHeight="true">
@@ -3803,23 +3627,23 @@
         <v>9</v>
       </c>
       <c r="C114" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D114" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="E114" s="4" t="n">
-        <v>8.56</v>
+        <v>63.5</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G114" s="5" t="e"/>
       <c r="H114" s="7" t="n">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="115" ht="11" customHeight="true">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="115" ht="22" customHeight="true">
       <c r="A115" s="3" t="s">
         <v>8</v>
       </c>
@@ -3827,44 +3651,44 @@
         <v>9</v>
       </c>
       <c r="C115" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="E115" s="4" t="n">
+        <v>39.46</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="5" t="e"/>
+      <c r="H115" s="6" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="116" ht="22" customHeight="true">
+      <c r="A116" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E115" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" s="5" t="e"/>
-      <c r="H115" s="7" t="n">
-        <v>360000</v>
-      </c>
-    </row>
-    <row r="116" ht="11" customHeight="true">
-      <c r="A116" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C116" s="3" t="s">
+      <c r="D116" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D116" s="3" t="s">
-        <v>240</v>
-      </c>
       <c r="E116" s="4" t="n">
-        <v>4.9</v>
+        <v>417.95</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G116" s="5" t="e"/>
       <c r="H116" s="7" t="n">
-        <v>10000</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="117" ht="11" customHeight="true">
@@ -3875,10 +3699,10 @@
         <v>9</v>
       </c>
       <c r="C117" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="E117" s="3" t="e"/>
       <c r="F117" s="3" t="s">
@@ -3886,10 +3710,10 @@
       </c>
       <c r="G117" s="5" t="e"/>
       <c r="H117" s="7" t="n">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="118" ht="22" customHeight="true">
+        <v>304000</v>
+      </c>
+    </row>
+    <row r="118" ht="11" customHeight="true">
       <c r="A118" s="3" t="s">
         <v>8</v>
       </c>
@@ -3897,23 +3721,21 @@
         <v>9</v>
       </c>
       <c r="C118" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D118" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E118" s="4" t="n">
-        <v>2.86</v>
-      </c>
+      <c r="E118" s="3" t="e"/>
       <c r="F118" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G118" s="5" t="e"/>
       <c r="H118" s="7" t="n">
-        <v>98000</v>
-      </c>
-    </row>
-    <row r="119" ht="22" customHeight="true">
+        <v>194000</v>
+      </c>
+    </row>
+    <row r="119" ht="11" customHeight="true">
       <c r="A119" s="3" t="s">
         <v>8</v>
       </c>
@@ -3921,10 +3743,10 @@
         <v>9</v>
       </c>
       <c r="C119" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="E119" s="3" t="e"/>
       <c r="F119" s="3" t="s">
@@ -3932,10 +3754,10 @@
       </c>
       <c r="G119" s="5" t="e"/>
       <c r="H119" s="7" t="n">
-        <v>106000</v>
-      </c>
-    </row>
-    <row r="120" ht="22" customHeight="true">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="120" ht="11" customHeight="true">
       <c r="A120" s="3" t="s">
         <v>8</v>
       </c>
@@ -3943,673 +3765,17 @@
         <v>9</v>
       </c>
       <c r="C120" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D120" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E120" s="4" t="n">
-        <v>20.02</v>
-      </c>
+      <c r="E120" s="3" t="e"/>
       <c r="F120" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G120" s="5" t="e"/>
-      <c r="H120" s="7" t="n">
-        <v>22500</v>
-      </c>
-    </row>
-    <row r="121" ht="22" customHeight="true">
-      <c r="A121" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E121" s="8" t="n">
-        <v>3038.81</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G121" s="5" t="e"/>
-      <c r="H121" s="6" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="122" ht="22" customHeight="true">
-      <c r="A122" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E122" s="8" t="n">
-        <v>4844.78</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" s="5" t="e"/>
-      <c r="H122" s="6" t="n">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="123" ht="22" customHeight="true">
-      <c r="A123" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E123" s="3" t="e"/>
-      <c r="F123" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" s="5" t="e"/>
-      <c r="H123" s="7" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="124" ht="11" customHeight="true">
-      <c r="A124" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E124" s="9" t="e"/>
-      <c r="F124" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" s="5" t="e"/>
-      <c r="H124" s="7" t="n">
-        <v>1084000</v>
-      </c>
-    </row>
-    <row r="125" ht="22" customHeight="true">
-      <c r="A125" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E125" s="4" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125" s="5" t="e"/>
-      <c r="H125" s="7" t="n">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="126" ht="22" customHeight="true">
-      <c r="A126" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E126" s="4" t="n">
-        <v>21.96</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G126" s="5" t="e"/>
-      <c r="H126" s="7" t="n">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="127" ht="22" customHeight="true">
-      <c r="A127" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E127" s="4" t="n">
-        <v>44.57</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G127" s="5" t="e"/>
-      <c r="H127" s="7" t="n">
-        <v>3375</v>
-      </c>
-    </row>
-    <row r="128" ht="22" customHeight="true">
-      <c r="A128" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E128" s="4" t="n">
-        <v>76.68</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G128" s="5" t="e"/>
-      <c r="H128" s="7" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="129" ht="22" customHeight="true">
-      <c r="A129" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E129" s="4" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G129" s="5" t="e"/>
-      <c r="H129" s="7" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="130" ht="22" customHeight="true">
-      <c r="A130" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E130" s="4" t="n">
-        <v>287.68</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G130" s="5" t="e"/>
-      <c r="H130" s="6" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="131" ht="22" customHeight="true">
-      <c r="A131" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E131" s="4" t="n">
-        <v>239.32</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G131" s="5" t="e"/>
-      <c r="H131" s="6" t="n">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="132" ht="11" customHeight="true">
-      <c r="A132" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E132" s="4" t="n">
-        <v>541.88</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G132" s="5" t="e"/>
-      <c r="H132" s="6" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="133" ht="11" customHeight="true">
-      <c r="A133" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E133" s="3" t="e"/>
-      <c r="F133" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G133" s="5" t="e"/>
-      <c r="H133" s="7" t="n">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="134" ht="22" customHeight="true">
-      <c r="A134" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E134" s="4" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G134" s="5" t="e"/>
-      <c r="H134" s="7" t="n">
-        <v>2625</v>
-      </c>
-    </row>
-    <row r="135" ht="22" customHeight="true">
-      <c r="A135" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E135" s="4" t="n">
-        <v>39.46</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G135" s="5" t="e"/>
-      <c r="H135" s="6" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="136" ht="11" customHeight="true">
-      <c r="A136" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E136" s="4" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G136" s="5" t="e"/>
-      <c r="H136" s="7" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="137" ht="11" customHeight="true">
-      <c r="A137" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E137" s="4" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G137" s="5" t="e"/>
-      <c r="H137" s="7" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="138" ht="22" customHeight="true">
-      <c r="A138" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E138" s="4" t="n">
-        <v>417.95</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G138" s="5" t="e"/>
-      <c r="H138" s="7" t="n">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="139" ht="11" customHeight="true">
-      <c r="A139" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E139" s="3" t="e"/>
-      <c r="F139" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G139" s="5" t="e"/>
-      <c r="H139" s="7" t="n">
-        <v>304000</v>
-      </c>
-    </row>
-    <row r="140" ht="11" customHeight="true">
-      <c r="A140" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E140" s="3" t="e"/>
-      <c r="F140" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G140" s="5" t="e"/>
-      <c r="H140" s="7" t="n">
-        <v>194000</v>
-      </c>
-    </row>
-    <row r="141" ht="22" customHeight="true">
-      <c r="A141" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E141" s="4" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G141" s="5" t="e"/>
-      <c r="H141" s="7" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="142" ht="22" customHeight="true">
-      <c r="A142" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E142" s="4" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G142" s="5" t="e"/>
-      <c r="H142" s="7" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="143" ht="11" customHeight="true">
-      <c r="A143" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E143" s="4" t="n">
-        <v>6.89</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G143" s="5" t="e"/>
-      <c r="H143" s="7" t="n">
-        <v>20400</v>
-      </c>
-    </row>
-    <row r="144" ht="22" customHeight="true">
-      <c r="A144" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E144" s="4" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G144" s="5" t="e"/>
-      <c r="H144" s="7" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="145" ht="22" customHeight="true">
-      <c r="A145" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E145" s="3" t="e"/>
-      <c r="F145" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G145" s="5" t="e"/>
-      <c r="H145" s="7" t="n">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="146" ht="22" customHeight="true">
-      <c r="A146" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E146" s="3" t="e"/>
-      <c r="F146" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G146" s="5" t="e"/>
-      <c r="H146" s="7" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="147" ht="11" customHeight="true">
-      <c r="A147" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E147" s="3" t="e"/>
-      <c r="F147" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G147" s="5" t="e"/>
-      <c r="H147" s="7" t="n">
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="148" ht="11" customHeight="true">
-      <c r="A148" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E148" s="3" t="e"/>
-      <c r="F148" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G148" s="5" t="e"/>
-      <c r="H148" s="6" t="n">
+      <c r="H120" s="6" t="n">
         <v>100</v>
       </c>
     </row>

--- a/data/В пути АЛМ.xlsx
+++ b/data/В пути АЛМ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
   <si>
     <t>Дата</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>16.02.2024 0:00:00</t>
+    <t>19.02.2024 0:00:00</t>
   </si>
   <si>
     <t>Алматы в Пути</t>
@@ -436,243 +436,228 @@
     <t>Ложка одноразовая 165 мм, красн., ПС, 12 шт/упак "МИСТЕРИЯ"</t>
   </si>
   <si>
-    <t>106502</t>
-  </si>
-  <si>
-    <t>Размешиватель 140 мм, коричн., бамбук, 500 шт/упак "GREEN MYSTERY"</t>
-  </si>
-  <si>
     <t>345044</t>
   </si>
   <si>
     <t>Размешиватель 140 мм, древ. волокно, 500 шт/упак (ООО Компания Лемио)</t>
   </si>
   <si>
-    <t>106552</t>
-  </si>
-  <si>
-    <t>Китайские палочки h220хd5 мм, инд. ПЭ упак., бамбук, 100 пар/упак "GREEN MYSTERY"</t>
-  </si>
-  <si>
-    <t>106553</t>
+    <t>591288</t>
+  </si>
+  <si>
+    <t>Форма для фуршетов 200 мл 80х80х60 мм, диз. "Средняя Пагода", прозр., ПС, 12 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>183210</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d210 мм, желт., ПС, 12 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>191609</t>
+  </si>
+  <si>
+    <t>Коробка для бургера [бургербокс] 152х152х80 мм, бел., сах.тростник, 50 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>191610</t>
+  </si>
+  <si>
+    <t>Коробка для бургера [бургербокс] 154х152х88 мм, бел., сах.тростник, 50 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>224128</t>
+  </si>
+  <si>
+    <t>Пакет Zip-Lock 50х70 мм, прозр., ПВД, 100 шт/упак (T.Z.W.P.)</t>
+  </si>
+  <si>
+    <t>224157</t>
+  </si>
+  <si>
+    <t>Пакет Zip-Lock 60х80 мм, прозр., ПВД, 100 шт/упак (T.Z.W.P.)</t>
+  </si>
+  <si>
+    <t>224245</t>
+  </si>
+  <si>
+    <t>Пакет Zip-Lock 80х120 мм, прозр., ПВД, 100 шт/упак (T.Z.W.P.)</t>
+  </si>
+  <si>
+    <t>224424</t>
+  </si>
+  <si>
+    <t>Пакет Zip-Lock 120х170 мм, прозр., ПВД, 100 шт/упак (T.Z.W.P.)</t>
+  </si>
+  <si>
+    <t>111453</t>
+  </si>
+  <si>
+    <t>Коробка для картофеля фри 126х50х135 мм, L, крафт, карт., 50 шт/упак "OSQ" Eco Fry</t>
+  </si>
+  <si>
+    <t>111577</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 220х140х13,5 мм, прозр., ПЭТ 400 шт/кор "OSQ" OpSalad 800</t>
+  </si>
+  <si>
+    <t>111580</t>
+  </si>
+  <si>
+    <t>Коробка для кондит. изделий 180х110х55 мм, с окном, неразъем.крышка, крафт-бел., карт., 50 шт/упак "</t>
+  </si>
+  <si>
+    <t>111613</t>
+  </si>
+  <si>
+    <t>Пакет [280+150]х320 мм с круч. ручками, крафт, бум., 250 шт/кор (ООО Демарт)</t>
+  </si>
+  <si>
+    <t>111770</t>
+  </si>
+  <si>
+    <t>Мешок для мусора 60 л, 68х58 см, 10 мкм, зел., ПНД, 20 шт/рул "VitaLux"</t>
+  </si>
+  <si>
+    <t>111875</t>
+  </si>
+  <si>
+    <t>Контейнер 800 мл, 209х127х55 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
+  </si>
+  <si>
+    <t>111884</t>
+  </si>
+  <si>
+    <t>Крышка для формы алюм. 140х115 мм, карт.фольг., 100 шт/упак (ООО Ламкарт)</t>
+  </si>
+  <si>
+    <t>112141</t>
+  </si>
+  <si>
+    <t>Пакет пищевой [110+40]х155 мм без руч., без окна, бел., бум., 25000 шт/кор (ООО Демарт)</t>
+  </si>
+  <si>
+    <t>112306</t>
+  </si>
+  <si>
+    <t>Пакет вакуум. 200х300 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
+  </si>
+  <si>
+    <t>112308</t>
+  </si>
+  <si>
+    <t>Пакет вакуум. 160х250 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
+  </si>
+  <si>
+    <t>112340</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 175х130х13,5 мм, прозр., ПЭТ 50 шт/упак "OSQ" OpSalad 500</t>
+  </si>
+  <si>
+    <t>112341</t>
+  </si>
+  <si>
+    <t>Контейнер 500 мл, 164х115х45 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
+  </si>
+  <si>
+    <t>112619</t>
+  </si>
+  <si>
+    <t>Коробка для торта 180х180х100 мм, с окном, неразъем.крышка, без руч., бел., карт., 120 шт/кор "Forge</t>
+  </si>
+  <si>
+    <t>112638</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру купол. d150хh38 мм, прозр., ПЭТ, 45 шт/упак "OSQ" Round Bowl dome lid</t>
+  </si>
+  <si>
+    <t>112713</t>
+  </si>
+  <si>
+    <t>Размешиватель 180 мм, древ. волокно, 1000 шт/упак (ООО Компания Лемио)</t>
+  </si>
+  <si>
+    <t>112808</t>
+  </si>
+  <si>
+    <t>Обертка для бургеров и хот-догов 105х450 мм, беж., бум., 1000 шт/кор (ООО Тек-Пак)</t>
+  </si>
+  <si>
+    <t>112831</t>
+  </si>
+  <si>
+    <t>Пакет [260+150]х350 мм с круч. ручками, крафт, бум., 350 шт/кор (ООО Тек-Пак)</t>
+  </si>
+  <si>
+    <t>113073</t>
+  </si>
+  <si>
+    <t>Перчатки нитровиниловые, р-р M, неопудрен., черн., 50 пар/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>113104</t>
+  </si>
+  <si>
+    <t>Упаковка 240х240х100 мм, бел., карт., 15 шт/упак "Forgenika" Cake Roll II Window White</t>
+  </si>
+  <si>
+    <t>113206</t>
+  </si>
+  <si>
+    <t>Стакан-шейкер одноразовый 300 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>113289</t>
+  </si>
+  <si>
+    <t>Чековая лента 80мм х 80м, d12 мм, бел., термобум. "Честный чек"</t>
+  </si>
+  <si>
+    <t>113387</t>
+  </si>
+  <si>
+    <t>Размешиватель 140 мм, инд. упак., древ. волокно, 250 шт/упак (H.T.B.-E.T.Co.)</t>
+  </si>
+  <si>
+    <t>113507</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, желт., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>113606</t>
+  </si>
+  <si>
+    <t>Размешиватель 140 мм, инд. упак., бамбук, 250 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>114019</t>
+  </si>
+  <si>
+    <t>Держатель для стаканов 2 яч. 90х180х50 мм, крафт-бел., карт., 450 шт/кор "OSQ" Eco CupHolder double</t>
+  </si>
+  <si>
+    <t>114028</t>
+  </si>
+  <si>
+    <t>Мешок кондитерский в рулоне 1-сл., 53 см, 90 мкм, прозр., ПЭ, 100 шт/рул (ООО Компания Лемио)</t>
+  </si>
+  <si>
+    <t>114166</t>
+  </si>
+  <si>
+    <t>Мешок для мусора 150 л, [70+40]х120 см, 55 мкм, черн., ПВД, 50 шт/упак (ООО Техинвест Плюс)</t>
+  </si>
+  <si>
+    <t>114373</t>
   </si>
   <si>
     <t>Китайские палочки h220хd5 мм, инд. ПЭ упак. с зубочисткой, бамбук, 100 пар/упак "GREEN MYSTERY"</t>
   </si>
   <si>
-    <t>591288</t>
-  </si>
-  <si>
-    <t>Форма для фуршетов 200 мл 80х80х60 мм, диз. "Средняя Пагода", прозр., ПС, 12 шт/упак (ООО ВЗЛП)</t>
-  </si>
-  <si>
-    <t>183210</t>
-  </si>
-  <si>
-    <t>Тарелка одноразовая мелкая d210 мм, желт., ПС, 12 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
-    <t>191609</t>
-  </si>
-  <si>
-    <t>Коробка для бургера [бургербокс] 152х152х80 мм, бел., сах.тростник, 50 шт/упак "GREEN MYSTERY"</t>
-  </si>
-  <si>
-    <t>191610</t>
-  </si>
-  <si>
-    <t>Коробка для бургера [бургербокс] 154х152х88 мм, бел., сах.тростник, 50 шт/упак "GREEN MYSTERY"</t>
-  </si>
-  <si>
-    <t>224128</t>
-  </si>
-  <si>
-    <t>Пакет Zip-Lock 50х70 мм, прозр., ПВД, 100 шт/упак (T.Z.W.P.)</t>
-  </si>
-  <si>
-    <t>224157</t>
-  </si>
-  <si>
-    <t>Пакет Zip-Lock 60х80 мм, прозр., ПВД, 100 шт/упак (T.Z.W.P.)</t>
-  </si>
-  <si>
-    <t>224245</t>
-  </si>
-  <si>
-    <t>Пакет Zip-Lock 80х120 мм, прозр., ПВД, 100 шт/упак (T.Z.W.P.)</t>
-  </si>
-  <si>
-    <t>224424</t>
-  </si>
-  <si>
-    <t>Пакет Zip-Lock 120х170 мм, прозр., ПВД, 100 шт/упак (T.Z.W.P.)</t>
-  </si>
-  <si>
-    <t>111453</t>
-  </si>
-  <si>
-    <t>Коробка для картофеля фри 126х50х135 мм, L, крафт, карт., 50 шт/упак "OSQ" Eco Fry</t>
-  </si>
-  <si>
-    <t>111577</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру 220х140х13,5 мм, прозр., ПЭТ 400 шт/кор "OSQ" OpSalad 800</t>
-  </si>
-  <si>
-    <t>111580</t>
-  </si>
-  <si>
-    <t>Коробка для кондит. изделий 180х110х55 мм, с окном, неразъем.крышка, крафт-бел., карт., 50 шт/упак "</t>
-  </si>
-  <si>
-    <t>111613</t>
-  </si>
-  <si>
-    <t>Пакет [280+150]х320 мм с круч. ручками, крафт, бум., 250 шт/кор (ООО Демарт)</t>
-  </si>
-  <si>
-    <t>111770</t>
-  </si>
-  <si>
-    <t>Мешок для мусора 60 л, 68х58 см, 10 мкм, зел., ПНД, 20 шт/рул "VitaLux"</t>
-  </si>
-  <si>
-    <t>111875</t>
-  </si>
-  <si>
-    <t>Контейнер 800 мл, 209х127х55 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
-  </si>
-  <si>
-    <t>111884</t>
-  </si>
-  <si>
-    <t>Крышка для формы алюм. 140х115 мм, карт.фольг., 100 шт/упак (ООО Ламкарт)</t>
-  </si>
-  <si>
-    <t>112141</t>
-  </si>
-  <si>
-    <t>Пакет пищевой [110+40]х155 мм без руч., без окна, бел., бум., 25000 шт/кор (ООО Демарт)</t>
-  </si>
-  <si>
-    <t>112306</t>
-  </si>
-  <si>
-    <t>Пакет вакуум. 200х300 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
-  </si>
-  <si>
-    <t>112308</t>
-  </si>
-  <si>
-    <t>Пакет вакуум. 160х250 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
-  </si>
-  <si>
-    <t>112340</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру 175х130х13,5 мм, прозр., ПЭТ 50 шт/упак "OSQ" OpSalad 500</t>
-  </si>
-  <si>
-    <t>112341</t>
-  </si>
-  <si>
-    <t>Контейнер 500 мл, 164х115х45 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
-  </si>
-  <si>
-    <t>112619</t>
-  </si>
-  <si>
-    <t>Коробка для торта 180х180х100 мм, с окном, неразъем.крышка, без руч., бел., карт., 120 шт/кор "Forge</t>
-  </si>
-  <si>
-    <t>112638</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру купол. d150хh38 мм, прозр., ПЭТ, 45 шт/упак "OSQ" Round Bowl dome lid</t>
-  </si>
-  <si>
-    <t>112713</t>
-  </si>
-  <si>
-    <t>Размешиватель 180 мм, древ. волокно, 1000 шт/упак (ООО Компания Лемио)</t>
-  </si>
-  <si>
-    <t>112808</t>
-  </si>
-  <si>
-    <t>Обертка для бургеров и хот-догов 105х450 мм, беж., бум., 1000 шт/кор (ООО Тек-Пак)</t>
-  </si>
-  <si>
-    <t>112831</t>
-  </si>
-  <si>
-    <t>Пакет [260+150]х350 мм с круч. ручками, крафт, бум., 350 шт/кор (ООО Тек-Пак)</t>
-  </si>
-  <si>
-    <t>113073</t>
-  </si>
-  <si>
-    <t>Перчатки нитровиниловые, р-р M, неопудрен., черн., 50 пар/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
-    <t>113104</t>
-  </si>
-  <si>
-    <t>Упаковка 240х240х100 мм, бел., карт., 15 шт/упак "Forgenika" Cake Roll II Window White</t>
-  </si>
-  <si>
-    <t>113289</t>
-  </si>
-  <si>
-    <t>Чековая лента 80мм х 80м, d12 мм, бел., термобум. "Честный чек"</t>
-  </si>
-  <si>
-    <t>113387</t>
-  </si>
-  <si>
-    <t>Размешиватель 140 мм, инд. упак., древ. волокно, 250 шт/упак (H.T.B.-E.T.Co.)</t>
-  </si>
-  <si>
-    <t>113606</t>
-  </si>
-  <si>
-    <t>Размешиватель 140 мм, инд. упак., бамбук, 250 шт/упак "GREEN MYSTERY"</t>
-  </si>
-  <si>
-    <t>113938</t>
-  </si>
-  <si>
-    <t>Упаковка для бургера типа "Уголок" 155х170 мм, крафт, бум., 2000 шт/упак (ООО Тек-Пак)</t>
-  </si>
-  <si>
-    <t>113939</t>
-  </si>
-  <si>
-    <t>Упаковка для бургера типа "Уголок" 175х175 мм, крафт, бум., 2500 шт/упак (ООО Тек-Пак)</t>
-  </si>
-  <si>
-    <t>114019</t>
-  </si>
-  <si>
-    <t>Держатель для стаканов 2 яч. 90х180х50 мм, крафт-бел., карт., 450 шт/кор "OSQ" Eco CupHolder double</t>
-  </si>
-  <si>
-    <t>114028</t>
-  </si>
-  <si>
-    <t>Мешок кондитерский в рулоне 1-сл., 53 см, 90 мкм, прозр., ПЭ, 100 шт/рул (ООО Компания Лемио)</t>
-  </si>
-  <si>
-    <t>114166</t>
-  </si>
-  <si>
-    <t>Мешок для мусора 150 л, [70+40]х120 см, 55 мкм, черн., ПВД, 50 шт/упак (ООО Техинвест Плюс)</t>
-  </si>
-  <si>
-    <t>114373</t>
-  </si>
-  <si>
     <t>114506</t>
   </si>
   <si>
@@ -767,6 +752,18 @@
   </si>
   <si>
     <t>Подложка d240 мм 0,8 мм, золот.-сереб., карт. фольг., 100 шт/упак "Pasticciere"</t>
+  </si>
+  <si>
+    <t>115755</t>
+  </si>
+  <si>
+    <t>Упаковка для бургера типа "Уголок" 165х170 мм, бел., бум., 2000 шт/кор "Global coffee Космос" (ООО Т</t>
+  </si>
+  <si>
+    <t>115758</t>
+  </si>
+  <si>
+    <t>Упаковка для бургера типа "Уголок" 165х170 мм, "Global coffee Действуй" (ООО Тек-Пак)</t>
   </si>
 </sst>
 </file>
@@ -907,7 +904,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H120"/>
+  <dimension ref="H119"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -2469,17 +2466,17 @@
         <v>138</v>
       </c>
       <c r="E65" s="4" t="n">
-        <v>0.9</v>
+        <v>1.13</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G65" s="5" t="e"/>
       <c r="H65" s="7" t="n">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="66" ht="11" customHeight="true">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="66" ht="22" customHeight="true">
       <c r="A66" s="3" t="s">
         <v>8</v>
       </c>
@@ -2492,18 +2489,16 @@
       <c r="D66" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E66" s="4" t="n">
-        <v>1.13</v>
-      </c>
+      <c r="E66" s="3" t="e"/>
       <c r="F66" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G66" s="5" t="e"/>
       <c r="H66" s="7" t="n">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="67" ht="22" customHeight="true">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="67" ht="11" customHeight="true">
       <c r="A67" s="3" t="s">
         <v>8</v>
       </c>
@@ -2517,14 +2512,14 @@
         <v>142</v>
       </c>
       <c r="E67" s="4" t="n">
-        <v>4.3</v>
+        <v>7.87</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G67" s="5" t="e"/>
       <c r="H67" s="7" t="n">
-        <v>3000</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="68" ht="22" customHeight="true">
@@ -2541,14 +2536,14 @@
         <v>144</v>
       </c>
       <c r="E68" s="4" t="n">
-        <v>4.42</v>
+        <v>23.17</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G68" s="5" t="e"/>
       <c r="H68" s="7" t="n">
-        <v>3000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="69" ht="22" customHeight="true">
@@ -2564,13 +2559,15 @@
       <c r="D69" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E69" s="3" t="e"/>
+      <c r="E69" s="4" t="n">
+        <v>27.49</v>
+      </c>
       <c r="F69" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G69" s="5" t="e"/>
       <c r="H69" s="7" t="n">
-        <v>1440</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="70" ht="11" customHeight="true">
@@ -2587,17 +2584,17 @@
         <v>148</v>
       </c>
       <c r="E70" s="4" t="n">
-        <v>7.87</v>
+        <v>41.77</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G70" s="5" t="e"/>
-      <c r="H70" s="7" t="n">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="71" ht="22" customHeight="true">
+      <c r="H70" s="6" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="71" ht="11" customHeight="true">
       <c r="A71" s="3" t="s">
         <v>8</v>
       </c>
@@ -2611,17 +2608,17 @@
         <v>150</v>
       </c>
       <c r="E71" s="4" t="n">
-        <v>23.17</v>
+        <v>53.94</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G71" s="5" t="e"/>
       <c r="H71" s="7" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="72" ht="22" customHeight="true">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="72" ht="11" customHeight="true">
       <c r="A72" s="3" t="s">
         <v>8</v>
       </c>
@@ -2635,14 +2632,14 @@
         <v>152</v>
       </c>
       <c r="E72" s="4" t="n">
-        <v>27.49</v>
+        <v>101.39</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G72" s="5" t="e"/>
-      <c r="H72" s="7" t="n">
-        <v>6000</v>
+      <c r="H72" s="6" t="n">
+        <v>441</v>
       </c>
     </row>
     <row r="73" ht="11" customHeight="true">
@@ -2659,14 +2656,14 @@
         <v>154</v>
       </c>
       <c r="E73" s="4" t="n">
-        <v>41.77</v>
+        <v>204.91</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G73" s="5" t="e"/>
       <c r="H73" s="6" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" ht="11" customHeight="true">
@@ -2683,14 +2680,14 @@
         <v>156</v>
       </c>
       <c r="E74" s="4" t="n">
-        <v>53.94</v>
+        <v>13.49</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G74" s="5" t="e"/>
       <c r="H74" s="7" t="n">
-        <v>1700</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="75" ht="11" customHeight="true">
@@ -2707,17 +2704,17 @@
         <v>158</v>
       </c>
       <c r="E75" s="4" t="n">
-        <v>101.39</v>
+        <v>29.68</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G75" s="5" t="e"/>
-      <c r="H75" s="6" t="n">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="76" ht="11" customHeight="true">
+      <c r="H75" s="7" t="n">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="76" ht="22" customHeight="true">
       <c r="A76" s="3" t="s">
         <v>8</v>
       </c>
@@ -2731,14 +2728,14 @@
         <v>160</v>
       </c>
       <c r="E76" s="4" t="n">
-        <v>204.91</v>
+        <v>62.99</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G76" s="5" t="e"/>
-      <c r="H76" s="6" t="n">
-        <v>240</v>
+      <c r="H76" s="7" t="n">
+        <v>4500</v>
       </c>
     </row>
     <row r="77" ht="11" customHeight="true">
@@ -2755,14 +2752,14 @@
         <v>162</v>
       </c>
       <c r="E77" s="4" t="n">
-        <v>13.49</v>
+        <v>33.17</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G77" s="5" t="e"/>
       <c r="H77" s="7" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="78" ht="11" customHeight="true">
@@ -2779,14 +2776,14 @@
         <v>164</v>
       </c>
       <c r="E78" s="4" t="n">
-        <v>29.68</v>
+        <v>247.93</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G78" s="5" t="e"/>
-      <c r="H78" s="7" t="n">
-        <v>32000</v>
+      <c r="H78" s="6" t="n">
+        <v>160</v>
       </c>
     </row>
     <row r="79" ht="22" customHeight="true">
@@ -2803,14 +2800,14 @@
         <v>166</v>
       </c>
       <c r="E79" s="4" t="n">
-        <v>62.99</v>
+        <v>27.28</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G79" s="5" t="e"/>
       <c r="H79" s="7" t="n">
-        <v>4500</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="80" ht="11" customHeight="true">
@@ -2827,17 +2824,17 @@
         <v>168</v>
       </c>
       <c r="E80" s="4" t="n">
-        <v>33.17</v>
+        <v>4.1</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G80" s="5" t="e"/>
       <c r="H80" s="7" t="n">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="81" ht="11" customHeight="true">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="81" ht="22" customHeight="true">
       <c r="A81" s="3" t="s">
         <v>8</v>
       </c>
@@ -2851,17 +2848,17 @@
         <v>170</v>
       </c>
       <c r="E81" s="4" t="n">
-        <v>247.93</v>
+        <v>4.17</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G81" s="5" t="e"/>
-      <c r="H81" s="6" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="82" ht="22" customHeight="true">
+      <c r="H81" s="7" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="82" ht="11" customHeight="true">
       <c r="A82" s="3" t="s">
         <v>8</v>
       </c>
@@ -2874,15 +2871,15 @@
       <c r="D82" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E82" s="4" t="n">
-        <v>27.28</v>
+      <c r="E82" s="8" t="n">
+        <v>2419.73</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G82" s="5" t="e"/>
-      <c r="H82" s="7" t="n">
-        <v>32000</v>
+      <c r="H82" s="6" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="83" ht="11" customHeight="true">
@@ -2898,18 +2895,18 @@
       <c r="D83" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E83" s="4" t="n">
-        <v>4.1</v>
+      <c r="E83" s="8" t="n">
+        <v>1607.33</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G83" s="5" t="e"/>
-      <c r="H83" s="7" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="84" ht="22" customHeight="true">
+      <c r="H83" s="6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" ht="11" customHeight="true">
       <c r="A84" s="3" t="s">
         <v>8</v>
       </c>
@@ -2923,17 +2920,17 @@
         <v>176</v>
       </c>
       <c r="E84" s="4" t="n">
-        <v>4.17</v>
+        <v>21.58</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G84" s="5" t="e"/>
       <c r="H84" s="7" t="n">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="85" ht="11" customHeight="true">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="85" ht="22" customHeight="true">
       <c r="A85" s="3" t="s">
         <v>8</v>
       </c>
@@ -2946,18 +2943,18 @@
       <c r="D85" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E85" s="8" t="n">
-        <v>2419.73</v>
+      <c r="E85" s="4" t="n">
+        <v>19.96</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G85" s="5" t="e"/>
-      <c r="H85" s="6" t="n">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="86" ht="11" customHeight="true">
+      <c r="H85" s="7" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="86" ht="22" customHeight="true">
       <c r="A86" s="3" t="s">
         <v>8</v>
       </c>
@@ -2970,18 +2967,18 @@
       <c r="D86" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="E86" s="8" t="n">
-        <v>1607.33</v>
+      <c r="E86" s="4" t="n">
+        <v>169.33</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G86" s="5" t="e"/>
-      <c r="H86" s="6" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" ht="11" customHeight="true">
+      <c r="H86" s="7" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="87" ht="22" customHeight="true">
       <c r="A87" s="3" t="s">
         <v>8</v>
       </c>
@@ -2995,17 +2992,17 @@
         <v>182</v>
       </c>
       <c r="E87" s="4" t="n">
-        <v>21.58</v>
+        <v>159.42</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G87" s="5" t="e"/>
       <c r="H87" s="7" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="88" ht="22" customHeight="true">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="88" ht="11" customHeight="true">
       <c r="A88" s="3" t="s">
         <v>8</v>
       </c>
@@ -3019,17 +3016,17 @@
         <v>184</v>
       </c>
       <c r="E88" s="4" t="n">
-        <v>19.96</v>
+        <v>1.31</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G88" s="5" t="e"/>
       <c r="H88" s="7" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="89" ht="22" customHeight="true">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="89" ht="11" customHeight="true">
       <c r="A89" s="3" t="s">
         <v>8</v>
       </c>
@@ -3043,17 +3040,17 @@
         <v>186</v>
       </c>
       <c r="E89" s="4" t="n">
-        <v>169.33</v>
+        <v>2.81</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G89" s="5" t="e"/>
       <c r="H89" s="7" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="90" ht="22" customHeight="true">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="90" ht="11" customHeight="true">
       <c r="A90" s="3" t="s">
         <v>8</v>
       </c>
@@ -3067,14 +3064,14 @@
         <v>188</v>
       </c>
       <c r="E90" s="4" t="n">
-        <v>159.42</v>
+        <v>32.97</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G90" s="5" t="e"/>
       <c r="H90" s="7" t="n">
-        <v>2700</v>
+        <v>16800</v>
       </c>
     </row>
     <row r="91" ht="11" customHeight="true">
@@ -3091,14 +3088,14 @@
         <v>190</v>
       </c>
       <c r="E91" s="4" t="n">
-        <v>1.31</v>
+        <v>15.2</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G91" s="5" t="e"/>
       <c r="H91" s="7" t="n">
-        <v>260000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="92" ht="11" customHeight="true">
@@ -3115,14 +3112,14 @@
         <v>192</v>
       </c>
       <c r="E92" s="4" t="n">
-        <v>2.81</v>
+        <v>213.11</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G92" s="5" t="e"/>
-      <c r="H92" s="7" t="n">
-        <v>240000</v>
+      <c r="H92" s="6" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="93" ht="11" customHeight="true">
@@ -3139,14 +3136,14 @@
         <v>194</v>
       </c>
       <c r="E93" s="4" t="n">
-        <v>32.97</v>
+        <v>15.63</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G93" s="5" t="e"/>
       <c r="H93" s="7" t="n">
-        <v>16800</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="94" ht="11" customHeight="true">
@@ -3163,14 +3160,14 @@
         <v>196</v>
       </c>
       <c r="E94" s="4" t="n">
-        <v>15.2</v>
+        <v>412.05</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G94" s="5" t="e"/>
-      <c r="H94" s="7" t="n">
-        <v>20000</v>
+      <c r="H94" s="6" t="n">
+        <v>813</v>
       </c>
     </row>
     <row r="95" ht="11" customHeight="true">
@@ -3186,18 +3183,16 @@
       <c r="D95" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E95" s="4" t="n">
-        <v>213.11</v>
-      </c>
+      <c r="E95" s="3" t="e"/>
       <c r="F95" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G95" s="5" t="e"/>
-      <c r="H95" s="6" t="n">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="96" ht="11" customHeight="true">
+      <c r="H95" s="7" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="96" ht="22" customHeight="true">
       <c r="A96" s="3" t="s">
         <v>8</v>
       </c>
@@ -3211,14 +3206,14 @@
         <v>200</v>
       </c>
       <c r="E96" s="4" t="n">
-        <v>412.05</v>
+        <v>8.56</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G96" s="5" t="e"/>
-      <c r="H96" s="6" t="n">
-        <v>813</v>
+      <c r="H96" s="7" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="97" ht="11" customHeight="true">
@@ -3240,10 +3235,10 @@
       </c>
       <c r="G97" s="5" t="e"/>
       <c r="H97" s="7" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="98" ht="11" customHeight="true">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="98" ht="22" customHeight="true">
       <c r="A98" s="3" t="s">
         <v>8</v>
       </c>
@@ -3256,13 +3251,15 @@
       <c r="D98" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E98" s="3" t="e"/>
+      <c r="E98" s="4" t="n">
+        <v>20.02</v>
+      </c>
       <c r="F98" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G98" s="5" t="e"/>
       <c r="H98" s="7" t="n">
-        <v>110000</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="99" ht="22" customHeight="true">
@@ -3278,15 +3275,15 @@
       <c r="D99" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E99" s="4" t="n">
-        <v>2.86</v>
+      <c r="E99" s="8" t="n">
+        <v>3038.81</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G99" s="5" t="e"/>
-      <c r="H99" s="7" t="n">
-        <v>98000</v>
+      <c r="H99" s="6" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="100" ht="22" customHeight="true">
@@ -3302,13 +3299,15 @@
       <c r="D100" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E100" s="3" t="e"/>
+      <c r="E100" s="8" t="n">
+        <v>4844.78</v>
+      </c>
       <c r="F100" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G100" s="5" t="e"/>
-      <c r="H100" s="7" t="n">
-        <v>106000</v>
+      <c r="H100" s="6" t="n">
+        <v>292</v>
       </c>
     </row>
     <row r="101" ht="22" customHeight="true">
@@ -3324,15 +3323,13 @@
       <c r="D101" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E101" s="4" t="n">
-        <v>20.02</v>
-      </c>
+      <c r="E101" s="3" t="e"/>
       <c r="F101" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G101" s="5" t="e"/>
       <c r="H101" s="7" t="n">
-        <v>22500</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="102" ht="22" customHeight="true">
@@ -3348,15 +3345,15 @@
       <c r="D102" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E102" s="8" t="n">
-        <v>3038.81</v>
+      <c r="E102" s="4" t="n">
+        <v>25.55</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G102" s="5" t="e"/>
-      <c r="H102" s="6" t="n">
-        <v>90</v>
+      <c r="H102" s="7" t="n">
+        <v>4800</v>
       </c>
     </row>
     <row r="103" ht="22" customHeight="true">
@@ -3372,15 +3369,15 @@
       <c r="D103" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E103" s="8" t="n">
-        <v>4844.78</v>
+      <c r="E103" s="4" t="n">
+        <v>21.96</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G103" s="5" t="e"/>
-      <c r="H103" s="6" t="n">
-        <v>292</v>
+      <c r="H103" s="7" t="n">
+        <v>4800</v>
       </c>
     </row>
     <row r="104" ht="22" customHeight="true">
@@ -3394,15 +3391,17 @@
         <v>215</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E104" s="3" t="e"/>
+        <v>216</v>
+      </c>
+      <c r="E104" s="4" t="n">
+        <v>44.57</v>
+      </c>
       <c r="F104" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G104" s="5" t="e"/>
       <c r="H104" s="7" t="n">
-        <v>1200</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="105" ht="22" customHeight="true">
@@ -3413,20 +3412,20 @@
         <v>9</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E105" s="4" t="n">
-        <v>25.55</v>
+        <v>76.68</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G105" s="5" t="e"/>
       <c r="H105" s="7" t="n">
-        <v>4800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="106" ht="22" customHeight="true">
@@ -3437,20 +3436,20 @@
         <v>9</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E106" s="4" t="n">
-        <v>21.96</v>
+        <v>7.64</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G106" s="5" t="e"/>
       <c r="H106" s="7" t="n">
-        <v>4800</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="107" ht="22" customHeight="true">
@@ -3461,20 +3460,20 @@
         <v>9</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E107" s="4" t="n">
-        <v>44.57</v>
+        <v>287.68</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G107" s="5" t="e"/>
-      <c r="H107" s="7" t="n">
-        <v>3375</v>
+      <c r="H107" s="6" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="22" customHeight="true">
@@ -3485,23 +3484,23 @@
         <v>9</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E108" s="4" t="n">
-        <v>76.68</v>
+        <v>239.32</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G108" s="5" t="e"/>
-      <c r="H108" s="7" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="109" ht="22" customHeight="true">
+      <c r="H108" s="6" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="109" ht="11" customHeight="true">
       <c r="A109" s="3" t="s">
         <v>8</v>
       </c>
@@ -3509,23 +3508,23 @@
         <v>9</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E109" s="4" t="n">
-        <v>7.64</v>
+        <v>541.88</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G109" s="5" t="e"/>
-      <c r="H109" s="7" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="110" ht="22" customHeight="true">
+      <c r="H109" s="6" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="110" ht="11" customHeight="true">
       <c r="A110" s="3" t="s">
         <v>8</v>
       </c>
@@ -3533,20 +3532,18 @@
         <v>9</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E110" s="4" t="n">
-        <v>287.68</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="E110" s="3" t="e"/>
       <c r="F110" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G110" s="5" t="e"/>
-      <c r="H110" s="6" t="n">
-        <v>20</v>
+      <c r="H110" s="7" t="n">
+        <v>6000</v>
       </c>
     </row>
     <row r="111" ht="22" customHeight="true">
@@ -3557,23 +3554,23 @@
         <v>9</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E111" s="4" t="n">
-        <v>239.32</v>
+        <v>63.5</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G111" s="5" t="e"/>
-      <c r="H111" s="6" t="n">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="112" ht="11" customHeight="true">
+      <c r="H111" s="7" t="n">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="112" ht="22" customHeight="true">
       <c r="A112" s="3" t="s">
         <v>8</v>
       </c>
@@ -3581,23 +3578,23 @@
         <v>9</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E112" s="4" t="n">
-        <v>541.88</v>
+        <v>39.46</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G112" s="5" t="e"/>
       <c r="H112" s="6" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="113" ht="11" customHeight="true">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="113" ht="22" customHeight="true">
       <c r="A113" s="3" t="s">
         <v>8</v>
       </c>
@@ -3605,21 +3602,23 @@
         <v>9</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E113" s="3" t="e"/>
+        <v>234</v>
+      </c>
+      <c r="E113" s="4" t="n">
+        <v>417.95</v>
+      </c>
       <c r="F113" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G113" s="5" t="e"/>
       <c r="H113" s="7" t="n">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="114" ht="22" customHeight="true">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="114" ht="11" customHeight="true">
       <c r="A114" s="3" t="s">
         <v>8</v>
       </c>
@@ -3627,23 +3626,21 @@
         <v>9</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E114" s="4" t="n">
-        <v>63.5</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="E114" s="3" t="e"/>
       <c r="F114" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G114" s="5" t="e"/>
       <c r="H114" s="7" t="n">
-        <v>2625</v>
-      </c>
-    </row>
-    <row r="115" ht="22" customHeight="true">
+        <v>304000</v>
+      </c>
+    </row>
+    <row r="115" ht="11" customHeight="true">
       <c r="A115" s="3" t="s">
         <v>8</v>
       </c>
@@ -3651,23 +3648,21 @@
         <v>9</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E115" s="4" t="n">
-        <v>39.46</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="E115" s="3" t="e"/>
       <c r="F115" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G115" s="5" t="e"/>
-      <c r="H115" s="6" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="116" ht="22" customHeight="true">
+      <c r="H115" s="7" t="n">
+        <v>194000</v>
+      </c>
+    </row>
+    <row r="116" ht="11" customHeight="true">
       <c r="A116" s="3" t="s">
         <v>8</v>
       </c>
@@ -3675,20 +3670,18 @@
         <v>9</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E116" s="4" t="n">
-        <v>417.95</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="E116" s="3" t="e"/>
       <c r="F116" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G116" s="5" t="e"/>
       <c r="H116" s="7" t="n">
-        <v>2100</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="117" ht="11" customHeight="true">
@@ -3699,21 +3692,21 @@
         <v>9</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E117" s="3" t="e"/>
       <c r="F117" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G117" s="5" t="e"/>
-      <c r="H117" s="7" t="n">
-        <v>304000</v>
-      </c>
-    </row>
-    <row r="118" ht="11" customHeight="true">
+      <c r="H117" s="6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" ht="22" customHeight="true">
       <c r="A118" s="3" t="s">
         <v>8</v>
       </c>
@@ -3721,10 +3714,10 @@
         <v>9</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E118" s="3" t="e"/>
       <c r="F118" s="3" t="s">
@@ -3732,10 +3725,10 @@
       </c>
       <c r="G118" s="5" t="e"/>
       <c r="H118" s="7" t="n">
-        <v>194000</v>
-      </c>
-    </row>
-    <row r="119" ht="11" customHeight="true">
+        <v>106000</v>
+      </c>
+    </row>
+    <row r="119" ht="22" customHeight="true">
       <c r="A119" s="3" t="s">
         <v>8</v>
       </c>
@@ -3743,10 +3736,10 @@
         <v>9</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E119" s="3" t="e"/>
       <c r="F119" s="3" t="s">
@@ -3754,29 +3747,7 @@
       </c>
       <c r="G119" s="5" t="e"/>
       <c r="H119" s="7" t="n">
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="120" ht="11" customHeight="true">
-      <c r="A120" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E120" s="3" t="e"/>
-      <c r="F120" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120" s="5" t="e"/>
-      <c r="H120" s="6" t="n">
-        <v>100</v>
+        <v>98000</v>
       </c>
     </row>
   </sheetData>

--- a/data/В пути АЛМ.xlsx
+++ b/data/В пути АЛМ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>Дата</t>
   </si>
@@ -49,39 +49,27 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>19.02.2024 0:00:00</t>
+    <t>21.02.2024 0:00:00</t>
   </si>
   <si>
     <t>Алматы в Пути</t>
   </si>
   <si>
-    <t>187050</t>
-  </si>
-  <si>
-    <t>Набор одноразовой посуды "Пикничок" [6 стак. 200 мл, ПП+6 тар. d205 мм, ПС+6 вил.+ 6 нож.+6 салф.]</t>
+    <t>101228</t>
+  </si>
+  <si>
+    <t>Коробка для пиццы 330х330х40 мм, бел., микрогофрокарт.Т-11 Е, 50 шт/кор (OOO КТК)</t>
   </si>
   <si>
     <t>Нет</t>
   </si>
   <si>
-    <t>101228</t>
-  </si>
-  <si>
-    <t>Коробка для пиццы 330х330х40 мм, бел., микрогофрокарт.Т-11 Е, 50 шт/кор (OOO КТК)</t>
-  </si>
-  <si>
     <t>100024</t>
   </si>
   <si>
     <t>Коробка для пиццы 300х300х40 мм, бел., микрогофрокарт.Т-11 Е, 50 шт/кор (OOO КТК)</t>
   </si>
   <si>
-    <t>100028</t>
-  </si>
-  <si>
-    <t>Коробка для пиццы 330х330х40 мм, крафт, микрогофрокарт.Т-11 Е, 50 шт/кор (OOO КТК)</t>
-  </si>
-  <si>
     <t>103896</t>
   </si>
   <si>
@@ -94,12 +82,6 @@
     <t>Вилочка для канапе 110 мм, цвет в ассорт., ПС, 250 шт/упак (ООО РТС)</t>
   </si>
   <si>
-    <t>279508</t>
-  </si>
-  <si>
-    <t>Чековая лента 57мм х 25м, d12 мм, бел., термобум. "Честный чек"</t>
-  </si>
-  <si>
     <t>105654</t>
   </si>
   <si>
@@ -112,18 +94,6 @@
     <t>Чековая лента 57мм х 27м, d12 мм, бел., термобум. (ООО НБК Трейд)</t>
   </si>
   <si>
-    <t>461300</t>
-  </si>
-  <si>
-    <t>Мешок для мусора 120 л, 105х68 см, 38 мкм, с завязками, зел., ПВД, 10 шт/рул "Greencity"</t>
-  </si>
-  <si>
-    <t>108601</t>
-  </si>
-  <si>
-    <t>Салфетка из вискозы 300х340 мм, 80 гр/м2, цвет в ассорт., 3 шт/упак "Чисто-Солнышко"</t>
-  </si>
-  <si>
     <t>591810</t>
   </si>
   <si>
@@ -136,12 +106,6 @@
     <t>Зубочистки 65 мм в инд. бум. упаковке, бамбук, 1000 шт/упак "GREEN MYSTERY"</t>
   </si>
   <si>
-    <t>101332</t>
-  </si>
-  <si>
-    <t>Полотно холстопрошивное 800мм х 50м Стандарт, 180 гр/м2, бел. (ООО Намтекс)</t>
-  </si>
-  <si>
     <t>847281</t>
   </si>
   <si>
@@ -160,12 +124,6 @@
     <t>Мыло кусковое хозяйственное "Калужский блеск" 72%, 200 г</t>
   </si>
   <si>
-    <t>101947</t>
-  </si>
-  <si>
-    <t>Клейкая лента 48мм х 120м, 40 мкм, прозр., 6 рул/упак "Фрегат"</t>
-  </si>
-  <si>
     <t>100281</t>
   </si>
   <si>
@@ -190,48 +148,12 @@
     <t>Держатель для стаканов 4 яч. 200х200х50 мм, сер., карт., 130 шт/кор (ОАО СОЭМЗ)</t>
   </si>
   <si>
-    <t>102855</t>
-  </si>
-  <si>
-    <t>Держатель для стаканов 2 яч. 108х193х42 мм, сер., карт., 150 шт/кор (ОАО СОЭМЗ)</t>
-  </si>
-  <si>
-    <t>106125</t>
-  </si>
-  <si>
-    <t>Стакан одноразовый 500 мл, диз. "Факел", прозр., ПП, 50 шт/упак (ООО ТПК Юпласт-Черноземье)</t>
-  </si>
-  <si>
-    <t>100120</t>
-  </si>
-  <si>
-    <t>Стакан одноразовый 100 мл, прозр., ПП, 100 шт/упак (ООО Флайпак-С)</t>
-  </si>
-  <si>
-    <t>104280</t>
-  </si>
-  <si>
-    <t>Стакан одноразовый 200 мл, прозр., ПП, 100 шт/упак (ООО Флайпак-С)</t>
-  </si>
-  <si>
     <t>104218</t>
   </si>
   <si>
     <t>Стакан одноразовый 200 мл, бел., ПП, 100 шт/упак "МИСТЕРИЯ"</t>
   </si>
   <si>
-    <t>104217</t>
-  </si>
-  <si>
-    <t>Стакан одноразовый 200 мл, прозр., ПП, 100 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
-    <t>140080</t>
-  </si>
-  <si>
-    <t>Вилка одноразовая 165 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
     <t>103508</t>
   </si>
   <si>
@@ -250,54 +172,6 @@
     <t>Ложка одноразовая 125 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
   </si>
   <si>
-    <t>103535</t>
-  </si>
-  <si>
-    <t>Размешиватель 120 мм, бел., ПС, 500 шт/упак (ООО РТС)</t>
-  </si>
-  <si>
-    <t>120100</t>
-  </si>
-  <si>
-    <t>Тарелка одноразовая мелкая d205 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
-    <t>123250</t>
-  </si>
-  <si>
-    <t>Тарелка одноразовая мелкая d167 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
-    <t>124185</t>
-  </si>
-  <si>
-    <t>Тарелка одноразовая мелкая d210 мм, зел., ПС, 50 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
-    <t>124186</t>
-  </si>
-  <si>
-    <t>Тарелка одноразовая мелкая d210 мм, красн., ПС, 50 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
-    <t>124187</t>
-  </si>
-  <si>
-    <t>Тарелка одноразовая мелкая d210 мм, желт., ПС, 50 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
-    <t>124188</t>
-  </si>
-  <si>
-    <t>Тарелка одноразовая мелкая d210 мм, син., ПС, 50 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
-    <t>121490</t>
-  </si>
-  <si>
-    <t>Тарелка одноразовая глубокая 475 мл, d153 мм, бел., ПП, 50 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
     <t>296215</t>
   </si>
   <si>
@@ -322,12 +196,6 @@
     <t>Контейнер 750 мл 1-секц. d194хh54,6 мм, без крышки, черн., ПЭТ, 75 шт/упак "ПолиЭр"</t>
   </si>
   <si>
-    <t>154625</t>
-  </si>
-  <si>
-    <t>Контейнер 500 мл 1-секц. 108х82х106 мм, серия 108, без крышки, прозр., ПП, 100 шт/упак "Upax-Unity"</t>
-  </si>
-  <si>
     <t>107209</t>
   </si>
   <si>
@@ -364,30 +232,12 @@
     <t>Крышка к контейнеру 108х82х8 мм, прозр., ПП, 100 шт/упак (ООО Алькор)</t>
   </si>
   <si>
-    <t>159625</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру 108х82х3 мм, прозр., ПП, 50 шт/упак "Upax-Unity"</t>
-  </si>
-  <si>
-    <t>501111</t>
-  </si>
-  <si>
-    <t>Комплект столовых приборов №1 [вил. Кристалл 180 мм, черн., ПС], 300 шт/кор (ООО ВЗЛП)</t>
-  </si>
-  <si>
     <t>501110</t>
   </si>
   <si>
     <t>Комплект столовых приборов №1 [лож.ст. Кристалл 180 мм, черн., ПС], 300 шт/кор (ООО ВЗЛП)</t>
   </si>
   <si>
-    <t>263153</t>
-  </si>
-  <si>
-    <t>Упаковка для кондит. изделий 1480 мл, 1-секц. 212х137х67[200х124х61] мм, неразъем.крышка, прозр., ОП</t>
-  </si>
-  <si>
     <t>106360</t>
   </si>
   <si>
@@ -400,18 +250,6 @@
     <t>Крышка к контейнеру купол. 142х142х56 мм, прозр., ПЭТ, 450 шт/кор "OSQ" LidSmartPack 550</t>
   </si>
   <si>
-    <t>187400</t>
-  </si>
-  <si>
-    <t>Комплект столовых приборов на несколько персон [лож.ст.+ вил.: 173,5 мм, син., ПП, 5 шт + нож 178,5 </t>
-  </si>
-  <si>
-    <t>107468</t>
-  </si>
-  <si>
-    <t>Капхолдер [манжета] 270х55 мм, крафт, карт., 50 шт/упак (ООО ПК Растр)</t>
-  </si>
-  <si>
     <t>104409</t>
   </si>
   <si>
@@ -424,18 +262,6 @@
     <t>Тарелка одноразовая мелкая d225 мм, бел., сах. тростник, 50 шт/упак "GREEN MYSTERY"</t>
   </si>
   <si>
-    <t>106268</t>
-  </si>
-  <si>
-    <t>Ложка одноразовая 165 мм, зел., ПС, 12 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
-    <t>106277</t>
-  </si>
-  <si>
-    <t>Ложка одноразовая 165 мм, красн., ПС, 12 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
     <t>345044</t>
   </si>
   <si>
@@ -454,12 +280,6 @@
     <t>Тарелка одноразовая мелкая d210 мм, желт., ПС, 12 шт/упак "МИСТЕРИЯ"</t>
   </si>
   <si>
-    <t>191609</t>
-  </si>
-  <si>
-    <t>Коробка для бургера [бургербокс] 152х152х80 мм, бел., сах.тростник, 50 шт/упак "GREEN MYSTERY"</t>
-  </si>
-  <si>
     <t>191610</t>
   </si>
   <si>
@@ -508,18 +328,6 @@
     <t>Коробка для кондит. изделий 180х110х55 мм, с окном, неразъем.крышка, крафт-бел., карт., 50 шт/упак "</t>
   </si>
   <si>
-    <t>111613</t>
-  </si>
-  <si>
-    <t>Пакет [280+150]х320 мм с круч. ручками, крафт, бум., 250 шт/кор (ООО Демарт)</t>
-  </si>
-  <si>
-    <t>111770</t>
-  </si>
-  <si>
-    <t>Мешок для мусора 60 л, 68х58 см, 10 мкм, зел., ПНД, 20 шт/рул "VitaLux"</t>
-  </si>
-  <si>
     <t>111875</t>
   </si>
   <si>
@@ -544,12 +352,6 @@
     <t>Пакет вакуум. 200х300 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
   </si>
   <si>
-    <t>112308</t>
-  </si>
-  <si>
-    <t>Пакет вакуум. 160х250 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
-  </si>
-  <si>
     <t>112340</t>
   </si>
   <si>
@@ -592,42 +394,18 @@
     <t>Пакет [260+150]х350 мм с круч. ручками, крафт, бум., 350 шт/кор (ООО Тек-Пак)</t>
   </si>
   <si>
-    <t>113073</t>
-  </si>
-  <si>
-    <t>Перчатки нитровиниловые, р-р M, неопудрен., черн., 50 пар/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
     <t>113104</t>
   </si>
   <si>
     <t>Упаковка 240х240х100 мм, бел., карт., 15 шт/упак "Forgenika" Cake Roll II Window White</t>
   </si>
   <si>
-    <t>113206</t>
-  </si>
-  <si>
-    <t>Стакан-шейкер одноразовый 300 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
-  </si>
-  <si>
     <t>113289</t>
   </si>
   <si>
     <t>Чековая лента 80мм х 80м, d12 мм, бел., термобум. "Честный чек"</t>
   </si>
   <si>
-    <t>113387</t>
-  </si>
-  <si>
-    <t>Размешиватель 140 мм, инд. упак., древ. волокно, 250 шт/упак (H.T.B.-E.T.Co.)</t>
-  </si>
-  <si>
-    <t>113507</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, желт., ПП, 50 шт/упак (ООО ВЗЛП)</t>
-  </si>
-  <si>
     <t>113606</t>
   </si>
   <si>
@@ -646,18 +424,6 @@
     <t>Мешок кондитерский в рулоне 1-сл., 53 см, 90 мкм, прозр., ПЭ, 100 шт/рул (ООО Компания Лемио)</t>
   </si>
   <si>
-    <t>114166</t>
-  </si>
-  <si>
-    <t>Мешок для мусора 150 л, [70+40]х120 см, 55 мкм, черн., ПВД, 50 шт/упак (ООО Техинвест Плюс)</t>
-  </si>
-  <si>
-    <t>114373</t>
-  </si>
-  <si>
-    <t>Китайские палочки h220хd5 мм, инд. ПЭ упак. с зубочисткой, бамбук, 100 пар/упак "GREEN MYSTERY"</t>
-  </si>
-  <si>
     <t>114506</t>
   </si>
   <si>
@@ -682,12 +448,6 @@
     <t>Контейнер 1555 мл, 200х200х55 мм, с окном, неразъем.крышка, крафт-бел., карт., 25 шт/упак "OSQ" Eco </t>
   </si>
   <si>
-    <t>114524</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d80 мм с пробивным слотом и заглушкой, бел., ПП, 50 шт/упак (ООО ВЗЛП)</t>
-  </si>
-  <si>
     <t>114531</t>
   </si>
   <si>
@@ -700,18 +460,6 @@
     <t>Трубочки для коктейлей 240 мм, d8 мм, черн., пласт. прямые, 150 шт/упак (ООО ПК Диапазон)</t>
   </si>
   <si>
-    <t>114751</t>
-  </si>
-  <si>
-    <t>Жидкость незамерзающая для стекол "Hi-tech Wash", бутылка ПЭТ, 4500 мл</t>
-  </si>
-  <si>
-    <t>114812</t>
-  </si>
-  <si>
-    <t>Пакет [240+140]х280 мм с круч. ручками, крафт, бум., 250 шт/кор (ООО Кировпейпер)</t>
-  </si>
-  <si>
     <t>114851</t>
   </si>
   <si>
@@ -724,24 +472,6 @@
     <t>Контейнер 550 мл, 130х130х49 мм, без окна, без крышки, бел, карт., 50 шт/упак "OSQ" Eco SmartPack</t>
   </si>
   <si>
-    <t>114977</t>
-  </si>
-  <si>
-    <t>Трубочки для коктейлей 210 мм, d7 мм, черн., пласт. прямые в инд. упаковке, 200 шт/упак (ООО ПК Диап</t>
-  </si>
-  <si>
-    <t>115371</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 400 мл 1 сл., d90 мм, лого "Global Coffee", карт., 50 шт/упак</t>
-  </si>
-  <si>
-    <t>115374</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 500 мл 1 сл., d90 мм, лого "Global Coffee", карт., 50 шт/упак</t>
-  </si>
-  <si>
     <t>115692</t>
   </si>
   <si>
@@ -752,18 +482,6 @@
   </si>
   <si>
     <t>Подложка d240 мм 0,8 мм, золот.-сереб., карт. фольг., 100 шт/упак "Pasticciere"</t>
-  </si>
-  <si>
-    <t>115755</t>
-  </si>
-  <si>
-    <t>Упаковка для бургера типа "Уголок" 165х170 мм, бел., бум., 2000 шт/кор "Global coffee Космос" (ООО Т</t>
-  </si>
-  <si>
-    <t>115758</t>
-  </si>
-  <si>
-    <t>Упаковка для бургера типа "Уголок" 165х170 мм, "Global coffee Действуй" (ООО Тек-Пак)</t>
   </si>
 </sst>
 </file>
@@ -856,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="0" applyAlignment="true">
       <alignment horizontal="left"/>
@@ -873,16 +591,13 @@
     <xf numFmtId="0" fontId="0" borderId="2" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
+    <xf numFmtId="3" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
+    </xf>
     <xf numFmtId="1" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
-    <xf numFmtId="3" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="top" wrapText="0"/>
-    </xf>
     <xf numFmtId="4" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -904,7 +619,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H119"/>
+  <dimension ref="H72"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -960,14 +675,14 @@
         <v>11</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>173.22</v>
+        <v>74.67</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="5" t="e"/>
       <c r="H2" s="6" t="n">
-        <v>75</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3" ht="22" customHeight="true">
@@ -984,17 +699,17 @@
         <v>14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>74.67</v>
+        <v>66.45</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="5" t="e"/>
       <c r="H3" s="7" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="4" ht="22" customHeight="true">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" ht="11" customHeight="true">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1008,17 +723,17 @@
         <v>16</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>66.45</v>
+        <v>92.85</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="5" t="e"/>
       <c r="H4" s="6" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" ht="22" customHeight="true">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="5" ht="11" customHeight="true">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1032,14 +747,14 @@
         <v>18</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>72.78</v>
+        <v>640.58</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="5" t="e"/>
-      <c r="H5" s="7" t="n">
-        <v>1500</v>
+      <c r="H5" s="6" t="n">
+        <v>1605</v>
       </c>
     </row>
     <row r="6" ht="11" customHeight="true">
@@ -1056,14 +771,14 @@
         <v>20</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>92.85</v>
+        <v>243.28</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="5" t="e"/>
-      <c r="H6" s="7" t="n">
-        <v>12432</v>
+      <c r="H6" s="6" t="n">
+        <v>1080</v>
       </c>
     </row>
     <row r="7" ht="11" customHeight="true">
@@ -1080,14 +795,14 @@
         <v>22</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>640.58</v>
+        <v>95.47</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="5" t="e"/>
       <c r="H7" s="7" t="n">
-        <v>1605</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" ht="11" customHeight="true">
@@ -1103,15 +818,15 @@
       <c r="D8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>86.56</v>
+      <c r="E8" s="8" t="n">
+        <v>1862</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="5" t="e"/>
       <c r="H8" s="7" t="n">
-        <v>1080</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" ht="11" customHeight="true">
@@ -1128,17 +843,17 @@
         <v>26</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>243.28</v>
+        <v>230.54</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="5" t="e"/>
       <c r="H9" s="7" t="n">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="10" ht="11" customHeight="true">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="10" ht="22" customHeight="true">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1151,15 +866,15 @@
       <c r="D10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>95.47</v>
+      <c r="E10" s="8" t="n">
+        <v>5003.67</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="5" t="e"/>
-      <c r="H10" s="6" t="n">
-        <v>464</v>
+      <c r="H10" s="7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11" ht="22" customHeight="true">
@@ -1176,17 +891,17 @@
         <v>30</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>276.99</v>
+        <v>898.12</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="5" t="e"/>
-      <c r="H11" s="6" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" ht="22" customHeight="true">
+      <c r="H11" s="7" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="11" customHeight="true">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1200,14 +915,14 @@
         <v>32</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>128.33</v>
+        <v>90.12</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="5" t="e"/>
-      <c r="H12" s="6" t="n">
-        <v>250</v>
+      <c r="H12" s="7" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="13" ht="11" customHeight="true">
@@ -1223,18 +938,18 @@
       <c r="D13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="8" t="n">
-        <v>1862</v>
+      <c r="E13" s="4" t="n">
+        <v>676.03</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="5" t="e"/>
-      <c r="H13" s="6" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" ht="11" customHeight="true">
+      <c r="H13" s="7" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" ht="22" customHeight="true">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1248,17 +963,17 @@
         <v>36</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>230.54</v>
+        <v>6.3</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="e"/>
       <c r="H14" s="6" t="n">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="15" ht="11" customHeight="true">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="15" ht="22" customHeight="true">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1271,18 +986,18 @@
       <c r="D15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="8" t="n">
-        <v>6504.69</v>
+      <c r="E15" s="4" t="n">
+        <v>5.77</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="5" t="e"/>
       <c r="H15" s="6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" ht="22" customHeight="true">
+        <v>32850</v>
+      </c>
+    </row>
+    <row r="16" ht="11" customHeight="true">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -1295,18 +1010,18 @@
       <c r="D16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="8" t="n">
-        <v>5003.67</v>
+      <c r="E16" s="4" t="n">
+        <v>20.65</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="5" t="e"/>
       <c r="H16" s="6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" ht="22" customHeight="true">
+        <v>5720</v>
+      </c>
+    </row>
+    <row r="17" ht="11" customHeight="true">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1320,14 +1035,14 @@
         <v>42</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>898.12</v>
+        <v>2.96</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="5" t="e"/>
       <c r="H17" s="6" t="n">
-        <v>12</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="18" ht="11" customHeight="true">
@@ -1344,14 +1059,14 @@
         <v>44</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>90.12</v>
+        <v>4.85</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="5" t="e"/>
       <c r="H18" s="6" t="n">
-        <v>60</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="19" ht="11" customHeight="true">
@@ -1368,14 +1083,14 @@
         <v>46</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>246.62</v>
+        <v>4.15</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="5" t="e"/>
       <c r="H19" s="6" t="n">
-        <v>72</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="20" ht="11" customHeight="true">
@@ -1392,14 +1107,14 @@
         <v>48</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>676.03</v>
+        <v>2.02</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="5" t="e"/>
       <c r="H20" s="6" t="n">
-        <v>14</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="21" ht="22" customHeight="true">
@@ -1416,14 +1131,14 @@
         <v>50</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>6.3</v>
+        <v>29.32</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="5" t="e"/>
-      <c r="H21" s="7" t="n">
-        <v>121000</v>
+      <c r="H21" s="6" t="n">
+        <v>10800</v>
       </c>
     </row>
     <row r="22" ht="22" customHeight="true">
@@ -1440,17 +1155,17 @@
         <v>52</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>5.77</v>
+        <v>4.41</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="5" t="e"/>
-      <c r="H22" s="7" t="n">
-        <v>41850</v>
-      </c>
-    </row>
-    <row r="23" ht="11" customHeight="true">
+      <c r="H22" s="6" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" ht="22" customHeight="true">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -1464,17 +1179,17 @@
         <v>54</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>20.65</v>
+        <v>6.75</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="5" t="e"/>
-      <c r="H23" s="7" t="n">
-        <v>10920</v>
-      </c>
-    </row>
-    <row r="24" ht="11" customHeight="true">
+      <c r="H23" s="6" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" ht="22" customHeight="true">
       <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
@@ -1488,17 +1203,17 @@
         <v>56</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>12.11</v>
+        <v>30.72</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="5" t="e"/>
-      <c r="H24" s="7" t="n">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="25" ht="22" customHeight="true">
+      <c r="H24" s="6" t="n">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="25" ht="11" customHeight="true">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
@@ -1512,14 +1227,14 @@
         <v>58</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>8.62</v>
+        <v>54.82</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="5" t="e"/>
-      <c r="H25" s="7" t="n">
-        <v>20000</v>
+      <c r="H25" s="6" t="n">
+        <v>5100</v>
       </c>
     </row>
     <row r="26" ht="11" customHeight="true">
@@ -1536,14 +1251,14 @@
         <v>60</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>2.36</v>
+        <v>30.44</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="5" t="e"/>
-      <c r="H26" s="7" t="n">
-        <v>12000</v>
+      <c r="H26" s="6" t="n">
+        <v>5700</v>
       </c>
     </row>
     <row r="27" ht="11" customHeight="true">
@@ -1560,14 +1275,14 @@
         <v>62</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>3.02</v>
+        <v>36.03</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="5" t="e"/>
-      <c r="H27" s="7" t="n">
-        <v>80000</v>
+      <c r="H27" s="6" t="n">
+        <v>5100</v>
       </c>
     </row>
     <row r="28" ht="11" customHeight="true">
@@ -1584,14 +1299,14 @@
         <v>64</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>2.96</v>
+        <v>7.86</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="5" t="e"/>
-      <c r="H28" s="7" t="n">
-        <v>80000</v>
+      <c r="H28" s="6" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="29" ht="11" customHeight="true">
@@ -1608,14 +1323,14 @@
         <v>66</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>2.79</v>
+        <v>9.61</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="5" t="e"/>
-      <c r="H29" s="7" t="n">
-        <v>80000</v>
+      <c r="H29" s="6" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="30" ht="11" customHeight="true">
@@ -1632,17 +1347,17 @@
         <v>68</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>3.14</v>
+        <v>3.88</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="5" t="e"/>
-      <c r="H30" s="7" t="n">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="31" ht="11" customHeight="true">
+      <c r="H30" s="6" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="31" ht="22" customHeight="true">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
@@ -1656,17 +1371,17 @@
         <v>70</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>4.85</v>
+        <v>10.56</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="5" t="e"/>
-      <c r="H31" s="7" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="32" ht="11" customHeight="true">
+      <c r="H31" s="6" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="32" ht="22" customHeight="true">
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
@@ -1680,17 +1395,17 @@
         <v>72</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>4.15</v>
+        <v>31.43</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="5" t="e"/>
       <c r="H32" s="7" t="n">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="33" ht="11" customHeight="true">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="33" ht="22" customHeight="true">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
@@ -1703,18 +1418,16 @@
       <c r="D33" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="4" t="n">
-        <v>2.02</v>
-      </c>
+      <c r="E33" s="3" t="e"/>
       <c r="F33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="5" t="e"/>
       <c r="H33" s="7" t="n">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="34" ht="11" customHeight="true">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="34" ht="22" customHeight="true">
       <c r="A34" s="3" t="s">
         <v>8</v>
       </c>
@@ -1728,17 +1441,17 @@
         <v>76</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>0.59</v>
+        <v>32.9</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="5" t="e"/>
       <c r="H34" s="7" t="n">
-        <v>360000</v>
-      </c>
-    </row>
-    <row r="35" ht="11" customHeight="true">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="35" ht="22" customHeight="true">
       <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
@@ -1752,14 +1465,14 @@
         <v>78</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>9.06</v>
+        <v>27.34</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="5" t="e"/>
-      <c r="H35" s="7" t="n">
-        <v>46800</v>
+      <c r="H35" s="6" t="n">
+        <v>6000</v>
       </c>
     </row>
     <row r="36" ht="11" customHeight="true">
@@ -1776,17 +1489,17 @@
         <v>80</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>6.98</v>
+        <v>1.13</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="5" t="e"/>
-      <c r="H36" s="7" t="n">
-        <v>25600</v>
-      </c>
-    </row>
-    <row r="37" ht="11" customHeight="true">
+      <c r="H36" s="6" t="n">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="37" ht="22" customHeight="true">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
@@ -1799,15 +1512,13 @@
       <c r="D37" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E37" s="4" t="n">
-        <v>7.91</v>
-      </c>
+      <c r="E37" s="3" t="e"/>
       <c r="F37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="5" t="e"/>
-      <c r="H37" s="7" t="n">
-        <v>1200</v>
+      <c r="H37" s="6" t="n">
+        <v>1440</v>
       </c>
     </row>
     <row r="38" ht="11" customHeight="true">
@@ -1824,17 +1535,17 @@
         <v>84</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>7.91</v>
+        <v>7.87</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="5" t="e"/>
-      <c r="H38" s="7" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="39" ht="11" customHeight="true">
+      <c r="H38" s="6" t="n">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="39" ht="22" customHeight="true">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -1848,14 +1559,14 @@
         <v>86</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>7.91</v>
+        <v>27.49</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="5" t="e"/>
-      <c r="H39" s="7" t="n">
-        <v>1200</v>
+      <c r="H39" s="6" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="40" ht="11" customHeight="true">
@@ -1872,14 +1583,14 @@
         <v>88</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>7.91</v>
+        <v>41.77</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="5" t="e"/>
       <c r="H40" s="7" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="41" ht="11" customHeight="true">
@@ -1896,17 +1607,17 @@
         <v>90</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>9.27</v>
+        <v>53.94</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="5" t="e"/>
-      <c r="H41" s="7" t="n">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="42" ht="22" customHeight="true">
+      <c r="H41" s="6" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="42" ht="11" customHeight="true">
       <c r="A42" s="3" t="s">
         <v>8</v>
       </c>
@@ -1920,17 +1631,17 @@
         <v>92</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>29.32</v>
+        <v>102.96</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="5" t="e"/>
       <c r="H42" s="7" t="n">
-        <v>10800</v>
-      </c>
-    </row>
-    <row r="43" ht="22" customHeight="true">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" ht="11" customHeight="true">
       <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
@@ -1944,17 +1655,17 @@
         <v>94</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>4.41</v>
+        <v>204.91</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="5" t="e"/>
       <c r="H43" s="7" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="44" ht="22" customHeight="true">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" ht="11" customHeight="true">
       <c r="A44" s="3" t="s">
         <v>8</v>
       </c>
@@ -1968,17 +1679,17 @@
         <v>96</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>6.75</v>
+        <v>13.49</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="5" t="e"/>
-      <c r="H44" s="7" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="45" ht="22" customHeight="true">
+      <c r="H44" s="6" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="45" ht="11" customHeight="true">
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1992,14 +1703,14 @@
         <v>98</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>30.72</v>
+        <v>29.68</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="5" t="e"/>
-      <c r="H45" s="7" t="n">
-        <v>5700</v>
+      <c r="H45" s="6" t="n">
+        <v>32000</v>
       </c>
     </row>
     <row r="46" ht="22" customHeight="true">
@@ -2016,17 +1727,17 @@
         <v>100</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>8.45</v>
+        <v>62.99</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="5" t="e"/>
-      <c r="H46" s="7" t="n">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="47" ht="11" customHeight="true">
+      <c r="H46" s="6" t="n">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="47" ht="22" customHeight="true">
       <c r="A47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2040,14 +1751,14 @@
         <v>102</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>54.82</v>
+        <v>27.28</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="5" t="e"/>
-      <c r="H47" s="7" t="n">
-        <v>5100</v>
+      <c r="H47" s="6" t="n">
+        <v>32000</v>
       </c>
     </row>
     <row r="48" ht="11" customHeight="true">
@@ -2064,17 +1775,17 @@
         <v>104</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>30.44</v>
+        <v>4.1</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="5" t="e"/>
-      <c r="H48" s="7" t="n">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="49" ht="11" customHeight="true">
+      <c r="H48" s="6" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="49" ht="22" customHeight="true">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2088,14 +1799,14 @@
         <v>106</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>36.03</v>
+        <v>4.17</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="5" t="e"/>
-      <c r="H49" s="7" t="n">
-        <v>5100</v>
+      <c r="H49" s="6" t="n">
+        <v>2500</v>
       </c>
     </row>
     <row r="50" ht="11" customHeight="true">
@@ -2111,15 +1822,15 @@
       <c r="D50" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E50" s="4" t="n">
-        <v>7.86</v>
+      <c r="E50" s="8" t="n">
+        <v>2419.73</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G50" s="5" t="e"/>
       <c r="H50" s="7" t="n">
-        <v>17000</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" ht="11" customHeight="true">
@@ -2136,17 +1847,17 @@
         <v>110</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>9.61</v>
+        <v>21.58</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G51" s="5" t="e"/>
-      <c r="H51" s="7" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="52" ht="11" customHeight="true">
+      <c r="H51" s="6" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="52" ht="22" customHeight="true">
       <c r="A52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2160,17 +1871,17 @@
         <v>112</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>3.88</v>
+        <v>19.96</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G52" s="5" t="e"/>
-      <c r="H52" s="7" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="53" ht="11" customHeight="true">
+      <c r="H52" s="6" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="53" ht="22" customHeight="true">
       <c r="A53" s="3" t="s">
         <v>8</v>
       </c>
@@ -2184,14 +1895,14 @@
         <v>114</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>3.75</v>
+        <v>169.33</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G53" s="5" t="e"/>
-      <c r="H53" s="7" t="n">
-        <v>15000</v>
+      <c r="H53" s="6" t="n">
+        <v>1200</v>
       </c>
     </row>
     <row r="54" ht="22" customHeight="true">
@@ -2208,17 +1919,17 @@
         <v>116</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>9.83</v>
+        <v>159.42</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G54" s="5" t="e"/>
-      <c r="H54" s="7" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="55" ht="22" customHeight="true">
+      <c r="H54" s="6" t="n">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="55" ht="11" customHeight="true">
       <c r="A55" s="3" t="s">
         <v>8</v>
       </c>
@@ -2232,17 +1943,17 @@
         <v>118</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>10.56</v>
+        <v>1.31</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G55" s="5" t="e"/>
-      <c r="H55" s="7" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="56" ht="22" customHeight="true">
+      <c r="H55" s="6" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="56" ht="11" customHeight="true">
       <c r="A56" s="3" t="s">
         <v>8</v>
       </c>
@@ -2256,17 +1967,17 @@
         <v>120</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>25.18</v>
+        <v>2.81</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G56" s="5" t="e"/>
-      <c r="H56" s="7" t="n">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="57" ht="22" customHeight="true">
+      <c r="H56" s="6" t="n">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="57" ht="11" customHeight="true">
       <c r="A57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2280,17 +1991,17 @@
         <v>122</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>31.43</v>
+        <v>32.97</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G57" s="5" t="e"/>
       <c r="H57" s="6" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="58" ht="22" customHeight="true">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="58" ht="11" customHeight="true">
       <c r="A58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2303,16 +2014,18 @@
       <c r="D58" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E58" s="3" t="e"/>
+      <c r="E58" s="4" t="n">
+        <v>213.11</v>
+      </c>
       <c r="F58" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G58" s="5" t="e"/>
-      <c r="H58" s="6" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="59" ht="22" customHeight="true">
+      <c r="H58" s="7" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="59" ht="11" customHeight="true">
       <c r="A59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2326,14 +2039,14 @@
         <v>126</v>
       </c>
       <c r="E59" s="4" t="n">
-        <v>167.8</v>
+        <v>412.05</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G59" s="5" t="e"/>
-      <c r="H59" s="6" t="n">
-        <v>100</v>
+      <c r="H59" s="7" t="n">
+        <v>813</v>
       </c>
     </row>
     <row r="60" ht="11" customHeight="true">
@@ -2350,14 +2063,14 @@
         <v>128</v>
       </c>
       <c r="E60" s="4" t="n">
-        <v>5.37</v>
+        <v>1.34</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G60" s="5" t="e"/>
-      <c r="H60" s="7" t="n">
-        <v>13500</v>
+      <c r="H60" s="6" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="61" ht="22" customHeight="true">
@@ -2374,14 +2087,14 @@
         <v>130</v>
       </c>
       <c r="E61" s="4" t="n">
-        <v>32.9</v>
+        <v>20.02</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G61" s="5" t="e"/>
       <c r="H61" s="6" t="n">
-        <v>900</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="62" ht="22" customHeight="true">
@@ -2397,18 +2110,18 @@
       <c r="D62" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E62" s="4" t="n">
-        <v>27.34</v>
+      <c r="E62" s="8" t="n">
+        <v>3038.81</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G62" s="5" t="e"/>
       <c r="H62" s="7" t="n">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="63" ht="11" customHeight="true">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" ht="22" customHeight="true">
       <c r="A63" s="3" t="s">
         <v>8</v>
       </c>
@@ -2421,16 +2134,18 @@
       <c r="D63" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E63" s="9" t="e"/>
+      <c r="E63" s="4" t="n">
+        <v>25.55</v>
+      </c>
       <c r="F63" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G63" s="5" t="e"/>
-      <c r="H63" s="7" t="n">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="64" ht="11" customHeight="true">
+      <c r="H63" s="6" t="n">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="64" ht="22" customHeight="true">
       <c r="A64" s="3" t="s">
         <v>8</v>
       </c>
@@ -2443,16 +2158,18 @@
       <c r="D64" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E64" s="9" t="e"/>
+      <c r="E64" s="4" t="n">
+        <v>21.96</v>
+      </c>
       <c r="F64" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G64" s="5" t="e"/>
-      <c r="H64" s="7" t="n">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="65" ht="11" customHeight="true">
+      <c r="H64" s="6" t="n">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="65" ht="22" customHeight="true">
       <c r="A65" s="3" t="s">
         <v>8</v>
       </c>
@@ -2466,14 +2183,14 @@
         <v>138</v>
       </c>
       <c r="E65" s="4" t="n">
-        <v>1.13</v>
+        <v>44.57</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G65" s="5" t="e"/>
-      <c r="H65" s="7" t="n">
-        <v>130000</v>
+      <c r="H65" s="6" t="n">
+        <v>3375</v>
       </c>
     </row>
     <row r="66" ht="22" customHeight="true">
@@ -2489,16 +2206,18 @@
       <c r="D66" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E66" s="3" t="e"/>
+      <c r="E66" s="4" t="n">
+        <v>76.68</v>
+      </c>
       <c r="F66" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G66" s="5" t="e"/>
-      <c r="H66" s="7" t="n">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="67" ht="11" customHeight="true">
+      <c r="H66" s="6" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="67" ht="22" customHeight="true">
       <c r="A67" s="3" t="s">
         <v>8</v>
       </c>
@@ -2512,14 +2231,14 @@
         <v>142</v>
       </c>
       <c r="E67" s="4" t="n">
-        <v>7.87</v>
+        <v>287.68</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G67" s="5" t="e"/>
       <c r="H67" s="7" t="n">
-        <v>2880</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="22" customHeight="true">
@@ -2536,14 +2255,14 @@
         <v>144</v>
       </c>
       <c r="E68" s="4" t="n">
-        <v>23.17</v>
+        <v>239.32</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G68" s="5" t="e"/>
       <c r="H68" s="7" t="n">
-        <v>20000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" ht="22" customHeight="true">
@@ -2560,17 +2279,17 @@
         <v>146</v>
       </c>
       <c r="E69" s="4" t="n">
-        <v>27.49</v>
+        <v>63.5</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G69" s="5" t="e"/>
-      <c r="H69" s="7" t="n">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="70" ht="11" customHeight="true">
+      <c r="H69" s="6" t="n">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="70" ht="22" customHeight="true">
       <c r="A70" s="3" t="s">
         <v>8</v>
       </c>
@@ -2584,14 +2303,14 @@
         <v>148</v>
       </c>
       <c r="E70" s="4" t="n">
-        <v>41.77</v>
+        <v>39.46</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G70" s="5" t="e"/>
-      <c r="H70" s="6" t="n">
-        <v>600</v>
+      <c r="H70" s="7" t="n">
+        <v>900</v>
       </c>
     </row>
     <row r="71" ht="11" customHeight="true">
@@ -2607,15 +2326,13 @@
       <c r="D71" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E71" s="4" t="n">
-        <v>53.94</v>
-      </c>
+      <c r="E71" s="3" t="e"/>
       <c r="F71" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G71" s="5" t="e"/>
-      <c r="H71" s="7" t="n">
-        <v>1700</v>
+      <c r="H71" s="6" t="n">
+        <v>5600</v>
       </c>
     </row>
     <row r="72" ht="11" customHeight="true">
@@ -2631,1123 +2348,13 @@
       <c r="D72" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E72" s="4" t="n">
-        <v>101.39</v>
-      </c>
+      <c r="E72" s="3" t="e"/>
       <c r="F72" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G72" s="5" t="e"/>
-      <c r="H72" s="6" t="n">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="73" ht="11" customHeight="true">
-      <c r="A73" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E73" s="4" t="n">
-        <v>204.91</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="5" t="e"/>
-      <c r="H73" s="6" t="n">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="74" ht="11" customHeight="true">
-      <c r="A74" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E74" s="4" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="5" t="e"/>
-      <c r="H74" s="7" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="75" ht="11" customHeight="true">
-      <c r="A75" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E75" s="4" t="n">
-        <v>29.68</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="5" t="e"/>
-      <c r="H75" s="7" t="n">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="76" ht="22" customHeight="true">
-      <c r="A76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E76" s="4" t="n">
-        <v>62.99</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="5" t="e"/>
-      <c r="H76" s="7" t="n">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="77" ht="11" customHeight="true">
-      <c r="A77" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E77" s="4" t="n">
-        <v>33.17</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" s="5" t="e"/>
-      <c r="H77" s="7" t="n">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="78" ht="11" customHeight="true">
-      <c r="A78" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E78" s="4" t="n">
-        <v>247.93</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="5" t="e"/>
-      <c r="H78" s="6" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="79" ht="22" customHeight="true">
-      <c r="A79" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E79" s="4" t="n">
-        <v>27.28</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" s="5" t="e"/>
-      <c r="H79" s="7" t="n">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="80" ht="11" customHeight="true">
-      <c r="A80" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E80" s="4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" s="5" t="e"/>
-      <c r="H80" s="7" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="81" ht="22" customHeight="true">
-      <c r="A81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E81" s="4" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="5" t="e"/>
-      <c r="H81" s="7" t="n">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="82" ht="11" customHeight="true">
-      <c r="A82" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E82" s="8" t="n">
-        <v>2419.73</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" s="5" t="e"/>
-      <c r="H82" s="6" t="n">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="83" ht="11" customHeight="true">
-      <c r="A83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E83" s="8" t="n">
-        <v>1607.33</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" s="5" t="e"/>
-      <c r="H83" s="6" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" ht="11" customHeight="true">
-      <c r="A84" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E84" s="4" t="n">
-        <v>21.58</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" s="5" t="e"/>
-      <c r="H84" s="7" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="85" ht="22" customHeight="true">
-      <c r="A85" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E85" s="4" t="n">
-        <v>19.96</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" s="5" t="e"/>
-      <c r="H85" s="7" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="86" ht="22" customHeight="true">
-      <c r="A86" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E86" s="4" t="n">
-        <v>169.33</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" s="5" t="e"/>
-      <c r="H86" s="7" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="87" ht="22" customHeight="true">
-      <c r="A87" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E87" s="4" t="n">
-        <v>159.42</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" s="5" t="e"/>
-      <c r="H87" s="7" t="n">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="88" ht="11" customHeight="true">
-      <c r="A88" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E88" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" s="5" t="e"/>
-      <c r="H88" s="7" t="n">
-        <v>260000</v>
-      </c>
-    </row>
-    <row r="89" ht="11" customHeight="true">
-      <c r="A89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E89" s="4" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="5" t="e"/>
-      <c r="H89" s="7" t="n">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="90" ht="11" customHeight="true">
-      <c r="A90" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E90" s="4" t="n">
-        <v>32.97</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" s="5" t="e"/>
-      <c r="H90" s="7" t="n">
-        <v>16800</v>
-      </c>
-    </row>
-    <row r="91" ht="11" customHeight="true">
-      <c r="A91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E91" s="4" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" s="5" t="e"/>
-      <c r="H91" s="7" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="92" ht="11" customHeight="true">
-      <c r="A92" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E92" s="4" t="n">
-        <v>213.11</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" s="5" t="e"/>
-      <c r="H92" s="6" t="n">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="93" ht="11" customHeight="true">
-      <c r="A93" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E93" s="4" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" s="5" t="e"/>
-      <c r="H93" s="7" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="94" ht="11" customHeight="true">
-      <c r="A94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E94" s="4" t="n">
-        <v>412.05</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" s="5" t="e"/>
-      <c r="H94" s="6" t="n">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="95" ht="11" customHeight="true">
-      <c r="A95" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E95" s="3" t="e"/>
-      <c r="F95" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" s="5" t="e"/>
-      <c r="H95" s="7" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="96" ht="22" customHeight="true">
-      <c r="A96" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E96" s="4" t="n">
-        <v>8.56</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" s="5" t="e"/>
-      <c r="H96" s="7" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="97" ht="11" customHeight="true">
-      <c r="A97" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E97" s="3" t="e"/>
-      <c r="F97" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" s="5" t="e"/>
-      <c r="H97" s="7" t="n">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="98" ht="22" customHeight="true">
-      <c r="A98" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E98" s="4" t="n">
-        <v>20.02</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" s="5" t="e"/>
-      <c r="H98" s="7" t="n">
-        <v>22500</v>
-      </c>
-    </row>
-    <row r="99" ht="22" customHeight="true">
-      <c r="A99" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E99" s="8" t="n">
-        <v>3038.81</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" s="5" t="e"/>
-      <c r="H99" s="6" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="100" ht="22" customHeight="true">
-      <c r="A100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E100" s="8" t="n">
-        <v>4844.78</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" s="5" t="e"/>
-      <c r="H100" s="6" t="n">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="101" ht="22" customHeight="true">
-      <c r="A101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E101" s="3" t="e"/>
-      <c r="F101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" s="5" t="e"/>
-      <c r="H101" s="7" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="102" ht="22" customHeight="true">
-      <c r="A102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E102" s="4" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" s="5" t="e"/>
-      <c r="H102" s="7" t="n">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="103" ht="22" customHeight="true">
-      <c r="A103" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E103" s="4" t="n">
-        <v>21.96</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" s="5" t="e"/>
-      <c r="H103" s="7" t="n">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="104" ht="22" customHeight="true">
-      <c r="A104" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E104" s="4" t="n">
-        <v>44.57</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" s="5" t="e"/>
-      <c r="H104" s="7" t="n">
-        <v>3375</v>
-      </c>
-    </row>
-    <row r="105" ht="22" customHeight="true">
-      <c r="A105" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E105" s="4" t="n">
-        <v>76.68</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" s="5" t="e"/>
-      <c r="H105" s="7" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="106" ht="22" customHeight="true">
-      <c r="A106" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E106" s="4" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" s="5" t="e"/>
-      <c r="H106" s="7" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="107" ht="22" customHeight="true">
-      <c r="A107" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E107" s="4" t="n">
-        <v>287.68</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" s="5" t="e"/>
-      <c r="H107" s="6" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="108" ht="22" customHeight="true">
-      <c r="A108" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E108" s="4" t="n">
-        <v>239.32</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" s="5" t="e"/>
-      <c r="H108" s="6" t="n">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="109" ht="11" customHeight="true">
-      <c r="A109" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E109" s="4" t="n">
-        <v>541.88</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" s="5" t="e"/>
-      <c r="H109" s="6" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="110" ht="11" customHeight="true">
-      <c r="A110" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E110" s="3" t="e"/>
-      <c r="F110" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" s="5" t="e"/>
-      <c r="H110" s="7" t="n">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="111" ht="22" customHeight="true">
-      <c r="A111" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E111" s="4" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" s="5" t="e"/>
-      <c r="H111" s="7" t="n">
-        <v>2625</v>
-      </c>
-    </row>
-    <row r="112" ht="22" customHeight="true">
-      <c r="A112" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E112" s="4" t="n">
-        <v>39.46</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" s="5" t="e"/>
-      <c r="H112" s="6" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="113" ht="22" customHeight="true">
-      <c r="A113" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E113" s="4" t="n">
-        <v>417.95</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" s="5" t="e"/>
-      <c r="H113" s="7" t="n">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="114" ht="11" customHeight="true">
-      <c r="A114" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E114" s="3" t="e"/>
-      <c r="F114" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" s="5" t="e"/>
-      <c r="H114" s="7" t="n">
-        <v>304000</v>
-      </c>
-    </row>
-    <row r="115" ht="11" customHeight="true">
-      <c r="A115" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E115" s="3" t="e"/>
-      <c r="F115" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" s="5" t="e"/>
-      <c r="H115" s="7" t="n">
-        <v>194000</v>
-      </c>
-    </row>
-    <row r="116" ht="11" customHeight="true">
-      <c r="A116" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E116" s="3" t="e"/>
-      <c r="F116" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" s="5" t="e"/>
-      <c r="H116" s="7" t="n">
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="117" ht="11" customHeight="true">
-      <c r="A117" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E117" s="3" t="e"/>
-      <c r="F117" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" s="5" t="e"/>
-      <c r="H117" s="6" t="n">
+      <c r="H72" s="7" t="n">
         <v>100</v>
-      </c>
-    </row>
-    <row r="118" ht="22" customHeight="true">
-      <c r="A118" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E118" s="3" t="e"/>
-      <c r="F118" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" s="5" t="e"/>
-      <c r="H118" s="7" t="n">
-        <v>106000</v>
-      </c>
-    </row>
-    <row r="119" ht="22" customHeight="true">
-      <c r="A119" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E119" s="3" t="e"/>
-      <c r="F119" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" s="5" t="e"/>
-      <c r="H119" s="7" t="n">
-        <v>98000</v>
       </c>
     </row>
   </sheetData>

--- a/data/В пути АЛМ.xlsx
+++ b/data/В пути АЛМ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>Дата</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>24.02.2024 0:00:00</t>
+    <t>29.02.2024 0:00:00</t>
   </si>
   <si>
     <t>Алматы в Пути</t>
@@ -64,565 +64,358 @@
     <t>Нет</t>
   </si>
   <si>
-    <t>101228</t>
-  </si>
-  <si>
-    <t>Коробка для пиццы 330х330х40 мм, бел., микрогофрокарт.Т-11 Е, 50 шт/кор (OOO КТК)</t>
-  </si>
-  <si>
-    <t>100024</t>
-  </si>
-  <si>
-    <t>Коробка для пиццы 300х300х40 мм, бел., микрогофрокарт.Т-11 Е, 50 шт/кор (OOO КТК)</t>
-  </si>
-  <si>
     <t>100629</t>
   </si>
   <si>
     <t>Полотенца бумажные для диспенсеров 230х210 мм 1-сл. Z-сложен., бел., 200 лист/упак "Терес"</t>
   </si>
   <si>
-    <t>103896</t>
+    <t>342049</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 250 мм, d12 мм, черн., пласт. прямые, 250 шт/упак (ООО Фарт)</t>
+  </si>
+  <si>
+    <t>472153</t>
+  </si>
+  <si>
+    <t>Средство для очистки кухонных плит "Synergetic" От жира и нагара, канистра, 5000 мл</t>
+  </si>
+  <si>
+    <t>443003</t>
+  </si>
+  <si>
+    <t>Крем для рук "Бархатные ручки" Питательный, 80 мл</t>
+  </si>
+  <si>
+    <t>107163</t>
+  </si>
+  <si>
+    <t>Салфетки 330х330 мм 3-сл., бел., бум., 20 шт/упак "Bouquet"</t>
+  </si>
+  <si>
+    <t>349054</t>
+  </si>
+  <si>
+    <t>Пика 90 мм, диз. "Призма", прозр., ПС, 500 шт/упак (ООО Пласт-Лидер)</t>
+  </si>
+  <si>
+    <t>591810</t>
+  </si>
+  <si>
+    <t>Поддон 120х80х15 см "подЕВРО", без клейма (ООО ПаллетТрейд)</t>
+  </si>
+  <si>
+    <t>847281</t>
+  </si>
+  <si>
+    <t>Средство для мытья пароконвектоматов "Pro-Brite" Strong, концентрат, канистра, 5000 мл</t>
+  </si>
+  <si>
+    <t>103096</t>
+  </si>
+  <si>
+    <t>Клейкая лента 50мм х 66м, 50 мкм, лого "МИСТЕРИЯ", бел., 6 рул/упак</t>
+  </si>
+  <si>
+    <t>107441</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d95 мм куполообразная без отверстия, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>102318</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d80 мм с клапаном, бел., ПС, 100 шт/упак "Kado-Prim"</t>
+  </si>
+  <si>
+    <t>102319</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d80 мм с клапаном, черн., ПС, 100 шт/упак "Kado-Prim"</t>
+  </si>
+  <si>
+    <t>102321</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d90 мм с клапаном, черн., ПС, 100 шт/упак "Kado-Prim"</t>
+  </si>
+  <si>
+    <t>100120</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 100 мл, прозр., ПП, 100 шт/упак (ООО Флайпак-С)</t>
+  </si>
+  <si>
+    <t>115418</t>
+  </si>
+  <si>
+    <t>Стакан-шейкер одноразовый 400 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>115419</t>
+  </si>
+  <si>
+    <t>Стакан-шейкер одноразовый 500 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>115415</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 100 мл, прозр., ПЭТ, 100 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>103127</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d95 мм плоская с отверстием, прозр., ПЭТ, 25 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>141080</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая 165 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>143080</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая 125 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>451459</t>
+  </si>
+  <si>
+    <t>Полотенца бумажные для диспенсеров 240х215 мм 3-сл. Z-сложен., бел., 200 лист/упак "Focus" Eco</t>
+  </si>
+  <si>
+    <t>104093</t>
+  </si>
+  <si>
+    <t>Средство для удаления засоров "Pro-Brite" Scupper-Pro, флакон, 1000 мл</t>
+  </si>
+  <si>
+    <t>154625</t>
+  </si>
+  <si>
+    <t>Контейнер 500 мл 1-секц. 108х82х106 мм, серия 108, без крышки, прозр., ПП, 100 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>107208</t>
+  </si>
+  <si>
+    <t>Контейнер 800[500+2х150] мл 3-секц., овал 257х202х37 мм, без крышки, черн., ПП, 30 шт/упак "ПолиЭр"</t>
+  </si>
+  <si>
+    <t>107219</t>
+  </si>
+  <si>
+    <t>Контейнер 1000 мл 1-секц. 190х190х51,5 мм, без крышки, черн., ПЭТ, 70 шт/упак "ПолиЭр"</t>
+  </si>
+  <si>
+    <t>102910</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру купол. 3-секц. овал 257х202х35 мм, прозр., ПП, 30 шт/упак "ПолиЭр"</t>
+  </si>
+  <si>
+    <t>159525</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 190х190х16 мм, прозр., ПЭТ, 70 шт/упак "ПолиЭр"</t>
+  </si>
+  <si>
+    <t>159625</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 108х82х3 мм, прозр., ПП, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>103851</t>
+  </si>
+  <si>
+    <t>Упаковка для сэндвича под запайку 470 мл, треуг. 182х81х86 [165х66х86] мм, черн., ПП, 400 шт/кор (ОО</t>
+  </si>
+  <si>
+    <t>501323</t>
+  </si>
+  <si>
+    <t>Комплект столовых приборов №3 [лож.ст.+ вил.: 165 мм, бел., ПС+ салф.], 300 шт/кор</t>
+  </si>
+  <si>
+    <t>110677</t>
+  </si>
+  <si>
+    <t>Пакет для картофеля фри 140х110 мм, диз. "Рог изобилия", разноцв., бум., 100 шт/упак (ООО ФлексаПрин</t>
+  </si>
+  <si>
+    <t>107468</t>
+  </si>
+  <si>
+    <t>Капхолдер [манжета] 270х55 мм, крафт, карт., 50 шт/упак (ООО ПК Растр)</t>
+  </si>
+  <si>
+    <t>107332</t>
+  </si>
+  <si>
+    <t>Упаковка для роллов 400 мл, 160х115х48 мм, прозр., ПЭТ, 400 шт/кор "Kado-Prim"</t>
+  </si>
+  <si>
+    <t>105267</t>
+  </si>
+  <si>
+    <t>Пакет "Майка" [290+160]х550 мм 13 мкм, бел., ПНД, 100 шт/упак (АО Артпласт)</t>
+  </si>
+  <si>
+    <t>191220</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d172 мм, бел., сах. тростник, 50 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>106521</t>
+  </si>
+  <si>
+    <t>Размешиватель 180 мм, инд. упак., древ. волокно, 250 шт/упак (ООО Компания Лемио)</t>
+  </si>
+  <si>
+    <t>181234</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 200 мл, прозр., ПП, 12 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>181221</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 200 мл, прозр., ПП, 6 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>183290</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая глубокая 475 мл, d153 мм, бел., ПП, 12 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>191609</t>
+  </si>
+  <si>
+    <t>Коробка для бургера [бургербокс] 152х152х80 мм, бел., сах.тростник, 50 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>223592</t>
+  </si>
+  <si>
+    <t>Пакет фасовочный 250х400 мм 8 мкм, на втул., прозр., ПНД, 500 шт/рул (ООО РадугаУпак)</t>
+  </si>
+  <si>
+    <t>112713</t>
+  </si>
+  <si>
+    <t>Размешиватель 180 мм, древ. волокно, 1000 шт/упак (ООО Компания Лемио)</t>
+  </si>
+  <si>
+    <t>113027</t>
+  </si>
+  <si>
+    <t>Держатель для стаканов 2 яч. 108х193х42 мм, сер., карт., 150 шт/кор (ОАО СОЭМЗ)</t>
+  </si>
+  <si>
+    <t>113306</t>
+  </si>
+  <si>
+    <t>Пакет "Майка" [250+120]х450 мм 10 мкм, бел., ПНД, 100 шт/упак (ООО Нижполимерупак)</t>
+  </si>
+  <si>
+    <t>113380</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 185 мл 1 сл., d73 мм, диз. "Coffee", карт., 100 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113566</t>
+  </si>
+  <si>
+    <t>Контейнер 70 мл 1-секц. d55хh36 мм, без крышки, прозр., ПП, 480 шт/кор "Перинт"</t>
+  </si>
+  <si>
+    <t>113568</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру d55хh36 мм, бел., ПП, 960 шт/кор "Перинт"</t>
+  </si>
+  <si>
+    <t>113757</t>
+  </si>
+  <si>
+    <t>Конверт [пакет] для столовых приборов 80х220 мм, крафт., бум., 2500 шт/упак (ООО Трейдпак)</t>
+  </si>
+  <si>
+    <t>113845</t>
+  </si>
+  <si>
+    <t>Освежитель воздуха "Flower shop" Морские минералы, аэрозоль, 300 мл</t>
+  </si>
+  <si>
+    <t>113848</t>
+  </si>
+  <si>
+    <t>Освежитель воздуха "Flower shop" Апельсин и грейпфрут, аэрозоль, 300 мл</t>
+  </si>
+  <si>
+    <t>113849</t>
+  </si>
+  <si>
+    <t>Освежитель воздуха "Flower shop" Ландыш, аэрозоль, 300 мл</t>
+  </si>
+  <si>
+    <t>113850</t>
+  </si>
+  <si>
+    <t>Освежитель воздуха "Flower shop" После дождя, аэрозоль, 300м</t>
+  </si>
+  <si>
+    <t>114029</t>
+  </si>
+  <si>
+    <t>Мешок кондитерский в рулоне 1-сл., 61 см, 90 мкм, прозр., ПЭ, 100 шт/рул (ООО Компания Лемио)</t>
+  </si>
+  <si>
+    <t>114035</t>
+  </si>
+  <si>
+    <t>Салфетка влажная, Лимон, саше, 1000 шт/кор "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>114166</t>
+  </si>
+  <si>
+    <t>Мешок для мусора 150 л, [70+40]х120 см, 55 мкм, черн., ПВД, 50 шт/упак (ООО Техинвест Плюс)</t>
+  </si>
+  <si>
+    <t>114628</t>
   </si>
   <si>
     <t>Салфетки 250х250 мм 1-сл., бел., бум., 100 шт/упак (ИП Головкин С.В.)</t>
   </si>
   <si>
-    <t>345021</t>
-  </si>
-  <si>
-    <t>Вилочка для канапе 110 мм, цвет в ассорт., ПС, 250 шт/упак (ООО РТС)</t>
-  </si>
-  <si>
-    <t>105654</t>
-  </si>
-  <si>
-    <t>Чековая лента 80мм х 60м, d12 мм, бел., термобум. (ООО НБК Трейд)</t>
-  </si>
-  <si>
-    <t>472153</t>
-  </si>
-  <si>
-    <t>Средство для очистки кухонных плит "Synergetic" От жира и нагара, канистра, 5000 мл</t>
-  </si>
-  <si>
-    <t>443003</t>
-  </si>
-  <si>
-    <t>Крем для рук "Бархатные ручки" Питательный, 80 мл</t>
-  </si>
-  <si>
-    <t>107157</t>
-  </si>
-  <si>
-    <t>Чековая лента 57мм х 27м, d12 мм, бел., термобум. (ООО НБК Трейд)</t>
-  </si>
-  <si>
-    <t>591810</t>
-  </si>
-  <si>
-    <t>Поддон 120х80х15 см "подЕВРО", без клейма (ООО ПаллетТрейд)</t>
-  </si>
-  <si>
-    <t>101032</t>
-  </si>
-  <si>
-    <t>Зубочистки 65 мм в инд. бум. упаковке, бамбук, 1000 шт/упак "GREEN MYSTERY"</t>
-  </si>
-  <si>
-    <t>847281</t>
-  </si>
-  <si>
-    <t>Средство для мытья пароконвектоматов "Pro-Brite" Strong, концентрат, канистра, 5000 мл</t>
-  </si>
-  <si>
-    <t>103089</t>
-  </si>
-  <si>
-    <t>Средство для очистки кухонного оборудования щелочное "Pro-Brite" Amol, концентрат, триггер, 500 мл</t>
-  </si>
-  <si>
-    <t>101694</t>
-  </si>
-  <si>
-    <t>Мыло кусковое хозяйственное "Калужский блеск" 72%, 200 г</t>
-  </si>
-  <si>
-    <t>100281</t>
-  </si>
-  <si>
-    <t>Средство для очистки сантехники "Pro-Brite" Super Dolphy, изогнутое горло, 750 мл</t>
-  </si>
-  <si>
-    <t>107441</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d95 мм куполообразная без отверстия, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
-  </si>
-  <si>
-    <t>102318</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d80 мм с клапаном, бел., ПС, 100 шт/упак "Kado-Prim"</t>
-  </si>
-  <si>
-    <t>102319</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d80 мм с клапаном, черн., ПС, 100 шт/упак "Kado-Prim"</t>
-  </si>
-  <si>
-    <t>107469</t>
-  </si>
-  <si>
-    <t>Капхолдер [манжета] 288х56 мм, крафт, карт., 450 шт/кор (ООО Типография Альбатрос)</t>
-  </si>
-  <si>
-    <t>102853</t>
-  </si>
-  <si>
-    <t>Держатель для стаканов 4 яч. 200х200х50 мм, сер., карт., 130 шт/кор (ОАО СОЭМЗ)</t>
-  </si>
-  <si>
-    <t>104218</t>
-  </si>
-  <si>
-    <t>Стакан одноразовый 200 мл, бел., ПП, 100 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
-    <t>115419</t>
-  </si>
-  <si>
-    <t>Стакан-шейкер одноразовый 500 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
-  </si>
-  <si>
-    <t>103127</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d95 мм плоская с отверстием, прозр., ПЭТ, 25 шт/упак "Upax-Unity"</t>
-  </si>
-  <si>
-    <t>103508</t>
-  </si>
-  <si>
-    <t>Вилка одноразовая 165 мм, желт., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
-    <t>141080</t>
-  </si>
-  <si>
-    <t>Ложка одноразовая 165 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
-    <t>143080</t>
-  </si>
-  <si>
-    <t>Ложка одноразовая 125 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
-    <t>104093</t>
-  </si>
-  <si>
-    <t>Средство для удаления засоров "Pro-Brite" Scupper-Pro, флакон, 1000 мл</t>
-  </si>
-  <si>
-    <t>296215</t>
-  </si>
-  <si>
-    <t>Контейнер для пресервов 360 мл, d112хh55 мм, форма "Банка", крышка в компл., прозр., ПП, 216 шт/кор </t>
-  </si>
-  <si>
-    <t>150497</t>
-  </si>
-  <si>
-    <t>Контейнер 125 мл 1-секц. 108х82х25 мм, серия 108, без крышки, прозр., ПП, 100 шт/упак (ООО Алькор)</t>
-  </si>
-  <si>
-    <t>104309</t>
-  </si>
-  <si>
-    <t>Контейнер 250 мл 1-секц. 124,5х124,5х38,4 мм, без крышки, черн., ПЭТ, 50 шт/упак "Upax-Unity"</t>
-  </si>
-  <si>
-    <t>154226</t>
-  </si>
-  <si>
-    <t>Контейнер 750 мл 1-секц. d194хh54,6 мм, без крышки, черн., ПЭТ, 75 шт/упак "ПолиЭр"</t>
-  </si>
-  <si>
-    <t>107209</t>
-  </si>
-  <si>
-    <t>Контейнер 700 мл 1-секц. 230х170х37 мм, без крышки, черн., ПП, 50 шт/упак "ПолиЭр"</t>
-  </si>
-  <si>
-    <t>158229</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру d194хh40,5 мм, прозр., ПЭТ, 75 шт/упак "ПолиЭр"</t>
-  </si>
-  <si>
-    <t>102915</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру купол. 230х170х22,5 мм, прозр., ПП, 50 шт/упак "ПолиЭр"</t>
-  </si>
-  <si>
-    <t>159474</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру 124,5х124,5х13,1 мм, прозр., ПЭТ, 25 шт/упак "Upax-Unity"</t>
-  </si>
-  <si>
-    <t>159487</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру d99хh13,3 мм, прозр., ПЭТ, 50 шт/упак "ПолиЭр"</t>
-  </si>
-  <si>
-    <t>159497</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру 108х82х8 мм, прозр., ПП, 100 шт/упак (ООО Алькор)</t>
-  </si>
-  <si>
-    <t>501110</t>
-  </si>
-  <si>
-    <t>Комплект столовых приборов №1 [лож.ст. Кристалл 180 мм, черн., ПС], 300 шт/кор (ООО ВЗЛП)</t>
-  </si>
-  <si>
-    <t>501323</t>
-  </si>
-  <si>
-    <t>Комплект столовых приборов №3 [лож.ст.+ вил.: 165 мм, бел., ПС+ салф.], 300 шт/кор</t>
-  </si>
-  <si>
-    <t>110677</t>
-  </si>
-  <si>
-    <t>Пакет для картофеля фри 140х110 мм, диз. "Рог изобилия", разноцв., бум., 100 шт/упак (ООО ФлексаПрин</t>
-  </si>
-  <si>
-    <t>106360</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру купол. 114х114х56 мм, прозр., ПЭТ, 50 шт/упак "OSQ" LidSmartPack 300</t>
-  </si>
-  <si>
-    <t>106367</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру купол. 142х142х56 мм, прозр., ПЭТ, 450 шт/кор "OSQ" LidSmartPack 550</t>
-  </si>
-  <si>
-    <t>107468</t>
-  </si>
-  <si>
-    <t>Капхолдер [манжета] 270х55 мм, крафт, карт., 50 шт/упак (ООО ПК Растр)</t>
-  </si>
-  <si>
-    <t>104409</t>
-  </si>
-  <si>
-    <t>Контейнер 300 мл, 100х100х49 мм, без окна, без крышки, крафт, карт., 50 шт/упак "OSQ Eco SmartPack</t>
-  </si>
-  <si>
-    <t>107332</t>
-  </si>
-  <si>
-    <t>Упаковка для роллов 400 мл, 160х115х48 мм, прозр., ПЭТ, 400 шт/кор "Kado-Prim"</t>
-  </si>
-  <si>
-    <t>191230</t>
-  </si>
-  <si>
-    <t>Тарелка одноразовая мелкая d225 мм, бел., сах. тростник, 50 шт/упак "GREEN MYSTERY"</t>
-  </si>
-  <si>
-    <t>191220</t>
-  </si>
-  <si>
-    <t>Тарелка одноразовая мелкая d172 мм, бел., сах. тростник, 50 шт/упак "GREEN MYSTERY"</t>
-  </si>
-  <si>
-    <t>106521</t>
-  </si>
-  <si>
-    <t>Размешиватель 180 мм, инд. упак., древ. волокно, 250 шт/упак (ООО Компания Лемио)</t>
-  </si>
-  <si>
-    <t>345044</t>
-  </si>
-  <si>
-    <t>Размешиватель 140 мм, древ. волокно, 500 шт/упак (ООО Компания Лемио)</t>
-  </si>
-  <si>
-    <t>181234</t>
-  </si>
-  <si>
-    <t>Стакан одноразовый 200 мл, прозр., ПП, 12 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
-    <t>181221</t>
-  </si>
-  <si>
-    <t>Стакан одноразовый 200 мл, прозр., ПП, 6 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
-    <t>591288</t>
-  </si>
-  <si>
-    <t>Форма для фуршетов 200 мл 80х80х60 мм, диз. "Средняя Пагода", прозр., ПС, 12 шт/упак (ООО ВЗЛП)</t>
-  </si>
-  <si>
-    <t>183290</t>
-  </si>
-  <si>
-    <t>Тарелка одноразовая глубокая 475 мл, d153 мм, бел., ПП, 12 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
-    <t>183210</t>
-  </si>
-  <si>
-    <t>Тарелка одноразовая мелкая d210 мм, желт., ПС, 12 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
-    <t>191610</t>
-  </si>
-  <si>
-    <t>Коробка для бургера [бургербокс] 154х152х88 мм, бел., сах.тростник, 50 шт/упак "GREEN MYSTERY"</t>
-  </si>
-  <si>
-    <t>223592</t>
-  </si>
-  <si>
-    <t>Пакет фасовочный 250х400 мм 8 мкм, на втул., прозр., ПНД, 500 шт/рул (ООО РадугаУпак)</t>
-  </si>
-  <si>
-    <t>224128</t>
-  </si>
-  <si>
-    <t>Пакет Zip-Lock 50х70 мм, прозр., ПВД, 100 шт/упак (T.Z.W.P.)</t>
-  </si>
-  <si>
-    <t>224157</t>
-  </si>
-  <si>
-    <t>Пакет Zip-Lock 60х80 мм, прозр., ПВД, 100 шт/упак (T.Z.W.P.)</t>
-  </si>
-  <si>
-    <t>224245</t>
-  </si>
-  <si>
-    <t>Пакет Zip-Lock 80х120 мм, прозр., ПВД, 100 шт/упак (T.Z.W.P.)</t>
-  </si>
-  <si>
-    <t>224424</t>
-  </si>
-  <si>
-    <t>Пакет Zip-Lock 120х170 мм, прозр., ПВД, 100 шт/упак (T.Z.W.P.)</t>
-  </si>
-  <si>
-    <t>111453</t>
-  </si>
-  <si>
-    <t>Коробка для картофеля фри 126х50х135 мм, L, крафт, карт., 50 шт/упак "OSQ" Eco Fry</t>
-  </si>
-  <si>
-    <t>111577</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру 220х140х13,5 мм, прозр., ПЭТ 400 шт/кор "OSQ" OpSalad 800</t>
-  </si>
-  <si>
-    <t>111580</t>
-  </si>
-  <si>
-    <t>Коробка для кондит. изделий 180х110х55 мм, с окном, неразъем.крышка, крафт-бел., карт., 50 шт/упак "</t>
-  </si>
-  <si>
-    <t>111875</t>
-  </si>
-  <si>
-    <t>Контейнер 800 мл, 209х127х55 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
-  </si>
-  <si>
-    <t>111884</t>
-  </si>
-  <si>
-    <t>Крышка для формы алюм. 140х115 мм, карт.фольг., 100 шт/упак (ООО Ламкарт)</t>
-  </si>
-  <si>
-    <t>112141</t>
-  </si>
-  <si>
-    <t>Пакет пищевой [110+40]х155 мм без руч., без окна, бел., бум., 25000 шт/кор (ООО Демарт)</t>
-  </si>
-  <si>
-    <t>112306</t>
-  </si>
-  <si>
-    <t>Пакет вакуум. 200х300 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
-  </si>
-  <si>
-    <t>112340</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру 175х130х13,5 мм, прозр., ПЭТ 50 шт/упак "OSQ" OpSalad 500</t>
-  </si>
-  <si>
-    <t>112341</t>
-  </si>
-  <si>
-    <t>Контейнер 500 мл, 164х115х45 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
-  </si>
-  <si>
-    <t>112619</t>
-  </si>
-  <si>
-    <t>Коробка для торта 180х180х100 мм, с окном, неразъем.крышка, без руч., бел., карт., 120 шт/кор "Forge</t>
-  </si>
-  <si>
-    <t>112638</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру купол. d150хh38 мм, прозр., ПЭТ, 45 шт/упак "OSQ" Round Bowl dome lid</t>
-  </si>
-  <si>
-    <t>112713</t>
-  </si>
-  <si>
-    <t>Размешиватель 180 мм, древ. волокно, 1000 шт/упак (ООО Компания Лемио)</t>
-  </si>
-  <si>
-    <t>113104</t>
-  </si>
-  <si>
-    <t>Упаковка 240х240х100 мм, бел., карт., 15 шт/упак "Forgenika" Cake Roll II Window White</t>
-  </si>
-  <si>
-    <t>113289</t>
-  </si>
-  <si>
-    <t>Чековая лента 80мм х 80м, d12 мм, бел., термобум. "Честный чек"</t>
-  </si>
-  <si>
-    <t>113306</t>
-  </si>
-  <si>
-    <t>Пакет "Майка" [250+120]х450 мм 10 мкм, бел., ПНД, 100 шт/упак (ООО Нижполимерупак)</t>
-  </si>
-  <si>
-    <t>113566</t>
-  </si>
-  <si>
-    <t>Контейнер 70 мл 1-секц. d55хh36 мм, без крышки, прозр., ПП, 480 шт/кор "Перинт"</t>
-  </si>
-  <si>
-    <t>113568</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру d55хh36 мм, бел., ПП, 960 шт/кор "Перинт"</t>
-  </si>
-  <si>
-    <t>113606</t>
-  </si>
-  <si>
-    <t>Размешиватель 140 мм, инд. упак., бамбук, 250 шт/упак "GREEN MYSTERY"</t>
-  </si>
-  <si>
-    <t>113757</t>
-  </si>
-  <si>
-    <t>Конверт [пакет] для столовых приборов 80х220 мм, крафт., бум., 2500 шт/упак (ООО Трейдпак)</t>
-  </si>
-  <si>
-    <t>113849</t>
-  </si>
-  <si>
-    <t>Освежитель воздуха "Flower shop" Ландыш, аэрозоль, 300 мл</t>
-  </si>
-  <si>
-    <t>114019</t>
-  </si>
-  <si>
-    <t>Держатель для стаканов 2 яч. 90х180х50 мм, крафт-бел., карт., 450 шт/кор "OSQ" Eco CupHolder double</t>
-  </si>
-  <si>
-    <t>114028</t>
-  </si>
-  <si>
-    <t>Мешок кондитерский в рулоне 1-сл., 53 см, 90 мкм, прозр., ПЭ, 100 шт/рул (ООО Компания Лемио)</t>
-  </si>
-  <si>
-    <t>114029</t>
-  </si>
-  <si>
-    <t>Мешок кондитерский в рулоне 1-сл., 61 см, 90 мкм, прозр., ПЭ, 100 шт/рул (ООО Компания Лемио)</t>
-  </si>
-  <si>
-    <t>114035</t>
-  </si>
-  <si>
-    <t>Салфетка влажная, Лимон, саше, 1000 шт/кор "МИСТЕРИЯ"</t>
-  </si>
-  <si>
-    <t>114166</t>
-  </si>
-  <si>
-    <t>Мешок для мусора 150 л, [70+40]х120 см, 55 мкм, черн., ПВД, 50 шт/упак (ООО Техинвест Плюс)</t>
-  </si>
-  <si>
-    <t>114506</t>
-  </si>
-  <si>
-    <t>Коробка для бургера [бургербокс] 120х120х70 мм, L, крафт-бел., карт., 60 шт/упак "OSQ"</t>
-  </si>
-  <si>
-    <t>114508</t>
-  </si>
-  <si>
-    <t>Упаковка [коробка] для сэндвичей 130х130х40 мм, с окном, неразъем.крышка, крафт-бел., карт., 50 шт/у</t>
-  </si>
-  <si>
-    <t>114509</t>
-  </si>
-  <si>
-    <t>Контейнер 1000 мл, 200х120х40 мм, с окном, неразъем.крышка, крафт-бел., карт., 25 шт/упак "OSQ" Eco </t>
-  </si>
-  <si>
-    <t>114514</t>
-  </si>
-  <si>
-    <t>Контейнер 1555 мл, 200х200х55 мм, с окном, неразъем.крышка, крафт-бел., карт., 25 шт/упак "OSQ" Eco </t>
-  </si>
-  <si>
-    <t>114531</t>
-  </si>
-  <si>
-    <t>Губка поролоновая для посуды 110х80х30 мм XXXL, цвет в ассорт., 10 шт/упак (ООО ПФ Прайд)</t>
-  </si>
-  <si>
-    <t>114628</t>
-  </si>
-  <si>
-    <t>114700</t>
-  </si>
-  <si>
-    <t>Трубочки для коктейлей 240 мм, d8 мм, черн., пласт. прямые, 150 шт/упак (ООО ПК Диапазон)</t>
-  </si>
-  <si>
-    <t>114851</t>
-  </si>
-  <si>
-    <t>Контейнер 1500 мл, 200х200х45 мм, с окном, неразъем.крышка, крафт-бел., карт., 25 шт/упак "OSQ" Eco </t>
-  </si>
-  <si>
-    <t>114852</t>
-  </si>
-  <si>
-    <t>Контейнер 550 мл, 130х130х49 мм, без окна, без крышки, бел, карт., 50 шт/упак "OSQ" Eco SmartPack</t>
+    <t>114977</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 210 мм, d7 мм, черн., пласт. прямые в инд. упаковке, 200 шт/упак (ООО ПК Диап</t>
+  </si>
+  <si>
+    <t>115045</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 250 мм, d12 мм, прозр., пласт. прямые в инд. упаковке, 100 шт/упак (ООО ПК Ди</t>
+  </si>
+  <si>
+    <t>115090</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 250 мм, d12 мм, прозр., пласт. прямые с косой отсечкой, 70 шт/упак (ООО ПК Ди</t>
   </si>
   <si>
     <t>115099</t>
@@ -631,16 +424,16 @@
     <t>Пакет вакуум. 170х400 мм 95 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
   </si>
   <si>
-    <t>115601</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, оранж., ПП, 50 шт/упак (ООО ВЗЛП)</t>
-  </si>
-  <si>
-    <t>115602</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, зел., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+    <t>115207</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 250 мм, d12 мм, прозр., пласт. прямые с косой отсечкой в инд. упаковке, 100 ш</t>
+  </si>
+  <si>
+    <t>115475</t>
+  </si>
+  <si>
+    <t>Подложка с кольцом для шаурмы и роллов 230х91 мм, крафт, карт., 1000 шт/кор "ЭкоЛайн"</t>
   </si>
   <si>
     <t>115627</t>
@@ -649,16 +442,52 @@
     <t>Трубочки для коктейлей 210 мм, d5 мм, черн., пласт. с гофроизгибом, 250 шт/упак (ООО ПК Диапазон)</t>
   </si>
   <si>
-    <t>115692</t>
-  </si>
-  <si>
-    <t>Тарелка одноразовая мелкая d180 мм, бел., карт, 100 шт/упак "OSQ" Plate 180 WB</t>
-  </si>
-  <si>
-    <t>115693</t>
-  </si>
-  <si>
-    <t>Подложка d240 мм 0,8 мм, золот.-сереб., карт. фольг., 100 шт/упак "Pasticciere"</t>
+    <t>115717</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 210 мм, d5 мм, разноцв., пласт. с гофроизгибом, 250 шт/упак (ООО ПК Диапазон)</t>
+  </si>
+  <si>
+    <t>115771</t>
+  </si>
+  <si>
+    <t>Сахар порционный 5 г, лого "СВ", стик, 2000 шт/кор (ТОО "Компания Ника-2000")</t>
+  </si>
+  <si>
+    <t>115789</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 250 мл 1 сл., d80 мм, лого "Scat", карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>115790</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d62 мм с боковым отверстием, бел., ПС, 100 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>115792</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 185 мл 1 сл., d73 мм, зел., диз. "Sunday", карт., 100 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>115793</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 185 мл 1 сл., d73 мм, жел., диз. "Sunday"., карт., 100 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>115794</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 100 мл 1 сл., d62 мм, жел. , диз. "I'm cafe", карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>115796</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 185 мл 1 сл., d73 мм, фиол., диз. "Sunday", карт., 100 шт/упак (ООО Паперскоп Рус)</t>
   </si>
   <si>
     <t>450744</t>
@@ -820,7 +649,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H106"/>
+  <dimension ref="H77"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -833,7 +662,7 @@
     <col min="5" max="5" width="11.66796875" style="1" customWidth="true"/>
     <col min="6" max="6" width="17.83203125" style="1" customWidth="true"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="true"/>
-    <col min="8" max="8" width="10.5" style="1" customWidth="true"/>
+    <col min="8" max="8" width="12.83203125" style="1" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="38" customHeight="true">
@@ -900,14 +729,14 @@
         <v>14</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>74.67</v>
+        <v>309.89</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="5" t="e"/>
-      <c r="H3" s="8" t="n">
-        <v>5000</v>
+      <c r="H3" s="6" t="n">
+        <v>315</v>
       </c>
     </row>
     <row r="4" ht="22" customHeight="true">
@@ -924,14 +753,14 @@
         <v>16</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>66.45</v>
+        <v>960.69</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="5" t="e"/>
       <c r="H4" s="6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" ht="22" customHeight="true">
@@ -947,15 +776,15 @@
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="7" t="n">
-        <v>309.89</v>
+      <c r="E5" s="4" t="n">
+        <v>1894.82</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="5" t="e"/>
       <c r="H5" s="6" t="n">
-        <v>315</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" ht="11" customHeight="true">
@@ -972,14 +801,14 @@
         <v>20</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>92.85</v>
+        <v>328.63</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="5" t="e"/>
       <c r="H6" s="8" t="n">
-        <v>8400</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="7" ht="11" customHeight="true">
@@ -996,14 +825,14 @@
         <v>22</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>640.58</v>
+        <v>157.82</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="5" t="e"/>
-      <c r="H7" s="8" t="n">
-        <v>1605</v>
+      <c r="H7" s="6" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="8" ht="11" customHeight="true">
@@ -1019,18 +848,18 @@
       <c r="D8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="7" t="n">
-        <v>243.28</v>
+      <c r="E8" s="4" t="n">
+        <v>1080.57</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="5" t="e"/>
-      <c r="H8" s="8" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="9" ht="22" customHeight="true">
+      <c r="H8" s="6" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" ht="11" customHeight="true">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1044,17 +873,17 @@
         <v>26</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>1894.82</v>
+        <v>1862</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="5" t="e"/>
       <c r="H9" s="6" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" ht="11" customHeight="true">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" ht="22" customHeight="true">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1067,15 +896,15 @@
       <c r="D10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="7" t="n">
-        <v>328.63</v>
+      <c r="E10" s="4" t="n">
+        <v>5003.67</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="5" t="e"/>
-      <c r="H10" s="8" t="n">
-        <v>3214</v>
+      <c r="H10" s="6" t="n">
+        <v>244</v>
       </c>
     </row>
     <row r="11" ht="11" customHeight="true">
@@ -1092,17 +921,17 @@
         <v>30</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>95.47</v>
+        <v>409.33</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="5" t="e"/>
       <c r="H11" s="6" t="n">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="12" ht="11" customHeight="true">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" ht="22" customHeight="true">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1115,15 +944,15 @@
       <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="4" t="n">
-        <v>1862</v>
+      <c r="E12" s="7" t="n">
+        <v>6.3</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="5" t="e"/>
-      <c r="H12" s="6" t="n">
-        <v>43</v>
+      <c r="H12" s="8" t="n">
+        <v>50000</v>
       </c>
     </row>
     <row r="13" ht="11" customHeight="true">
@@ -1140,17 +969,17 @@
         <v>34</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>230.54</v>
+        <v>4.02</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="5" t="e"/>
-      <c r="H13" s="6" t="n">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="14" ht="22" customHeight="true">
+      <c r="H13" s="8" t="n">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="14" ht="11" customHeight="true">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1163,18 +992,18 @@
       <c r="D14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="4" t="n">
-        <v>5003.67</v>
+      <c r="E14" s="7" t="n">
+        <v>4.02</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="e"/>
-      <c r="H14" s="6" t="n">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" ht="22" customHeight="true">
+      <c r="H14" s="8" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="15" ht="11" customHeight="true">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1188,14 +1017,14 @@
         <v>38</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>898.12</v>
+        <v>5.28</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="5" t="e"/>
-      <c r="H15" s="6" t="n">
-        <v>12</v>
+      <c r="H15" s="8" t="n">
+        <v>1086000</v>
       </c>
     </row>
     <row r="16" ht="11" customHeight="true">
@@ -1212,14 +1041,14 @@
         <v>40</v>
       </c>
       <c r="E16" s="7" t="n">
-        <v>90.12</v>
+        <v>2.36</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="5" t="e"/>
-      <c r="H16" s="6" t="n">
-        <v>60</v>
+      <c r="H16" s="8" t="n">
+        <v>120000</v>
       </c>
     </row>
     <row r="17" ht="11" customHeight="true">
@@ -1236,17 +1065,17 @@
         <v>42</v>
       </c>
       <c r="E17" s="7" t="n">
-        <v>676.03</v>
+        <v>16.87</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="5" t="e"/>
-      <c r="H17" s="6" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" ht="22" customHeight="true">
+      <c r="H17" s="8" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="18" ht="11" customHeight="true">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1260,14 +1089,14 @@
         <v>44</v>
       </c>
       <c r="E18" s="7" t="n">
-        <v>6.3</v>
+        <v>18.87</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="5" t="e"/>
       <c r="H18" s="8" t="n">
-        <v>80000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="19" ht="11" customHeight="true">
@@ -1284,17 +1113,17 @@
         <v>46</v>
       </c>
       <c r="E19" s="7" t="n">
-        <v>4.02</v>
+        <v>2.55</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="5" t="e"/>
       <c r="H19" s="8" t="n">
-        <v>320000</v>
-      </c>
-    </row>
-    <row r="20" ht="11" customHeight="true">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="20" ht="22" customHeight="true">
       <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1308,17 +1137,17 @@
         <v>48</v>
       </c>
       <c r="E20" s="7" t="n">
-        <v>4.02</v>
+        <v>5.23</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="5" t="e"/>
       <c r="H20" s="8" t="n">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="21" ht="22" customHeight="true">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="21" ht="11" customHeight="true">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1332,14 +1161,14 @@
         <v>50</v>
       </c>
       <c r="E21" s="7" t="n">
-        <v>5.77</v>
+        <v>4.15</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="5" t="e"/>
       <c r="H21" s="8" t="n">
-        <v>32850</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="22" ht="11" customHeight="true">
@@ -1356,17 +1185,17 @@
         <v>52</v>
       </c>
       <c r="E22" s="7" t="n">
-        <v>20.65</v>
+        <v>2.02</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="5" t="e"/>
       <c r="H22" s="8" t="n">
-        <v>5720</v>
-      </c>
-    </row>
-    <row r="23" ht="11" customHeight="true">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="23" ht="22" customHeight="true">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -1380,14 +1209,14 @@
         <v>54</v>
       </c>
       <c r="E23" s="7" t="n">
-        <v>2.96</v>
+        <v>368.26</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="5" t="e"/>
-      <c r="H23" s="8" t="n">
-        <v>44000</v>
+      <c r="H23" s="6" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="24" ht="11" customHeight="true">
@@ -1404,14 +1233,14 @@
         <v>56</v>
       </c>
       <c r="E24" s="7" t="n">
-        <v>18.87</v>
+        <v>593.83</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="5" t="e"/>
-      <c r="H24" s="8" t="n">
-        <v>15000</v>
+      <c r="H24" s="6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="25" ht="22" customHeight="true">
@@ -1428,17 +1257,17 @@
         <v>58</v>
       </c>
       <c r="E25" s="7" t="n">
-        <v>5.23</v>
+        <v>8.45</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="5" t="e"/>
       <c r="H25" s="8" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26" ht="11" customHeight="true">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="26" ht="22" customHeight="true">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1452,17 +1281,17 @@
         <v>60</v>
       </c>
       <c r="E26" s="7" t="n">
-        <v>4.85</v>
+        <v>39.94</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="5" t="e"/>
       <c r="H26" s="8" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="27" ht="11" customHeight="true">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="27" ht="22" customHeight="true">
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1476,17 +1305,17 @@
         <v>62</v>
       </c>
       <c r="E27" s="7" t="n">
-        <v>4.15</v>
+        <v>37.17</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="5" t="e"/>
       <c r="H27" s="8" t="n">
-        <v>56000</v>
-      </c>
-    </row>
-    <row r="28" ht="11" customHeight="true">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="28" ht="22" customHeight="true">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -1500,14 +1329,14 @@
         <v>64</v>
       </c>
       <c r="E28" s="7" t="n">
-        <v>2.02</v>
+        <v>39.8</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="5" t="e"/>
       <c r="H28" s="8" t="n">
-        <v>60000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="29" ht="11" customHeight="true">
@@ -1524,17 +1353,17 @@
         <v>66</v>
       </c>
       <c r="E29" s="7" t="n">
-        <v>593.83</v>
+        <v>32.73</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="5" t="e"/>
-      <c r="H29" s="6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" ht="22" customHeight="true">
+      <c r="H29" s="8" t="n">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="30" ht="11" customHeight="true">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -1548,14 +1377,14 @@
         <v>68</v>
       </c>
       <c r="E30" s="7" t="n">
-        <v>29.32</v>
+        <v>3.75</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="5" t="e"/>
       <c r="H30" s="8" t="n">
-        <v>10800</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="31" ht="22" customHeight="true">
@@ -1572,14 +1401,14 @@
         <v>70</v>
       </c>
       <c r="E31" s="7" t="n">
-        <v>4.41</v>
+        <v>21.27</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="5" t="e"/>
       <c r="H31" s="8" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="32" ht="22" customHeight="true">
@@ -1596,14 +1425,14 @@
         <v>72</v>
       </c>
       <c r="E32" s="7" t="n">
-        <v>6.75</v>
+        <v>13.41</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="5" t="e"/>
-      <c r="H32" s="8" t="n">
-        <v>10000</v>
+      <c r="H32" s="6" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="33" ht="22" customHeight="true">
@@ -1620,14 +1449,14 @@
         <v>74</v>
       </c>
       <c r="E33" s="7" t="n">
-        <v>30.72</v>
+        <v>5.09</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="5" t="e"/>
       <c r="H33" s="8" t="n">
-        <v>5700</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="34" ht="11" customHeight="true">
@@ -1644,14 +1473,14 @@
         <v>76</v>
       </c>
       <c r="E34" s="7" t="n">
-        <v>54.82</v>
+        <v>5.37</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="5" t="e"/>
       <c r="H34" s="8" t="n">
-        <v>5100</v>
+        <v>128250</v>
       </c>
     </row>
     <row r="35" ht="11" customHeight="true">
@@ -1668,14 +1497,14 @@
         <v>78</v>
       </c>
       <c r="E35" s="7" t="n">
-        <v>30.44</v>
+        <v>24.33</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="5" t="e"/>
       <c r="H35" s="8" t="n">
-        <v>5700</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="36" ht="11" customHeight="true">
@@ -1692,17 +1521,17 @@
         <v>80</v>
       </c>
       <c r="E36" s="7" t="n">
-        <v>36.03</v>
+        <v>513.07</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="5" t="e"/>
-      <c r="H36" s="8" t="n">
-        <v>5100</v>
-      </c>
-    </row>
-    <row r="37" ht="11" customHeight="true">
+      <c r="H36" s="6" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" ht="22" customHeight="true">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
@@ -1716,17 +1545,17 @@
         <v>82</v>
       </c>
       <c r="E37" s="7" t="n">
-        <v>7.86</v>
+        <v>18.35</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="5" t="e"/>
       <c r="H37" s="8" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="38" ht="11" customHeight="true">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" ht="22" customHeight="true">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
@@ -1740,14 +1569,14 @@
         <v>84</v>
       </c>
       <c r="E38" s="7" t="n">
-        <v>9.61</v>
+        <v>3.26</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="5" t="e"/>
       <c r="H38" s="8" t="n">
-        <v>2000</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="39" ht="11" customHeight="true">
@@ -1764,17 +1593,17 @@
         <v>86</v>
       </c>
       <c r="E39" s="7" t="n">
-        <v>3.88</v>
+        <v>4.14</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="5" t="e"/>
       <c r="H39" s="8" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="40" ht="22" customHeight="true">
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="40" ht="11" customHeight="true">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
@@ -1788,17 +1617,17 @@
         <v>88</v>
       </c>
       <c r="E40" s="7" t="n">
-        <v>10.56</v>
+        <v>5.34</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="5" t="e"/>
       <c r="H40" s="8" t="n">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="41" ht="22" customHeight="true">
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="41" ht="11" customHeight="true">
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
@@ -1812,14 +1641,14 @@
         <v>90</v>
       </c>
       <c r="E41" s="7" t="n">
-        <v>13.41</v>
+        <v>10.5</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="5" t="e"/>
-      <c r="H41" s="6" t="n">
-        <v>300</v>
+      <c r="H41" s="8" t="n">
+        <v>39600</v>
       </c>
     </row>
     <row r="42" ht="22" customHeight="true">
@@ -1836,14 +1665,14 @@
         <v>92</v>
       </c>
       <c r="E42" s="7" t="n">
-        <v>5.09</v>
+        <v>23.17</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="5" t="e"/>
       <c r="H42" s="8" t="n">
-        <v>2500</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="43" ht="22" customHeight="true">
@@ -1860,17 +1689,17 @@
         <v>94</v>
       </c>
       <c r="E43" s="7" t="n">
-        <v>31.43</v>
+        <v>706.56</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="5" t="e"/>
       <c r="H43" s="6" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="44" ht="22" customHeight="true">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" ht="11" customHeight="true">
       <c r="A44" s="3" t="s">
         <v>8</v>
       </c>
@@ -1883,13 +1712,15 @@
       <c r="D44" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E44" s="3" t="e"/>
+      <c r="E44" s="7" t="n">
+        <v>1.31</v>
+      </c>
       <c r="F44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="5" t="e"/>
-      <c r="H44" s="6" t="n">
-        <v>900</v>
+      <c r="H44" s="8" t="n">
+        <v>400000</v>
       </c>
     </row>
     <row r="45" ht="11" customHeight="true">
@@ -1906,14 +1737,14 @@
         <v>98</v>
       </c>
       <c r="E45" s="7" t="n">
-        <v>5.37</v>
+        <v>10.62</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="5" t="e"/>
       <c r="H45" s="8" t="n">
-        <v>60750</v>
+        <v>15750</v>
       </c>
     </row>
     <row r="46" ht="22" customHeight="true">
@@ -1930,17 +1761,17 @@
         <v>100</v>
       </c>
       <c r="E46" s="7" t="n">
-        <v>32.9</v>
+        <v>283.34</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="5" t="e"/>
       <c r="H46" s="6" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="47" ht="11" customHeight="true">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" ht="22" customHeight="true">
       <c r="A47" s="3" t="s">
         <v>8</v>
       </c>
@@ -1954,17 +1785,17 @@
         <v>102</v>
       </c>
       <c r="E47" s="7" t="n">
-        <v>24.33</v>
+        <v>9.13</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="5" t="e"/>
       <c r="H47" s="8" t="n">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="48" ht="22" customHeight="true">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="48" ht="11" customHeight="true">
       <c r="A48" s="3" t="s">
         <v>8</v>
       </c>
@@ -1978,17 +1809,17 @@
         <v>104</v>
       </c>
       <c r="E48" s="7" t="n">
-        <v>27.34</v>
+        <v>27.67</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="5" t="e"/>
-      <c r="H48" s="8" t="n">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="49" ht="22" customHeight="true">
+      <c r="H48" s="6" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="49" ht="11" customHeight="true">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2002,14 +1833,14 @@
         <v>106</v>
       </c>
       <c r="E49" s="7" t="n">
-        <v>18.35</v>
+        <v>10.59</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="5" t="e"/>
-      <c r="H49" s="8" t="n">
-        <v>1000</v>
+      <c r="H49" s="6" t="n">
+        <v>960</v>
       </c>
     </row>
     <row r="50" ht="22" customHeight="true">
@@ -2026,14 +1857,14 @@
         <v>108</v>
       </c>
       <c r="E50" s="7" t="n">
-        <v>3.26</v>
+        <v>2.92</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G50" s="5" t="e"/>
       <c r="H50" s="8" t="n">
-        <v>55000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="51" ht="11" customHeight="true">
@@ -2050,14 +1881,14 @@
         <v>110</v>
       </c>
       <c r="E51" s="7" t="n">
-        <v>1.13</v>
+        <v>238.63</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G51" s="5" t="e"/>
-      <c r="H51" s="8" t="n">
-        <v>130000</v>
+      <c r="H51" s="6" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="11" customHeight="true">
@@ -2074,14 +1905,14 @@
         <v>112</v>
       </c>
       <c r="E52" s="7" t="n">
-        <v>4.14</v>
+        <v>238.63</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G52" s="5" t="e"/>
-      <c r="H52" s="8" t="n">
-        <v>108000</v>
+      <c r="H52" s="6" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="53" ht="11" customHeight="true">
@@ -2098,17 +1929,17 @@
         <v>114</v>
       </c>
       <c r="E53" s="7" t="n">
-        <v>5.34</v>
+        <v>238.63</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G53" s="5" t="e"/>
-      <c r="H53" s="8" t="n">
-        <v>16200</v>
-      </c>
-    </row>
-    <row r="54" ht="22" customHeight="true">
+      <c r="H53" s="6" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" ht="11" customHeight="true">
       <c r="A54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2121,16 +1952,18 @@
       <c r="D54" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E54" s="3" t="e"/>
+      <c r="E54" s="7" t="n">
+        <v>238.63</v>
+      </c>
       <c r="F54" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G54" s="5" t="e"/>
-      <c r="H54" s="8" t="n">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="55" ht="11" customHeight="true">
+      <c r="H54" s="6" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="22" customHeight="true">
       <c r="A55" s="3" t="s">
         <v>8</v>
       </c>
@@ -2143,15 +1976,15 @@
       <c r="D55" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E55" s="7" t="n">
-        <v>10.5</v>
+      <c r="E55" s="4" t="n">
+        <v>3041.25</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G55" s="5" t="e"/>
-      <c r="H55" s="8" t="n">
-        <v>39600</v>
+      <c r="H55" s="6" t="n">
+        <v>610</v>
       </c>
     </row>
     <row r="56" ht="11" customHeight="true">
@@ -2168,14 +2001,14 @@
         <v>120</v>
       </c>
       <c r="E56" s="7" t="n">
-        <v>7.87</v>
+        <v>4.48</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G56" s="5" t="e"/>
       <c r="H56" s="8" t="n">
-        <v>2880</v>
+        <v>258000</v>
       </c>
     </row>
     <row r="57" ht="22" customHeight="true">
@@ -2191,18 +2024,18 @@
       <c r="D57" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E57" s="7" t="n">
-        <v>27.49</v>
+      <c r="E57" s="4" t="n">
+        <v>4844.78</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G57" s="5" t="e"/>
       <c r="H57" s="8" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="58" ht="22" customHeight="true">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="58" ht="11" customHeight="true">
       <c r="A58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2216,17 +2049,17 @@
         <v>124</v>
       </c>
       <c r="E58" s="7" t="n">
-        <v>706.56</v>
+        <v>92.85</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G58" s="5" t="e"/>
-      <c r="H58" s="6" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" ht="11" customHeight="true">
+      <c r="H58" s="8" t="n">
+        <v>23100</v>
+      </c>
+    </row>
+    <row r="59" ht="22" customHeight="true">
       <c r="A59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2240,17 +2073,17 @@
         <v>126</v>
       </c>
       <c r="E59" s="7" t="n">
-        <v>41.77</v>
+        <v>417.95</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G59" s="5" t="e"/>
-      <c r="H59" s="6" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="60" ht="11" customHeight="true">
+      <c r="H59" s="8" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="60" ht="22" customHeight="true">
       <c r="A60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2263,18 +2096,16 @@
       <c r="D60" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E60" s="7" t="n">
-        <v>53.94</v>
-      </c>
+      <c r="E60" s="3" t="e"/>
       <c r="F60" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G60" s="5" t="e"/>
-      <c r="H60" s="8" t="n">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="61" ht="11" customHeight="true">
+      <c r="H60" s="6" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" ht="22" customHeight="true">
       <c r="A61" s="3" t="s">
         <v>8</v>
       </c>
@@ -2287,15 +2118,13 @@
       <c r="D61" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E61" s="7" t="n">
-        <v>102.96</v>
-      </c>
+      <c r="E61" s="3" t="e"/>
       <c r="F61" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G61" s="5" t="e"/>
       <c r="H61" s="6" t="n">
-        <v>160</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" ht="11" customHeight="true">
@@ -2311,18 +2140,18 @@
       <c r="D62" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E62" s="7" t="n">
-        <v>204.91</v>
+      <c r="E62" s="4" t="n">
+        <v>4135.26</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G62" s="5" t="e"/>
       <c r="H62" s="6" t="n">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="63" ht="11" customHeight="true">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" ht="22" customHeight="true">
       <c r="A63" s="3" t="s">
         <v>8</v>
       </c>
@@ -2335,18 +2164,16 @@
       <c r="D63" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E63" s="7" t="n">
-        <v>13.49</v>
-      </c>
+      <c r="E63" s="3" t="e"/>
       <c r="F63" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G63" s="5" t="e"/>
-      <c r="H63" s="8" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="64" ht="11" customHeight="true">
+      <c r="H63" s="6" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" ht="22" customHeight="true">
       <c r="A64" s="3" t="s">
         <v>8</v>
       </c>
@@ -2360,14 +2187,14 @@
         <v>136</v>
       </c>
       <c r="E64" s="7" t="n">
-        <v>29.68</v>
+        <v>13.88</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G64" s="5" t="e"/>
       <c r="H64" s="8" t="n">
-        <v>32000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="65" ht="22" customHeight="true">
@@ -2384,14 +2211,14 @@
         <v>138</v>
       </c>
       <c r="E65" s="7" t="n">
-        <v>62.99</v>
+        <v>207.51</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G65" s="5" t="e"/>
-      <c r="H65" s="8" t="n">
-        <v>4500</v>
+      <c r="H65" s="6" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="66" ht="22" customHeight="true">
@@ -2407,15 +2234,13 @@
       <c r="D66" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E66" s="7" t="n">
-        <v>27.28</v>
-      </c>
+      <c r="E66" s="3" t="e"/>
       <c r="F66" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G66" s="5" t="e"/>
-      <c r="H66" s="8" t="n">
-        <v>32000</v>
+      <c r="H66" s="6" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="67" ht="11" customHeight="true">
@@ -2431,15 +2256,13 @@
       <c r="D67" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E67" s="7" t="n">
-        <v>4.1</v>
-      </c>
+      <c r="E67" s="3" t="e"/>
       <c r="F67" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G67" s="5" t="e"/>
       <c r="H67" s="8" t="n">
-        <v>1200</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="68" ht="22" customHeight="true">
@@ -2455,18 +2278,16 @@
       <c r="D68" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E68" s="7" t="n">
-        <v>4.17</v>
-      </c>
+      <c r="E68" s="3" t="e"/>
       <c r="F68" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G68" s="5" t="e"/>
       <c r="H68" s="8" t="n">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="69" ht="11" customHeight="true">
+        <v>73000</v>
+      </c>
+    </row>
+    <row r="69" ht="22" customHeight="true">
       <c r="A69" s="3" t="s">
         <v>8</v>
       </c>
@@ -2479,18 +2300,18 @@
       <c r="D69" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E69" s="4" t="n">
-        <v>2419.73</v>
+      <c r="E69" s="7" t="n">
+        <v>7.1</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G69" s="5" t="e"/>
-      <c r="H69" s="6" t="n">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" ht="11" customHeight="true">
+      <c r="H69" s="8" t="n">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="70" ht="22" customHeight="true">
       <c r="A70" s="3" t="s">
         <v>8</v>
       </c>
@@ -2503,15 +2324,13 @@
       <c r="D70" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E70" s="7" t="n">
-        <v>21.58</v>
-      </c>
+      <c r="E70" s="3" t="e"/>
       <c r="F70" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G70" s="5" t="e"/>
       <c r="H70" s="8" t="n">
-        <v>18000</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="71" ht="22" customHeight="true">
@@ -2527,15 +2346,13 @@
       <c r="D71" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E71" s="7" t="n">
-        <v>19.96</v>
-      </c>
+      <c r="E71" s="3" t="e"/>
       <c r="F71" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G71" s="5" t="e"/>
       <c r="H71" s="8" t="n">
-        <v>18000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="72" ht="22" customHeight="true">
@@ -2551,15 +2368,13 @@
       <c r="D72" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E72" s="7" t="n">
-        <v>169.33</v>
-      </c>
+      <c r="E72" s="3" t="e"/>
       <c r="F72" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G72" s="5" t="e"/>
       <c r="H72" s="8" t="n">
-        <v>1200</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="73" ht="22" customHeight="true">
@@ -2575,15 +2390,13 @@
       <c r="D73" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E73" s="7" t="n">
-        <v>159.42</v>
-      </c>
+      <c r="E73" s="3" t="e"/>
       <c r="F73" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G73" s="5" t="e"/>
       <c r="H73" s="8" t="n">
-        <v>2700</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="74" ht="11" customHeight="true">
@@ -2600,14 +2413,14 @@
         <v>156</v>
       </c>
       <c r="E74" s="7" t="n">
-        <v>1.31</v>
+        <v>409.85</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G74" s="5" t="e"/>
-      <c r="H74" s="8" t="n">
-        <v>410000</v>
+      <c r="H74" s="6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="75" ht="11" customHeight="true">
@@ -2623,15 +2436,15 @@
       <c r="D75" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E75" s="7" t="n">
-        <v>213.11</v>
+      <c r="E75" s="4" t="n">
+        <v>3957.89</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G75" s="5" t="e"/>
       <c r="H75" s="6" t="n">
-        <v>225</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" ht="11" customHeight="true">
@@ -2648,14 +2461,14 @@
         <v>160</v>
       </c>
       <c r="E76" s="7" t="n">
-        <v>412.05</v>
+        <v>294.7</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G76" s="5" t="e"/>
-      <c r="H76" s="8" t="n">
-        <v>1263</v>
+      <c r="H76" s="6" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="22" customHeight="true">
@@ -2671,702 +2484,14 @@
       <c r="D77" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E77" s="7" t="n">
-        <v>283.34</v>
+      <c r="E77" s="4" t="n">
+        <v>4912.47</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G77" s="5" t="e"/>
       <c r="H77" s="6" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="78" ht="11" customHeight="true">
-      <c r="A78" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E78" s="7" t="n">
-        <v>27.67</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="5" t="e"/>
-      <c r="H78" s="6" t="n">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="79" ht="11" customHeight="true">
-      <c r="A79" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E79" s="7" t="n">
-        <v>10.59</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" s="5" t="e"/>
-      <c r="H79" s="6" t="n">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="80" ht="11" customHeight="true">
-      <c r="A80" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E80" s="7" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" s="5" t="e"/>
-      <c r="H80" s="8" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="81" ht="22" customHeight="true">
-      <c r="A81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E81" s="7" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="5" t="e"/>
-      <c r="H81" s="8" t="n">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="82" ht="11" customHeight="true">
-      <c r="A82" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E82" s="7" t="n">
-        <v>238.63</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" s="5" t="e"/>
-      <c r="H82" s="6" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" ht="22" customHeight="true">
-      <c r="A83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E83" s="7" t="n">
-        <v>20.02</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" s="5" t="e"/>
-      <c r="H83" s="8" t="n">
-        <v>22500</v>
-      </c>
-    </row>
-    <row r="84" ht="22" customHeight="true">
-      <c r="A84" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E84" s="4" t="n">
-        <v>3038.81</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" s="5" t="e"/>
-      <c r="H84" s="6" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="85" ht="22" customHeight="true">
-      <c r="A85" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E85" s="4" t="n">
-        <v>3041.25</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" s="5" t="e"/>
-      <c r="H85" s="6" t="n">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="86" ht="11" customHeight="true">
-      <c r="A86" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E86" s="7" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" s="5" t="e"/>
-      <c r="H86" s="8" t="n">
-        <v>288000</v>
-      </c>
-    </row>
-    <row r="87" ht="22" customHeight="true">
-      <c r="A87" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E87" s="4" t="n">
-        <v>4844.78</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" s="5" t="e"/>
-      <c r="H87" s="6" t="n">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="88" ht="22" customHeight="true">
-      <c r="A88" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E88" s="7" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" s="5" t="e"/>
-      <c r="H88" s="8" t="n">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="89" ht="22" customHeight="true">
-      <c r="A89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E89" s="7" t="n">
-        <v>21.96</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="5" t="e"/>
-      <c r="H89" s="8" t="n">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="90" ht="22" customHeight="true">
-      <c r="A90" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E90" s="7" t="n">
-        <v>44.57</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" s="5" t="e"/>
-      <c r="H90" s="8" t="n">
-        <v>3375</v>
-      </c>
-    </row>
-    <row r="91" ht="22" customHeight="true">
-      <c r="A91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E91" s="7" t="n">
-        <v>76.68</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" s="5" t="e"/>
-      <c r="H91" s="8" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="92" ht="22" customHeight="true">
-      <c r="A92" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E92" s="7" t="n">
-        <v>287.68</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" s="5" t="e"/>
-      <c r="H92" s="6" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" ht="11" customHeight="true">
-      <c r="A93" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E93" s="7" t="n">
-        <v>92.85</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" s="5" t="e"/>
-      <c r="H93" s="8" t="n">
-        <v>19698</v>
-      </c>
-    </row>
-    <row r="94" ht="22" customHeight="true">
-      <c r="A94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E94" s="7" t="n">
-        <v>239.32</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" s="5" t="e"/>
-      <c r="H94" s="6" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="95" ht="22" customHeight="true">
-      <c r="A95" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E95" s="7" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" s="5" t="e"/>
-      <c r="H95" s="8" t="n">
-        <v>2625</v>
-      </c>
-    </row>
-    <row r="96" ht="22" customHeight="true">
-      <c r="A96" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="7" t="n">
-        <v>39.46</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" s="5" t="e"/>
-      <c r="H96" s="6" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="97" ht="11" customHeight="true">
-      <c r="A97" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E97" s="3" t="e"/>
-      <c r="F97" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" s="5" t="e"/>
-      <c r="H97" s="6" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="98" ht="22" customHeight="true">
-      <c r="A98" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E98" s="7" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" s="5" t="e"/>
-      <c r="H98" s="8" t="n">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="99" ht="22" customHeight="true">
-      <c r="A99" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E99" s="7" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" s="5" t="e"/>
-      <c r="H99" s="8" t="n">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="100" ht="22" customHeight="true">
-      <c r="A100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E100" s="3" t="e"/>
-      <c r="F100" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" s="5" t="e"/>
-      <c r="H100" s="6" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="101" ht="11" customHeight="true">
-      <c r="A101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E101" s="3" t="e"/>
-      <c r="F101" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" s="5" t="e"/>
-      <c r="H101" s="8" t="n">
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="102" ht="11" customHeight="true">
-      <c r="A102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E102" s="3" t="e"/>
-      <c r="F102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" s="5" t="e"/>
-      <c r="H102" s="6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" ht="11" customHeight="true">
-      <c r="A103" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E103" s="7" t="n">
-        <v>409.85</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" s="5" t="e"/>
-      <c r="H103" s="6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" ht="11" customHeight="true">
-      <c r="A104" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E104" s="4" t="n">
-        <v>3957.89</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" s="5" t="e"/>
-      <c r="H104" s="6" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="105" ht="11" customHeight="true">
-      <c r="A105" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E105" s="7" t="n">
-        <v>294.7</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" s="5" t="e"/>
-      <c r="H105" s="6" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" ht="22" customHeight="true">
-      <c r="A106" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E106" s="4" t="n">
-        <v>4912.47</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" s="5" t="e"/>
-      <c r="H106" s="6" t="n">
         <v>3</v>
       </c>
     </row>

--- a/data/В пути АЛМ.xlsx
+++ b/data/В пути АЛМ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t>Дата</t>
   </si>
@@ -49,19 +49,55 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>02.03.2024 0:00:00</t>
+    <t>06.03.2024 0:00:00</t>
   </si>
   <si>
     <t>Алматы в Пути</t>
   </si>
   <si>
+    <t>187430</t>
+  </si>
+  <si>
+    <t>Набор одноразовой посуды "Шашлычок" [6 стак. 200 мл, ПП+ 6 тар. d167 мм, ПС+6 вил.+6 салф.]</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>187011</t>
+  </si>
+  <si>
+    <t>Набор одноразовой посуды для пикника [6 стак. 200 мл, ПП+6 тар. d205 мм, ПС+6 вил.+6 салф.]</t>
+  </si>
+  <si>
+    <t>100604</t>
+  </si>
+  <si>
+    <t>Салфетка из микрофибры 300х300 мм, 220 гр/м2, син., 400 шт/кор (ООО ОНМ)</t>
+  </si>
+  <si>
+    <t>100605</t>
+  </si>
+  <si>
+    <t>Салфетка из микрофибры 300х300 мм, 220 гр/м2, зел., 400 шт/кор (ООО ОНМ)</t>
+  </si>
+  <si>
+    <t>100606</t>
+  </si>
+  <si>
+    <t>Салфетка из микрофибры 300х300 мм, 220 гр/м2, желт., 400 шт/кор (ООО ОНМ)</t>
+  </si>
+  <si>
     <t>342049</t>
   </si>
   <si>
     <t>Трубочки для коктейлей 250 мм, d12 мм, черн., пласт. прямые, 250 шт/упак (ООО Фарт)</t>
   </si>
   <si>
-    <t>Нет</t>
+    <t>105654</t>
+  </si>
+  <si>
+    <t>Чековая лента 80мм х 60м, d12 мм, бел., термобум. (ООО НБК Трейд)</t>
   </si>
   <si>
     <t>107163</t>
@@ -82,6 +118,30 @@
     <t>Поддон 120х80х15 см "подЕВРО", без клейма (ООО ПаллетТрейд)</t>
   </si>
   <si>
+    <t>101005</t>
+  </si>
+  <si>
+    <t>Набородник одноразовый, бел., нетк. мат-л, 100 шт/упак (ООО Оптитрейд)</t>
+  </si>
+  <si>
+    <t>101623</t>
+  </si>
+  <si>
+    <t>Губка металлическая для посуды d80xh20 мм, 9 гр., нерж., 10 шт/упак "Soft Tex"</t>
+  </si>
+  <si>
+    <t>102186</t>
+  </si>
+  <si>
+    <t>Мешок для мусора 180 л, [70+20]х110 см Суперпрочный, черн., ПВД, 10 шт/рул (ООО Техинвест Плюс)</t>
+  </si>
+  <si>
+    <t>847281</t>
+  </si>
+  <si>
+    <t>Средство для мытья пароконвектоматов "Pro-Brite" Strong, концентрат, канистра, 5000 мл</t>
+  </si>
+  <si>
     <t>103096</t>
   </si>
   <si>
@@ -94,22 +154,16 @@
     <t>Крышка для стакана d95 мм куполообразная без отверстия, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
   </si>
   <si>
-    <t>102318</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d80 мм с клапаном, бел., ПС, 100 шт/упак "Kado-Prim"</t>
-  </si>
-  <si>
-    <t>102319</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d80 мм с клапаном, черн., ПС, 100 шт/упак "Kado-Prim"</t>
-  </si>
-  <si>
-    <t>102321</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d90 мм с клапаном, черн., ПС, 100 шт/упак "Kado-Prim"</t>
+    <t>102855</t>
+  </si>
+  <si>
+    <t>Держатель для стаканов 2 яч. 108х193х42 мм, сер., карт., 150 шт/кор (ОАО СОЭМЗ)</t>
+  </si>
+  <si>
+    <t>106136</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 500 мл, прозр., ПП, 50 шт/упак "Upax-Unity"</t>
   </si>
   <si>
     <t>100120</t>
@@ -118,6 +172,18 @@
     <t>Стакан одноразовый 100 мл, прозр., ПП, 100 шт/упак (ООО Флайпак-С)</t>
   </si>
   <si>
+    <t>104280</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 200 мл, прозр., ПП, 100 шт/упак (ООО Флайпак-С)</t>
+  </si>
+  <si>
+    <t>104234</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 200 мл, прозр., ПП, 100 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
     <t>115418</t>
   </si>
   <si>
@@ -142,18 +208,60 @@
     <t>Крышка для стакана d95 мм плоская с отверстием, прозр., ПЭТ, 25 шт/упак "Upax-Unity"</t>
   </si>
   <si>
+    <t>103506</t>
+  </si>
+  <si>
+    <t>Нож одноразовый 178,5 мм, черн., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>140080</t>
+  </si>
+  <si>
+    <t>Вилка одноразовая 165 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>103535</t>
+  </si>
+  <si>
+    <t>Размешиватель 120 мм, бел., ПС, 500 шт/упак (ООО РТС)</t>
+  </si>
+  <si>
+    <t>120100</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d205 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>123250</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d167 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
     <t>451459</t>
   </si>
   <si>
     <t>Полотенца бумажные для диспенсеров 240х215 мм 3-сл. Z-сложен., бел., 200 лист/упак "Focus" Eco</t>
   </si>
   <si>
+    <t>121490</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая глубокая 475 мл, d153 мм, бел., ПП, 50 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
     <t>154625</t>
   </si>
   <si>
     <t>Контейнер 500 мл 1-секц. 108х82х106 мм, серия 108, без крышки, прозр., ПП, 100 шт/упак "Upax-Unity"</t>
   </si>
   <si>
+    <t>107205</t>
+  </si>
+  <si>
+    <t>Контейнер 950[650+300] мл 2-секц., 230х170х50 мм, без крышки, черн., ПП, 50 шт/упак "ПолиЭр"</t>
+  </si>
+  <si>
     <t>107208</t>
   </si>
   <si>
@@ -172,6 +280,12 @@
     <t>Крышка к контейнеру купол. 3-секц. овал 257х202х35 мм, прозр., ПП, 30 шт/упак "ПолиЭр"</t>
   </si>
   <si>
+    <t>102914</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру купол. 2-секц. 230х170х22,5 мм, прозр., ПП, 50 шт/упак "ПолиЭр"</t>
+  </si>
+  <si>
     <t>159525</t>
   </si>
   <si>
@@ -184,52 +298,253 @@
     <t>Крышка к контейнеру 108х82х3 мм, прозр., ПП, 50 шт/упак "Upax-Unity"</t>
   </si>
   <si>
+    <t>253043</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру для суши 235х162х25 мм, прозр., ПЭТ, 220 шт/кор "ПолиЭр"</t>
+  </si>
+  <si>
+    <t>253042</t>
+  </si>
+  <si>
+    <t>Контейнер для суши 1-секц. 235х162х25 мм, без крышки, черн., ПЭТ, 220 шт/кор "ПолиЭр"</t>
+  </si>
+  <si>
+    <t>103559</t>
+  </si>
+  <si>
+    <t>Средство для мытья посуды "Synergetic" С ароматом лимона, дозатор, 500 мл</t>
+  </si>
+  <si>
+    <t>103561</t>
+  </si>
+  <si>
+    <t>Средство для мытья посуды "Synergetic" С ароматом яблока, дозатор, 500 мл</t>
+  </si>
+  <si>
+    <t>103564</t>
+  </si>
+  <si>
+    <t>Средство для мытья посуды "Synergetic" Алоэ вера, дозатор, 500 мл</t>
+  </si>
+  <si>
+    <t>106634</t>
+  </si>
+  <si>
+    <t>Универсальное моющее средство "Synergetic" концентрат, флакон, 1000 мл</t>
+  </si>
+  <si>
     <t>103851</t>
   </si>
   <si>
     <t>Упаковка для сэндвича под запайку 470 мл, треуг. 182х81х86 [165х66х86] мм, черн., ПП, 400 шт/кор (ОО</t>
   </si>
   <si>
+    <t>501323</t>
+  </si>
+  <si>
+    <t>Комплект столовых приборов №3 [лож.ст.+ вил.: 165 мм, бел., ПС+ салф.], 300 шт/кор</t>
+  </si>
+  <si>
+    <t>501423</t>
+  </si>
+  <si>
+    <t>Комплект столовых приборов №4 [лож.ст.+ вил.+ нож: 165 мм, бел., ПС+ салф.], 300 шт/кор</t>
+  </si>
+  <si>
+    <t>501523</t>
+  </si>
+  <si>
+    <t>Комплект столовых приборов №5 [лож.ст.+ вил.+ нож: 165 мм, бел., ПС+ салф.+ з/ч.], 300 шт/кор</t>
+  </si>
+  <si>
     <t>107468</t>
   </si>
   <si>
     <t>Капхолдер [манжета] 270х55 мм, крафт, карт., 50 шт/упак (ООО ПК Растр)</t>
   </si>
   <si>
-    <t>107332</t>
-  </si>
-  <si>
-    <t>Упаковка для роллов 400 мл, 160х115х48 мм, прозр., ПЭТ, 400 шт/кор "Kado-Prim"</t>
-  </si>
-  <si>
     <t>105267</t>
   </si>
   <si>
     <t>Пакет "Майка" [290+160]х550 мм 13 мкм, бел., ПНД, 100 шт/упак (АО Артпласт)</t>
   </si>
   <si>
+    <t>104963</t>
+  </si>
+  <si>
+    <t>Пакет [220+120]х250 мм с плоск. ручками, крафт, бум., 250 шт/кор (ООО Демарт)</t>
+  </si>
+  <si>
+    <t>104965</t>
+  </si>
+  <si>
+    <t>Пакет [240+140]х280 мм с круч. ручками, крафт, бум., 300 шт/кор (ООО Демарт)</t>
+  </si>
+  <si>
+    <t>104969</t>
+  </si>
+  <si>
+    <t>Пакет [260+150]х350 мм с круч. ручками, крафт, бум., 200 шт/кор (ООО Демарт)</t>
+  </si>
+  <si>
+    <t>104975</t>
+  </si>
+  <si>
+    <t>Пакет [330+180]х370 мм с плоск. ручками, крафт, бум., 200 шт/кор (ООО Демарт)</t>
+  </si>
+  <si>
+    <t>183240</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d210 мм, красн., ПС, 12 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>106521</t>
+  </si>
+  <si>
+    <t>Размешиватель 180 мм, инд. упак., древ. волокно, 250 шт/упак (ООО Компания Лемио)</t>
+  </si>
+  <si>
+    <t>106554</t>
+  </si>
+  <si>
+    <t>Китайские палочки h220хd4 мм, инд. бум. упак., бамбук, 100 пар/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>104419</t>
+  </si>
+  <si>
+    <t>Рюмка 100 мл, прозр., ПС, 6 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>181511</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 200 мл, цвет в ассорт., ПП, 12 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
     <t>181221</t>
   </si>
   <si>
     <t>Стакан одноразовый 200 мл, прозр., ПП, 6 шт/упак "МИСТЕРИЯ"</t>
   </si>
   <si>
+    <t>181181</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 200 мл, бел., ПП, 6 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>107501</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 500 мл, диз. "Факел", прозр., ПП, 12 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>183040</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d205 мм, бел., ПС, 12 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>108012</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d167 мм, бел., ПС, 12 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>185155</t>
+  </si>
+  <si>
+    <t>Вилка одноразовая 165 мм, бел., ПС, 12 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>108026</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая 165 мм, бел., ПС, 12 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>183290</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая глубокая 475 мл, d153 мм, бел., ПП, 12 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
     <t>191609</t>
   </si>
   <si>
     <t>Коробка для бургера [бургербокс] 152х152х80 мм, бел., сах.тростник, 50 шт/упак "GREEN MYSTERY"</t>
   </si>
   <si>
+    <t>191610</t>
+  </si>
+  <si>
+    <t>Коробка для бургера [бургербокс] 154х152х88 мм, бел., сах.тростник, 50 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>183230</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d210 мм, зел., ПС, 12 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>111614</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d90 мм с центральным отверстием, прозр., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>112682</t>
+  </si>
+  <si>
+    <t>Зубочистки 65 мм в инд. бум. упаковке, бамбук, 1000 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>112688</t>
+  </si>
+  <si>
+    <t>Размешиватель 170 мм, бамбук, 500 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>112691</t>
+  </si>
+  <si>
+    <t>Размешиватель 170 мм, инд. упак., бамбук, 250 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>112713</t>
+  </si>
+  <si>
+    <t>Размешиватель 180 мм, древ. волокно, 1000 шт/упак (ООО Компания Лемио)</t>
+  </si>
+  <si>
+    <t>112792</t>
+  </si>
+  <si>
+    <t>Вилка одноразовая 160 мм, бел., ПС, 100 шт/упак (ВЗЛП ООО)</t>
+  </si>
+  <si>
     <t>113027</t>
   </si>
   <si>
-    <t>Держатель для стаканов 2 яч. 108х193х42 мм, сер., карт., 150 шт/кор (ОАО СОЭМЗ)</t>
-  </si>
-  <si>
-    <t>113380</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 185 мл 1 сл., d73 мм, диз. "Coffee", карт., 100 шт/упак (ООО Паперскоп Рус)</t>
+    <t>113073</t>
+  </si>
+  <si>
+    <t>Перчатки нитровиниловые, р-р M, неопудрен., черн., 50 пар/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>113509</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d80 мм с пробивным слотом и заглушкой, прозр., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>113533</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая 125 мм, бел., ПС, 100 шт/упак (ВЗЛП ООО)</t>
   </si>
   <si>
     <t>114166</t>
@@ -244,6 +559,12 @@
     <t>Салфетки 250х250 мм 1-сл., бел., бум., 100 шт/упак (ИП Головкин С.В.)</t>
   </si>
   <si>
+    <t>114791</t>
+  </si>
+  <si>
+    <t>Пакет на вынос [120+80]х250 мм S без ручек, крафт, бум., 1000 шт/кор (ООО Вита Групп)</t>
+  </si>
+  <si>
     <t>114977</t>
   </si>
   <si>
@@ -262,12 +583,24 @@
     <t>Трубочки для коктейлей 250 мм, d12 мм, прозр., пласт. прямые с косой отсечкой, 70 шт/упак (ООО ПК Ди</t>
   </si>
   <si>
+    <t>115223</t>
+  </si>
+  <si>
+    <t>Бумага туалетная 1-сл. "Proff 54" Eco, бел., 35 м</t>
+  </si>
+  <si>
     <t>115207</t>
   </si>
   <si>
     <t>Трубочки для коктейлей 250 мм, d12 мм, прозр., пласт. прямые с косой отсечкой в инд. упаковке, 100 ш</t>
   </si>
   <si>
+    <t>115407</t>
+  </si>
+  <si>
+    <t>Пакет [280+150]х320 мм с плоск. ручками, крафт, бум., 250 шт/кор (ООО Демарт)</t>
+  </si>
+  <si>
     <t>115475</t>
   </si>
   <si>
@@ -280,34 +613,22 @@
     <t>Трубочки для коктейлей 210 мм, d5 мм, разноцв., пласт. с гофроизгибом, 250 шт/упак (ООО ПК Диапазон)</t>
   </si>
   <si>
-    <t>115790</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d62 мм с боковым отверстием, бел., ПС, 100 шт/упак (ООО Паперскоп Рус)</t>
-  </si>
-  <si>
-    <t>115792</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 185 мл 1 сл., d73 мм, диз. "Sunday", зел., карт., 100 шт/упак (ООО Паперскоп Рус)</t>
-  </si>
-  <si>
-    <t>115793</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 185 мл 1 сл., d73 мм, диз. "Sunday", желт., карт., 100 шт/упак (ООО Паперскоп Рус)</t>
-  </si>
-  <si>
-    <t>115794</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 100 мл 1 сл., d62 мм, диз. "I'm cafe", карт., 50 шт/упак (ООО Паперскоп Рус)</t>
-  </si>
-  <si>
-    <t>115796</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 185 мл 1 сл., d73 мм, фиол., диз. "Sunday", карт., 100 шт/упак (ООО Паперскоп Рус)</t>
+    <t>115784</t>
+  </si>
+  <si>
+    <t>Пакет вакуум. 200х300 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО Экспомаркет Техн.)</t>
+  </si>
+  <si>
+    <t>115900</t>
+  </si>
+  <si>
+    <t>Сахар порционный 5 г, лого "Gippo", стик, 2000 шт/кор (ТОО Компания Ника-2000)</t>
+  </si>
+  <si>
+    <t>109145</t>
+  </si>
+  <si>
+    <t>Фольга алюминиевая 44см х 100м, 14 мкм Особо прочная (ООО Металлпейпер-М)</t>
   </si>
 </sst>
 </file>
@@ -417,14 +738,14 @@
     <xf numFmtId="0" fontId="0" borderId="2" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
+    <xf numFmtId="3" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
+    </xf>
     <xf numFmtId="1" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
     <xf numFmtId="4" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,7 +766,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H43"/>
+  <dimension ref="H97"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -458,7 +779,7 @@
     <col min="5" max="5" width="11.66796875" style="1" customWidth="true"/>
     <col min="6" max="6" width="17.83203125" style="1" customWidth="true"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="true"/>
-    <col min="8" max="8" width="12.83203125" style="1" customWidth="true"/>
+    <col min="8" max="8" width="10.5" style="1" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="38" customHeight="true">
@@ -501,17 +822,17 @@
         <v>11</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>960.69</v>
+        <v>141.69</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="5" t="e"/>
       <c r="H2" s="6" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" ht="11" customHeight="true">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="3" ht="22" customHeight="true">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -525,14 +846,14 @@
         <v>14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>157.82</v>
+        <v>161.17</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="5" t="e"/>
       <c r="H3" s="6" t="n">
-        <v>120</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="4" ht="11" customHeight="true">
@@ -548,15 +869,15 @@
       <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7" t="n">
-        <v>1080.57</v>
+      <c r="E4" s="4" t="n">
+        <v>108.88</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="5" t="e"/>
-      <c r="H4" s="6" t="n">
-        <v>140</v>
+      <c r="H4" s="7" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="5" ht="11" customHeight="true">
@@ -572,15 +893,15 @@
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="7" t="n">
-        <v>1862</v>
+      <c r="E5" s="4" t="n">
+        <v>108.88</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="5" t="e"/>
-      <c r="H5" s="6" t="n">
-        <v>22</v>
+      <c r="H5" s="7" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="6" ht="11" customHeight="true">
@@ -597,14 +918,14 @@
         <v>20</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>409.33</v>
+        <v>108.88</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="5" t="e"/>
-      <c r="H6" s="6" t="n">
-        <v>72</v>
+      <c r="H6" s="7" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="7" ht="22" customHeight="true">
@@ -621,14 +942,14 @@
         <v>22</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>6.3</v>
+        <v>960.69</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="5" t="e"/>
-      <c r="H7" s="8" t="n">
-        <v>50000</v>
+      <c r="H7" s="7" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="8" ht="11" customHeight="true">
@@ -645,14 +966,14 @@
         <v>24</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>4.02</v>
+        <v>243.28</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="5" t="e"/>
-      <c r="H8" s="8" t="n">
-        <v>320000</v>
+      <c r="H8" s="7" t="n">
+        <v>360</v>
       </c>
     </row>
     <row r="9" ht="11" customHeight="true">
@@ -669,14 +990,14 @@
         <v>26</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>4.02</v>
+        <v>157.82</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="5" t="e"/>
-      <c r="H9" s="8" t="n">
-        <v>300000</v>
+      <c r="H9" s="7" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="10" ht="11" customHeight="true">
@@ -692,15 +1013,15 @@
       <c r="D10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>5.28</v>
+      <c r="E10" s="8" t="n">
+        <v>1080.57</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="5" t="e"/>
-      <c r="H10" s="8" t="n">
-        <v>1086000</v>
+      <c r="H10" s="7" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="11" ht="11" customHeight="true">
@@ -716,15 +1037,15 @@
       <c r="D11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="4" t="n">
-        <v>2.36</v>
+      <c r="E11" s="8" t="n">
+        <v>1862</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="5" t="e"/>
-      <c r="H11" s="8" t="n">
-        <v>120000</v>
+      <c r="H11" s="7" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="11" customHeight="true">
@@ -740,15 +1061,15 @@
       <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="4" t="n">
-        <v>16.87</v>
+      <c r="E12" s="8" t="n">
+        <v>1379.85</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="5" t="e"/>
-      <c r="H12" s="8" t="n">
-        <v>20000</v>
+      <c r="H12" s="7" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="11" customHeight="true">
@@ -765,17 +1086,17 @@
         <v>34</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>18.87</v>
+        <v>258.56</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="5" t="e"/>
-      <c r="H13" s="8" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="14" ht="11" customHeight="true">
+      <c r="H13" s="7" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" ht="22" customHeight="true">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -789,14 +1110,14 @@
         <v>36</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>2.55</v>
+        <v>421.91</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="e"/>
-      <c r="H14" s="8" t="n">
-        <v>40000</v>
+      <c r="H14" s="7" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="15" ht="22" customHeight="true">
@@ -812,18 +1133,18 @@
       <c r="D15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="4" t="n">
-        <v>5.23</v>
+      <c r="E15" s="8" t="n">
+        <v>5003.67</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="5" t="e"/>
-      <c r="H15" s="8" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="16" ht="22" customHeight="true">
+      <c r="H15" s="7" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" ht="11" customHeight="true">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -837,13 +1158,13 @@
         <v>40</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>368.26</v>
+        <v>409.33</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="5" t="e"/>
-      <c r="H16" s="6" t="n">
+      <c r="H16" s="7" t="n">
         <v>72</v>
       </c>
     </row>
@@ -861,17 +1182,17 @@
         <v>42</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>8.45</v>
+        <v>6.3</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="5" t="e"/>
-      <c r="H17" s="8" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="18" ht="22" customHeight="true">
+      <c r="H17" s="6" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="18" ht="11" customHeight="true">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
@@ -885,17 +1206,17 @@
         <v>44</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>39.94</v>
+        <v>12.11</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="5" t="e"/>
-      <c r="H18" s="8" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="19" ht="22" customHeight="true">
+      <c r="H18" s="6" t="n">
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="19" ht="11" customHeight="true">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -909,17 +1230,17 @@
         <v>46</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>37.17</v>
+        <v>8.08</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="5" t="e"/>
-      <c r="H19" s="8" t="n">
-        <v>3080</v>
-      </c>
-    </row>
-    <row r="20" ht="22" customHeight="true">
+      <c r="H19" s="6" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" ht="11" customHeight="true">
       <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
@@ -933,14 +1254,14 @@
         <v>48</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>39.8</v>
+        <v>2.36</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="5" t="e"/>
-      <c r="H20" s="8" t="n">
-        <v>12000</v>
+      <c r="H20" s="6" t="n">
+        <v>120000</v>
       </c>
     </row>
     <row r="21" ht="11" customHeight="true">
@@ -957,14 +1278,14 @@
         <v>50</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>32.73</v>
+        <v>3.02</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="5" t="e"/>
-      <c r="H21" s="8" t="n">
-        <v>3080</v>
+      <c r="H21" s="6" t="n">
+        <v>100000</v>
       </c>
     </row>
     <row r="22" ht="11" customHeight="true">
@@ -981,17 +1302,17 @@
         <v>52</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>3.75</v>
+        <v>3.52</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="5" t="e"/>
-      <c r="H22" s="8" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="23" ht="22" customHeight="true">
+      <c r="H22" s="6" t="n">
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="23" ht="11" customHeight="true">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -1005,14 +1326,14 @@
         <v>54</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>21.27</v>
+        <v>16.87</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="5" t="e"/>
-      <c r="H23" s="8" t="n">
-        <v>6000</v>
+      <c r="H23" s="6" t="n">
+        <v>20000</v>
       </c>
     </row>
     <row r="24" ht="11" customHeight="true">
@@ -1029,14 +1350,14 @@
         <v>56</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>5.37</v>
+        <v>18.87</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="5" t="e"/>
-      <c r="H24" s="8" t="n">
-        <v>67500</v>
+      <c r="H24" s="6" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="25" ht="11" customHeight="true">
@@ -1053,17 +1374,17 @@
         <v>58</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>24.33</v>
+        <v>2.55</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="5" t="e"/>
-      <c r="H25" s="8" t="n">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="26" ht="11" customHeight="true">
+      <c r="H25" s="6" t="n">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="26" ht="22" customHeight="true">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1077,14 +1398,14 @@
         <v>60</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>513.07</v>
+        <v>5.23</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="5" t="e"/>
       <c r="H26" s="6" t="n">
-        <v>40</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="27" ht="11" customHeight="true">
@@ -1101,17 +1422,17 @@
         <v>62</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>5.34</v>
+        <v>7.19</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="5" t="e"/>
-      <c r="H27" s="8" t="n">
-        <v>16200</v>
-      </c>
-    </row>
-    <row r="28" ht="22" customHeight="true">
+      <c r="H27" s="6" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" ht="11" customHeight="true">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -1125,14 +1446,14 @@
         <v>64</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>23.17</v>
+        <v>3.14</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="5" t="e"/>
-      <c r="H28" s="8" t="n">
-        <v>54000</v>
+      <c r="H28" s="6" t="n">
+        <v>30000</v>
       </c>
     </row>
     <row r="29" ht="11" customHeight="true">
@@ -1149,17 +1470,17 @@
         <v>66</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>10.62</v>
+        <v>0.59</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="5" t="e"/>
-      <c r="H29" s="8" t="n">
-        <v>15750</v>
-      </c>
-    </row>
-    <row r="30" ht="22" customHeight="true">
+      <c r="H29" s="6" t="n">
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="30" ht="11" customHeight="true">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -1173,17 +1494,17 @@
         <v>68</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>9.13</v>
+        <v>9.06</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="5" t="e"/>
-      <c r="H30" s="8" t="n">
+      <c r="H30" s="6" t="n">
         <v>48000</v>
       </c>
     </row>
-    <row r="31" ht="22" customHeight="true">
+    <row r="31" ht="11" customHeight="true">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
@@ -1196,18 +1517,18 @@
       <c r="D31" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="7" t="n">
-        <v>4844.78</v>
+      <c r="E31" s="4" t="n">
+        <v>6.98</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="5" t="e"/>
       <c r="H31" s="6" t="n">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="32" ht="11" customHeight="true">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="32" ht="22" customHeight="true">
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
@@ -1221,17 +1542,17 @@
         <v>72</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>92.85</v>
+        <v>368.26</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="5" t="e"/>
-      <c r="H32" s="8" t="n">
-        <v>3402</v>
-      </c>
-    </row>
-    <row r="33" ht="22" customHeight="true">
+      <c r="H32" s="7" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" ht="11" customHeight="true">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
@@ -1245,14 +1566,14 @@
         <v>74</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>417.95</v>
+        <v>9.27</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="5" t="e"/>
-      <c r="H33" s="8" t="n">
-        <v>1300</v>
+      <c r="H33" s="6" t="n">
+        <v>300000</v>
       </c>
     </row>
     <row r="34" ht="22" customHeight="true">
@@ -1268,13 +1589,15 @@
       <c r="D34" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="3" t="e"/>
+      <c r="E34" s="4" t="n">
+        <v>8.45</v>
+      </c>
       <c r="F34" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="5" t="e"/>
       <c r="H34" s="6" t="n">
-        <v>24</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="35" ht="22" customHeight="true">
@@ -1290,13 +1613,15 @@
       <c r="D35" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="3" t="e"/>
+      <c r="E35" s="4" t="n">
+        <v>52.05</v>
+      </c>
       <c r="F35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="5" t="e"/>
       <c r="H35" s="6" t="n">
-        <v>74</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="36" ht="22" customHeight="true">
@@ -1312,13 +1637,15 @@
       <c r="D36" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="3" t="e"/>
+      <c r="E36" s="4" t="n">
+        <v>39.94</v>
+      </c>
       <c r="F36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="5" t="e"/>
       <c r="H36" s="6" t="n">
-        <v>96</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="37" ht="22" customHeight="true">
@@ -1335,14 +1662,14 @@
         <v>82</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>13.88</v>
+        <v>37.17</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="5" t="e"/>
-      <c r="H37" s="8" t="n">
-        <v>14000</v>
+      <c r="H37" s="6" t="n">
+        <v>3080</v>
       </c>
     </row>
     <row r="38" ht="22" customHeight="true">
@@ -1358,13 +1685,15 @@
       <c r="D38" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="3" t="e"/>
+      <c r="E38" s="4" t="n">
+        <v>39.8</v>
+      </c>
       <c r="F38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="5" t="e"/>
       <c r="H38" s="6" t="n">
-        <v>120</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="39" ht="22" customHeight="true">
@@ -1381,17 +1710,17 @@
         <v>86</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>7.1</v>
+        <v>35.92</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="5" t="e"/>
-      <c r="H39" s="8" t="n">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="40" ht="22" customHeight="true">
+      <c r="H39" s="6" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="40" ht="11" customHeight="true">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
@@ -1404,16 +1733,18 @@
       <c r="D40" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E40" s="3" t="e"/>
+      <c r="E40" s="4" t="n">
+        <v>32.73</v>
+      </c>
       <c r="F40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="5" t="e"/>
-      <c r="H40" s="8" t="n">
-        <v>52000</v>
-      </c>
-    </row>
-    <row r="41" ht="22" customHeight="true">
+      <c r="H40" s="6" t="n">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="41" ht="11" customHeight="true">
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
@@ -1426,16 +1757,18 @@
       <c r="D41" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E41" s="3" t="e"/>
+      <c r="E41" s="4" t="n">
+        <v>3.75</v>
+      </c>
       <c r="F41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="5" t="e"/>
-      <c r="H41" s="8" t="n">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="42" ht="22" customHeight="true">
+      <c r="H41" s="6" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="42" ht="11" customHeight="true">
       <c r="A42" s="3" t="s">
         <v>8</v>
       </c>
@@ -1448,13 +1781,15 @@
       <c r="D42" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E42" s="3" t="e"/>
+      <c r="E42" s="4" t="n">
+        <v>32.07</v>
+      </c>
       <c r="F42" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="5" t="e"/>
-      <c r="H42" s="8" t="n">
-        <v>48000</v>
+      <c r="H42" s="6" t="n">
+        <v>1760</v>
       </c>
     </row>
     <row r="43" ht="22" customHeight="true">
@@ -1470,13 +1805,1293 @@
       <c r="D43" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="3" t="e"/>
+      <c r="E43" s="4" t="n">
+        <v>29.04</v>
+      </c>
       <c r="F43" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="5" t="e"/>
-      <c r="H43" s="8" t="n">
+      <c r="H43" s="6" t="n">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="44" ht="11" customHeight="true">
+      <c r="A44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v>359.2</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="5" t="e"/>
+      <c r="H44" s="7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" ht="11" customHeight="true">
+      <c r="A45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="4" t="n">
+        <v>483.95</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="5" t="e"/>
+      <c r="H45" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" ht="11" customHeight="true">
+      <c r="A46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="4" t="n">
+        <v>489.77</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="5" t="e"/>
+      <c r="H46" s="7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" ht="11" customHeight="true">
+      <c r="A47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="4" t="n">
+        <v>639.44</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="5" t="e"/>
+      <c r="H47" s="7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" ht="22" customHeight="true">
+      <c r="A48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="4" t="n">
+        <v>21.27</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="5" t="e"/>
+      <c r="H48" s="6" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="49" ht="22" customHeight="true">
+      <c r="A49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" s="4" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="5" t="e"/>
+      <c r="H49" s="6" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="50" ht="22" customHeight="true">
+      <c r="A50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" s="4" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="5" t="e"/>
+      <c r="H50" s="6" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="51" ht="22" customHeight="true">
+      <c r="A51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="4" t="n">
+        <v>16.95</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="5" t="e"/>
+      <c r="H51" s="6" t="n">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="52" ht="11" customHeight="true">
+      <c r="A52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" s="4" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="5" t="e"/>
+      <c r="H52" s="6" t="n">
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="53" ht="11" customHeight="true">
+      <c r="A53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" s="4" t="n">
+        <v>513.07</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="5" t="e"/>
+      <c r="H53" s="7" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" ht="11" customHeight="true">
+      <c r="A54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E54" s="4" t="n">
+        <v>27.04</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="5" t="e"/>
+      <c r="H54" s="6" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="55" ht="11" customHeight="true">
+      <c r="A55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" s="4" t="n">
+        <v>27.08</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="5" t="e"/>
+      <c r="H55" s="6" t="n">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="56" ht="11" customHeight="true">
+      <c r="A56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E56" s="4" t="n">
+        <v>34.24</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="5" t="e"/>
+      <c r="H56" s="6" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="57" ht="11" customHeight="true">
+      <c r="A57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" s="4" t="n">
+        <v>35.68</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="5" t="e"/>
+      <c r="H57" s="6" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="58" ht="11" customHeight="true">
+      <c r="A58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E58" s="4" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="5" t="e"/>
+      <c r="H58" s="6" t="n">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="59" ht="22" customHeight="true">
+      <c r="A59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E59" s="4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="5" t="e"/>
+      <c r="H59" s="6" t="n">
+        <v>489750</v>
+      </c>
+    </row>
+    <row r="60" ht="22" customHeight="true">
+      <c r="A60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E60" s="4" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="5" t="e"/>
+      <c r="H60" s="6" t="n">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="61" ht="11" customHeight="true">
+      <c r="A61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E61" s="4" t="n">
+        <v>25.14</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="5" t="e"/>
+      <c r="H61" s="6" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="62" ht="11" customHeight="true">
+      <c r="A62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" s="4" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="5" t="e"/>
+      <c r="H62" s="6" t="n">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="63" ht="11" customHeight="true">
+      <c r="A63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E63" s="4" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="5" t="e"/>
+      <c r="H63" s="6" t="n">
+        <v>90360</v>
+      </c>
+    </row>
+    <row r="64" ht="11" customHeight="true">
+      <c r="A64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E64" s="4" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="5" t="e"/>
+      <c r="H64" s="6" t="n">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="65" ht="11" customHeight="true">
+      <c r="A65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E65" s="4" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="5" t="e"/>
+      <c r="H65" s="6" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="66" ht="11" customHeight="true">
+      <c r="A66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E66" s="4" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="5" t="e"/>
+      <c r="H66" s="6" t="n">
+        <v>7680</v>
+      </c>
+    </row>
+    <row r="67" ht="11" customHeight="true">
+      <c r="A67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E67" s="4" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="5" t="e"/>
+      <c r="H67" s="6" t="n">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="68" ht="11" customHeight="true">
+      <c r="A68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E68" s="4" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="5" t="e"/>
+      <c r="H68" s="6" t="n">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="69" ht="11" customHeight="true">
+      <c r="A69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E69" s="4" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="5" t="e"/>
+      <c r="H69" s="6" t="n">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="70" ht="11" customHeight="true">
+      <c r="A70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E70" s="4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="5" t="e"/>
+      <c r="H70" s="6" t="n">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="71" ht="22" customHeight="true">
+      <c r="A71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E71" s="4" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="5" t="e"/>
+      <c r="H71" s="6" t="n">
         <v>54000</v>
+      </c>
+    </row>
+    <row r="72" ht="22" customHeight="true">
+      <c r="A72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E72" s="4" t="n">
+        <v>27.49</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="5" t="e"/>
+      <c r="H72" s="7" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="73" ht="11" customHeight="true">
+      <c r="A73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E73" s="4" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="5" t="e"/>
+      <c r="H73" s="6" t="n">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="74" ht="22" customHeight="true">
+      <c r="A74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E74" s="4" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="5" t="e"/>
+      <c r="H74" s="6" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="75" ht="11" customHeight="true">
+      <c r="A75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E75" s="4" t="n">
+        <v>357.29</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="5" t="e"/>
+      <c r="H75" s="7" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="76" ht="11" customHeight="true">
+      <c r="A76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E76" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="5" t="e"/>
+      <c r="H76" s="6" t="n">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="77" ht="11" customHeight="true">
+      <c r="A77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E77" s="4" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="5" t="e"/>
+      <c r="H77" s="6" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="78" ht="11" customHeight="true">
+      <c r="A78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E78" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="5" t="e"/>
+      <c r="H78" s="6" t="n">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="79" ht="11" customHeight="true">
+      <c r="A79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E79" s="4" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="5" t="e"/>
+      <c r="H79" s="6" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="80" ht="11" customHeight="true">
+      <c r="A80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E80" s="4" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="5" t="e"/>
+      <c r="H80" s="6" t="n">
+        <v>15750</v>
+      </c>
+    </row>
+    <row r="81" ht="11" customHeight="true">
+      <c r="A81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E81" s="4" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="5" t="e"/>
+      <c r="H81" s="6" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="82" ht="22" customHeight="true">
+      <c r="A82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E82" s="4" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="5" t="e"/>
+      <c r="H82" s="6" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="83" ht="11" customHeight="true">
+      <c r="A83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E83" s="4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="5" t="e"/>
+      <c r="H83" s="6" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="84" ht="22" customHeight="true">
+      <c r="A84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E84" s="8" t="n">
+        <v>4844.78</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="5" t="e"/>
+      <c r="H84" s="7" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="85" ht="11" customHeight="true">
+      <c r="A85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E85" s="4" t="n">
+        <v>92.85</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="5" t="e"/>
+      <c r="H85" s="6" t="n">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="86" ht="22" customHeight="true">
+      <c r="A86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E86" s="3" t="e"/>
+      <c r="F86" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="5" t="e"/>
+      <c r="H86" s="6" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="87" ht="22" customHeight="true">
+      <c r="A87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E87" s="4" t="n">
+        <v>417.95</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="5" t="e"/>
+      <c r="H87" s="6" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="88" ht="22" customHeight="true">
+      <c r="A88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E88" s="3" t="e"/>
+      <c r="F88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="5" t="e"/>
+      <c r="H88" s="7" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" ht="22" customHeight="true">
+      <c r="A89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E89" s="3" t="e"/>
+      <c r="F89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="5" t="e"/>
+      <c r="H89" s="7" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" ht="11" customHeight="true">
+      <c r="A90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E90" s="3" t="e"/>
+      <c r="F90" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="5" t="e"/>
+      <c r="H90" s="7" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="91" ht="22" customHeight="true">
+      <c r="A91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E91" s="3" t="e"/>
+      <c r="F91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="5" t="e"/>
+      <c r="H91" s="7" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" ht="11" customHeight="true">
+      <c r="A92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E92" s="3" t="e"/>
+      <c r="F92" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="5" t="e"/>
+      <c r="H92" s="6" t="n">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="93" ht="22" customHeight="true">
+      <c r="A93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E93" s="4" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="5" t="e"/>
+      <c r="H93" s="6" t="n">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="94" ht="22" customHeight="true">
+      <c r="A94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E94" s="3" t="e"/>
+      <c r="F94" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="5" t="e"/>
+      <c r="H94" s="7" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" ht="22" customHeight="true">
+      <c r="A95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E95" s="3" t="e"/>
+      <c r="F95" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" s="5" t="e"/>
+      <c r="H95" s="7" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" ht="11" customHeight="true">
+      <c r="A96" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E96" s="3" t="e"/>
+      <c r="F96" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" s="5" t="e"/>
+      <c r="H96" s="6" t="n">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="97" ht="11" customHeight="true">
+      <c r="A97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E97" s="8" t="n">
+        <v>4174.05</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="5" t="e"/>
+      <c r="H97" s="7" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/В пути АЛМ.xlsx
+++ b/data/В пути АЛМ.xlsx
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>06.03.2024 0:00:00</t>
+    <t>08.03.2024 0:00:00</t>
   </si>
   <si>
     <t>Алматы в Пути</t>

--- a/data/В пути АЛМ.xlsx
+++ b/data/В пути АЛМ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <si>
     <t>Дата</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>08.03.2024 0:00:00</t>
+    <t>13.03.2024 0:00:00</t>
   </si>
   <si>
     <t>Алматы в Пути</t>
@@ -88,48 +88,18 @@
     <t>Салфетка из микрофибры 300х300 мм, 220 гр/м2, желт., 400 шт/кор (ООО ОНМ)</t>
   </si>
   <si>
-    <t>342049</t>
-  </si>
-  <si>
-    <t>Трубочки для коктейлей 250 мм, d12 мм, черн., пласт. прямые, 250 шт/упак (ООО Фарт)</t>
-  </si>
-  <si>
     <t>105654</t>
   </si>
   <si>
     <t>Чековая лента 80мм х 60м, d12 мм, бел., термобум. (ООО НБК Трейд)</t>
   </si>
   <si>
-    <t>107163</t>
-  </si>
-  <si>
-    <t>Салфетки 330х330 мм 3-сл., бел., бум., 20 шт/упак "Bouquet"</t>
-  </si>
-  <si>
-    <t>349054</t>
-  </si>
-  <si>
-    <t>Пика 90 мм, диз. "Призма", прозр., ПС, 500 шт/упак (ООО Пласт-Лидер)</t>
-  </si>
-  <si>
-    <t>591810</t>
-  </si>
-  <si>
-    <t>Поддон 120х80х15 см "подЕВРО", без клейма (ООО ПаллетТрейд)</t>
-  </si>
-  <si>
     <t>101005</t>
   </si>
   <si>
     <t>Набородник одноразовый, бел., нетк. мат-л, 100 шт/упак (ООО Оптитрейд)</t>
   </si>
   <si>
-    <t>101623</t>
-  </si>
-  <si>
-    <t>Губка металлическая для посуды d80xh20 мм, 9 гр., нерж., 10 шт/упак "Soft Tex"</t>
-  </si>
-  <si>
     <t>102186</t>
   </si>
   <si>
@@ -142,18 +112,6 @@
     <t>Средство для мытья пароконвектоматов "Pro-Brite" Strong, концентрат, канистра, 5000 мл</t>
   </si>
   <si>
-    <t>103096</t>
-  </si>
-  <si>
-    <t>Клейкая лента 50мм х 66м, 50 мкм, лого "МИСТЕРИЯ", бел., 6 рул/упак</t>
-  </si>
-  <si>
-    <t>107441</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d95 мм куполообразная без отверстия, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
-  </si>
-  <si>
     <t>102855</t>
   </si>
   <si>
@@ -166,12 +124,6 @@
     <t>Стакан одноразовый 500 мл, прозр., ПП, 50 шт/упак "Upax-Unity"</t>
   </si>
   <si>
-    <t>100120</t>
-  </si>
-  <si>
-    <t>Стакан одноразовый 100 мл, прозр., ПП, 100 шт/упак (ООО Флайпак-С)</t>
-  </si>
-  <si>
     <t>104280</t>
   </si>
   <si>
@@ -184,42 +136,6 @@
     <t>Стакан одноразовый 200 мл, прозр., ПП, 100 шт/упак "Upax-Unity"</t>
   </si>
   <si>
-    <t>115418</t>
-  </si>
-  <si>
-    <t>Стакан-шейкер одноразовый 400 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
-  </si>
-  <si>
-    <t>115419</t>
-  </si>
-  <si>
-    <t>Стакан-шейкер одноразовый 500 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
-  </si>
-  <si>
-    <t>115415</t>
-  </si>
-  <si>
-    <t>Стакан одноразовый 100 мл, прозр., ПЭТ, 100 шт/упак "Upax-Unity"</t>
-  </si>
-  <si>
-    <t>103127</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d95 мм плоская с отверстием, прозр., ПЭТ, 25 шт/упак "Upax-Unity"</t>
-  </si>
-  <si>
-    <t>103506</t>
-  </si>
-  <si>
-    <t>Нож одноразовый 178,5 мм, черн., ПП, 50 шт/упак (ООО ВЗЛП)</t>
-  </si>
-  <si>
-    <t>140080</t>
-  </si>
-  <si>
-    <t>Вилка одноразовая 165 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
     <t>103535</t>
   </si>
   <si>
@@ -238,12 +154,6 @@
     <t>Тарелка одноразовая мелкая d167 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
   </si>
   <si>
-    <t>451459</t>
-  </si>
-  <si>
-    <t>Полотенца бумажные для диспенсеров 240х215 мм 3-сл. Z-сложен., бел., 200 лист/упак "Focus" Eco</t>
-  </si>
-  <si>
     <t>121490</t>
   </si>
   <si>
@@ -262,36 +172,12 @@
     <t>Контейнер 950[650+300] мл 2-секц., 230х170х50 мм, без крышки, черн., ПП, 50 шт/упак "ПолиЭр"</t>
   </si>
   <si>
-    <t>107208</t>
-  </si>
-  <si>
-    <t>Контейнер 800[500+2х150] мл 3-секц., овал 257х202х37 мм, без крышки, черн., ПП, 30 шт/упак "ПолиЭр"</t>
-  </si>
-  <si>
-    <t>107219</t>
-  </si>
-  <si>
-    <t>Контейнер 1000 мл 1-секц. 190х190х51,5 мм, без крышки, черн., ПЭТ, 70 шт/упак "ПолиЭр"</t>
-  </si>
-  <si>
-    <t>102910</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру купол. 3-секц. овал 257х202х35 мм, прозр., ПП, 30 шт/упак "ПолиЭр"</t>
-  </si>
-  <si>
     <t>102914</t>
   </si>
   <si>
     <t>Крышка к контейнеру купол. 2-секц. 230х170х22,5 мм, прозр., ПП, 50 шт/упак "ПолиЭр"</t>
   </si>
   <si>
-    <t>159525</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру 190х190х16 мм, прозр., ПЭТ, 70 шт/упак "ПолиЭр"</t>
-  </si>
-  <si>
     <t>159625</t>
   </si>
   <si>
@@ -358,18 +244,6 @@
     <t>Комплект столовых приборов №5 [лож.ст.+ вил.+ нож: 165 мм, бел., ПС+ салф.+ з/ч.], 300 шт/кор</t>
   </si>
   <si>
-    <t>107468</t>
-  </si>
-  <si>
-    <t>Капхолдер [манжета] 270х55 мм, крафт, карт., 50 шт/упак (ООО ПК Растр)</t>
-  </si>
-  <si>
-    <t>105267</t>
-  </si>
-  <si>
-    <t>Пакет "Майка" [290+160]х550 мм 13 мкм, бел., ПНД, 100 шт/упак (АО Артпласт)</t>
-  </si>
-  <si>
     <t>104963</t>
   </si>
   <si>
@@ -406,12 +280,6 @@
     <t>Размешиватель 180 мм, инд. упак., древ. волокно, 250 шт/упак (ООО Компания Лемио)</t>
   </si>
   <si>
-    <t>106554</t>
-  </si>
-  <si>
-    <t>Китайские палочки h220хd4 мм, инд. бум. упак., бамбук, 100 пар/упак "GREEN MYSTERY"</t>
-  </si>
-  <si>
     <t>104419</t>
   </si>
   <si>
@@ -472,18 +340,6 @@
     <t>Тарелка одноразовая глубокая 475 мл, d153 мм, бел., ПП, 12 шт/упак "МИСТЕРИЯ"</t>
   </si>
   <si>
-    <t>191609</t>
-  </si>
-  <si>
-    <t>Коробка для бургера [бургербокс] 152х152х80 мм, бел., сах.тростник, 50 шт/упак "GREEN MYSTERY"</t>
-  </si>
-  <si>
-    <t>191610</t>
-  </si>
-  <si>
-    <t>Коробка для бургера [бургербокс] 154х152х88 мм, бел., сах.тростник, 50 шт/упак "GREEN MYSTERY"</t>
-  </si>
-  <si>
     <t>183230</t>
   </si>
   <si>
@@ -496,49 +352,58 @@
     <t>Крышка для стакана d90 мм с центральным отверстием, прозр., ПП, 50 шт/упак (ООО ВЗЛП)</t>
   </si>
   <si>
-    <t>112682</t>
-  </si>
-  <si>
-    <t>Зубочистки 65 мм в инд. бум. упаковке, бамбук, 1000 шт/упак "GREEN MYSTERY"</t>
-  </si>
-  <si>
-    <t>112688</t>
-  </si>
-  <si>
-    <t>Размешиватель 170 мм, бамбук, 500 шт/упак "GREEN MYSTERY"</t>
-  </si>
-  <si>
-    <t>112691</t>
-  </si>
-  <si>
-    <t>Размешиватель 170 мм, инд. упак., бамбук, 250 шт/упак "GREEN MYSTERY"</t>
-  </si>
-  <si>
     <t>112713</t>
   </si>
   <si>
     <t>Размешиватель 180 мм, древ. волокно, 1000 шт/упак (ООО Компания Лемио)</t>
   </si>
   <si>
+    <t>112788</t>
+  </si>
+  <si>
+    <t>Соусник 30 мл, d51хh32 мм, неразъем. крышка, прозр., ПП, 80 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>112789</t>
+  </si>
+  <si>
+    <t>Соусник 50 мл, d63хh32 мм, неразъем. крышка, прозр., ПП, 80 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
     <t>112792</t>
   </si>
   <si>
     <t>Вилка одноразовая 160 мм, бел., ПС, 100 шт/упак (ВЗЛП ООО)</t>
   </si>
   <si>
-    <t>113027</t>
-  </si>
-  <si>
-    <t>113073</t>
-  </si>
-  <si>
-    <t>Перчатки нитровиниловые, р-р M, неопудрен., черн., 50 пар/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
-    <t>113509</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d80 мм с пробивным слотом и заглушкой, прозр., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+    <t>112793</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая 160 мм, бел., ПС, 100 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>112794</t>
+  </si>
+  <si>
+    <t>Нож одноразовый 165 мм, бел., ПС, 100 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>112795</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, черн., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>113504</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, прозр., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>113508</t>
+  </si>
+  <si>
+    <t>Сахар порционный 5 г, стик, 1000 шт/кор (ООО ВЗЛП)</t>
   </si>
   <si>
     <t>113533</t>
@@ -547,16 +412,10 @@
     <t>Ложка одноразовая 125 мм, бел., ПС, 100 шт/упак (ВЗЛП ООО)</t>
   </si>
   <si>
-    <t>114166</t>
-  </si>
-  <si>
-    <t>Мешок для мусора 150 л, [70+40]х120 см, 55 мкм, черн., ПВД, 50 шт/упак (ООО Техинвест Плюс)</t>
-  </si>
-  <si>
-    <t>114628</t>
-  </si>
-  <si>
-    <t>Салфетки 250х250 мм 1-сл., бел., бум., 100 шт/упак (ИП Головкин С.В.)</t>
+    <t>114524</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d80 мм с пробивным слотом и заглушкой, бел., ПП, 50 шт/упак (ООО ВЗЛП)</t>
   </si>
   <si>
     <t>114791</t>
@@ -565,22 +424,31 @@
     <t>Пакет на вынос [120+80]х250 мм S без ручек, крафт, бум., 1000 шт/кор (ООО Вита Групп)</t>
   </si>
   <si>
-    <t>114977</t>
-  </si>
-  <si>
-    <t>Трубочки для коктейлей 210 мм, d7 мм, черн., пласт. прямые в инд. упаковке, 200 шт/упак (ООО ПК Диап</t>
-  </si>
-  <si>
-    <t>115045</t>
-  </si>
-  <si>
-    <t>Трубочки для коктейлей 250 мм, d12 мм, прозр., пласт. прямые в инд. упаковке, 100 шт/упак (ООО ПК Ди</t>
-  </si>
-  <si>
-    <t>115090</t>
-  </si>
-  <si>
-    <t>Трубочки для коктейлей 250 мм, d12 мм, прозр., пласт. прямые с косой отсечкой, 70 шт/упак (ООО ПК Ди</t>
+    <t>114910</t>
+  </si>
+  <si>
+    <t>Вилка одноразовая Кристалл 180 мм, черн., ПС, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>114919</t>
+  </si>
+  <si>
+    <t>Вилка одноразовая 173,5 мм, черн., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>114920</t>
+  </si>
+  <si>
+    <t>Соусник 30 мл, d51хh32 мм, неразъем. крышка, прозр., ПП, 80 шт/упак "Aerosnab"</t>
+  </si>
+  <si>
+    <t>115074</t>
+  </si>
+  <si>
+    <t>Нож одноразовый Кристалл 180 мм, черн., ПС, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>115219</t>
   </si>
   <si>
     <t>115223</t>
@@ -589,28 +457,16 @@
     <t>Бумага туалетная 1-сл. "Proff 54" Eco, бел., 35 м</t>
   </si>
   <si>
-    <t>115207</t>
-  </si>
-  <si>
-    <t>Трубочки для коктейлей 250 мм, d12 мм, прозр., пласт. прямые с косой отсечкой в инд. упаковке, 100 ш</t>
-  </si>
-  <si>
     <t>115407</t>
   </si>
   <si>
     <t>Пакет [280+150]х320 мм с плоск. ручками, крафт, бум., 250 шт/кор (ООО Демарт)</t>
   </si>
   <si>
-    <t>115475</t>
-  </si>
-  <si>
-    <t>Подложка с кольцом для шаурмы и роллов 230х91 мм, крафт, карт., 1000 шт/кор "ЭкоЛайн"</t>
-  </si>
-  <si>
-    <t>115717</t>
-  </si>
-  <si>
-    <t>Трубочки для коктейлей 210 мм, d5 мм, разноцв., пласт. с гофроизгибом, 250 шт/упак (ООО ПК Диапазон)</t>
+    <t>115607</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d90 мм с питейником тип З, прозр., ПП, 50 шт/упак (ООО ВЗЛП)</t>
   </si>
   <si>
     <t>115784</t>
@@ -623,6 +479,24 @@
   </si>
   <si>
     <t>Сахар порционный 5 г, лого "Gippo", стик, 2000 шт/кор (ТОО Компания Ника-2000)</t>
+  </si>
+  <si>
+    <t>115916</t>
+  </si>
+  <si>
+    <t>Соусник 80 мл, d70хh36 мм, неразъем. крышка, прозр., ПП, 80 шт/упак "Aerosnab"</t>
+  </si>
+  <si>
+    <t>115917</t>
+  </si>
+  <si>
+    <t>Соусник 50 мл, d62,2хh29,6 мм, неразъем. крышка, прозр., ПП, 80 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>115928</t>
+  </si>
+  <si>
+    <t>Креманка на ножке 200 мл d90хh65 мм, без крышки, прозр., ПС, 16 шт/упак "Aerosnab"</t>
   </si>
   <si>
     <t>109145</t>
@@ -766,7 +640,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H97"/>
+  <dimension ref="H76"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -928,7 +802,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" ht="22" customHeight="true">
+    <row r="7" ht="11" customHeight="true">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -942,14 +816,14 @@
         <v>22</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>960.69</v>
+        <v>243.28</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="5" t="e"/>
       <c r="H7" s="7" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" ht="11" customHeight="true">
@@ -965,18 +839,18 @@
       <c r="D8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>243.28</v>
+      <c r="E8" s="8" t="n">
+        <v>1379.85</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="5" t="e"/>
       <c r="H8" s="7" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="9" ht="11" customHeight="true">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" ht="22" customHeight="true">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -990,17 +864,17 @@
         <v>26</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>157.82</v>
+        <v>421.91</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="5" t="e"/>
       <c r="H9" s="7" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" ht="11" customHeight="true">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" ht="22" customHeight="true">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1014,14 +888,14 @@
         <v>28</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>1080.57</v>
+        <v>5003.67</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="5" t="e"/>
       <c r="H10" s="7" t="n">
-        <v>140</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" ht="11" customHeight="true">
@@ -1037,15 +911,15 @@
       <c r="D11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="8" t="n">
-        <v>1862</v>
+      <c r="E11" s="4" t="n">
+        <v>12.11</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="5" t="e"/>
-      <c r="H11" s="7" t="n">
-        <v>22</v>
+      <c r="H11" s="6" t="n">
+        <v>7050</v>
       </c>
     </row>
     <row r="12" ht="11" customHeight="true">
@@ -1061,15 +935,15 @@
       <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="8" t="n">
-        <v>1379.85</v>
+      <c r="E12" s="4" t="n">
+        <v>8.08</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="5" t="e"/>
-      <c r="H12" s="7" t="n">
-        <v>24</v>
+      <c r="H12" s="6" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="13" ht="11" customHeight="true">
@@ -1086,17 +960,17 @@
         <v>34</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>258.56</v>
+        <v>3.02</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="5" t="e"/>
-      <c r="H13" s="7" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" ht="22" customHeight="true">
+      <c r="H13" s="6" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14" ht="11" customHeight="true">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1110,17 +984,17 @@
         <v>36</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>421.91</v>
+        <v>3.52</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="e"/>
-      <c r="H14" s="7" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="15" ht="22" customHeight="true">
+      <c r="H14" s="6" t="n">
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="15" ht="11" customHeight="true">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1133,15 +1007,15 @@
       <c r="D15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="8" t="n">
-        <v>5003.67</v>
+      <c r="E15" s="4" t="n">
+        <v>0.59</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="5" t="e"/>
-      <c r="H15" s="7" t="n">
-        <v>96</v>
+      <c r="H15" s="6" t="n">
+        <v>144000</v>
       </c>
     </row>
     <row r="16" ht="11" customHeight="true">
@@ -1158,17 +1032,17 @@
         <v>40</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>409.33</v>
+        <v>9.06</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="5" t="e"/>
-      <c r="H16" s="7" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" ht="22" customHeight="true">
+      <c r="H16" s="6" t="n">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="17" ht="11" customHeight="true">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1182,14 +1056,14 @@
         <v>42</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>6.3</v>
+        <v>6.98</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="5" t="e"/>
       <c r="H17" s="6" t="n">
-        <v>50000</v>
+        <v>57600</v>
       </c>
     </row>
     <row r="18" ht="11" customHeight="true">
@@ -1206,17 +1080,17 @@
         <v>44</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>12.11</v>
+        <v>9.27</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="5" t="e"/>
       <c r="H18" s="6" t="n">
-        <v>7050</v>
-      </c>
-    </row>
-    <row r="19" ht="11" customHeight="true">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="19" ht="22" customHeight="true">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -1230,7 +1104,7 @@
         <v>46</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>8.08</v>
+        <v>8.45</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>12</v>
@@ -1240,7 +1114,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="20" ht="11" customHeight="true">
+    <row r="20" ht="22" customHeight="true">
       <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1254,17 +1128,17 @@
         <v>48</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>2.36</v>
+        <v>52.05</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="5" t="e"/>
       <c r="H20" s="6" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="21" ht="11" customHeight="true">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="21" ht="22" customHeight="true">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1278,14 +1152,14 @@
         <v>50</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>3.02</v>
+        <v>35.92</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="5" t="e"/>
       <c r="H21" s="6" t="n">
-        <v>100000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="22" ht="11" customHeight="true">
@@ -1302,14 +1176,14 @@
         <v>52</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>3.52</v>
+        <v>3.75</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="5" t="e"/>
       <c r="H22" s="6" t="n">
-        <v>102000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="23" ht="11" customHeight="true">
@@ -1326,17 +1200,17 @@
         <v>54</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>16.87</v>
+        <v>32.07</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="5" t="e"/>
       <c r="H23" s="6" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="24" ht="11" customHeight="true">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="24" ht="22" customHeight="true">
       <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
@@ -1350,14 +1224,14 @@
         <v>56</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>18.87</v>
+        <v>29.04</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="5" t="e"/>
       <c r="H24" s="6" t="n">
-        <v>10000</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="25" ht="11" customHeight="true">
@@ -1374,17 +1248,17 @@
         <v>58</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>2.55</v>
+        <v>359.2</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="5" t="e"/>
-      <c r="H25" s="6" t="n">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="26" ht="22" customHeight="true">
+      <c r="H25" s="7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" ht="11" customHeight="true">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1398,14 +1272,14 @@
         <v>60</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>5.23</v>
+        <v>483.95</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="5" t="e"/>
-      <c r="H26" s="6" t="n">
-        <v>2000</v>
+      <c r="H26" s="7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27" ht="11" customHeight="true">
@@ -1422,14 +1296,14 @@
         <v>62</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>7.19</v>
+        <v>489.77</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="5" t="e"/>
-      <c r="H27" s="6" t="n">
-        <v>1000</v>
+      <c r="H27" s="7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="28" ht="11" customHeight="true">
@@ -1446,17 +1320,17 @@
         <v>64</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>3.14</v>
+        <v>639.44</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="5" t="e"/>
-      <c r="H28" s="6" t="n">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="29" ht="11" customHeight="true">
+      <c r="H28" s="7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" ht="22" customHeight="true">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1470,17 +1344,17 @@
         <v>66</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>0.59</v>
+        <v>21.27</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="5" t="e"/>
       <c r="H29" s="6" t="n">
-        <v>144000</v>
-      </c>
-    </row>
-    <row r="30" ht="11" customHeight="true">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="30" ht="22" customHeight="true">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -1494,17 +1368,17 @@
         <v>68</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>9.06</v>
+        <v>13.41</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="5" t="e"/>
       <c r="H30" s="6" t="n">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="31" ht="11" customHeight="true">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="31" ht="22" customHeight="true">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
@@ -1518,14 +1392,14 @@
         <v>70</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>6.98</v>
+        <v>16.48</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="5" t="e"/>
       <c r="H31" s="6" t="n">
-        <v>57600</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="32" ht="22" customHeight="true">
@@ -1542,14 +1416,14 @@
         <v>72</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>368.26</v>
+        <v>16.95</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="5" t="e"/>
-      <c r="H32" s="7" t="n">
-        <v>72</v>
+      <c r="H32" s="6" t="n">
+        <v>22500</v>
       </c>
     </row>
     <row r="33" ht="11" customHeight="true">
@@ -1566,17 +1440,17 @@
         <v>74</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>9.27</v>
+        <v>27.04</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="5" t="e"/>
       <c r="H33" s="6" t="n">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="34" ht="22" customHeight="true">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="34" ht="11" customHeight="true">
       <c r="A34" s="3" t="s">
         <v>8</v>
       </c>
@@ -1590,17 +1464,17 @@
         <v>76</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>8.45</v>
+        <v>27.08</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="5" t="e"/>
       <c r="H34" s="6" t="n">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="35" ht="22" customHeight="true">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="35" ht="11" customHeight="true">
       <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
@@ -1614,17 +1488,17 @@
         <v>78</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>52.05</v>
+        <v>34.24</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="5" t="e"/>
       <c r="H35" s="6" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="36" ht="22" customHeight="true">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="36" ht="11" customHeight="true">
       <c r="A36" s="3" t="s">
         <v>8</v>
       </c>
@@ -1638,17 +1512,17 @@
         <v>80</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>39.94</v>
+        <v>35.68</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="5" t="e"/>
       <c r="H36" s="6" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="37" ht="22" customHeight="true">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" ht="11" customHeight="true">
       <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
@@ -1662,14 +1536,14 @@
         <v>82</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>37.17</v>
+        <v>8.91</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="5" t="e"/>
       <c r="H37" s="6" t="n">
-        <v>3080</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="38" ht="22" customHeight="true">
@@ -1686,17 +1560,17 @@
         <v>84</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>39.8</v>
+        <v>3.26</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="5" t="e"/>
       <c r="H38" s="6" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="39" ht="22" customHeight="true">
+        <v>489750</v>
+      </c>
+    </row>
+    <row r="39" ht="11" customHeight="true">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -1710,14 +1584,14 @@
         <v>86</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>35.92</v>
+        <v>25.14</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="5" t="e"/>
       <c r="H39" s="6" t="n">
-        <v>3000</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="40" ht="11" customHeight="true">
@@ -1734,14 +1608,14 @@
         <v>88</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>32.73</v>
+        <v>4.73</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="5" t="e"/>
       <c r="H40" s="6" t="n">
-        <v>3080</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="41" ht="11" customHeight="true">
@@ -1758,14 +1632,14 @@
         <v>90</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>3.75</v>
+        <v>5.34</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="5" t="e"/>
       <c r="H41" s="6" t="n">
-        <v>15000</v>
+        <v>74160</v>
       </c>
     </row>
     <row r="42" ht="11" customHeight="true">
@@ -1782,17 +1656,17 @@
         <v>92</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>32.07</v>
+        <v>5.34</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="5" t="e"/>
       <c r="H42" s="6" t="n">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="43" ht="22" customHeight="true">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="43" ht="11" customHeight="true">
       <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
@@ -1806,14 +1680,14 @@
         <v>94</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>29.04</v>
+        <v>11.42</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="5" t="e"/>
       <c r="H43" s="6" t="n">
-        <v>1760</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="44" ht="11" customHeight="true">
@@ -1830,14 +1704,14 @@
         <v>96</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>359.2</v>
+        <v>9.24</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="5" t="e"/>
-      <c r="H44" s="7" t="n">
-        <v>9</v>
+      <c r="H44" s="6" t="n">
+        <v>7680</v>
       </c>
     </row>
     <row r="45" ht="11" customHeight="true">
@@ -1854,14 +1728,14 @@
         <v>98</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>483.95</v>
+        <v>7.39</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="5" t="e"/>
-      <c r="H45" s="7" t="n">
-        <v>2</v>
+      <c r="H45" s="6" t="n">
+        <v>8400</v>
       </c>
     </row>
     <row r="46" ht="11" customHeight="true">
@@ -1878,14 +1752,14 @@
         <v>100</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>489.77</v>
+        <v>3.52</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="5" t="e"/>
-      <c r="H46" s="7" t="n">
-        <v>9</v>
+      <c r="H46" s="6" t="n">
+        <v>10800</v>
       </c>
     </row>
     <row r="47" ht="11" customHeight="true">
@@ -1902,17 +1776,17 @@
         <v>102</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>639.44</v>
+        <v>4.47</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="5" t="e"/>
-      <c r="H47" s="7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" ht="22" customHeight="true">
+      <c r="H47" s="6" t="n">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="48" ht="11" customHeight="true">
       <c r="A48" s="3" t="s">
         <v>8</v>
       </c>
@@ -1926,17 +1800,17 @@
         <v>104</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>21.27</v>
+        <v>10.5</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="5" t="e"/>
       <c r="H48" s="6" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="49" ht="22" customHeight="true">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="49" ht="11" customHeight="true">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
@@ -1950,14 +1824,14 @@
         <v>106</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>13.41</v>
+        <v>10.57</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="5" t="e"/>
       <c r="H49" s="6" t="n">
-        <v>24000</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="50" ht="22" customHeight="true">
@@ -1974,7 +1848,7 @@
         <v>108</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>16.48</v>
+        <v>5.67</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>12</v>
@@ -1984,7 +1858,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="51" ht="22" customHeight="true">
+    <row r="51" ht="11" customHeight="true">
       <c r="A51" s="3" t="s">
         <v>8</v>
       </c>
@@ -1998,14 +1872,14 @@
         <v>110</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>16.95</v>
+        <v>1.31</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G51" s="5" t="e"/>
       <c r="H51" s="6" t="n">
-        <v>22500</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="52" ht="11" customHeight="true">
@@ -2022,14 +1896,14 @@
         <v>112</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>5.37</v>
+        <v>6.13</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G52" s="5" t="e"/>
       <c r="H52" s="6" t="n">
-        <v>67500</v>
+        <v>15360</v>
       </c>
     </row>
     <row r="53" ht="11" customHeight="true">
@@ -2046,14 +1920,14 @@
         <v>114</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>513.07</v>
+        <v>7.39</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G53" s="5" t="e"/>
-      <c r="H53" s="7" t="n">
-        <v>40</v>
+      <c r="H53" s="6" t="n">
+        <v>7200</v>
       </c>
     </row>
     <row r="54" ht="11" customHeight="true">
@@ -2070,14 +1944,14 @@
         <v>116</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>27.04</v>
+        <v>3.22</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G54" s="5" t="e"/>
       <c r="H54" s="6" t="n">
-        <v>5000</v>
+        <v>616000</v>
       </c>
     </row>
     <row r="55" ht="11" customHeight="true">
@@ -2094,14 +1968,14 @@
         <v>118</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>27.08</v>
+        <v>3.22</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G55" s="5" t="e"/>
       <c r="H55" s="6" t="n">
-        <v>5400</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="56" ht="11" customHeight="true">
@@ -2118,17 +1992,17 @@
         <v>120</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>34.24</v>
+        <v>3.18</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G56" s="5" t="e"/>
       <c r="H56" s="6" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="57" ht="11" customHeight="true">
+        <v>76000</v>
+      </c>
+    </row>
+    <row r="57" ht="22" customHeight="true">
       <c r="A57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2142,17 +2016,17 @@
         <v>122</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>35.68</v>
+        <v>9.29</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G57" s="5" t="e"/>
       <c r="H57" s="6" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="58" ht="11" customHeight="true">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="58" ht="22" customHeight="true">
       <c r="A58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2166,17 +2040,17 @@
         <v>124</v>
       </c>
       <c r="E58" s="4" t="n">
-        <v>8.91</v>
+        <v>9.31</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G58" s="5" t="e"/>
       <c r="H58" s="6" t="n">
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="59" ht="22" customHeight="true">
+        <v>168000</v>
+      </c>
+    </row>
+    <row r="59" ht="11" customHeight="true">
       <c r="A59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2190,17 +2064,17 @@
         <v>126</v>
       </c>
       <c r="E59" s="4" t="n">
-        <v>3.26</v>
+        <v>3.1</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G59" s="5" t="e"/>
       <c r="H59" s="6" t="n">
-        <v>489750</v>
-      </c>
-    </row>
-    <row r="60" ht="22" customHeight="true">
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="60" ht="11" customHeight="true">
       <c r="A60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2214,17 +2088,17 @@
         <v>128</v>
       </c>
       <c r="E60" s="4" t="n">
-        <v>5.65</v>
+        <v>2.33</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G60" s="5" t="e"/>
       <c r="H60" s="6" t="n">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="61" ht="11" customHeight="true">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="61" ht="22" customHeight="true">
       <c r="A61" s="3" t="s">
         <v>8</v>
       </c>
@@ -2238,17 +2112,17 @@
         <v>130</v>
       </c>
       <c r="E61" s="4" t="n">
-        <v>25.14</v>
+        <v>8.28</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G61" s="5" t="e"/>
       <c r="H61" s="6" t="n">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="62" ht="11" customHeight="true">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="62" ht="22" customHeight="true">
       <c r="A62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2261,15 +2135,13 @@
       <c r="D62" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E62" s="4" t="n">
-        <v>4.73</v>
-      </c>
+      <c r="E62" s="3" t="e"/>
       <c r="F62" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G62" s="5" t="e"/>
       <c r="H62" s="6" t="n">
-        <v>2016</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="63" ht="11" customHeight="true">
@@ -2286,14 +2158,14 @@
         <v>134</v>
       </c>
       <c r="E63" s="4" t="n">
-        <v>5.34</v>
+        <v>5.28</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G63" s="5" t="e"/>
       <c r="H63" s="6" t="n">
-        <v>90360</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="64" ht="11" customHeight="true">
@@ -2310,14 +2182,14 @@
         <v>136</v>
       </c>
       <c r="E64" s="4" t="n">
-        <v>5.34</v>
+        <v>7.57</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G64" s="5" t="e"/>
       <c r="H64" s="6" t="n">
-        <v>3600</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="65" ht="11" customHeight="true">
@@ -2334,14 +2206,14 @@
         <v>138</v>
       </c>
       <c r="E65" s="4" t="n">
-        <v>11.42</v>
+        <v>6.13</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G65" s="5" t="e"/>
       <c r="H65" s="6" t="n">
-        <v>1800</v>
+        <v>220800</v>
       </c>
     </row>
     <row r="66" ht="11" customHeight="true">
@@ -2358,17 +2230,17 @@
         <v>140</v>
       </c>
       <c r="E66" s="4" t="n">
-        <v>9.24</v>
+        <v>5.21</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G66" s="5" t="e"/>
       <c r="H66" s="6" t="n">
-        <v>7680</v>
-      </c>
-    </row>
-    <row r="67" ht="11" customHeight="true">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="67" ht="22" customHeight="true">
       <c r="A67" s="3" t="s">
         <v>8</v>
       </c>
@@ -2379,17 +2251,17 @@
         <v>141</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="E67" s="4" t="n">
-        <v>7.39</v>
+        <v>5.89</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G67" s="5" t="e"/>
       <c r="H67" s="6" t="n">
-        <v>8400</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="68" ht="11" customHeight="true">
@@ -2400,20 +2272,18 @@
         <v>9</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E68" s="4" t="n">
-        <v>3.52</v>
-      </c>
+      <c r="E68" s="3" t="e"/>
       <c r="F68" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G68" s="5" t="e"/>
-      <c r="H68" s="6" t="n">
-        <v>10800</v>
+      <c r="H68" s="7" t="n">
+        <v>288</v>
       </c>
     </row>
     <row r="69" ht="11" customHeight="true">
@@ -2424,20 +2294,18 @@
         <v>9</v>
       </c>
       <c r="C69" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E69" s="4" t="n">
-        <v>4.47</v>
-      </c>
+      <c r="E69" s="3" t="e"/>
       <c r="F69" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G69" s="5" t="e"/>
       <c r="H69" s="6" t="n">
-        <v>10800</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="70" ht="11" customHeight="true">
@@ -2448,20 +2316,20 @@
         <v>9</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="E70" s="4" t="n">
-        <v>10.5</v>
+        <v>6.77</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G70" s="5" t="e"/>
       <c r="H70" s="6" t="n">
-        <v>5040</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="71" ht="22" customHeight="true">
@@ -2472,44 +2340,42 @@
         <v>9</v>
       </c>
       <c r="C71" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="E71" s="8" t="n">
+        <v>2413.78</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="5" t="e"/>
+      <c r="H71" s="7" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" ht="11" customHeight="true">
+      <c r="A72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E71" s="4" t="n">
-        <v>23.17</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="5" t="e"/>
-      <c r="H71" s="6" t="n">
-        <v>54000</v>
-      </c>
-    </row>
-    <row r="72" ht="22" customHeight="true">
-      <c r="A72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E72" s="4" t="n">
-        <v>27.49</v>
-      </c>
+      <c r="E72" s="3" t="e"/>
       <c r="F72" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G72" s="5" t="e"/>
-      <c r="H72" s="7" t="n">
-        <v>400</v>
+      <c r="H72" s="6" t="n">
+        <v>350000</v>
       </c>
     </row>
     <row r="73" ht="11" customHeight="true">
@@ -2520,20 +2386,20 @@
         <v>9</v>
       </c>
       <c r="C73" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="E73" s="4" t="n">
-        <v>10.57</v>
+        <v>9.68</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G73" s="5" t="e"/>
       <c r="H73" s="6" t="n">
-        <v>2880</v>
+        <v>16320</v>
       </c>
     </row>
     <row r="74" ht="22" customHeight="true">
@@ -2544,23 +2410,23 @@
         <v>9</v>
       </c>
       <c r="C74" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="E74" s="4" t="n">
-        <v>5.67</v>
+        <v>6.27</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G74" s="5" t="e"/>
       <c r="H74" s="6" t="n">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="75" ht="11" customHeight="true">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="75" ht="22" customHeight="true">
       <c r="A75" s="3" t="s">
         <v>8</v>
       </c>
@@ -2568,20 +2434,20 @@
         <v>9</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="E75" s="4" t="n">
-        <v>357.29</v>
+        <v>32.18</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G75" s="5" t="e"/>
-      <c r="H75" s="7" t="n">
-        <v>400</v>
+      <c r="H75" s="6" t="n">
+        <v>6144</v>
       </c>
     </row>
     <row r="76" ht="11" customHeight="true">
@@ -2592,505 +2458,19 @@
         <v>9</v>
       </c>
       <c r="C76" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E76" s="4" t="n">
-        <v>1</v>
+      <c r="E76" s="8" t="n">
+        <v>4174.05</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G76" s="5" t="e"/>
-      <c r="H76" s="6" t="n">
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="77" ht="11" customHeight="true">
-      <c r="A77" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E77" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" s="5" t="e"/>
-      <c r="H77" s="6" t="n">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="78" ht="11" customHeight="true">
-      <c r="A78" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E78" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="5" t="e"/>
-      <c r="H78" s="6" t="n">
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="79" ht="11" customHeight="true">
-      <c r="A79" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E79" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" s="5" t="e"/>
-      <c r="H79" s="6" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="80" ht="11" customHeight="true">
-      <c r="A80" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E80" s="4" t="n">
-        <v>10.62</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" s="5" t="e"/>
-      <c r="H80" s="6" t="n">
-        <v>15750</v>
-      </c>
-    </row>
-    <row r="81" ht="11" customHeight="true">
-      <c r="A81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E81" s="4" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="5" t="e"/>
-      <c r="H81" s="6" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="82" ht="22" customHeight="true">
-      <c r="A82" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E82" s="4" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" s="5" t="e"/>
-      <c r="H82" s="6" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="83" ht="11" customHeight="true">
-      <c r="A83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E83" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" s="5" t="e"/>
-      <c r="H83" s="6" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="84" ht="22" customHeight="true">
-      <c r="A84" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E84" s="8" t="n">
-        <v>4844.78</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" s="5" t="e"/>
-      <c r="H84" s="7" t="n">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="85" ht="11" customHeight="true">
-      <c r="A85" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E85" s="4" t="n">
-        <v>92.85</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" s="5" t="e"/>
-      <c r="H85" s="6" t="n">
-        <v>3402</v>
-      </c>
-    </row>
-    <row r="86" ht="22" customHeight="true">
-      <c r="A86" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E86" s="3" t="e"/>
-      <c r="F86" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" s="5" t="e"/>
-      <c r="H86" s="6" t="n">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="87" ht="22" customHeight="true">
-      <c r="A87" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E87" s="4" t="n">
-        <v>417.95</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" s="5" t="e"/>
-      <c r="H87" s="6" t="n">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="88" ht="22" customHeight="true">
-      <c r="A88" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E88" s="3" t="e"/>
-      <c r="F88" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" s="5" t="e"/>
-      <c r="H88" s="7" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="89" ht="22" customHeight="true">
-      <c r="A89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E89" s="3" t="e"/>
-      <c r="F89" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="5" t="e"/>
-      <c r="H89" s="7" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="90" ht="11" customHeight="true">
-      <c r="A90" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E90" s="3" t="e"/>
-      <c r="F90" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" s="5" t="e"/>
-      <c r="H90" s="7" t="n">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="91" ht="22" customHeight="true">
-      <c r="A91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E91" s="3" t="e"/>
-      <c r="F91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" s="5" t="e"/>
-      <c r="H91" s="7" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="92" ht="11" customHeight="true">
-      <c r="A92" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E92" s="3" t="e"/>
-      <c r="F92" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" s="5" t="e"/>
-      <c r="H92" s="6" t="n">
-        <v>5250</v>
-      </c>
-    </row>
-    <row r="93" ht="22" customHeight="true">
-      <c r="A93" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E93" s="4" t="n">
-        <v>13.88</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" s="5" t="e"/>
-      <c r="H93" s="6" t="n">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="94" ht="22" customHeight="true">
-      <c r="A94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E94" s="3" t="e"/>
-      <c r="F94" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" s="5" t="e"/>
-      <c r="H94" s="7" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="95" ht="22" customHeight="true">
-      <c r="A95" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E95" s="3" t="e"/>
-      <c r="F95" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" s="5" t="e"/>
-      <c r="H95" s="7" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="96" ht="11" customHeight="true">
-      <c r="A96" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="3" t="e"/>
-      <c r="F96" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" s="5" t="e"/>
-      <c r="H96" s="6" t="n">
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="97" ht="11" customHeight="true">
-      <c r="A97" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E97" s="8" t="n">
-        <v>4174.05</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" s="5" t="e"/>
-      <c r="H97" s="7" t="n">
+      <c r="H76" s="7" t="n">
         <v>16</v>
       </c>
     </row>

--- a/data/В пути АЛМ.xlsx
+++ b/data/В пути АЛМ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>Дата</t>
   </si>
@@ -47,6 +47,405 @@
   </si>
   <si>
     <t>Кон ост</t>
+  </si>
+  <si>
+    <t>21.03.2024 0:00:00</t>
+  </si>
+  <si>
+    <t>Алматы в Пути</t>
+  </si>
+  <si>
+    <t>337433</t>
+  </si>
+  <si>
+    <t>Свечи чайные в гильзе d38хh16 мм, без дизайна, бел., 100 шт/упак "Textop"</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>218482</t>
+  </si>
+  <si>
+    <t>Фольга алюминиевая 29см х 100м, 11 мкм Универсальная (ООО Металлпейпер-М)</t>
+  </si>
+  <si>
+    <t>101913</t>
+  </si>
+  <si>
+    <t>Шапочка "Шарлотта", бел., неткан. мат-л, 100 шт/упак (ООО Оптитрейд)</t>
+  </si>
+  <si>
+    <t>101914</t>
+  </si>
+  <si>
+    <t>Шапочка "Шарлотта", голуб., неткан. мат-л, 100 шт/упак (ООО Оптитрейд)</t>
+  </si>
+  <si>
+    <t>115127</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 100 мл 1 сл., d62 мм, бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>115324</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 300 мл 1 сл., d90 мм, диз. "Big City Life", карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>100542</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 300 мл 2 сл., d90 мм, диз. "Big City Life", карт., 20 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>103499</t>
+  </si>
+  <si>
+    <t>Нож одноразовый Кристалл 180 мм, черн., ПС, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>291076</t>
+  </si>
+  <si>
+    <t>Бутылка ПЭТ 100 мл, квадр., прозр., горло d38 мм, крышка в компл., 600 шт/кор (ООО Мастерпэт)</t>
+  </si>
+  <si>
+    <t>291078</t>
+  </si>
+  <si>
+    <t>Бутылка ПЭТ 200 мл, квадр., прозр., горло d38 мм, крышка в компл., 400 шт/кор (ООО Мастерпэт)</t>
+  </si>
+  <si>
+    <t>104834</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 155х110х13,5 мм, прозр., ПЭТ, 800 шт/кор "OSQ" OpSalad 400/450</t>
+  </si>
+  <si>
+    <t>106065</t>
+  </si>
+  <si>
+    <t>Лоток [короб] для фастфуда 165х70х40 мм, крафт, карт., 50 шт/упак "OSQ" Eco HD Bio</t>
+  </si>
+  <si>
+    <t>106101</t>
+  </si>
+  <si>
+    <t>Упаковка для бургера типа "Уголок" 170х150 мм, диз. "Food`корт", разноцв., бум., 1000 шт/кор (ООО Фл</t>
+  </si>
+  <si>
+    <t>110626</t>
+  </si>
+  <si>
+    <t>Контейнер 1200 мл, 167х167х63 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
+  </si>
+  <si>
+    <t>107231</t>
+  </si>
+  <si>
+    <t>Контейнер 400 мл, 145х96х45 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
+  </si>
+  <si>
+    <t>107239</t>
+  </si>
+  <si>
+    <t>Контейнер 1000 мл, 222х162х55 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
+  </si>
+  <si>
+    <t>107335</t>
+  </si>
+  <si>
+    <t>Контейнер 375 мл 1-секц. 124,5х124,5х50,7 мм, без крышки, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>181221</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 200 мл, прозр., ПП, 6 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>111451</t>
+  </si>
+  <si>
+    <t>Коробка для наггетсов 150х91х70 мм, L, крафт-бел., карт., 25 шт/упак "OSQ" Eco Fast Food Box</t>
+  </si>
+  <si>
+    <t>111452</t>
+  </si>
+  <si>
+    <t>Коробка для картофеля фри 105х50х110 мм, M, крафт-бел., карт., 50 шт/упак "OSQ" Eco Fry</t>
+  </si>
+  <si>
+    <t>111577</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 220х140х13,5 мм, прозр., ПЭТ 400 шт/кор "OSQ" OpSalad 800</t>
+  </si>
+  <si>
+    <t>111582</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 234х174х13,5 мм, прозр., ПЭТ, 300 шт/кор "OSQ" OpSalad 1000</t>
+  </si>
+  <si>
+    <t>111875</t>
+  </si>
+  <si>
+    <t>Контейнер 800 мл, 209х127х55 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
+  </si>
+  <si>
+    <t>111930</t>
+  </si>
+  <si>
+    <t>Салфетка влажная, Лимон, саше, 1000 шт/кор "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>112233</t>
+  </si>
+  <si>
+    <t>Сахар порционный 5 г, стик, 1000 шт/кор (ООО Хорта)</t>
+  </si>
+  <si>
+    <t>112309</t>
+  </si>
+  <si>
+    <t>Пакет вакуум. 150х200 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
+  </si>
+  <si>
+    <t>112340</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 175х130х13,5 мм, прозр., ПЭТ 50 шт/упак "OSQ" OpSalad 500</t>
+  </si>
+  <si>
+    <t>112341</t>
+  </si>
+  <si>
+    <t>Контейнер 500 мл, 164х115х45 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
+  </si>
+  <si>
+    <t>113206</t>
+  </si>
+  <si>
+    <t>Стакан-шейкер одноразовый 300 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>113207</t>
+  </si>
+  <si>
+    <t>Стакан-шейкер одноразовый 400 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>113208</t>
+  </si>
+  <si>
+    <t>Стакан-шейкер одноразовый 500 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>113209</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d95 мм куполообразная с отверстием, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>113210</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d95 мм куполообразная без отверстия, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>113211</t>
+  </si>
+  <si>
+    <t>Контейнер 250 мл 1-секц. 124,5х124,5х38,4 мм, без крышки, черн., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>113212</t>
+  </si>
+  <si>
+    <t>Контейнер 375 мл 1-секц. 124,5х124,5х50,7 мм, без крышки, черн., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>113213</t>
+  </si>
+  <si>
+    <t>Контейнер 500 мл 1-секц. 124,5х124,5х59,8 мм, без крышки, черн., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>113214</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 124,5х124,5х13,1 мм, прозр., ПЭТ, 25 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>113219</t>
+  </si>
+  <si>
+    <t>Контейнер 500 мл 1-секц. 108х82х106 мм, серия 108, без крышки, прозр., ПП, 100 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>113220</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 108х82х3 мм, прозр., ПП, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>113710</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 178х178х13,5 мм, прозр., ПЭТ, 300 шт/кор "OSQ" OpSalad 1200</t>
+  </si>
+  <si>
+    <t>113711</t>
+  </si>
+  <si>
+    <t>Коробка для лапши 900 мл, 165х130х50 мм, крафт, карт., 60 шт/упак "OSQ" Eco Fold Box</t>
+  </si>
+  <si>
+    <t>114003</t>
+  </si>
+  <si>
+    <t>Контейнер 400 мл, 145х96х45 мм, без окна, без крышки, крафт-черн., карт., 50 шт/упак "OSQ" OpSalad B</t>
+  </si>
+  <si>
+    <t>114004</t>
+  </si>
+  <si>
+    <t>Контейнер 500 мл, 164х115х45 мм, без окна, без крышки, крафт-черн., карт., 600 шт/кор "OSQ" OpSalad </t>
+  </si>
+  <si>
+    <t>114019</t>
+  </si>
+  <si>
+    <t>Держатель для стаканов 2 яч. 90х180х50 мм, крафт-бел., карт., 450 шт/кор "OSQ" Eco CupHolder double</t>
+  </si>
+  <si>
+    <t>114218</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d95 мм плоская с отверстием, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>114220</t>
+  </si>
+  <si>
+    <t>Контейнер 250 мл 1-секц. 124,5х124,5х38,4 мм, без крышки, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>114445</t>
+  </si>
+  <si>
+    <t>Мыло жидкое "Pro-Brite" Savon с перламутром, бутылка ПЭТ, 5000 мл</t>
+  </si>
+  <si>
+    <t>114506</t>
+  </si>
+  <si>
+    <t>Коробка для бургера [бургербокс] 120х120х70 мм, L, крафт-бел., карт., 60 шт/упак "OSQ"</t>
+  </si>
+  <si>
+    <t>114508</t>
+  </si>
+  <si>
+    <t>Упаковка [коробка] для сэндвичей 130х130х40 мм, с окном, неразъем.крышка, крафт-бел., карт., 50 шт/у</t>
+  </si>
+  <si>
+    <t>114849</t>
+  </si>
+  <si>
+    <t>Упаковка [коробка] для сэндвичей 130х130х60 мм, с окном, неразъем.крышка, крафт, карт., 50 шт/упак "</t>
+  </si>
+  <si>
+    <t>114977</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 210 мм, d7 мм, черн., пласт. прямые в инд. упаковке, 200 шт/упак (ООО ПК Диап</t>
+  </si>
+  <si>
+    <t>115478</t>
+  </si>
+  <si>
+    <t>Упаковка для бургера типа "Уголок" 150х150 мм, бел., бум., 5000 шт/кор (ООО ПищеПак)</t>
+  </si>
+  <si>
+    <t>115537</t>
+  </si>
+  <si>
+    <t>Коробка для кондит. изделий 160х160х100 мм, с окном, неразъем.крышка, крафт-бел., карт., 25 шт/упак </t>
+  </si>
+  <si>
+    <t>115538</t>
+  </si>
+  <si>
+    <t>Упаковка [коробка] для сэндвичей 130х130х70 мм, с окном, неразъем.крышка, крафт, карт., 50 шт/упак "</t>
+  </si>
+  <si>
+    <t>115617</t>
+  </si>
+  <si>
+    <t>Контейнер 300 мл, 100х80х35 мм, с окном, неразъем. крышка, крафт-бел., карт., 25 шт/упак "OSQ" Eco T</t>
+  </si>
+  <si>
+    <t>115627</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 210 мм, d5 мм, черн., пласт. с гофроизгибом, 250 шт/упак (ООО ПК Диапазон)</t>
+  </si>
+  <si>
+    <t>115969</t>
+  </si>
+  <si>
+    <t>Сахар порционный 5 г, лого "Qulpynai" , стик, 2000 шт/кор (ТОО Компания Ника -2000)</t>
+  </si>
+  <si>
+    <t>115975</t>
+  </si>
+  <si>
+    <t>Упаковка для кондит. изделий 740 мл, 1-секц. 167х150х50[133х127х44] мм, неразъем.крышка, прозр.-черн</t>
+  </si>
+  <si>
+    <t>115977</t>
+  </si>
+  <si>
+    <t>Контейнер 500 мл 1-секц. 137,7х137,7х65,2 мм, неразъем.крышка, прозр., ПЭТ, 400 шт/кор "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>115978</t>
+  </si>
+  <si>
+    <t>Контейнер 750 мл 1-секц. 167х167х50 мм, неразъем.крышка, прозр., ПЭТ, 200 шт/кор "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>115970</t>
+  </si>
+  <si>
+    <t>Стакан-шейкер одноразовый 200 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>115971</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d95 мм плоская без отверстия, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>115976</t>
+  </si>
+  <si>
+    <t>Упаковка для кондит. изделий 1200 мл, 1-секц. 224х142х69[190х115х60] мм, неразъем.крышка, прозр., ПЭ</t>
+  </si>
+  <si>
+    <t>115979</t>
+  </si>
+  <si>
+    <t>Упаковка для кондит. изделий 650 мл, 1-секц. 224х118х46[190х92х40] мм, неразъем.крышка, прозр., ПЭТ,</t>
+  </si>
+  <si>
+    <t>115997</t>
+  </si>
+  <si>
+    <t>Упаковка для кондит. изделий 1200 мл, 1-секц. 252х173х43[226х148х39] мм, неразъем.крышка, прозр., ПЭ</t>
   </si>
 </sst>
 </file>
@@ -97,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -120,17 +519,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="7D8AB9"/>
+      </left>
+      <right style="thin">
+        <color rgb="7D8AB9"/>
+      </right>
+      <top style="thin">
+        <color rgb="7D8AB9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="7D8AB9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="0" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -151,20 +583,20 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H1"/>
+  <dimension ref="H66"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" customHeight="true" defaultRowHeight="11.429"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="1" customWidth="true"/>
-    <col min="2" max="2" width="9.5" style="1" customWidth="true"/>
+    <col min="1" max="1" width="23.33203125" style="1" customWidth="true"/>
+    <col min="2" max="2" width="17.5" style="1" customWidth="true"/>
     <col min="3" max="3" width="11.66796875" style="1" customWidth="true"/>
-    <col min="4" max="4" width="18.33203125" style="1" customWidth="true"/>
-    <col min="5" max="5" width="8.5" style="1" customWidth="true"/>
+    <col min="4" max="4" width="74.66796875" style="1" customWidth="true"/>
+    <col min="5" max="5" width="11.66796875" style="1" customWidth="true"/>
     <col min="6" max="6" width="17.83203125" style="1" customWidth="true"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="true"/>
-    <col min="8" max="8" width="6.66796875" style="1" customWidth="true"/>
+    <col min="8" max="8" width="10.5" style="1" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="40" customHeight="true">
@@ -191,6 +623,1542 @@
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="11" customHeight="true">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>1556.63</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="e"/>
+      <c r="H2" s="6" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" ht="11" customHeight="true">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>1980.16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="e"/>
+      <c r="H3" s="6" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="11" customHeight="true">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>609.17</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="e"/>
+      <c r="H4" s="6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" ht="11" customHeight="true">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>556.86</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="e"/>
+      <c r="H5" s="6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" ht="11" customHeight="true">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="e"/>
+      <c r="H6" s="8" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" ht="23" customHeight="true">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>21.99</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="e"/>
+      <c r="H7" s="8" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="8" ht="23" customHeight="true">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>33.87</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="e"/>
+      <c r="H8" s="8" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="9" ht="11" customHeight="true">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="e"/>
+      <c r="H9" s="8" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="10" ht="23" customHeight="true">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>36.15</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="e"/>
+      <c r="H10" s="6" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" ht="23" customHeight="true">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>39.72</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="e"/>
+      <c r="H11" s="8" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="12" ht="23" customHeight="true">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>15.28</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="e"/>
+      <c r="H12" s="8" t="n">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="13" ht="11" customHeight="true">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>14.53</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5" t="e"/>
+      <c r="H13" s="8" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="14" ht="23" customHeight="true">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5" t="e"/>
+      <c r="H14" s="8" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="15" ht="23" customHeight="true">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>32.02</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5" t="e"/>
+      <c r="H15" s="8" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="16" ht="23" customHeight="true">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5" t="e"/>
+      <c r="H16" s="8" t="n">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="17" ht="23" customHeight="true">
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>42.98</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="5" t="e"/>
+      <c r="H17" s="8" t="n">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="18" ht="23" customHeight="true">
+      <c r="A18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="7" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="5" t="e"/>
+      <c r="H18" s="8" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="19" ht="11" customHeight="true">
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="5" t="e"/>
+      <c r="H19" s="8" t="n">
+        <v>38880</v>
+      </c>
+    </row>
+    <row r="20" ht="23" customHeight="true">
+      <c r="A20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>24.96</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="5" t="e"/>
+      <c r="H20" s="8" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="21" ht="23" customHeight="true">
+      <c r="A21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5" t="e"/>
+      <c r="H21" s="8" t="n">
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="22" ht="11" customHeight="true">
+      <c r="A22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="7" t="n">
+        <v>29.68</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="5" t="e"/>
+      <c r="H22" s="8" t="n">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="23" ht="11" customHeight="true">
+      <c r="A23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="7" t="n">
+        <v>36.58</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="5" t="e"/>
+      <c r="H23" s="8" t="n">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="24" ht="23" customHeight="true">
+      <c r="A24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="7" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5" t="e"/>
+      <c r="H24" s="8" t="n">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="25" ht="11" customHeight="true">
+      <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="5" t="e"/>
+      <c r="H25" s="8" t="n">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="26" ht="11" customHeight="true">
+      <c r="A26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="7" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="5" t="e"/>
+      <c r="H26" s="8" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="27" ht="11" customHeight="true">
+      <c r="A27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>1214.8</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="5" t="e"/>
+      <c r="H27" s="6" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" ht="11" customHeight="true">
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="7" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5" t="e"/>
+      <c r="H28" s="8" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="29" ht="23" customHeight="true">
+      <c r="A29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="7" t="n">
+        <v>19.96</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="5" t="e"/>
+      <c r="H29" s="8" t="n">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="30" ht="11" customHeight="true">
+      <c r="A30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="7" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="5" t="e"/>
+      <c r="H30" s="8" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="31" ht="11" customHeight="true">
+      <c r="A31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="7" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="5" t="e"/>
+      <c r="H31" s="8" t="n">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="32" ht="11" customHeight="true">
+      <c r="A32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="7" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="5" t="e"/>
+      <c r="H32" s="8" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="33" ht="23" customHeight="true">
+      <c r="A33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="7" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="5" t="e"/>
+      <c r="H33" s="8" t="n">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="34" ht="23" customHeight="true">
+      <c r="A34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="7" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="5" t="e"/>
+      <c r="H34" s="8" t="n">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="35" ht="23" customHeight="true">
+      <c r="A35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="7" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="5" t="e"/>
+      <c r="H35" s="8" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="36" ht="23" customHeight="true">
+      <c r="A36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="7" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="5" t="e"/>
+      <c r="H36" s="8" t="n">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="37" ht="23" customHeight="true">
+      <c r="A37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="7" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="5" t="e"/>
+      <c r="H37" s="8" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="38" ht="11" customHeight="true">
+      <c r="A38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="7" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="5" t="e"/>
+      <c r="H38" s="8" t="n">
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="39" ht="23" customHeight="true">
+      <c r="A39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="7" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="5" t="e"/>
+      <c r="H39" s="8" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="40" ht="11" customHeight="true">
+      <c r="A40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="7" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="5" t="e"/>
+      <c r="H40" s="8" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="41" ht="11" customHeight="true">
+      <c r="A41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="7" t="n">
+        <v>33.21</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="5" t="e"/>
+      <c r="H41" s="8" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="42" ht="23" customHeight="true">
+      <c r="A42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="7" t="n">
+        <v>39.86</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="5" t="e"/>
+      <c r="H42" s="6" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="43" ht="23" customHeight="true">
+      <c r="A43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="7" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="5" t="e"/>
+      <c r="H43" s="8" t="n">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="44" ht="23" customHeight="true">
+      <c r="A44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="7" t="n">
+        <v>24.46</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="5" t="e"/>
+      <c r="H44" s="8" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="45" ht="23" customHeight="true">
+      <c r="A45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="7" t="n">
+        <v>20.02</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="5" t="e"/>
+      <c r="H45" s="8" t="n">
+        <v>129600</v>
+      </c>
+    </row>
+    <row r="46" ht="23" customHeight="true">
+      <c r="A46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="7" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="5" t="e"/>
+      <c r="H46" s="8" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="47" ht="23" customHeight="true">
+      <c r="A47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="7" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="5" t="e"/>
+      <c r="H47" s="8" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="48" ht="11" customHeight="true">
+      <c r="A48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="3" t="e"/>
+      <c r="F48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="5" t="e"/>
+      <c r="H48" s="6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" ht="23" customHeight="true">
+      <c r="A49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" s="7" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="5" t="e"/>
+      <c r="H49" s="6" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="50" ht="23" customHeight="true">
+      <c r="A50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" s="7" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="5" t="e"/>
+      <c r="H50" s="8" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="51" ht="23" customHeight="true">
+      <c r="A51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="7" t="n">
+        <v>27.79</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="5" t="e"/>
+      <c r="H51" s="8" t="n">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="52" ht="23" customHeight="true">
+      <c r="A52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" s="7" t="n">
+        <v>416.96</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="5" t="e"/>
+      <c r="H52" s="8" t="n">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="53" ht="23" customHeight="true">
+      <c r="A53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" s="3" t="e"/>
+      <c r="F53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="5" t="e"/>
+      <c r="H53" s="8" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="54" ht="23" customHeight="true">
+      <c r="A54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E54" s="7" t="n">
+        <v>108.95</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="5" t="e"/>
+      <c r="H54" s="6" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" ht="23" customHeight="true">
+      <c r="A55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" s="7" t="n">
+        <v>34.18</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="5" t="e"/>
+      <c r="H55" s="8" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="56" ht="23" customHeight="true">
+      <c r="A56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E56" s="3" t="e"/>
+      <c r="F56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="5" t="e"/>
+      <c r="H56" s="8" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="57" ht="23" customHeight="true">
+      <c r="A57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" s="7" t="n">
+        <v>207.46</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="5" t="e"/>
+      <c r="H57" s="6" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" ht="11" customHeight="true">
+      <c r="A58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E58" s="3" t="e"/>
+      <c r="F58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="5" t="e"/>
+      <c r="H58" s="8" t="n">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="59" ht="23" customHeight="true">
+      <c r="A59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E59" s="3" t="e"/>
+      <c r="F59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="5" t="e"/>
+      <c r="H59" s="8" t="n">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="60" ht="23" customHeight="true">
+      <c r="A60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E60" s="3" t="e"/>
+      <c r="F60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="5" t="e"/>
+      <c r="H60" s="8" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="61" ht="23" customHeight="true">
+      <c r="A61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E61" s="3" t="e"/>
+      <c r="F61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="5" t="e"/>
+      <c r="H61" s="8" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="62" ht="11" customHeight="true">
+      <c r="A62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" s="3" t="e"/>
+      <c r="F62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="5" t="e"/>
+      <c r="H62" s="8" t="n">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="63" ht="23" customHeight="true">
+      <c r="A63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E63" s="3" t="e"/>
+      <c r="F63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="5" t="e"/>
+      <c r="H63" s="8" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="64" ht="23" customHeight="true">
+      <c r="A64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E64" s="3" t="e"/>
+      <c r="F64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="5" t="e"/>
+      <c r="H64" s="8" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="65" ht="23" customHeight="true">
+      <c r="A65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E65" s="3" t="e"/>
+      <c r="F65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="5" t="e"/>
+      <c r="H65" s="8" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="66" ht="23" customHeight="true">
+      <c r="A66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E66" s="3" t="e"/>
+      <c r="F66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="5" t="e"/>
+      <c r="H66" s="8" t="n">
+        <v>6000</v>
       </c>
     </row>
   </sheetData>

--- a/data/В пути АЛМ.xlsx
+++ b/data/В пути АЛМ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t>Дата</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>21.03.2024 0:00:00</t>
+    <t>25.03.2024 0:00:00</t>
   </si>
   <si>
     <t>Алматы в Пути</t>
@@ -118,6 +118,12 @@
     <t>Бутылка ПЭТ 200 мл, квадр., прозр., горло d38 мм, крышка в компл., 400 шт/кор (ООО Мастерпэт)</t>
   </si>
   <si>
+    <t>107857</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 114х114х13,5 мм, прозр., ПЭТ, 50 шт/упак "OSQ" LidSmartPack 300</t>
+  </si>
+  <si>
     <t>104834</t>
   </si>
   <si>
@@ -142,6 +148,18 @@
     <t>Контейнер 1200 мл, 167х167х63 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
   </si>
   <si>
+    <t>104407</t>
+  </si>
+  <si>
+    <t>Контейнер 1000 мл, 190х150х50 мм, с окном, неразъем.крышка, крафт-бел., карт., 25 шт/упак "OSQ" Eco </t>
+  </si>
+  <si>
+    <t>104409</t>
+  </si>
+  <si>
+    <t>Контейнер 300 мл, 100х100х49 мм, без окна, без крышки, крафт, карт., 50 шт/упак "OSQ Eco SmartPack</t>
+  </si>
+  <si>
     <t>107231</t>
   </si>
   <si>
@@ -160,12 +178,24 @@
     <t>Контейнер 375 мл 1-секц. 124,5х124,5х50,7 мм, без крышки, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
   </si>
   <si>
+    <t>105780</t>
+  </si>
+  <si>
+    <t>Коробка для торта 240х240х100 мм, с окном, неразъем.крышка, без руч., бел., карт., 15 шт/упак "Forge</t>
+  </si>
+  <si>
     <t>181221</t>
   </si>
   <si>
     <t>Стакан одноразовый 200 мл, прозр., ПП, 6 шт/упак "МИСТЕРИЯ"</t>
   </si>
   <si>
+    <t>105349</t>
+  </si>
+  <si>
+    <t>Контейнер 500 мл, 170х70х40 мм, с окном, неразъем. крышка, крафт-бел., карт., 25 шт/упак "OSQ" Eco T</t>
+  </si>
+  <si>
     <t>111451</t>
   </si>
   <si>
@@ -190,6 +220,12 @@
     <t>Крышка к контейнеру 234х174х13,5 мм, прозр., ПЭТ, 300 шт/кор "OSQ" OpSalad 1000</t>
   </si>
   <si>
+    <t>111584</t>
+  </si>
+  <si>
+    <t>Коробка для торта 220х220х100 мм, с окном, неразъем.крышка, без руч., бел., карт., 15 шт/упак "Forge</t>
+  </si>
+  <si>
     <t>111875</t>
   </si>
   <si>
@@ -226,6 +262,36 @@
     <t>Контейнер 500 мл, 164х115х45 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
   </si>
   <si>
+    <t>112619</t>
+  </si>
+  <si>
+    <t>Коробка для торта 180х180х100 мм, с окном, неразъем.крышка, без руч., бел., карт., 120 шт/кор "Forge</t>
+  </si>
+  <si>
+    <t>112625</t>
+  </si>
+  <si>
+    <t>Упаковка с ложементом 160х120х100 мм, бел., карт., 15 шт/упак "Forgenika" Cake Roll II Window White</t>
+  </si>
+  <si>
+    <t>112636</t>
+  </si>
+  <si>
+    <t>Контейнер 750 мл, d150хh60 мм, без окна, без крышки, крафт-бел., карт., 45 шт/упак "OSQ" Round Bowl </t>
+  </si>
+  <si>
+    <t>112637</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру d150хh40 мм, прозр., ПЭТ, 45 шт/упак "OSQ" Round Bowl flat lid</t>
+  </si>
+  <si>
+    <t>112638</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру купол. d150хh38 мм, прозр., ПЭТ, 45 шт/упак "OSQ" Round Bowl dome lid</t>
+  </si>
+  <si>
     <t>113206</t>
   </si>
   <si>
@@ -304,6 +370,12 @@
     <t>Коробка для лапши 900 мл, 165х130х50 мм, крафт, карт., 60 шт/упак "OSQ" Eco Fold Box</t>
   </si>
   <si>
+    <t>113909</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру d100хh10 мм, прозр., ПП, 25 шт/упак "OSQ" Round Bowl PP lid</t>
+  </si>
+  <si>
     <t>114003</t>
   </si>
   <si>
@@ -352,18 +424,48 @@
     <t>Упаковка [коробка] для сэндвичей 130х130х40 мм, с окном, неразъем.крышка, крафт-бел., карт., 50 шт/у</t>
   </si>
   <si>
+    <t>114509</t>
+  </si>
+  <si>
+    <t>Контейнер 1000 мл, 200х120х40 мм, с окном, неразъем.крышка, крафт-бел., карт., 25 шт/упак "OSQ" Eco </t>
+  </si>
+  <si>
+    <t>114517</t>
+  </si>
+  <si>
+    <t>Супница 500 мл, d100хh95 мм, без крышки, крафт-бел., карт., 30 шт/упак "OSQ" Round Bowl</t>
+  </si>
+  <si>
+    <t>114520</t>
+  </si>
+  <si>
+    <t>Контейнер 1000 мл, d150хh77 мм, без окна, без крышки, крафт-бел., карт., 45 шт/упак "OSQ" Round Bowl</t>
+  </si>
+  <si>
     <t>114849</t>
   </si>
   <si>
     <t>Упаковка [коробка] для сэндвичей 130х130х60 мм, с окном, неразъем.крышка, крафт, карт., 50 шт/упак "</t>
   </si>
   <si>
+    <t>114851</t>
+  </si>
+  <si>
+    <t>Контейнер 1500 мл, 200х200х45 мм, с окном, неразъем.крышка, крафт-бел., карт., 25 шт/упак "OSQ" Eco </t>
+  </si>
+  <si>
     <t>114977</t>
   </si>
   <si>
     <t>Трубочки для коктейлей 210 мм, d7 мм, черн., пласт. прямые в инд. упаковке, 200 шт/упак (ООО ПК Диап</t>
   </si>
   <si>
+    <t>115168</t>
+  </si>
+  <si>
+    <t>Коробка для кондит. изделий 160х160х100 мм, с окном, неразъем.крышка, бел., карт., 25 шт/упак "OSQ" </t>
+  </si>
+  <si>
     <t>115478</t>
   </si>
   <si>
@@ -446,6 +548,42 @@
   </si>
   <si>
     <t>Упаковка для кондит. изделий 1200 мл, 1-секц. 252х173х43[226х148х39] мм, неразъем.крышка, прозр., ПЭ</t>
+  </si>
+  <si>
+    <t>115992</t>
+  </si>
+  <si>
+    <t>Контейнер 1450 мл, 260х150х40 мм, с окном, неразъем.крышка, крафт-бел., карт., 25 шт/упак "OSQ" Eco </t>
+  </si>
+  <si>
+    <t>115993</t>
+  </si>
+  <si>
+    <t>Контейнер 1555 мл, 200х200х55 мм, с окном, неразъем.крышка, крафт-бел., карт., 25 шт/упак "OSQ" Eco </t>
+  </si>
+  <si>
+    <t>115994</t>
+  </si>
+  <si>
+    <t>Коробка для торта 300х300х300 мм Эконом, без окна, крышка в компл., без руч., бел., карт., 20 шт/кор</t>
+  </si>
+  <si>
+    <t>115999</t>
+  </si>
+  <si>
+    <t>Коробка для кондит. изделий 150х100х80 мм, без окна, неразъем.крышка, бел., карт., 25 шт/упак "Forge</t>
+  </si>
+  <si>
+    <t>116000</t>
+  </si>
+  <si>
+    <t>Коробка для кондит. изделий 200х140х80 мм, без окна, неразъем.крышка, бел., карт., 25 шт/упак "Forge</t>
+  </si>
+  <si>
+    <t>116001</t>
+  </si>
+  <si>
+    <t>Коробка для кондит. изделий 240х150х60 мм, без окна, неразъем.крышка, бел., карт., 25 шт/упак "Forge</t>
   </si>
 </sst>
 </file>
@@ -583,7 +721,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H66"/>
+  <dimension ref="H89"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -879,17 +1017,17 @@
         <v>32</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>15.28</v>
+        <v>21.69</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="5" t="e"/>
       <c r="H12" s="8" t="n">
-        <v>14400</v>
-      </c>
-    </row>
-    <row r="13" ht="11" customHeight="true">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" ht="23" customHeight="true">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -903,17 +1041,17 @@
         <v>34</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>14.53</v>
+        <v>15.28</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="5" t="e"/>
       <c r="H13" s="8" t="n">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="14" ht="23" customHeight="true">
+        <v>14400</v>
+      </c>
+    </row>
+    <row r="14" ht="11" customHeight="true">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -927,14 +1065,14 @@
         <v>36</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>5.11</v>
+        <v>14.53</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="e"/>
       <c r="H14" s="8" t="n">
-        <v>5000</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="15" ht="23" customHeight="true">
@@ -951,14 +1089,14 @@
         <v>38</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>32.02</v>
+        <v>5.11</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="5" t="e"/>
       <c r="H15" s="8" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="16" ht="23" customHeight="true">
@@ -975,14 +1113,14 @@
         <v>40</v>
       </c>
       <c r="E16" s="7" t="n">
-        <v>16.7</v>
+        <v>32.02</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="5" t="e"/>
       <c r="H16" s="8" t="n">
-        <v>7200</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="17" ht="23" customHeight="true">
@@ -999,14 +1137,14 @@
         <v>42</v>
       </c>
       <c r="E17" s="7" t="n">
-        <v>42.98</v>
+        <v>51.27</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="5" t="e"/>
-      <c r="H17" s="8" t="n">
-        <v>4200</v>
+      <c r="H17" s="6" t="n">
+        <v>750</v>
       </c>
     </row>
     <row r="18" ht="23" customHeight="true">
@@ -1023,17 +1161,17 @@
         <v>44</v>
       </c>
       <c r="E18" s="7" t="n">
-        <v>10.66</v>
+        <v>32.9</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="5" t="e"/>
       <c r="H18" s="8" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="19" ht="11" customHeight="true">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" ht="23" customHeight="true">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -1047,14 +1185,14 @@
         <v>46</v>
       </c>
       <c r="E19" s="7" t="n">
-        <v>5.34</v>
+        <v>16.7</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="5" t="e"/>
       <c r="H19" s="8" t="n">
-        <v>38880</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="20" ht="23" customHeight="true">
@@ -1071,14 +1209,14 @@
         <v>48</v>
       </c>
       <c r="E20" s="7" t="n">
-        <v>24.96</v>
+        <v>42.98</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="5" t="e"/>
       <c r="H20" s="8" t="n">
-        <v>5000</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="21" ht="23" customHeight="true">
@@ -1095,17 +1233,17 @@
         <v>50</v>
       </c>
       <c r="E21" s="7" t="n">
-        <v>11.99</v>
+        <v>10.66</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="5" t="e"/>
       <c r="H21" s="8" t="n">
-        <v>15600</v>
-      </c>
-    </row>
-    <row r="22" ht="11" customHeight="true">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="22" ht="23" customHeight="true">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1118,15 +1256,13 @@
       <c r="D22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="7" t="n">
-        <v>29.68</v>
-      </c>
+      <c r="E22" s="3" t="e"/>
       <c r="F22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="5" t="e"/>
-      <c r="H22" s="8" t="n">
-        <v>28000</v>
+      <c r="H22" s="6" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="23" ht="11" customHeight="true">
@@ -1143,14 +1279,14 @@
         <v>54</v>
       </c>
       <c r="E23" s="7" t="n">
-        <v>36.58</v>
+        <v>5.34</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="5" t="e"/>
       <c r="H23" s="8" t="n">
-        <v>4200</v>
+        <v>38880</v>
       </c>
     </row>
     <row r="24" ht="23" customHeight="true">
@@ -1167,17 +1303,17 @@
         <v>56</v>
       </c>
       <c r="E24" s="7" t="n">
-        <v>27.28</v>
+        <v>29.54</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="5" t="e"/>
       <c r="H24" s="8" t="n">
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="25" ht="11" customHeight="true">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="25" ht="23" customHeight="true">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
@@ -1191,17 +1327,17 @@
         <v>58</v>
       </c>
       <c r="E25" s="7" t="n">
-        <v>4.5</v>
+        <v>24.96</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="5" t="e"/>
       <c r="H25" s="8" t="n">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="26" ht="11" customHeight="true">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="26" ht="23" customHeight="true">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1215,14 +1351,14 @@
         <v>60</v>
       </c>
       <c r="E26" s="7" t="n">
-        <v>3.09</v>
+        <v>11.99</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="5" t="e"/>
       <c r="H26" s="8" t="n">
-        <v>300000</v>
+        <v>15600</v>
       </c>
     </row>
     <row r="27" ht="11" customHeight="true">
@@ -1238,15 +1374,15 @@
       <c r="D27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="4" t="n">
-        <v>1214.8</v>
+      <c r="E27" s="7" t="n">
+        <v>29.68</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="5" t="e"/>
-      <c r="H27" s="6" t="n">
-        <v>150</v>
+      <c r="H27" s="8" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="28" ht="11" customHeight="true">
@@ -1263,14 +1399,14 @@
         <v>64</v>
       </c>
       <c r="E28" s="7" t="n">
-        <v>21.58</v>
+        <v>36.58</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="5" t="e"/>
       <c r="H28" s="8" t="n">
-        <v>16200</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="29" ht="23" customHeight="true">
@@ -1287,17 +1423,17 @@
         <v>66</v>
       </c>
       <c r="E29" s="7" t="n">
-        <v>19.96</v>
+        <v>203.14</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="5" t="e"/>
-      <c r="H29" s="8" t="n">
-        <v>14400</v>
-      </c>
-    </row>
-    <row r="30" ht="11" customHeight="true">
+      <c r="H29" s="6" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" ht="23" customHeight="true">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -1311,14 +1447,14 @@
         <v>68</v>
       </c>
       <c r="E30" s="7" t="n">
-        <v>15.63</v>
+        <v>27.28</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="5" t="e"/>
       <c r="H30" s="8" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="31" ht="11" customHeight="true">
@@ -1335,14 +1471,14 @@
         <v>70</v>
       </c>
       <c r="E31" s="7" t="n">
-        <v>18.14</v>
+        <v>4.5</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="5" t="e"/>
       <c r="H31" s="8" t="n">
-        <v>210000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="32" ht="11" customHeight="true">
@@ -1359,17 +1495,17 @@
         <v>72</v>
       </c>
       <c r="E32" s="7" t="n">
-        <v>19.73</v>
+        <v>3.09</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="5" t="e"/>
       <c r="H32" s="8" t="n">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="33" ht="23" customHeight="true">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="33" ht="11" customHeight="true">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
@@ -1382,18 +1518,18 @@
       <c r="D33" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="7" t="n">
-        <v>6.71</v>
+      <c r="E33" s="4" t="n">
+        <v>1214.8</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="5" t="e"/>
-      <c r="H33" s="8" t="n">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="34" ht="23" customHeight="true">
+      <c r="H33" s="6" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" ht="11" customHeight="true">
       <c r="A34" s="3" t="s">
         <v>8</v>
       </c>
@@ -1407,14 +1543,14 @@
         <v>76</v>
       </c>
       <c r="E34" s="7" t="n">
-        <v>6.71</v>
+        <v>21.58</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="5" t="e"/>
       <c r="H34" s="8" t="n">
-        <v>160000</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="35" ht="23" customHeight="true">
@@ -1431,14 +1567,14 @@
         <v>78</v>
       </c>
       <c r="E35" s="7" t="n">
-        <v>5.26</v>
+        <v>19.96</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="5" t="e"/>
       <c r="H35" s="8" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="36" ht="23" customHeight="true">
@@ -1455,14 +1591,14 @@
         <v>80</v>
       </c>
       <c r="E36" s="7" t="n">
-        <v>5.4</v>
+        <v>169.33</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="5" t="e"/>
-      <c r="H36" s="8" t="n">
-        <v>21000</v>
+      <c r="H36" s="6" t="n">
+        <v>960</v>
       </c>
     </row>
     <row r="37" ht="23" customHeight="true">
@@ -1479,17 +1615,17 @@
         <v>82</v>
       </c>
       <c r="E37" s="7" t="n">
-        <v>5.75</v>
+        <v>167.77</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="5" t="e"/>
-      <c r="H37" s="8" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="38" ht="11" customHeight="true">
+      <c r="H37" s="6" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="38" ht="23" customHeight="true">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
@@ -1503,17 +1639,17 @@
         <v>84</v>
       </c>
       <c r="E38" s="7" t="n">
-        <v>8.34</v>
+        <v>28.92</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="5" t="e"/>
       <c r="H38" s="8" t="n">
-        <v>69000</v>
-      </c>
-    </row>
-    <row r="39" ht="23" customHeight="true">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="39" ht="11" customHeight="true">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -1527,17 +1663,17 @@
         <v>86</v>
       </c>
       <c r="E39" s="7" t="n">
-        <v>8.49</v>
+        <v>27.9</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="5" t="e"/>
       <c r="H39" s="8" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="40" ht="11" customHeight="true">
+        <v>8370</v>
+      </c>
+    </row>
+    <row r="40" ht="23" customHeight="true">
       <c r="A40" s="3" t="s">
         <v>8</v>
       </c>
@@ -1551,14 +1687,14 @@
         <v>88</v>
       </c>
       <c r="E40" s="7" t="n">
-        <v>3.86</v>
+        <v>159.42</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="5" t="e"/>
       <c r="H40" s="8" t="n">
-        <v>10000</v>
+        <v>28620</v>
       </c>
     </row>
     <row r="41" ht="11" customHeight="true">
@@ -1575,17 +1711,17 @@
         <v>90</v>
       </c>
       <c r="E41" s="7" t="n">
-        <v>33.21</v>
+        <v>15.63</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="5" t="e"/>
       <c r="H41" s="8" t="n">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="42" ht="23" customHeight="true">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="42" ht="11" customHeight="true">
       <c r="A42" s="3" t="s">
         <v>8</v>
       </c>
@@ -1599,17 +1735,17 @@
         <v>92</v>
       </c>
       <c r="E42" s="7" t="n">
-        <v>39.86</v>
+        <v>18.14</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="5" t="e"/>
-      <c r="H42" s="6" t="n">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="43" ht="23" customHeight="true">
+      <c r="H42" s="8" t="n">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="43" ht="11" customHeight="true">
       <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
@@ -1623,14 +1759,14 @@
         <v>94</v>
       </c>
       <c r="E43" s="7" t="n">
-        <v>18.69</v>
+        <v>19.73</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="5" t="e"/>
       <c r="H43" s="8" t="n">
-        <v>7200</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="44" ht="23" customHeight="true">
@@ -1647,14 +1783,14 @@
         <v>96</v>
       </c>
       <c r="E44" s="7" t="n">
-        <v>24.46</v>
+        <v>6.71</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="5" t="e"/>
       <c r="H44" s="8" t="n">
-        <v>1800</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="45" ht="23" customHeight="true">
@@ -1671,14 +1807,14 @@
         <v>98</v>
       </c>
       <c r="E45" s="7" t="n">
-        <v>20.02</v>
+        <v>6.71</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="5" t="e"/>
       <c r="H45" s="8" t="n">
-        <v>129600</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="46" ht="23" customHeight="true">
@@ -1695,14 +1831,14 @@
         <v>100</v>
       </c>
       <c r="E46" s="7" t="n">
-        <v>5.52</v>
+        <v>5.26</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="5" t="e"/>
       <c r="H46" s="8" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="47" ht="23" customHeight="true">
@@ -1719,17 +1855,17 @@
         <v>102</v>
       </c>
       <c r="E47" s="7" t="n">
-        <v>9.07</v>
+        <v>5.4</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="5" t="e"/>
       <c r="H47" s="8" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="48" ht="11" customHeight="true">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="48" ht="23" customHeight="true">
       <c r="A48" s="3" t="s">
         <v>8</v>
       </c>
@@ -1742,16 +1878,18 @@
       <c r="D48" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E48" s="3" t="e"/>
+      <c r="E48" s="7" t="n">
+        <v>5.75</v>
+      </c>
       <c r="F48" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="5" t="e"/>
-      <c r="H48" s="6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" ht="23" customHeight="true">
+      <c r="H48" s="8" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="49" ht="11" customHeight="true">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
@@ -1765,14 +1903,14 @@
         <v>106</v>
       </c>
       <c r="E49" s="7" t="n">
-        <v>25.55</v>
+        <v>8.34</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="5" t="e"/>
-      <c r="H49" s="6" t="n">
-        <v>720</v>
+      <c r="H49" s="8" t="n">
+        <v>69000</v>
       </c>
     </row>
     <row r="50" ht="23" customHeight="true">
@@ -1789,17 +1927,17 @@
         <v>108</v>
       </c>
       <c r="E50" s="7" t="n">
-        <v>21.96</v>
+        <v>8.49</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G50" s="5" t="e"/>
       <c r="H50" s="8" t="n">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="51" ht="23" customHeight="true">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="51" ht="11" customHeight="true">
       <c r="A51" s="3" t="s">
         <v>8</v>
       </c>
@@ -1813,17 +1951,17 @@
         <v>110</v>
       </c>
       <c r="E51" s="7" t="n">
-        <v>27.79</v>
+        <v>3.86</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G51" s="5" t="e"/>
       <c r="H51" s="8" t="n">
-        <v>12600</v>
-      </c>
-    </row>
-    <row r="52" ht="23" customHeight="true">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="52" ht="11" customHeight="true">
       <c r="A52" s="3" t="s">
         <v>8</v>
       </c>
@@ -1837,14 +1975,14 @@
         <v>112</v>
       </c>
       <c r="E52" s="7" t="n">
-        <v>416.96</v>
+        <v>33.21</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G52" s="5" t="e"/>
       <c r="H52" s="8" t="n">
-        <v>1125</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="53" ht="23" customHeight="true">
@@ -1860,16 +1998,18 @@
       <c r="D53" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E53" s="3" t="e"/>
+      <c r="E53" s="7" t="n">
+        <v>39.86</v>
+      </c>
       <c r="F53" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G53" s="5" t="e"/>
-      <c r="H53" s="8" t="n">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="54" ht="23" customHeight="true">
+      <c r="H53" s="6" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="54" ht="11" customHeight="true">
       <c r="A54" s="3" t="s">
         <v>8</v>
       </c>
@@ -1883,14 +2023,14 @@
         <v>116</v>
       </c>
       <c r="E54" s="7" t="n">
-        <v>108.95</v>
+        <v>15.62</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G54" s="5" t="e"/>
-      <c r="H54" s="6" t="n">
-        <v>175</v>
+      <c r="H54" s="8" t="n">
+        <v>4950</v>
       </c>
     </row>
     <row r="55" ht="23" customHeight="true">
@@ -1907,14 +2047,14 @@
         <v>118</v>
       </c>
       <c r="E55" s="7" t="n">
-        <v>34.18</v>
+        <v>18.69</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G55" s="5" t="e"/>
       <c r="H55" s="8" t="n">
-        <v>6000</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="56" ht="23" customHeight="true">
@@ -1930,13 +2070,15 @@
       <c r="D56" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E56" s="3" t="e"/>
+      <c r="E56" s="7" t="n">
+        <v>24.46</v>
+      </c>
       <c r="F56" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G56" s="5" t="e"/>
       <c r="H56" s="8" t="n">
-        <v>6000</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="57" ht="23" customHeight="true">
@@ -1953,17 +2095,17 @@
         <v>122</v>
       </c>
       <c r="E57" s="7" t="n">
-        <v>207.46</v>
+        <v>20.02</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G57" s="5" t="e"/>
-      <c r="H57" s="6" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" ht="11" customHeight="true">
+      <c r="H57" s="8" t="n">
+        <v>129600</v>
+      </c>
+    </row>
+    <row r="58" ht="23" customHeight="true">
       <c r="A58" s="3" t="s">
         <v>8</v>
       </c>
@@ -1976,13 +2118,15 @@
       <c r="D58" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E58" s="3" t="e"/>
+      <c r="E58" s="7" t="n">
+        <v>5.52</v>
+      </c>
       <c r="F58" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G58" s="5" t="e"/>
       <c r="H58" s="8" t="n">
-        <v>350000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="59" ht="23" customHeight="true">
@@ -1998,16 +2142,18 @@
       <c r="D59" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E59" s="3" t="e"/>
+      <c r="E59" s="7" t="n">
+        <v>9.07</v>
+      </c>
       <c r="F59" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G59" s="5" t="e"/>
       <c r="H59" s="8" t="n">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="60" ht="23" customHeight="true">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="60" ht="11" customHeight="true">
       <c r="A60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2025,8 +2171,8 @@
         <v>12</v>
       </c>
       <c r="G60" s="5" t="e"/>
-      <c r="H60" s="8" t="n">
-        <v>10000</v>
+      <c r="H60" s="6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="61" ht="23" customHeight="true">
@@ -2042,16 +2188,18 @@
       <c r="D61" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E61" s="3" t="e"/>
+      <c r="E61" s="7" t="n">
+        <v>25.55</v>
+      </c>
       <c r="F61" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G61" s="5" t="e"/>
-      <c r="H61" s="8" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="62" ht="11" customHeight="true">
+      <c r="H61" s="6" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="62" ht="23" customHeight="true">
       <c r="A62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2064,13 +2212,15 @@
       <c r="D62" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E62" s="3" t="e"/>
+      <c r="E62" s="7" t="n">
+        <v>21.96</v>
+      </c>
       <c r="F62" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G62" s="5" t="e"/>
       <c r="H62" s="8" t="n">
-        <v>75000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="63" ht="23" customHeight="true">
@@ -2086,13 +2236,15 @@
       <c r="D63" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E63" s="3" t="e"/>
+      <c r="E63" s="7" t="n">
+        <v>44.57</v>
+      </c>
       <c r="F63" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G63" s="5" t="e"/>
       <c r="H63" s="8" t="n">
-        <v>20000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="64" ht="23" customHeight="true">
@@ -2108,13 +2260,15 @@
       <c r="D64" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E64" s="3" t="e"/>
+      <c r="E64" s="7" t="n">
+        <v>20.89</v>
+      </c>
       <c r="F64" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G64" s="5" t="e"/>
       <c r="H64" s="8" t="n">
-        <v>1500</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="65" ht="23" customHeight="true">
@@ -2130,13 +2284,15 @@
       <c r="D65" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E65" s="3" t="e"/>
+      <c r="E65" s="7" t="n">
+        <v>30</v>
+      </c>
       <c r="F65" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G65" s="5" t="e"/>
       <c r="H65" s="8" t="n">
-        <v>2000</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="66" ht="23" customHeight="true">
@@ -2152,13 +2308,533 @@
       <c r="D66" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E66" s="3" t="e"/>
+      <c r="E66" s="7" t="n">
+        <v>27.79</v>
+      </c>
       <c r="F66" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G66" s="5" t="e"/>
       <c r="H66" s="8" t="n">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="67" ht="23" customHeight="true">
+      <c r="A67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E67" s="7" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="5" t="e"/>
+      <c r="H67" s="8" t="n">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="68" ht="23" customHeight="true">
+      <c r="A68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E68" s="7" t="n">
+        <v>416.96</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="5" t="e"/>
+      <c r="H68" s="8" t="n">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="69" ht="23" customHeight="true">
+      <c r="A69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E69" s="7" t="n">
+        <v>142.23</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="5" t="e"/>
+      <c r="H69" s="6" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" ht="23" customHeight="true">
+      <c r="A70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E70" s="3" t="e"/>
+      <c r="F70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="5" t="e"/>
+      <c r="H70" s="8" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="71" ht="23" customHeight="true">
+      <c r="A71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E71" s="7" t="n">
+        <v>108.95</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="5" t="e"/>
+      <c r="H71" s="6" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="72" ht="23" customHeight="true">
+      <c r="A72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E72" s="7" t="n">
+        <v>34.18</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="5" t="e"/>
+      <c r="H72" s="8" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="73" ht="23" customHeight="true">
+      <c r="A73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E73" s="3" t="e"/>
+      <c r="F73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="5" t="e"/>
+      <c r="H73" s="8" t="n">
         <v>6000</v>
+      </c>
+    </row>
+    <row r="74" ht="23" customHeight="true">
+      <c r="A74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E74" s="7" t="n">
+        <v>207.46</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="5" t="e"/>
+      <c r="H74" s="6" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" ht="11" customHeight="true">
+      <c r="A75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E75" s="3" t="e"/>
+      <c r="F75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="5" t="e"/>
+      <c r="H75" s="8" t="n">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="76" ht="23" customHeight="true">
+      <c r="A76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E76" s="3" t="e"/>
+      <c r="F76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="5" t="e"/>
+      <c r="H76" s="8" t="n">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="77" ht="23" customHeight="true">
+      <c r="A77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E77" s="3" t="e"/>
+      <c r="F77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="5" t="e"/>
+      <c r="H77" s="8" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="78" ht="23" customHeight="true">
+      <c r="A78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E78" s="3" t="e"/>
+      <c r="F78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="5" t="e"/>
+      <c r="H78" s="8" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="79" ht="11" customHeight="true">
+      <c r="A79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E79" s="3" t="e"/>
+      <c r="F79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="5" t="e"/>
+      <c r="H79" s="8" t="n">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="80" ht="23" customHeight="true">
+      <c r="A80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E80" s="3" t="e"/>
+      <c r="F80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="5" t="e"/>
+      <c r="H80" s="8" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="81" ht="23" customHeight="true">
+      <c r="A81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E81" s="3" t="e"/>
+      <c r="F81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="5" t="e"/>
+      <c r="H81" s="8" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="82" ht="23" customHeight="true">
+      <c r="A82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E82" s="3" t="e"/>
+      <c r="F82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="5" t="e"/>
+      <c r="H82" s="8" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="83" ht="23" customHeight="true">
+      <c r="A83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E83" s="3" t="e"/>
+      <c r="F83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="5" t="e"/>
+      <c r="H83" s="8" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="84" ht="23" customHeight="true">
+      <c r="A84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E84" s="3" t="e"/>
+      <c r="F84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="5" t="e"/>
+      <c r="H84" s="8" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="85" ht="23" customHeight="true">
+      <c r="A85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E85" s="3" t="e"/>
+      <c r="F85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="5" t="e"/>
+      <c r="H85" s="8" t="n">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="86" ht="23" customHeight="true">
+      <c r="A86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E86" s="3" t="e"/>
+      <c r="F86" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="5" t="e"/>
+      <c r="H86" s="6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" ht="23" customHeight="true">
+      <c r="A87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E87" s="3" t="e"/>
+      <c r="F87" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="5" t="e"/>
+      <c r="H87" s="6" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="88" ht="23" customHeight="true">
+      <c r="A88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E88" s="3" t="e"/>
+      <c r="F88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="5" t="e"/>
+      <c r="H88" s="6" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="89" ht="23" customHeight="true">
+      <c r="A89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E89" s="3" t="e"/>
+      <c r="F89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="5" t="e"/>
+      <c r="H89" s="6" t="n">
+        <v>750</v>
       </c>
     </row>
   </sheetData>

--- a/data/В пути АЛМ.xlsx
+++ b/data/В пути АЛМ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>Дата</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>28.03.2024 0:00:00</t>
+    <t>29.03.2024 0:00:00</t>
   </si>
   <si>
     <t>Алматы в Пути</t>
@@ -256,6 +256,12 @@
     <t>Мешок для мусора 60 л, 62х74 см, черн., ПНД, 50 шт/рул "МИСТЕРИЯ"</t>
   </si>
   <si>
+    <t>112483</t>
+  </si>
+  <si>
+    <t>Пакет [320+200]х370 мм с плоск. ручками, крафт, бум., 250 шт/кор (ООО Тек-Пак)</t>
+  </si>
+  <si>
     <t>112485</t>
   </si>
   <si>
@@ -268,6 +274,30 @@
     <t>Размешиватель 180 мм, древ. волокно, 1000 шт/упак (ООО Компания Лемио)</t>
   </si>
   <si>
+    <t>112806</t>
+  </si>
+  <si>
+    <t>Обертка для бургеров и хот-догов 305х305 мм, бел., бум., 1000 шт/кор (ООО Тек-Пак)</t>
+  </si>
+  <si>
+    <t>112808</t>
+  </si>
+  <si>
+    <t>Обертка для бургеров и хот-догов 105х450 мм, беж., бум., 1000 шт/кор (ООО Тек-Пак)</t>
+  </si>
+  <si>
+    <t>112831</t>
+  </si>
+  <si>
+    <t>Пакет [260+150]х350 мм с круч. ручками, крафт, бум., 350 шт/кор (ООО Тек-Пак)</t>
+  </si>
+  <si>
+    <t>113015</t>
+  </si>
+  <si>
+    <t>Пакет на вынос [120+80]х250 мм S без ручек, крафт, бум., 1000 шт/кор (ООО Тек-Пак)</t>
+  </si>
+  <si>
     <t>113206</t>
   </si>
   <si>
@@ -298,6 +328,42 @@
     <t>Освежитель воздуха "Flower shop" После дождя, аэрозоль, 300м</t>
   </si>
   <si>
+    <t>113920</t>
+  </si>
+  <si>
+    <t>Пакет [240+140]х280 мм с круч. ручками, крафт, бум., 300 шт/кор (ООО Тек-Пак)</t>
+  </si>
+  <si>
+    <t>113923</t>
+  </si>
+  <si>
+    <t>Пакет пищевой [100+60]х300 мм без руч., без окна, крафт, бум., 2000 шт/кор (ООО Тек-Пак)</t>
+  </si>
+  <si>
+    <t>113926</t>
+  </si>
+  <si>
+    <t>Пакет [240+140]х280 мм с плоск. ручками, крафт, бум., 300 шт/кор (ООО Тек-Пак)</t>
+  </si>
+  <si>
+    <t>113933</t>
+  </si>
+  <si>
+    <t>Пакет [220+120]х250 мм с круч. ручками, крафт, бум., 250 шт/кор (ООО Тек-Пак)</t>
+  </si>
+  <si>
+    <t>113934</t>
+  </si>
+  <si>
+    <t>Пакет на вынос [260+150]х340 мм M без ручек, крафт, бум., 450 шт/кор (ООО Тек-Пак)</t>
+  </si>
+  <si>
+    <t>113936</t>
+  </si>
+  <si>
+    <t>Обертка для бургеров и хот-догов 305х305 мм, диз. "Газета", черно-бел., бум., 1000 шт/кор (ООО Тек-П</t>
+  </si>
+  <si>
     <t>114232</t>
   </si>
   <si>
@@ -320,6 +386,12 @@
   </si>
   <si>
     <t>Ложка одноразовая 140 мм, бел., кукурузный крахмал, 50 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>116072</t>
+  </si>
+  <si>
+    <t>Пакет на вынос [110+40]х600 мм S без ручек, крафт, бум., 1000 шт/кор (ООО Тек-Пак)</t>
   </si>
   <si>
     <t>450744</t>
@@ -463,7 +535,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H46"/>
+  <dimension ref="H58"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -1310,15 +1382,15 @@
       <c r="D35" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="8" t="n">
-        <v>3634.53</v>
+      <c r="E35" s="4" t="n">
+        <v>33.97</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="5" t="e"/>
-      <c r="H35" s="6" t="n">
-        <v>100</v>
+      <c r="H35" s="7" t="n">
+        <v>5500</v>
       </c>
     </row>
     <row r="36" ht="11" customHeight="true">
@@ -1334,15 +1406,15 @@
       <c r="D36" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="4" t="n">
-        <v>1.31</v>
+      <c r="E36" s="8" t="n">
+        <v>3634.53</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="5" t="e"/>
-      <c r="H36" s="7" t="n">
-        <v>20000</v>
+      <c r="H36" s="6" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="37" ht="11" customHeight="true">
@@ -1359,17 +1431,17 @@
         <v>82</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>15.63</v>
+        <v>1.31</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="5" t="e"/>
       <c r="H37" s="7" t="n">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="38" ht="23" customHeight="true">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="38" ht="11" customHeight="true">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
@@ -1383,14 +1455,14 @@
         <v>84</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>283.34</v>
+        <v>4.08</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="5" t="e"/>
-      <c r="H38" s="6" t="n">
-        <v>40</v>
+      <c r="H38" s="7" t="n">
+        <v>120000</v>
       </c>
     </row>
     <row r="39" ht="11" customHeight="true">
@@ -1407,14 +1479,14 @@
         <v>86</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>238.63</v>
+        <v>2.81</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="5" t="e"/>
-      <c r="H39" s="6" t="n">
-        <v>24</v>
+      <c r="H39" s="7" t="n">
+        <v>240000</v>
       </c>
     </row>
     <row r="40" ht="11" customHeight="true">
@@ -1431,14 +1503,14 @@
         <v>88</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>238.63</v>
+        <v>32.97</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="5" t="e"/>
-      <c r="H40" s="6" t="n">
-        <v>24</v>
+      <c r="H40" s="7" t="n">
+        <v>8400</v>
       </c>
     </row>
     <row r="41" ht="11" customHeight="true">
@@ -1455,17 +1527,17 @@
         <v>90</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>238.63</v>
+        <v>5.75</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="5" t="e"/>
-      <c r="H41" s="6" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" ht="23" customHeight="true">
+      <c r="H41" s="7" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="42" ht="11" customHeight="true">
       <c r="A42" s="3" t="s">
         <v>8</v>
       </c>
@@ -1478,13 +1550,15 @@
       <c r="D42" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E42" s="3" t="e"/>
+      <c r="E42" s="4" t="n">
+        <v>15.63</v>
+      </c>
       <c r="F42" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="5" t="e"/>
       <c r="H42" s="7" t="n">
-        <v>2400</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="43" ht="23" customHeight="true">
@@ -1500,15 +1574,15 @@
       <c r="D43" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="8" t="n">
-        <v>3638.22</v>
+      <c r="E43" s="4" t="n">
+        <v>283.34</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="5" t="e"/>
       <c r="H43" s="6" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" ht="11" customHeight="true">
@@ -1525,14 +1599,14 @@
         <v>96</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>92.85</v>
+        <v>238.63</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="5" t="e"/>
-      <c r="H44" s="7" t="n">
-        <v>12600</v>
+      <c r="H44" s="6" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="11" customHeight="true">
@@ -1548,13 +1622,15 @@
       <c r="D45" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E45" s="3" t="e"/>
+      <c r="E45" s="4" t="n">
+        <v>238.63</v>
+      </c>
       <c r="F45" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="5" t="e"/>
-      <c r="H45" s="7" t="n">
-        <v>5000</v>
+      <c r="H45" s="6" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="46" ht="11" customHeight="true">
@@ -1571,13 +1647,295 @@
         <v>100</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>439.86</v>
+        <v>238.63</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="5" t="e"/>
       <c r="H46" s="6" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" ht="11" customHeight="true">
+      <c r="A47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="4" t="n">
+        <v>27.77</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="5" t="e"/>
+      <c r="H47" s="7" t="n">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="48" ht="23" customHeight="true">
+      <c r="A48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="4" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="5" t="e"/>
+      <c r="H48" s="7" t="n">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="49" ht="11" customHeight="true">
+      <c r="A49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" s="4" t="n">
+        <v>24.64</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="5" t="e"/>
+      <c r="H49" s="7" t="n">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="50" ht="11" customHeight="true">
+      <c r="A50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" s="4" t="n">
+        <v>25.94</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="5" t="e"/>
+      <c r="H50" s="7" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="51" ht="11" customHeight="true">
+      <c r="A51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="4" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="5" t="e"/>
+      <c r="H51" s="7" t="n">
+        <v>6750</v>
+      </c>
+    </row>
+    <row r="52" ht="23" customHeight="true">
+      <c r="A52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" s="4" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="5" t="e"/>
+      <c r="H52" s="7" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="53" ht="23" customHeight="true">
+      <c r="A53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" s="3" t="e"/>
+      <c r="F53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="5" t="e"/>
+      <c r="H53" s="7" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="54" ht="23" customHeight="true">
+      <c r="A54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>3638.22</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="5" t="e"/>
+      <c r="H54" s="6" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="11" customHeight="true">
+      <c r="A55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" s="4" t="n">
+        <v>92.85</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="5" t="e"/>
+      <c r="H55" s="7" t="n">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="56" ht="11" customHeight="true">
+      <c r="A56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E56" s="3" t="e"/>
+      <c r="F56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="5" t="e"/>
+      <c r="H56" s="7" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="57" ht="11" customHeight="true">
+      <c r="A57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" s="3" t="e"/>
+      <c r="F57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="5" t="e"/>
+      <c r="H57" s="7" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="58" ht="11" customHeight="true">
+      <c r="A58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E58" s="4" t="n">
+        <v>439.86</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="5" t="e"/>
+      <c r="H58" s="6" t="n">
         <v>8</v>
       </c>
     </row>

--- a/data/В пути АЛМ.xlsx
+++ b/data/В пути АЛМ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>Дата</t>
   </si>
@@ -49,19 +49,37 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>29.03.2024 0:00:00</t>
+    <t>03.04.2024 0:00:00</t>
   </si>
   <si>
     <t>Алматы в Пути</t>
   </si>
   <si>
+    <t>187430</t>
+  </si>
+  <si>
+    <t>Набор одноразовой посуды "Шашлычок" [6 стак. 200 мл, ПП+ 6 тар. d167 мм, ПС+6 вил.+6 салф.]</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
     <t>187320</t>
   </si>
   <si>
     <t>Набор одноразовой посуды "Пикник Мистерия" [12 стак. 200 мл, ПП+12 тар. d205 мм, ПС+12 вил.]</t>
   </si>
   <si>
-    <t>Нет</t>
+    <t>187050</t>
+  </si>
+  <si>
+    <t>Набор одноразовой посуды "Пикничок" [6 стак. 200 мл, ПП+6 тар. d205 мм, ПС+6 вил.+ 6 нож.+6 салф.]</t>
+  </si>
+  <si>
+    <t>187160</t>
+  </si>
+  <si>
+    <t>Набор одноразовой посуды "Премиум чайный" [6 стак. 200 мл, ПП+6 тар. d167 мм, ПС+6 ч. лож.+6 вил.+6 </t>
   </si>
   <si>
     <t>187011</t>
@@ -94,6 +112,12 @@
     <t>Трубочки для коктейлей 210 мм, d5 мм, красно-бел., пласт. с гофроизгибом, 50 шт/упак "МИСТЕРИЯ"</t>
   </si>
   <si>
+    <t>102185</t>
+  </si>
+  <si>
+    <t>Мешок для мусора 120 л, [50+20]х110 см Суперпрочный, черн., ПВД, 10 шт/рул (ООО Техинвест Плюс)</t>
+  </si>
+  <si>
     <t>102186</t>
   </si>
   <si>
@@ -118,6 +142,30 @@
     <t>Стакан одноразовый 100 мл, прозр., ПП, 100 шт/упак (ООО Флайпак-С)</t>
   </si>
   <si>
+    <t>104280</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 200 мл, прозр., ПП, 100 шт/упак (ООО Флайпак-С)</t>
+  </si>
+  <si>
+    <t>115417</t>
+  </si>
+  <si>
+    <t>Стакан-шейкер одноразовый 300 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>103127</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d95 мм плоская с отверстием, прозр., ПЭТ, 25 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>291076</t>
+  </si>
+  <si>
+    <t>Бутылка ПЭТ 100 мл, квадр., прозр., горло d38 мм, крышка в компл., 600 шт/кор (ООО Мастерпэт)</t>
+  </si>
+  <si>
     <t>451459</t>
   </si>
   <si>
@@ -190,6 +238,18 @@
     <t>Пакет для картофеля фри 140х110 мм, диз. "Рог изобилия", разноцв., бум., 100 шт/упак (ООО ФлексаПрин</t>
   </si>
   <si>
+    <t>107468</t>
+  </si>
+  <si>
+    <t>Капхолдер [манжета] 270х55 мм, крафт, карт., 50 шт/упак (ООО ПК Растр)</t>
+  </si>
+  <si>
+    <t>181461</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 200 мл, зел., ПП, 6 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
     <t>191230</t>
   </si>
   <si>
@@ -202,6 +262,18 @@
     <t>Тарелка одноразовая мелкая d172 мм, бел., сах. тростник, 50 шт/упак "GREEN MYSTERY"</t>
   </si>
   <si>
+    <t>181371</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 200 мл, син., ПП, 6 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>181341</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 200 мл, красн., ПП, 6 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
     <t>106521</t>
   </si>
   <si>
@@ -214,12 +286,66 @@
     <t>Вилка одноразовая 162 мм, бел., кукурузный крахмал, 50 шт/упак (ООО ВЗЛП)</t>
   </si>
   <si>
+    <t>181155</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 200 мл, бел., ПП, 12 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>181232</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 200 мл, прозр., ПП, 12 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
     <t>107501</t>
   </si>
   <si>
     <t>Стакан одноразовый 500 мл, диз. "Факел", прозр., ПП, 12 шт/упак "МИСТЕРИЯ"</t>
   </si>
   <si>
+    <t>181311</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 200 мл, желт., ПП, 6 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>185155</t>
+  </si>
+  <si>
+    <t>Вилка одноразовая 165 мм, бел., ПС, 12 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>108026</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая 165 мм, бел., ПС, 12 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>182956</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 250 мл 1 сл., d80 мм, диз. "Big City Life", карт., 5 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>182957</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 300 мл 1 сл., d90 мм, диз. "Big City Life", карт., 5 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>109470</t>
+  </si>
+  <si>
+    <t>Пакет вакуум. 200х300 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО Экспомаркет Техн.)</t>
+  </si>
+  <si>
+    <t>105854</t>
+  </si>
+  <si>
+    <t>Пакет вакуум. 250х350 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО Экспомаркет Техн.)</t>
+  </si>
+  <si>
     <t>191613</t>
   </si>
   <si>
@@ -244,6 +370,12 @@
     <t>Сахар порционный 5 г, стик, 1000 шт/кор (ООО Хорта)</t>
   </si>
   <si>
+    <t>112297</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 210 мм, d7 мм, черн., пласт. прямые в инд. упаковке, 500 шт/упак (ООО Экстрал</t>
+  </si>
+  <si>
     <t>112311</t>
   </si>
   <si>
@@ -301,7 +433,52 @@
     <t>113206</t>
   </si>
   <si>
-    <t>Стакан-шейкер одноразовый 300 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+    <t>113207</t>
+  </si>
+  <si>
+    <t>Стакан-шейкер одноразовый 400 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>113208</t>
+  </si>
+  <si>
+    <t>Стакан-шейкер одноразовый 500 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>113209</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d95 мм куполообразная с отверстием, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>113210</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d95 мм куполообразная без отверстия, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>113219</t>
+  </si>
+  <si>
+    <t>Контейнер 500 мл 1-секц. 108х82х106 мм, серия 108, без крышки, прозр., ПП, 100 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>113220</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 108х82х3 мм, прозр., ПП, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>113224</t>
+  </si>
+  <si>
+    <t>Контейнер 350 мл 1-секц., овал 158,3х129х41,5 мм, неразъем.крышка, прозр., ПЭТ, 700 шт/кор "Upax-Uni</t>
+  </si>
+  <si>
+    <t>113225</t>
+  </si>
+  <si>
+    <t>Контейнер 500 мл 1-секц., овал 158,3х129х54,8 мм, неразъем.крышка, прозр., ПЭТ, 700 шт/кор "Upax-Uni</t>
   </si>
   <si>
     <t>113306</t>
@@ -364,6 +541,12 @@
     <t>Обертка для бургеров и хот-догов 305х305 мм, диз. "Газета", черно-бел., бум., 1000 шт/кор (ООО Тек-П</t>
   </si>
   <si>
+    <t>114218</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d95 мм плоская с отверстием, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
     <t>114232</t>
   </si>
   <si>
@@ -382,12 +565,48 @@
     <t>Салфетки 250х250 мм 1-сл., бел., бум., 100 шт/упак (ИП Головкин С.В.)</t>
   </si>
   <si>
+    <t>114781</t>
+  </si>
+  <si>
+    <t>Пакет пищевой [100+60]х300 мм без руч., без окна, бел., бум., 1300 шт/кор (ООО Вита Групп)</t>
+  </si>
+  <si>
     <t>114961</t>
   </si>
   <si>
     <t>Ложка одноразовая 140 мм, бел., кукурузный крахмал, 50 шт/упак "GREEN MYSTERY"</t>
   </si>
   <si>
+    <t>115970</t>
+  </si>
+  <si>
+    <t>Стакан-шейкер одноразовый 200 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>116064</t>
+  </si>
+  <si>
+    <t>Контейнер 250 мл 1-секц., овал 158,3х129х30,1 мм, неразъем.крышка, прозр., ПЭТ, 700 шт/кор "Upax-Uni</t>
+  </si>
+  <si>
+    <t>116066</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 200 мл, прозр., ПП, 100 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>116067</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 330 мл, прозр., ПП, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>116068</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 500 мл, прозр., ПП, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
     <t>116072</t>
   </si>
   <si>
@@ -398,6 +617,12 @@
   </si>
   <si>
     <t>Бумага туалетная 2-сл. "Focus" Economic Choice, бел., 16,2 м, 8 рул/упак</t>
+  </si>
+  <si>
+    <t>108563</t>
+  </si>
+  <si>
+    <t>Бумага туалетная для диспенсеров 1-сл. "Focus" Eco Jumbo, бел., 200 м</t>
   </si>
 </sst>
 </file>
@@ -535,7 +760,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H58"/>
+  <dimension ref="H96"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -591,14 +816,14 @@
         <v>11</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>243.64</v>
+        <v>146.54</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="5" t="e"/>
       <c r="H2" s="6" t="n">
-        <v>225</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3" ht="23" customHeight="true">
@@ -615,17 +840,17 @@
         <v>14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>165.96</v>
+        <v>243.64</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="5" t="e"/>
-      <c r="H3" s="7" t="n">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="4" ht="11" customHeight="true">
+      <c r="H3" s="6" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" ht="23" customHeight="true">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -638,18 +863,18 @@
       <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8" t="n">
-        <v>1556.63</v>
+      <c r="E4" s="4" t="n">
+        <v>173.22</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="5" t="e"/>
-      <c r="H4" s="7" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="5" ht="11" customHeight="true">
+      <c r="H4" s="6" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="5" ht="23" customHeight="true">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -662,15 +887,15 @@
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="8" t="n">
-        <v>1080.14</v>
+      <c r="E5" s="4" t="n">
+        <v>151.4</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="5" t="e"/>
       <c r="H5" s="6" t="n">
-        <v>35</v>
+        <v>900</v>
       </c>
     </row>
     <row r="6" ht="23" customHeight="true">
@@ -686,18 +911,18 @@
       <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="8" t="n">
-        <v>1894.82</v>
+      <c r="E6" s="4" t="n">
+        <v>165.96</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="5" t="e"/>
-      <c r="H6" s="6" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" ht="23" customHeight="true">
+      <c r="H6" s="7" t="n">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="7" ht="11" customHeight="true">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -710,8 +935,8 @@
       <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>78.22</v>
+      <c r="E7" s="8" t="n">
+        <v>1556.63</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
@@ -721,7 +946,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="8" ht="23" customHeight="true">
+    <row r="8" ht="11" customHeight="true">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -734,15 +959,15 @@
       <c r="D8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>421.91</v>
+      <c r="E8" s="8" t="n">
+        <v>1080.14</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="5" t="e"/>
       <c r="H8" s="6" t="n">
-        <v>550</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" ht="23" customHeight="true">
@@ -759,17 +984,17 @@
         <v>26</v>
       </c>
       <c r="E9" s="8" t="n">
-        <v>2773.77</v>
+        <v>1894.82</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="5" t="e"/>
       <c r="H9" s="6" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" ht="11" customHeight="true">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" ht="23" customHeight="true">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -782,18 +1007,18 @@
       <c r="D10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="8" t="n">
-        <v>4143.73</v>
+      <c r="E10" s="4" t="n">
+        <v>78.22</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="5" t="e"/>
-      <c r="H10" s="6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" ht="11" customHeight="true">
+      <c r="H10" s="7" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="11" ht="23" customHeight="true">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -807,14 +1032,14 @@
         <v>30</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>2.41</v>
+        <v>308.54</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="5" t="e"/>
-      <c r="H11" s="7" t="n">
-        <v>186000</v>
+      <c r="H11" s="6" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="12" ht="23" customHeight="true">
@@ -831,14 +1056,14 @@
         <v>32</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>401.17</v>
+        <v>421.91</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="5" t="e"/>
       <c r="H12" s="6" t="n">
-        <v>12</v>
+        <v>550</v>
       </c>
     </row>
     <row r="13" ht="23" customHeight="true">
@@ -855,17 +1080,17 @@
         <v>34</v>
       </c>
       <c r="E13" s="8" t="n">
-        <v>3207.52</v>
+        <v>2773.77</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="5" t="e"/>
       <c r="H13" s="6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" ht="23" customHeight="true">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" ht="11" customHeight="true">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -878,18 +1103,18 @@
       <c r="D14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="4" t="n">
-        <v>20.77</v>
+      <c r="E14" s="8" t="n">
+        <v>4143.73</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="e"/>
-      <c r="H14" s="7" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="15" ht="23" customHeight="true">
+      <c r="H14" s="6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" ht="11" customHeight="true">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -903,14 +1128,14 @@
         <v>38</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>4.58</v>
+        <v>2.41</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="5" t="e"/>
       <c r="H15" s="7" t="n">
-        <v>10000</v>
+        <v>186000</v>
       </c>
     </row>
     <row r="16" ht="11" customHeight="true">
@@ -927,14 +1152,14 @@
         <v>40</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>28.28</v>
+        <v>2.96</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="5" t="e"/>
-      <c r="H16" s="6" t="n">
-        <v>300</v>
+      <c r="H16" s="7" t="n">
+        <v>360000</v>
       </c>
     </row>
     <row r="17" ht="11" customHeight="true">
@@ -951,17 +1176,17 @@
         <v>42</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>4.05</v>
+        <v>14.75</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="5" t="e"/>
       <c r="H17" s="7" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="18" ht="11" customHeight="true">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="18" ht="23" customHeight="true">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
@@ -975,17 +1200,17 @@
         <v>44</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>7.46</v>
+        <v>5.29</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="5" t="e"/>
-      <c r="H18" s="6" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="19" ht="11" customHeight="true">
+      <c r="H18" s="7" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" ht="23" customHeight="true">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -999,17 +1224,17 @@
         <v>46</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>17.2</v>
+        <v>36.15</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="5" t="e"/>
-      <c r="H19" s="6" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" ht="11" customHeight="true">
+      <c r="H19" s="7" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="20" ht="23" customHeight="true">
       <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1023,14 +1248,14 @@
         <v>48</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>34.06</v>
+        <v>401.17</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="5" t="e"/>
-      <c r="H20" s="7" t="n">
-        <v>1760</v>
+      <c r="H20" s="6" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="23" customHeight="true">
@@ -1046,15 +1271,15 @@
       <c r="D21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="4" t="n">
-        <v>30.76</v>
+      <c r="E21" s="8" t="n">
+        <v>3207.52</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="5" t="e"/>
-      <c r="H21" s="7" t="n">
-        <v>1760</v>
+      <c r="H21" s="6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22" ht="23" customHeight="true">
@@ -1071,14 +1296,14 @@
         <v>52</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>21.27</v>
+        <v>20.77</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="5" t="e"/>
       <c r="H22" s="7" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="23" ht="23" customHeight="true">
@@ -1095,17 +1320,17 @@
         <v>54</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>5.09</v>
+        <v>4.58</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="5" t="e"/>
       <c r="H23" s="7" t="n">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="24" ht="23" customHeight="true">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" ht="11" customHeight="true">
       <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
@@ -1119,17 +1344,17 @@
         <v>56</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>28.32</v>
+        <v>28.28</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="5" t="e"/>
-      <c r="H24" s="7" t="n">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="25" ht="23" customHeight="true">
+      <c r="H24" s="6" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" ht="11" customHeight="true">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
@@ -1143,7 +1368,7 @@
         <v>58</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>18.98</v>
+        <v>4.05</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>12</v>
@@ -1153,7 +1378,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="26" ht="23" customHeight="true">
+    <row r="26" ht="11" customHeight="true">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1167,14 +1392,14 @@
         <v>60</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>3.26</v>
+        <v>7.46</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="5" t="e"/>
-      <c r="H26" s="7" t="n">
-        <v>20000</v>
+      <c r="H26" s="6" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="27" ht="11" customHeight="true">
@@ -1191,14 +1416,14 @@
         <v>62</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>6.3</v>
+        <v>17.2</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="5" t="e"/>
-      <c r="H27" s="7" t="n">
-        <v>5000</v>
+      <c r="H27" s="6" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="28" ht="11" customHeight="true">
@@ -1215,17 +1440,17 @@
         <v>64</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>11.42</v>
+        <v>34.06</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="5" t="e"/>
       <c r="H28" s="7" t="n">
-        <v>12060</v>
-      </c>
-    </row>
-    <row r="29" ht="11" customHeight="true">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="29" ht="23" customHeight="true">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1239,17 +1464,17 @@
         <v>66</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>66.59</v>
+        <v>30.76</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="5" t="e"/>
-      <c r="H29" s="6" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="30" ht="11" customHeight="true">
+      <c r="H29" s="7" t="n">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="30" ht="23" customHeight="true">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -1263,17 +1488,17 @@
         <v>68</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>61.32</v>
+        <v>21.27</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="5" t="e"/>
       <c r="H30" s="7" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="31" ht="11" customHeight="true">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="31" ht="23" customHeight="true">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
@@ -1287,14 +1512,14 @@
         <v>70</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>4.04</v>
+        <v>5.09</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="5" t="e"/>
       <c r="H31" s="7" t="n">
-        <v>3600</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="32" ht="11" customHeight="true">
@@ -1311,14 +1536,14 @@
         <v>72</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>3.09</v>
+        <v>5.61</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="5" t="e"/>
       <c r="H32" s="7" t="n">
-        <v>50000</v>
+        <v>40500</v>
       </c>
     </row>
     <row r="33" ht="11" customHeight="true">
@@ -1334,18 +1559,18 @@
       <c r="D33" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="8" t="n">
-        <v>3032.07</v>
+      <c r="E33" s="4" t="n">
+        <v>5.97</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="5" t="e"/>
       <c r="H33" s="6" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" ht="11" customHeight="true">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="34" ht="23" customHeight="true">
       <c r="A34" s="3" t="s">
         <v>8</v>
       </c>
@@ -1359,17 +1584,17 @@
         <v>76</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>233.62</v>
+        <v>28.32</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="5" t="e"/>
-      <c r="H34" s="6" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" ht="11" customHeight="true">
+      <c r="H34" s="7" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="35" ht="23" customHeight="true">
       <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
@@ -1383,14 +1608,14 @@
         <v>78</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>33.97</v>
+        <v>18.98</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="5" t="e"/>
       <c r="H35" s="7" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="36" ht="11" customHeight="true">
@@ -1406,15 +1631,15 @@
       <c r="D36" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="8" t="n">
-        <v>3634.53</v>
+      <c r="E36" s="4" t="n">
+        <v>5.8</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="5" t="e"/>
       <c r="H36" s="6" t="n">
-        <v>100</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37" ht="11" customHeight="true">
@@ -1431,17 +1656,17 @@
         <v>82</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>1.31</v>
+        <v>5.8</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="5" t="e"/>
-      <c r="H37" s="7" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="38" ht="11" customHeight="true">
+      <c r="H37" s="6" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="38" ht="23" customHeight="true">
       <c r="A38" s="3" t="s">
         <v>8</v>
       </c>
@@ -1455,14 +1680,14 @@
         <v>84</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>4.08</v>
+        <v>3.26</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="5" t="e"/>
       <c r="H38" s="7" t="n">
-        <v>120000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="39" ht="11" customHeight="true">
@@ -1479,14 +1704,14 @@
         <v>86</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>2.81</v>
+        <v>6.3</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="5" t="e"/>
       <c r="H39" s="7" t="n">
-        <v>240000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="40" ht="11" customHeight="true">
@@ -1503,14 +1728,14 @@
         <v>88</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>32.97</v>
+        <v>4.48</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="5" t="e"/>
-      <c r="H40" s="7" t="n">
-        <v>8400</v>
+      <c r="H40" s="6" t="n">
+        <v>720</v>
       </c>
     </row>
     <row r="41" ht="11" customHeight="true">
@@ -1527,14 +1752,14 @@
         <v>90</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>5.75</v>
+        <v>4.48</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="5" t="e"/>
-      <c r="H41" s="7" t="n">
-        <v>5000</v>
+      <c r="H41" s="6" t="n">
+        <v>720</v>
       </c>
     </row>
     <row r="42" ht="11" customHeight="true">
@@ -1551,17 +1776,17 @@
         <v>92</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>15.63</v>
+        <v>11.42</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="5" t="e"/>
       <c r="H42" s="7" t="n">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="43" ht="23" customHeight="true">
+        <v>12420</v>
+      </c>
+    </row>
+    <row r="43" ht="11" customHeight="true">
       <c r="A43" s="3" t="s">
         <v>8</v>
       </c>
@@ -1575,14 +1800,14 @@
         <v>94</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>283.34</v>
+        <v>5.8</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="5" t="e"/>
       <c r="H43" s="6" t="n">
-        <v>40</v>
+        <v>360</v>
       </c>
     </row>
     <row r="44" ht="11" customHeight="true">
@@ -1599,14 +1824,14 @@
         <v>96</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>238.63</v>
+        <v>3.52</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="5" t="e"/>
-      <c r="H44" s="6" t="n">
-        <v>24</v>
+      <c r="H44" s="7" t="n">
+        <v>1080</v>
       </c>
     </row>
     <row r="45" ht="11" customHeight="true">
@@ -1623,17 +1848,17 @@
         <v>98</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>238.63</v>
+        <v>4.54</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="5" t="e"/>
-      <c r="H45" s="6" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" ht="11" customHeight="true">
+      <c r="H45" s="7" t="n">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="46" ht="23" customHeight="true">
       <c r="A46" s="3" t="s">
         <v>8</v>
       </c>
@@ -1647,17 +1872,17 @@
         <v>100</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>238.63</v>
+        <v>20.41</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="5" t="e"/>
       <c r="H46" s="6" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" ht="11" customHeight="true">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" ht="23" customHeight="true">
       <c r="A47" s="3" t="s">
         <v>8</v>
       </c>
@@ -1671,14 +1896,14 @@
         <v>102</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>27.77</v>
+        <v>25.84</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="5" t="e"/>
-      <c r="H47" s="7" t="n">
-        <v>13500</v>
+      <c r="H47" s="6" t="n">
+        <v>960</v>
       </c>
     </row>
     <row r="48" ht="23" customHeight="true">
@@ -1695,17 +1920,17 @@
         <v>104</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>3.48</v>
+        <v>283.27</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="5" t="e"/>
-      <c r="H48" s="7" t="n">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="49" ht="11" customHeight="true">
+      <c r="H48" s="6" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" ht="23" customHeight="true">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
@@ -1718,15 +1943,15 @@
       <c r="D49" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E49" s="4" t="n">
-        <v>24.64</v>
+      <c r="E49" s="8" t="n">
+        <v>3571.92</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="5" t="e"/>
-      <c r="H49" s="7" t="n">
-        <v>40500</v>
+      <c r="H49" s="6" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="50" ht="11" customHeight="true">
@@ -1743,14 +1968,14 @@
         <v>108</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>25.94</v>
+        <v>66.59</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G50" s="5" t="e"/>
-      <c r="H50" s="7" t="n">
-        <v>2500</v>
+      <c r="H50" s="6" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="51" ht="11" customHeight="true">
@@ -1767,17 +1992,17 @@
         <v>110</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>16.2</v>
+        <v>61.32</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G51" s="5" t="e"/>
       <c r="H51" s="7" t="n">
-        <v>6750</v>
-      </c>
-    </row>
-    <row r="52" ht="23" customHeight="true">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" ht="11" customHeight="true">
       <c r="A52" s="3" t="s">
         <v>8</v>
       </c>
@@ -1791,17 +2016,17 @@
         <v>112</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>4.52</v>
+        <v>4.04</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G52" s="5" t="e"/>
       <c r="H52" s="7" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="53" ht="23" customHeight="true">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="53" ht="11" customHeight="true">
       <c r="A53" s="3" t="s">
         <v>8</v>
       </c>
@@ -1814,13 +2039,15 @@
       <c r="D53" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E53" s="3" t="e"/>
+      <c r="E53" s="4" t="n">
+        <v>3.09</v>
+      </c>
       <c r="F53" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G53" s="5" t="e"/>
       <c r="H53" s="7" t="n">
-        <v>2400</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="54" ht="23" customHeight="true">
@@ -1837,14 +2064,14 @@
         <v>116</v>
       </c>
       <c r="E54" s="8" t="n">
-        <v>3638.22</v>
+        <v>1089.58</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G54" s="5" t="e"/>
       <c r="H54" s="6" t="n">
-        <v>12</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" ht="11" customHeight="true">
@@ -1860,15 +2087,15 @@
       <c r="D55" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E55" s="4" t="n">
-        <v>92.85</v>
+      <c r="E55" s="8" t="n">
+        <v>3032.07</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G55" s="5" t="e"/>
-      <c r="H55" s="7" t="n">
-        <v>12600</v>
+      <c r="H55" s="6" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="56" ht="11" customHeight="true">
@@ -1884,13 +2111,15 @@
       <c r="D56" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E56" s="3" t="e"/>
+      <c r="E56" s="4" t="n">
+        <v>233.62</v>
+      </c>
       <c r="F56" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G56" s="5" t="e"/>
-      <c r="H56" s="7" t="n">
-        <v>5000</v>
+      <c r="H56" s="6" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="11" customHeight="true">
@@ -1906,13 +2135,15 @@
       <c r="D57" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E57" s="3" t="e"/>
+      <c r="E57" s="4" t="n">
+        <v>33.97</v>
+      </c>
       <c r="F57" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G57" s="5" t="e"/>
       <c r="H57" s="7" t="n">
-        <v>50000</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="58" ht="11" customHeight="true">
@@ -1928,15 +2159,911 @@
       <c r="D58" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E58" s="4" t="n">
-        <v>439.86</v>
+      <c r="E58" s="8" t="n">
+        <v>3634.53</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G58" s="5" t="e"/>
       <c r="H58" s="6" t="n">
-        <v>8</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" ht="11" customHeight="true">
+      <c r="A59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E59" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="5" t="e"/>
+      <c r="H59" s="7" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="60" ht="11" customHeight="true">
+      <c r="A60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E60" s="4" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="5" t="e"/>
+      <c r="H60" s="7" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="61" ht="11" customHeight="true">
+      <c r="A61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E61" s="4" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="5" t="e"/>
+      <c r="H61" s="7" t="n">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="62" ht="11" customHeight="true">
+      <c r="A62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" s="4" t="n">
+        <v>32.97</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="5" t="e"/>
+      <c r="H62" s="7" t="n">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="63" ht="11" customHeight="true">
+      <c r="A63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E63" s="4" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="5" t="e"/>
+      <c r="H63" s="7" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="64" ht="11" customHeight="true">
+      <c r="A64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E64" s="4" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="5" t="e"/>
+      <c r="H64" s="7" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="65" ht="11" customHeight="true">
+      <c r="A65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E65" s="4" t="n">
+        <v>18.06</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="5" t="e"/>
+      <c r="H65" s="7" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="66" ht="11" customHeight="true">
+      <c r="A66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E66" s="4" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="5" t="e"/>
+      <c r="H66" s="7" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="67" ht="23" customHeight="true">
+      <c r="A67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E67" s="4" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="5" t="e"/>
+      <c r="H67" s="7" t="n">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="68" ht="23" customHeight="true">
+      <c r="A68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68" s="4" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="5" t="e"/>
+      <c r="H68" s="7" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="69" ht="23" customHeight="true">
+      <c r="A69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E69" s="4" t="n">
+        <v>8.45</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="5" t="e"/>
+      <c r="H69" s="7" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="70" ht="11" customHeight="true">
+      <c r="A70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E70" s="4" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="5" t="e"/>
+      <c r="H70" s="7" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="71" ht="23" customHeight="true">
+      <c r="A71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E71" s="4" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="5" t="e"/>
+      <c r="H71" s="7" t="n">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="72" ht="23" customHeight="true">
+      <c r="A72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E72" s="4" t="n">
+        <v>16.42</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="5" t="e"/>
+      <c r="H72" s="7" t="n">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="73" ht="23" customHeight="true">
+      <c r="A73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E73" s="4" t="n">
+        <v>283.34</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="5" t="e"/>
+      <c r="H73" s="6" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" ht="11" customHeight="true">
+      <c r="A74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E74" s="4" t="n">
+        <v>238.63</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="5" t="e"/>
+      <c r="H74" s="6" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" ht="11" customHeight="true">
+      <c r="A75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E75" s="4" t="n">
+        <v>238.63</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="5" t="e"/>
+      <c r="H75" s="6" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" ht="11" customHeight="true">
+      <c r="A76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E76" s="4" t="n">
+        <v>238.63</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="5" t="e"/>
+      <c r="H76" s="6" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" ht="11" customHeight="true">
+      <c r="A77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E77" s="4" t="n">
+        <v>27.77</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="5" t="e"/>
+      <c r="H77" s="7" t="n">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="78" ht="23" customHeight="true">
+      <c r="A78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E78" s="4" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="5" t="e"/>
+      <c r="H78" s="7" t="n">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="79" ht="11" customHeight="true">
+      <c r="A79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E79" s="4" t="n">
+        <v>24.64</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="5" t="e"/>
+      <c r="H79" s="7" t="n">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="80" ht="11" customHeight="true">
+      <c r="A80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E80" s="4" t="n">
+        <v>25.94</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="5" t="e"/>
+      <c r="H80" s="7" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="81" ht="11" customHeight="true">
+      <c r="A81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E81" s="4" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="5" t="e"/>
+      <c r="H81" s="7" t="n">
+        <v>6750</v>
+      </c>
+    </row>
+    <row r="82" ht="23" customHeight="true">
+      <c r="A82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E82" s="4" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="5" t="e"/>
+      <c r="H82" s="7" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="83" ht="23" customHeight="true">
+      <c r="A83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E83" s="4" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="5" t="e"/>
+      <c r="H83" s="7" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="84" ht="23" customHeight="true">
+      <c r="A84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E84" s="3" t="e"/>
+      <c r="F84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="5" t="e"/>
+      <c r="H84" s="7" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="85" ht="23" customHeight="true">
+      <c r="A85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E85" s="8" t="n">
+        <v>3638.22</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="5" t="e"/>
+      <c r="H85" s="6" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" ht="11" customHeight="true">
+      <c r="A86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E86" s="4" t="n">
+        <v>92.85</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="5" t="e"/>
+      <c r="H86" s="7" t="n">
+        <v>35616</v>
+      </c>
+    </row>
+    <row r="87" ht="23" customHeight="true">
+      <c r="A87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E87" s="3" t="e"/>
+      <c r="F87" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="5" t="e"/>
+      <c r="H87" s="7" t="n">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="88" ht="11" customHeight="true">
+      <c r="A88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E88" s="3" t="e"/>
+      <c r="F88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="5" t="e"/>
+      <c r="H88" s="7" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="89" ht="11" customHeight="true">
+      <c r="A89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E89" s="4" t="n">
+        <v>13.96</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="5" t="e"/>
+      <c r="H89" s="7" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="90" ht="23" customHeight="true">
+      <c r="A90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E90" s="3" t="e"/>
+      <c r="F90" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="5" t="e"/>
+      <c r="H90" s="7" t="n">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="91" ht="11" customHeight="true">
+      <c r="A91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E91" s="3" t="e"/>
+      <c r="F91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="5" t="e"/>
+      <c r="H91" s="7" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="92" ht="11" customHeight="true">
+      <c r="A92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E92" s="3" t="e"/>
+      <c r="F92" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="5" t="e"/>
+      <c r="H92" s="7" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="93" ht="11" customHeight="true">
+      <c r="A93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E93" s="3" t="e"/>
+      <c r="F93" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="5" t="e"/>
+      <c r="H93" s="7" t="n">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="94" ht="11" customHeight="true">
+      <c r="A94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E94" s="3" t="e"/>
+      <c r="F94" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="5" t="e"/>
+      <c r="H94" s="7" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="95" ht="11" customHeight="true">
+      <c r="A95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E95" s="4" t="n">
+        <v>439.86</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" s="5" t="e"/>
+      <c r="H95" s="6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" ht="11" customHeight="true">
+      <c r="A96" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E96" s="4" t="n">
+        <v>334.15</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" s="5" t="e"/>
+      <c r="H96" s="6" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/В пути АЛМ.xlsx
+++ b/data/В пути АЛМ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Дата</t>
   </si>
@@ -49,49 +49,73 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>08.04.2024 0:00:00</t>
+    <t>12.04.2024 0:00:00</t>
   </si>
   <si>
     <t>Алматы в Пути</t>
   </si>
   <si>
-    <t>187430</t>
-  </si>
-  <si>
-    <t>Набор одноразовой посуды "Шашлычок" [6 стак. 200 мл, ПП+ 6 тар. d167 мм, ПС+6 вил.+6 салф.]</t>
+    <t>187011</t>
+  </si>
+  <si>
+    <t>Набор одноразовой посуды для пикника [6 стак. 200 мл, ПП+6 тар. d205 мм, ПС+6 вил.+6 салф.]</t>
   </si>
   <si>
     <t>Нет</t>
   </si>
   <si>
-    <t>187320</t>
-  </si>
-  <si>
-    <t>Набор одноразовой посуды "Пикник Мистерия" [12 стак. 200 мл, ПП+12 тар. d205 мм, ПС+12 вил.]</t>
-  </si>
-  <si>
-    <t>187050</t>
-  </si>
-  <si>
-    <t>Набор одноразовой посуды "Пикничок" [6 стак. 200 мл, ПП+6 тар. d205 мм, ПС+6 вил.+ 6 нож.+6 салф.]</t>
-  </si>
-  <si>
-    <t>187160</t>
-  </si>
-  <si>
-    <t>Набор одноразовой посуды "Премиум чайный" [6 стак. 200 мл, ПП+6 тар. d167 мм, ПС+6 ч. лож.+6 вил.+6 </t>
-  </si>
-  <si>
-    <t>187011</t>
-  </si>
-  <si>
-    <t>Набор одноразовой посуды для пикника [6 стак. 200 мл, ПП+6 тар. d205 мм, ПС+6 вил.+6 салф.]</t>
-  </si>
-  <si>
-    <t>102185</t>
-  </si>
-  <si>
-    <t>Мешок для мусора 120 л, [50+20]х110 см Суперпрочный, черн., ПВД, 10 шт/рул (ООО Техинвест Плюс)</t>
+    <t>101222</t>
+  </si>
+  <si>
+    <t>Пика 90 мм, диз. "Призма", цвет в ассорт., ПС, 35 шт/упак (ООО Пласт-Лидер)</t>
+  </si>
+  <si>
+    <t>101228</t>
+  </si>
+  <si>
+    <t>Коробка для пиццы 330х330х40 мм, бел., микрогофрокарт.Т-11 Е, 50 шт/кор (OOO КТК)</t>
+  </si>
+  <si>
+    <t>100665</t>
+  </si>
+  <si>
+    <t>Пленка пищевая 300мм х 200м 7 мкм, прозр., ПЭ (ООО ДПЗ)</t>
+  </si>
+  <si>
+    <t>349054</t>
+  </si>
+  <si>
+    <t>Пика 90 мм, диз. "Призма", прозр., ПС, 500 шт/упак (ООО Пласт-Лидер)</t>
+  </si>
+  <si>
+    <t>591810</t>
+  </si>
+  <si>
+    <t>Поддон 120х80х15 см "подЕВРО", без клейма (ООО ПаллетТрейд)</t>
+  </si>
+  <si>
+    <t>101043</t>
+  </si>
+  <si>
+    <t>Палочки для шашлыка 200 мм, d2,5 мм, бамбук, 100 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>101300</t>
+  </si>
+  <si>
+    <t>Мешок для мусора 240 л, [70+20]х140 см Суперпрочный, черн., ПВД, 10 шт/рул (ООО Техинвест Плюс)</t>
+  </si>
+  <si>
+    <t>102186</t>
+  </si>
+  <si>
+    <t>Мешок для мусора 180 л, [70+20]х110 см Суперпрочный, черн., ПВД, 10 шт/рул (ООО Техинвест Плюс)</t>
+  </si>
+  <si>
+    <t>847281</t>
+  </si>
+  <si>
+    <t>Средство для мытья пароконвектоматов "Pro-Brite" Strong, концентрат, канистра, 5000 мл</t>
   </si>
   <si>
     <t>104280</t>
@@ -106,136 +130,202 @@
     <t>Стакан-шейкер одноразовый 300 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
   </si>
   <si>
-    <t>103127</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d95 мм плоская с отверстием, прозр., ПЭТ, 25 шт/упак "Upax-Unity"</t>
-  </si>
-  <si>
-    <t>291076</t>
-  </si>
-  <si>
-    <t>Бутылка ПЭТ 100 мл, квадр., прозр., горло d38 мм, крышка в компл., 600 шт/кор (ООО Мастерпэт)</t>
-  </si>
-  <si>
-    <t>107468</t>
-  </si>
-  <si>
-    <t>Капхолдер [манжета] 270х55 мм, крафт, карт., 50 шт/упак (ООО ПК Растр)</t>
-  </si>
-  <si>
-    <t>181461</t>
-  </si>
-  <si>
-    <t>Стакан одноразовый 200 мл, зел., ПП, 6 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
-    <t>181371</t>
-  </si>
-  <si>
-    <t>Стакан одноразовый 200 мл, син., ПП, 6 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
-    <t>181341</t>
-  </si>
-  <si>
-    <t>Стакан одноразовый 200 мл, красн., ПП, 6 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
-    <t>181155</t>
-  </si>
-  <si>
-    <t>Стакан одноразовый 200 мл, бел., ПП, 12 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
-    <t>181232</t>
-  </si>
-  <si>
-    <t>Стакан одноразовый 200 мл, прозр., ПП, 12 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
-    <t>107501</t>
-  </si>
-  <si>
-    <t>Стакан одноразовый 500 мл, диз. "Факел", прозр., ПП, 12 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
-    <t>181311</t>
-  </si>
-  <si>
-    <t>Стакан одноразовый 200 мл, желт., ПП, 6 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
-    <t>185155</t>
-  </si>
-  <si>
-    <t>Вилка одноразовая 165 мм, бел., ПС, 12 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
-    <t>108026</t>
-  </si>
-  <si>
-    <t>Ложка одноразовая 165 мм, бел., ПС, 12 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
-    <t>182956</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 250 мл 1 сл., d80 мм, диз. "Big City Life", карт., 5 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
-    <t>182957</t>
-  </si>
-  <si>
-    <t>Стакан бумажный 300 мл 1 сл., d90 мм, диз. "Big City Life", карт., 5 шт/упак "МИСТЕРИЯ"</t>
-  </si>
-  <si>
-    <t>109470</t>
-  </si>
-  <si>
-    <t>Пакет вакуум. 200х300 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО Экспомаркет Техн.)</t>
-  </si>
-  <si>
-    <t>105854</t>
-  </si>
-  <si>
-    <t>Пакет вакуум. 250х350 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО Экспомаркет Техн.)</t>
-  </si>
-  <si>
-    <t>112297</t>
-  </si>
-  <si>
-    <t>Трубочки для коктейлей 210 мм, d7 мм, черн., пласт. прямые в инд. упаковке, 500 шт/упак (ООО Экстрал</t>
-  </si>
-  <si>
-    <t>114453</t>
-  </si>
-  <si>
-    <t>Универсальное моющее средство "Pro-Brite" Astrix 3 Пенное, концентрат, канистра, 5000 мл</t>
-  </si>
-  <si>
-    <t>114457</t>
-  </si>
-  <si>
-    <t>Сахар порционный 5 г, лого "Scat", стик, 1000 шт/кор (ООО ВЗЛП)</t>
-  </si>
-  <si>
-    <t>114628</t>
-  </si>
-  <si>
-    <t>Салфетки 250х250 мм 1-сл., бел., бум., 100 шт/упак (ИП Головкин С.В.)</t>
-  </si>
-  <si>
-    <t>114781</t>
-  </si>
-  <si>
-    <t>Пакет пищевой [100+60]х300 мм без руч., без окна, бел., бум., 1300 шт/кор (ООО Вита Групп)</t>
-  </si>
-  <si>
-    <t>108563</t>
-  </si>
-  <si>
-    <t>Бумага туалетная для диспенсеров 1-сл. "Focus" Eco Jumbo, бел., 200 м</t>
+    <t>115416</t>
+  </si>
+  <si>
+    <t>Стакан-шейкер одноразовый 200 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>103129</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d90 мм с боковым отверстием, черн., ПС, 50 шт/упак (ООО Агроэкодом)</t>
+  </si>
+  <si>
+    <t>140080</t>
+  </si>
+  <si>
+    <t>Вилка одноразовая 165 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>120100</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d205 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>123250</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d167 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>121490</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая глубокая 475 мл, d153 мм, бел., ПП, 50 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>154226</t>
+  </si>
+  <si>
+    <t>Контейнер 750 мл 1-секц. d194хh54,6 мм, без крышки, черн., ПЭТ, 75 шт/упак "ПолиЭр"</t>
+  </si>
+  <si>
+    <t>107209</t>
+  </si>
+  <si>
+    <t>Контейнер 700 мл 1-секц. 230х170х37 мм, без крышки, черн., ПП, 50 шт/упак "ПолиЭр"</t>
+  </si>
+  <si>
+    <t>107211</t>
+  </si>
+  <si>
+    <t>Контейнер 1000 мл 1-секц. 230х170х50 мм, без крышки, черн., ПП, 50 шт/упак "ПолиЭр"</t>
+  </si>
+  <si>
+    <t>158229</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру d194хh40,5 мм, прозр., ПЭТ, 75 шт/упак "ПолиЭр"</t>
+  </si>
+  <si>
+    <t>102915</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру купол. 230х170х22,5 мм, прозр., ПП, 50 шт/упак "ПолиЭр"</t>
+  </si>
+  <si>
+    <t>104834</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 155х110х13,5 мм, прозр., ПЭТ, 800 шт/кор "OSQ" OpSalad 400/450</t>
+  </si>
+  <si>
+    <t>260051</t>
+  </si>
+  <si>
+    <t>Упаковка для торта [дно] треуг. 178х106х31[158х86х28] мм, черн., ПЭТ, 800 шт/кор (ООО СП Росанпак)</t>
+  </si>
+  <si>
+    <t>260053</t>
+  </si>
+  <si>
+    <t>Упаковка для торта [крышка] треуг. 178х106х33[158х86х25] мм, прозр., ПЭТ, 800 шт/кор (ООО СП Росанпа</t>
+  </si>
+  <si>
+    <t>110677</t>
+  </si>
+  <si>
+    <t>Пакет для картофеля фри 140х110 мм, диз. "Рог изобилия", разноцв., бум., 100 шт/упак (ООО ФлексаПрин</t>
+  </si>
+  <si>
+    <t>345044</t>
+  </si>
+  <si>
+    <t>Размешиватель 140 мм, древ. волокно, 500 шт/упак (ООО Компания Лемио)</t>
+  </si>
+  <si>
+    <t>106749</t>
+  </si>
+  <si>
+    <t>Пакет Zip-Lock 80х180 мм, прозр., ПВД, 100 шт/упак (T.Z.W.P.)</t>
+  </si>
+  <si>
+    <t>111577</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 220х140х13,5 мм, прозр., ПЭТ 400 шт/кор "OSQ" OpSalad 800</t>
+  </si>
+  <si>
+    <t>112282</t>
+  </si>
+  <si>
+    <t>Соль порционная 1 г, стик, 1000 шт/кор (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>112340</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 175х130х13,5 мм, прозр., ПЭТ 50 шт/упак "OSQ" OpSalad 500</t>
+  </si>
+  <si>
+    <t>112341</t>
+  </si>
+  <si>
+    <t>Контейнер 500 мл, 164х115х45 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
+  </si>
+  <si>
+    <t>113108</t>
+  </si>
+  <si>
+    <t>Лоток [короб] для фастфуда 215х75х80 мм, крафт-бел., карт., 400 шт/кор "OSQ" HD Box</t>
+  </si>
+  <si>
+    <t>113569</t>
+  </si>
+  <si>
+    <t>Пакет [320+200]х370 мм с круч. ручками, крафт, бум., 300 шт/кор (ООО Тек-Пак)</t>
+  </si>
+  <si>
+    <t>113602</t>
+  </si>
+  <si>
+    <t>Размешиватель 170 мм, инд. упак., бамбук, 250 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>114003</t>
+  </si>
+  <si>
+    <t>Контейнер 400 мл, 145х96х45 мм, без окна, без крышки, крафт-черн., карт., 50 шт/упак "OSQ" OpSalad B</t>
+  </si>
+  <si>
+    <t>114019</t>
+  </si>
+  <si>
+    <t>Держатель для стаканов 2 яч. 90х180х50 мм, крафт-бел., карт., 450 шт/кор "OSQ" Eco CupHolder double</t>
+  </si>
+  <si>
+    <t>114654</t>
+  </si>
+  <si>
+    <t>Перец порционный 0,25 г, стик, 1000 шт/кор (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>114977</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 210 мм, d7 мм, черн., пласт. прямые в инд. упаковке, 200 шт/упак (ООО ПК Диап</t>
+  </si>
+  <si>
+    <t>115693</t>
+  </si>
+  <si>
+    <t>Подложка d240 мм 0,8 мм, золот.-сереб., карт. фольг., 100 шт/упак "Pasticciere"</t>
+  </si>
+  <si>
+    <t>115955</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая 110 мм, древ. волокно, 100 шт/упак (ООО Технопарк)</t>
+  </si>
+  <si>
+    <t>115998</t>
+  </si>
+  <si>
+    <t>Коробка для кондит. изделий 160х80х60 мм треуг., с окном, неразъем.крышка, бел., карт., 25 шт/упак "</t>
+  </si>
+  <si>
+    <t>108394</t>
+  </si>
+  <si>
+    <t>Пленка пищевая 450мм х 900м 9 мкм, прозр., ПВХ "P.V.Ran"</t>
+  </si>
+  <si>
+    <t>301026</t>
+  </si>
+  <si>
+    <t>Салфетки 240х200 мм 1-сл., бел., бум., 100 шт/упак "Focus" Economic Choice</t>
   </si>
 </sst>
 </file>
@@ -328,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="0" applyAlignment="true">
       <alignment horizontal="left"/>
@@ -354,9 +444,6 @@
     <xf numFmtId="4" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -376,7 +463,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H31"/>
+  <dimension ref="H46"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -432,17 +519,17 @@
         <v>11</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>146.54</v>
+        <v>165.96</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="5" t="e"/>
       <c r="H2" s="6" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="3" ht="23" customHeight="true">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" ht="11" customHeight="true">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -456,14 +543,14 @@
         <v>14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>243.64</v>
+        <v>117.95</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="5" t="e"/>
       <c r="H3" s="6" t="n">
-        <v>15</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" ht="23" customHeight="true">
@@ -480,17 +567,17 @@
         <v>16</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>173.22</v>
+        <v>74.67</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="5" t="e"/>
-      <c r="H4" s="6" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="5" ht="23" customHeight="true">
+      <c r="H4" s="7" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" ht="11" customHeight="true">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -504,17 +591,17 @@
         <v>18</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>151.4</v>
+        <v>241.79</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="5" t="e"/>
       <c r="H5" s="6" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="6" ht="23" customHeight="true">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="11" customHeight="true">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -527,18 +614,18 @@
       <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>165.96</v>
+      <c r="E6" s="8" t="n">
+        <v>1080.57</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="5" t="e"/>
       <c r="H6" s="6" t="n">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="7" ht="23" customHeight="true">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" ht="11" customHeight="true">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -551,15 +638,15 @@
       <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>308.54</v>
+      <c r="E7" s="8" t="n">
+        <v>1862</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="5" t="e"/>
       <c r="H7" s="6" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="11" customHeight="true">
@@ -576,17 +663,17 @@
         <v>24</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>2.96</v>
+        <v>53.77</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="5" t="e"/>
-      <c r="H8" s="7" t="n">
-        <v>360000</v>
-      </c>
-    </row>
-    <row r="9" ht="11" customHeight="true">
+      <c r="H8" s="6" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" ht="23" customHeight="true">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -600,14 +687,14 @@
         <v>26</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>14.75</v>
+        <v>534.78</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="5" t="e"/>
-      <c r="H9" s="7" t="n">
-        <v>30000</v>
+      <c r="H9" s="6" t="n">
+        <v>500</v>
       </c>
     </row>
     <row r="10" ht="23" customHeight="true">
@@ -624,14 +711,14 @@
         <v>28</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>5.29</v>
+        <v>421.91</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="5" t="e"/>
-      <c r="H10" s="7" t="n">
-        <v>10000</v>
+      <c r="H10" s="6" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="11" ht="23" customHeight="true">
@@ -647,15 +734,15 @@
       <c r="D11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="4" t="n">
-        <v>36.15</v>
+      <c r="E11" s="8" t="n">
+        <v>5003.67</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="5" t="e"/>
-      <c r="H11" s="7" t="n">
-        <v>1200</v>
+      <c r="H11" s="6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12" ht="11" customHeight="true">
@@ -672,14 +759,14 @@
         <v>32</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>5.5</v>
+        <v>2.96</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="5" t="e"/>
       <c r="H12" s="7" t="n">
-        <v>40500</v>
+        <v>320000</v>
       </c>
     </row>
     <row r="13" ht="11" customHeight="true">
@@ -696,14 +783,14 @@
         <v>34</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>5.97</v>
+        <v>14.75</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="5" t="e"/>
-      <c r="H13" s="6" t="n">
-        <v>360</v>
+      <c r="H13" s="7" t="n">
+        <v>15000</v>
       </c>
     </row>
     <row r="14" ht="11" customHeight="true">
@@ -720,17 +807,17 @@
         <v>36</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>5.8</v>
+        <v>13.55</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="e"/>
-      <c r="H14" s="6" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="15" ht="11" customHeight="true">
+      <c r="H14" s="7" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="15" ht="23" customHeight="true">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -743,15 +830,13 @@
       <c r="D15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="4" t="n">
-        <v>5.8</v>
-      </c>
+      <c r="E15" s="3" t="e"/>
       <c r="F15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="5" t="e"/>
-      <c r="H15" s="6" t="n">
-        <v>360</v>
+      <c r="H15" s="7" t="n">
+        <v>7500</v>
       </c>
     </row>
     <row r="16" ht="11" customHeight="true">
@@ -768,14 +853,14 @@
         <v>40</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>4.48</v>
+        <v>3.13</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="5" t="e"/>
-      <c r="H16" s="6" t="n">
-        <v>720</v>
+      <c r="H16" s="7" t="n">
+        <v>42000</v>
       </c>
     </row>
     <row r="17" ht="11" customHeight="true">
@@ -792,14 +877,14 @@
         <v>42</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>4.48</v>
+        <v>9.12</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="5" t="e"/>
-      <c r="H17" s="6" t="n">
-        <v>720</v>
+      <c r="H17" s="7" t="n">
+        <v>60000</v>
       </c>
     </row>
     <row r="18" ht="11" customHeight="true">
@@ -816,14 +901,14 @@
         <v>44</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>11.42</v>
+        <v>7.04</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="5" t="e"/>
-      <c r="H18" s="6" t="n">
-        <v>360</v>
+      <c r="H18" s="7" t="n">
+        <v>32000</v>
       </c>
     </row>
     <row r="19" ht="11" customHeight="true">
@@ -840,17 +925,17 @@
         <v>46</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>5.8</v>
+        <v>9.34</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="5" t="e"/>
-      <c r="H19" s="6" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="20" ht="11" customHeight="true">
+      <c r="H19" s="7" t="n">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="20" ht="23" customHeight="true">
       <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
@@ -864,14 +949,14 @@
         <v>48</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>3.52</v>
+        <v>32.61</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="5" t="e"/>
       <c r="H20" s="7" t="n">
-        <v>1080</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="21" ht="11" customHeight="true">
@@ -888,14 +973,14 @@
         <v>50</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>4.54</v>
+        <v>58.24</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="5" t="e"/>
       <c r="H21" s="7" t="n">
-        <v>1080</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="22" ht="23" customHeight="true">
@@ -912,17 +997,17 @@
         <v>52</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>20.41</v>
+        <v>57.61</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="5" t="e"/>
       <c r="H22" s="6" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" ht="23" customHeight="true">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" ht="11" customHeight="true">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -936,17 +1021,17 @@
         <v>54</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>25.84</v>
+        <v>32.32</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="5" t="e"/>
-      <c r="H23" s="6" t="n">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="24" ht="23" customHeight="true">
+      <c r="H23" s="7" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="24" ht="11" customHeight="true">
       <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
@@ -960,14 +1045,14 @@
         <v>56</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>283.27</v>
+        <v>38.26</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="5" t="e"/>
-      <c r="H24" s="6" t="n">
-        <v>150</v>
+      <c r="H24" s="7" t="n">
+        <v>3000</v>
       </c>
     </row>
     <row r="25" ht="23" customHeight="true">
@@ -983,15 +1068,15 @@
       <c r="D25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="8" t="n">
-        <v>3571.92</v>
+      <c r="E25" s="4" t="n">
+        <v>15.28</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="5" t="e"/>
-      <c r="H25" s="6" t="n">
-        <v>70</v>
+      <c r="H25" s="7" t="n">
+        <v>1600</v>
       </c>
     </row>
     <row r="26" ht="23" customHeight="true">
@@ -1007,15 +1092,15 @@
       <c r="D26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="8" t="n">
-        <v>1089.58</v>
+      <c r="E26" s="4" t="n">
+        <v>21.27</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="5" t="e"/>
-      <c r="H26" s="6" t="n">
-        <v>110</v>
+      <c r="H26" s="7" t="n">
+        <v>1600</v>
       </c>
     </row>
     <row r="27" ht="23" customHeight="true">
@@ -1031,18 +1116,18 @@
       <c r="D27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="8" t="n">
-        <v>3638.22</v>
+      <c r="E27" s="4" t="n">
+        <v>21.29</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="5" t="e"/>
-      <c r="H27" s="6" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" ht="11" customHeight="true">
+      <c r="H27" s="7" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="28" ht="23" customHeight="true">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -1055,13 +1140,15 @@
       <c r="D28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="9" t="e"/>
+      <c r="E28" s="4" t="n">
+        <v>5.09</v>
+      </c>
       <c r="F28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="5" t="e"/>
       <c r="H28" s="7" t="n">
-        <v>360000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="29" ht="11" customHeight="true">
@@ -1078,17 +1165,17 @@
         <v>66</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>92.85</v>
+        <v>1.13</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="5" t="e"/>
       <c r="H29" s="7" t="n">
-        <v>23016</v>
-      </c>
-    </row>
-    <row r="30" ht="23" customHeight="true">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="30" ht="11" customHeight="true">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -1101,13 +1188,15 @@
       <c r="D30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="3" t="e"/>
+      <c r="E30" s="4" t="n">
+        <v>146.3</v>
+      </c>
       <c r="F30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="5" t="e"/>
-      <c r="H30" s="7" t="n">
-        <v>2600</v>
+      <c r="H30" s="6" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="31" ht="11" customHeight="true">
@@ -1124,14 +1213,368 @@
         <v>70</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>334.15</v>
+        <v>29.68</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="5" t="e"/>
-      <c r="H31" s="6" t="n">
-        <v>12</v>
+      <c r="H31" s="7" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="32" ht="11" customHeight="true">
+      <c r="A32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="5" t="e"/>
+      <c r="H32" s="7" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="33" ht="11" customHeight="true">
+      <c r="A33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="5" t="e"/>
+      <c r="H33" s="7" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="34" ht="23" customHeight="true">
+      <c r="A34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="4" t="n">
+        <v>19.96</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="5" t="e"/>
+      <c r="H34" s="7" t="n">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="35" ht="23" customHeight="true">
+      <c r="A35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="4" t="n">
+        <v>37.94</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="5" t="e"/>
+      <c r="H35" s="6" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36" ht="11" customHeight="true">
+      <c r="A36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>40.49</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="5" t="e"/>
+      <c r="H36" s="7" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="37" ht="11" customHeight="true">
+      <c r="A37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="3" t="e"/>
+      <c r="F37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="5" t="e"/>
+      <c r="H37" s="7" t="n">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="38" ht="23" customHeight="true">
+      <c r="A38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="5" t="e"/>
+      <c r="H38" s="7" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="39" ht="23" customHeight="true">
+      <c r="A39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>20.02</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="5" t="e"/>
+      <c r="H39" s="7" t="n">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="40" ht="11" customHeight="true">
+      <c r="A40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="5" t="e"/>
+      <c r="H40" s="7" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="41" ht="23" customHeight="true">
+      <c r="A41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="4" t="n">
+        <v>416.96</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="5" t="e"/>
+      <c r="H41" s="6" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" ht="11" customHeight="true">
+      <c r="A42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="8" t="n">
+        <v>4003.21</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="5" t="e"/>
+      <c r="H42" s="6" t="n">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="43" ht="11" customHeight="true">
+      <c r="A43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="3" t="e"/>
+      <c r="F43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="5" t="e"/>
+      <c r="H43" s="7" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="44" ht="23" customHeight="true">
+      <c r="A44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="3" t="e"/>
+      <c r="F44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="5" t="e"/>
+      <c r="H44" s="7" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="45" ht="11" customHeight="true">
+      <c r="A45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>3957.83</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="5" t="e"/>
+      <c r="H45" s="6" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" ht="11" customHeight="true">
+      <c r="A46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="4" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="5" t="e"/>
+      <c r="H46" s="6" t="n">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/data/В пути АЛМ.xlsx
+++ b/data/В пути АЛМ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Дата</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>18.04.2024 0:00:00</t>
+    <t>22.04.2024 0:00:00</t>
   </si>
   <si>
     <t>Алматы в Пути</t>
@@ -94,52 +94,28 @@
     <t>Крышка к контейнеру купол. 230х170х22,5 мм, прозр., ПП, 50 шт/упак "ПолиЭр"</t>
   </si>
   <si>
-    <t>104834</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру 155х110х13,5 мм, прозр., ПЭТ, 800 шт/кор "OSQ" OpSalad 400/450</t>
-  </si>
-  <si>
     <t>501323</t>
   </si>
   <si>
     <t>Комплект столовых приборов №3 [лож.ст.+ вил.: 165 мм, бел., ПС+ салф.], 300 шт/кор</t>
   </si>
   <si>
-    <t>106366</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру купол. 142х142х56 мм, прозр., ПЭТ, 50 шт/упак "OSQ" LidSmartPack 550</t>
-  </si>
-  <si>
-    <t>111451</t>
-  </si>
-  <si>
-    <t>Коробка для наггетсов 150х91х70 мм, L, крафт-бел., карт., 25 шт/упак "OSQ" Eco Fast Food Box</t>
-  </si>
-  <si>
-    <t>111452</t>
-  </si>
-  <si>
-    <t>Коробка для картофеля фри 105х50х110 мм, M, крафт-бел., карт., 50 шт/упак "OSQ" Eco Fry</t>
-  </si>
-  <si>
-    <t>111501</t>
-  </si>
-  <si>
-    <t>Контейнер 550 мл, 130х130х49 мм, без окна, без крышки, крафт, карт., 50 шт/упак "OSQ" Eco SmartPack</t>
-  </si>
-  <si>
-    <t>112636</t>
-  </si>
-  <si>
-    <t>Контейнер 750 мл, d150хh60 мм, без окна, без крышки, крафт-бел., карт., 45 шт/упак "OSQ" Round Bowl </t>
-  </si>
-  <si>
-    <t>112637</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру d150хh40 мм, прозр., ПЭТ, 45 шт/упак "OSQ" Round Bowl flat lid</t>
+    <t>112806</t>
+  </si>
+  <si>
+    <t>Обертка для бургеров и хот-догов 305х305 мм, бел., бум., 1000 шт/кор (ООО Тек-Пак)</t>
+  </si>
+  <si>
+    <t>112831</t>
+  </si>
+  <si>
+    <t>Пакет [260+150]х350 мм с круч. ручками, крафт, бум., 350 шт/кор (ООО Тек-Пак)</t>
+  </si>
+  <si>
+    <t>113015</t>
+  </si>
+  <si>
+    <t>Пакет на вынос [120+80]х250 мм S без ручек, крафт, бум., 1000 шт/кор (ООО Тек-Пак)</t>
   </si>
   <si>
     <t>113306</t>
@@ -148,30 +124,12 @@
     <t>Пакет "Майка" [250+120]х450 мм 10 мкм, бел., ПНД, 100 шт/упак (ООО Нижполимерупак)</t>
   </si>
   <si>
-    <t>114003</t>
-  </si>
-  <si>
-    <t>Контейнер 400 мл, 145х96х45 мм, без окна, без крышки, крафт-черн., карт., 50 шт/упак "OSQ" OpSalad B</t>
-  </si>
-  <si>
     <t>114029</t>
   </si>
   <si>
     <t>Мешок кондитерский в рулоне 1-сл., 61 см, 90 мкм, прозр., ПЭ, 100 шт/рул (ООО Компания Лемио)</t>
   </si>
   <si>
-    <t>114520</t>
-  </si>
-  <si>
-    <t>Контейнер 1000 мл, d150хh77 мм, без окна, без крышки, крафт-бел., карт., 45 шт/упак "OSQ" Round Bowl</t>
-  </si>
-  <si>
-    <t>114525</t>
-  </si>
-  <si>
-    <t>Крышка к контейнеру d188хh17 мм, прозр., ПЭТ, 35 шт/упак "OSQ" Round Bowl 1300 flat lid</t>
-  </si>
-  <si>
     <t>114977</t>
   </si>
   <si>
@@ -196,22 +154,16 @@
     <t>Полотно вафельное 450мм х 60м, 130 гр/м2, бел. (Mirobid Tekstil)</t>
   </si>
   <si>
+    <t>115989</t>
+  </si>
+  <si>
+    <t>Бутылка ПЭТ 1000 мл, прозр., горло d38 мм, без крышки, 100 шт/кор (ИП Жаксылыков А.К.)</t>
+  </si>
+  <si>
     <t>116288</t>
   </si>
   <si>
     <t>Трубочки для коктейлей 240 мм, d8 мм, фиолет., пласт. прямые в инд. упаковке, 200 шт/упак (ООО ПК Ди</t>
-  </si>
-  <si>
-    <t>116314</t>
-  </si>
-  <si>
-    <t>Контейнер 450 мл, 144х96х55 мм, без окна, без крышки, крафт-бел., карт., 800 шт/кор "OSQ" OpSalad</t>
-  </si>
-  <si>
-    <t>116315</t>
-  </si>
-  <si>
-    <t>Контейнер 1300 мл, d185хh70 мм, без окна, без крышки, бел., карт., 35 шт/упак "OSQ" Round Bowl white</t>
   </si>
 </sst>
 </file>
@@ -349,7 +301,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H27"/>
+  <dimension ref="H19"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -362,7 +314,7 @@
     <col min="5" max="5" width="11.66796875" style="1" customWidth="true"/>
     <col min="6" max="6" width="17.83203125" style="1" customWidth="true"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="true"/>
-    <col min="8" max="8" width="9.33203125" style="1" customWidth="true"/>
+    <col min="8" max="8" width="10.5" style="1" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="40" customHeight="true">
@@ -549,17 +501,17 @@
         <v>24</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>15.28</v>
+        <v>13.41</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="5" t="e"/>
       <c r="H8" s="7" t="n">
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="9" ht="23" customHeight="true">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="9" ht="11" customHeight="true">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -573,17 +525,17 @@
         <v>26</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>13.41</v>
+        <v>4.08</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="5" t="e"/>
       <c r="H9" s="7" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="10" ht="23" customHeight="true">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="10" ht="11" customHeight="true">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -597,17 +549,17 @@
         <v>28</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>38.56</v>
+        <v>32.97</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="5" t="e"/>
       <c r="H10" s="7" t="n">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="11" ht="23" customHeight="true">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="11" ht="11" customHeight="true">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -621,14 +573,14 @@
         <v>30</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>24.96</v>
+        <v>5.75</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="5" t="e"/>
       <c r="H11" s="7" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="12" ht="23" customHeight="true">
@@ -645,14 +597,14 @@
         <v>32</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>11.99</v>
+        <v>283.34</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="5" t="e"/>
-      <c r="H12" s="7" t="n">
-        <v>18000</v>
+      <c r="H12" s="6" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="23" customHeight="true">
@@ -668,15 +620,15 @@
       <c r="D13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="4" t="n">
-        <v>39.21</v>
+      <c r="E13" s="8" t="n">
+        <v>3298.53</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="5" t="e"/>
-      <c r="H13" s="7" t="n">
-        <v>9000</v>
+      <c r="H13" s="6" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="14" ht="23" customHeight="true">
@@ -693,17 +645,17 @@
         <v>36</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>28.92</v>
+        <v>416.96</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="e"/>
       <c r="H14" s="7" t="n">
-        <v>13500</v>
-      </c>
-    </row>
-    <row r="15" ht="11" customHeight="true">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="15" ht="23" customHeight="true">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -717,17 +669,17 @@
         <v>38</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>27.9</v>
+        <v>4.39</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="5" t="e"/>
       <c r="H15" s="7" t="n">
-        <v>27000</v>
-      </c>
-    </row>
-    <row r="16" ht="23" customHeight="true">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="16" ht="11" customHeight="true">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -740,9 +692,7 @@
       <c r="D16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="4" t="n">
-        <v>283.34</v>
-      </c>
+      <c r="E16" s="3" t="e"/>
       <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
@@ -751,7 +701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" ht="23" customHeight="true">
+    <row r="17" ht="11" customHeight="true">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -764,15 +714,13 @@
       <c r="D17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="4" t="n">
-        <v>18.69</v>
-      </c>
+      <c r="E17" s="3" t="e"/>
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="5" t="e"/>
-      <c r="H17" s="7" t="n">
-        <v>56000</v>
+      <c r="H17" s="6" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="23" customHeight="true">
@@ -788,15 +736,15 @@
       <c r="D18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="8" t="n">
-        <v>3298.53</v>
+      <c r="E18" s="4" t="n">
+        <v>45.36</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="5" t="e"/>
-      <c r="H18" s="6" t="n">
-        <v>700</v>
+      <c r="H18" s="7" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="19" ht="23" customHeight="true">
@@ -812,197 +760,13 @@
       <c r="D19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="4" t="n">
-        <v>30</v>
-      </c>
+      <c r="E19" s="3" t="e"/>
       <c r="F19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="5" t="e"/>
-      <c r="H19" s="7" t="n">
-        <v>13500</v>
-      </c>
-    </row>
-    <row r="20" ht="23" customHeight="true">
-      <c r="A20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="4" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="5" t="e"/>
-      <c r="H20" s="7" t="n">
-        <v>6300</v>
-      </c>
-    </row>
-    <row r="21" ht="23" customHeight="true">
-      <c r="A21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="4" t="n">
-        <v>416.96</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="5" t="e"/>
-      <c r="H21" s="7" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="22" ht="23" customHeight="true">
-      <c r="A22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="4" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="5" t="e"/>
-      <c r="H22" s="7" t="n">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="23" ht="11" customHeight="true">
-      <c r="A23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="3" t="e"/>
-      <c r="F23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="5" t="e"/>
-      <c r="H23" s="6" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" ht="11" customHeight="true">
-      <c r="A24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="3" t="e"/>
-      <c r="F24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="5" t="e"/>
-      <c r="H24" s="6" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" ht="23" customHeight="true">
-      <c r="A25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="3" t="e"/>
-      <c r="F25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="5" t="e"/>
-      <c r="H25" s="6" t="n">
+      <c r="H19" s="6" t="n">
         <v>408</v>
-      </c>
-    </row>
-    <row r="26" ht="23" customHeight="true">
-      <c r="A26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="3" t="e"/>
-      <c r="F26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="5" t="e"/>
-      <c r="H26" s="7" t="n">
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="27" ht="23" customHeight="true">
-      <c r="A27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="3" t="e"/>
-      <c r="F27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="5" t="e"/>
-      <c r="H27" s="7" t="n">
-        <v>6300</v>
       </c>
     </row>
   </sheetData>

--- a/data/В пути АЛМ.xlsx
+++ b/data/В пути АЛМ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Дата</t>
   </si>
@@ -49,19 +49,31 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>22.04.2024 0:00:00</t>
+    <t>25.04.2024 0:00:00</t>
   </si>
   <si>
     <t>Алматы в Пути</t>
   </si>
   <si>
+    <t>100665</t>
+  </si>
+  <si>
+    <t>Пленка пищевая 300мм х 200м 7 мкм, прозр., ПЭ (ООО ДПЗ)</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
     <t>103053</t>
   </si>
   <si>
     <t>Клейкая лента 48мм х 132м, 38 мкм, прозр., 6 рул/упак "Фрегат"</t>
   </si>
   <si>
-    <t>Нет</t>
+    <t>102482</t>
+  </si>
+  <si>
+    <t>Сетка упаковочная [рукав] 400ммх500м, бел., ПП (ООО Ситрона-Полимер)</t>
   </si>
   <si>
     <t>103096</t>
@@ -100,6 +112,30 @@
     <t>Комплект столовых приборов №3 [лож.ст.+ вил.: 165 мм, бел., ПС+ салф.], 300 шт/кор</t>
   </si>
   <si>
+    <t>106502</t>
+  </si>
+  <si>
+    <t>Размешиватель 140 мм, коричн., бамбук, 500 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>223592</t>
+  </si>
+  <si>
+    <t>Пакет фасовочный 250х400 мм 8 мкм, на втул., прозр., ПНД, 500 шт/рул (ООО РадугаУпак)</t>
+  </si>
+  <si>
+    <t>112685</t>
+  </si>
+  <si>
+    <t>Пика 100 мм, диз. "Узелок", беж., бамбук, 100 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>112688</t>
+  </si>
+  <si>
+    <t>Размешиватель 170 мм, бамбук, 500 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
     <t>112806</t>
   </si>
   <si>
@@ -118,12 +154,30 @@
     <t>Пакет на вынос [120+80]х250 мм S без ручек, крафт, бум., 1000 шт/кор (ООО Тек-Пак)</t>
   </si>
   <si>
+    <t>113219</t>
+  </si>
+  <si>
+    <t>Контейнер 500 мл 1-секц. 108х82х106 мм, серия 108, без крышки, прозр., ПП, 100 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>113220</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 108х82х3 мм, прозр., ПП, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
     <t>113306</t>
   </si>
   <si>
     <t>Пакет "Майка" [250+120]х450 мм 10 мкм, бел., ПНД, 100 шт/упак (ООО Нижполимерупак)</t>
   </si>
   <si>
+    <t>113905</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 250 мл 2 сл., d80 мм, бел., карт., 20 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
     <t>114029</t>
   </si>
   <si>
@@ -154,10 +208,16 @@
     <t>Полотно вафельное 450мм х 60м, 130 гр/м2, бел. (Mirobid Tekstil)</t>
   </si>
   <si>
-    <t>115989</t>
-  </si>
-  <si>
-    <t>Бутылка ПЭТ 1000 мл, прозр., горло d38 мм, без крышки, 100 шт/кор (ИП Жаксылыков А.К.)</t>
+    <t>115605</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d90 мм с питейником тип З, бел., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>115607</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d90 мм с питейником тип З, прозр., ПП, 50 шт/упак (ООО ВЗЛП)</t>
   </si>
   <si>
     <t>116288</t>
@@ -276,11 +336,11 @@
     <xf numFmtId="1" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
+    <xf numFmtId="4" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -301,7 +361,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H19"/>
+  <dimension ref="H29"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -357,14 +417,14 @@
         <v>11</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>266.18</v>
+        <v>241.79</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="5" t="e"/>
       <c r="H2" s="6" t="n">
-        <v>108</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" ht="11" customHeight="true">
@@ -381,14 +441,14 @@
         <v>14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>409.33</v>
+        <v>266.18</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="5" t="e"/>
       <c r="H3" s="6" t="n">
-        <v>72</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" ht="11" customHeight="true">
@@ -404,15 +464,15 @@
       <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>9.12</v>
+      <c r="E4" s="7" t="n">
+        <v>4143.73</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="5" t="e"/>
-      <c r="H4" s="7" t="n">
-        <v>96000</v>
+      <c r="H4" s="6" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="5" ht="11" customHeight="true">
@@ -429,14 +489,14 @@
         <v>18</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>7.04</v>
+        <v>409.33</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="5" t="e"/>
-      <c r="H5" s="7" t="n">
-        <v>48000</v>
+      <c r="H5" s="6" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="6" ht="11" customHeight="true">
@@ -453,14 +513,14 @@
         <v>20</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>58.24</v>
+        <v>9.12</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="5" t="e"/>
-      <c r="H6" s="7" t="n">
-        <v>1200</v>
+      <c r="H6" s="8" t="n">
+        <v>96000</v>
       </c>
     </row>
     <row r="7" ht="11" customHeight="true">
@@ -477,17 +537,17 @@
         <v>22</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>38.26</v>
+        <v>7.04</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="5" t="e"/>
-      <c r="H7" s="7" t="n">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="8" ht="23" customHeight="true">
+      <c r="H7" s="8" t="n">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="8" ht="11" customHeight="true">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -501,14 +561,14 @@
         <v>24</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>13.41</v>
+        <v>58.24</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="5" t="e"/>
-      <c r="H8" s="7" t="n">
-        <v>12000</v>
+      <c r="H8" s="8" t="n">
+        <v>1200</v>
       </c>
     </row>
     <row r="9" ht="11" customHeight="true">
@@ -525,17 +585,17 @@
         <v>26</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>4.08</v>
+        <v>38.26</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="5" t="e"/>
-      <c r="H9" s="7" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="10" ht="11" customHeight="true">
+      <c r="H9" s="8" t="n">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="10" ht="23" customHeight="true">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -549,14 +609,14 @@
         <v>28</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>32.97</v>
+        <v>13.41</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="5" t="e"/>
-      <c r="H10" s="7" t="n">
-        <v>12600</v>
+      <c r="H10" s="8" t="n">
+        <v>12000</v>
       </c>
     </row>
     <row r="11" ht="11" customHeight="true">
@@ -573,14 +633,14 @@
         <v>30</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>5.75</v>
+        <v>0.9</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="5" t="e"/>
-      <c r="H11" s="7" t="n">
-        <v>15000</v>
+      <c r="H11" s="8" t="n">
+        <v>80000</v>
       </c>
     </row>
     <row r="12" ht="23" customHeight="true">
@@ -597,17 +657,17 @@
         <v>32</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>283.34</v>
+        <v>706.56</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="5" t="e"/>
       <c r="H12" s="6" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" ht="23" customHeight="true">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" ht="11" customHeight="true">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -620,18 +680,18 @@
       <c r="D13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="8" t="n">
-        <v>3298.53</v>
+      <c r="E13" s="4" t="n">
+        <v>524.77</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="5" t="e"/>
       <c r="H13" s="6" t="n">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="14" ht="23" customHeight="true">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" ht="11" customHeight="true">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -645,17 +705,17 @@
         <v>36</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>416.96</v>
+        <v>1</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="e"/>
-      <c r="H14" s="7" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="15" ht="23" customHeight="true">
+      <c r="H14" s="8" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="15" ht="11" customHeight="true">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -669,14 +729,14 @@
         <v>38</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>4.39</v>
+        <v>4.08</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="5" t="e"/>
-      <c r="H15" s="7" t="n">
-        <v>30000</v>
+      <c r="H15" s="8" t="n">
+        <v>100000</v>
       </c>
     </row>
     <row r="16" ht="11" customHeight="true">
@@ -692,13 +752,15 @@
       <c r="D16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="3" t="e"/>
+      <c r="E16" s="4" t="n">
+        <v>32.97</v>
+      </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="5" t="e"/>
-      <c r="H16" s="6" t="n">
-        <v>20</v>
+      <c r="H16" s="8" t="n">
+        <v>12600</v>
       </c>
     </row>
     <row r="17" ht="11" customHeight="true">
@@ -714,13 +776,15 @@
       <c r="D17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="3" t="e"/>
+      <c r="E17" s="4" t="n">
+        <v>5.75</v>
+      </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="5" t="e"/>
-      <c r="H17" s="6" t="n">
-        <v>20</v>
+      <c r="H17" s="8" t="n">
+        <v>15000</v>
       </c>
     </row>
     <row r="18" ht="23" customHeight="true">
@@ -737,17 +801,17 @@
         <v>44</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>45.36</v>
+        <v>9.59</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="5" t="e"/>
-      <c r="H18" s="7" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="19" ht="23" customHeight="true">
+      <c r="H18" s="8" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="19" ht="11" customHeight="true">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -760,12 +824,252 @@
       <c r="D19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="3" t="e"/>
+      <c r="E19" s="4" t="n">
+        <v>4.27</v>
+      </c>
       <c r="F19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="5" t="e"/>
-      <c r="H19" s="6" t="n">
+      <c r="H19" s="8" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="20" ht="23" customHeight="true">
+      <c r="A20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>283.34</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="5" t="e"/>
+      <c r="H20" s="6" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" ht="11" customHeight="true">
+      <c r="A21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5" t="e"/>
+      <c r="H21" s="8" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" ht="23" customHeight="true">
+      <c r="A22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="7" t="n">
+        <v>3298.53</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="5" t="e"/>
+      <c r="H22" s="6" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="23" ht="23" customHeight="true">
+      <c r="A23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>416.96</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="5" t="e"/>
+      <c r="H23" s="8" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="24" ht="23" customHeight="true">
+      <c r="A24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5" t="e"/>
+      <c r="H24" s="8" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="25" ht="11" customHeight="true">
+      <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="7" t="n">
+        <v>6268.22</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="5" t="e"/>
+      <c r="H25" s="6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" ht="11" customHeight="true">
+      <c r="A26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="7" t="n">
+        <v>8786.98</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="5" t="e"/>
+      <c r="H26" s="6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" ht="11" customHeight="true">
+      <c r="A27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="5" t="e"/>
+      <c r="H27" s="8" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" ht="11" customHeight="true">
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5" t="e"/>
+      <c r="H28" s="8" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" ht="23" customHeight="true">
+      <c r="A29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="3" t="e"/>
+      <c r="F29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="5" t="e"/>
+      <c r="H29" s="6" t="n">
         <v>408</v>
       </c>
     </row>

--- a/data/В пути АЛМ.xlsx
+++ b/data/В пути АЛМ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
   <si>
     <t>Дата</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>25.04.2024 0:00:00</t>
+    <t>26.04.2024 0:00:00</t>
   </si>
   <si>
     <t>Алматы в Пути</t>
@@ -64,24 +64,96 @@
     <t>Нет</t>
   </si>
   <si>
+    <t>591810</t>
+  </si>
+  <si>
+    <t>Поддон 120х80х15 см "подЕВРО", без клейма (ООО ПаллетТрейд)</t>
+  </si>
+  <si>
+    <t>102185</t>
+  </si>
+  <si>
+    <t>Мешок для мусора 120 л, [50+20]х110 см Суперпрочный, черн., ПВД, 10 шт/рул (ООО Техинвест Плюс)</t>
+  </si>
+  <si>
     <t>103053</t>
   </si>
   <si>
     <t>Клейкая лента 48мм х 132м, 38 мкм, прозр., 6 рул/упак "Фрегат"</t>
   </si>
   <si>
+    <t>847281</t>
+  </si>
+  <si>
+    <t>Средство для мытья пароконвектоматов "Pro-Brite" Strong, концентрат, канистра, 5000 мл</t>
+  </si>
+  <si>
+    <t>847282</t>
+  </si>
+  <si>
+    <t>Средство для ополаскивания пароконвектоматов "Pro-Brite" Rinser, канистра, 5000 мл</t>
+  </si>
+  <si>
+    <t>101914</t>
+  </si>
+  <si>
+    <t>Шапочка "Шарлотта", голуб., неткан. мат-л, 100 шт/упак (ООО Оптитрейд)</t>
+  </si>
+  <si>
     <t>102482</t>
   </si>
   <si>
     <t>Сетка упаковочная [рукав] 400ммх500м, бел., ПП (ООО Ситрона-Полимер)</t>
   </si>
   <si>
+    <t>102485</t>
+  </si>
+  <si>
+    <t>Сетка упаковочная [рукав] 400ммх500м, оранж., ПП (ООО Ситрона-Полимер)</t>
+  </si>
+  <si>
+    <t>102486</t>
+  </si>
+  <si>
+    <t>Сетка упаковочная [рукав] 400ммх500м, красн., ПП (ООО Ситрона-Полимер)</t>
+  </si>
+  <si>
     <t>103096</t>
   </si>
   <si>
     <t>Клейкая лента 50мм х 66м, 50 мкм, лого "МИСТЕРИЯ", бел., 6 рул/упак</t>
   </si>
   <si>
+    <t>107469</t>
+  </si>
+  <si>
+    <t>Капхолдер [манжета] 288х56 мм, крафт, карт., 450 шт/кор (ООО Типография Альбатрос)</t>
+  </si>
+  <si>
+    <t>102853</t>
+  </si>
+  <si>
+    <t>Держатель для стаканов 4 яч. 200х200х50 мм, сер., карт., 130 шт/кор (ОАО СОЭМЗ)</t>
+  </si>
+  <si>
+    <t>104239</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 200 мл, бел., ПП, 100 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>141080</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая 165 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>143080</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая 125 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
     <t>120100</t>
   </si>
   <si>
@@ -94,36 +166,150 @@
     <t>Тарелка одноразовая мелкая d167 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
   </si>
   <si>
+    <t>451459</t>
+  </si>
+  <si>
+    <t>Полотенца бумажные для диспенсеров 240х215 мм 3-сл. Z-сложен., бел., 200 лист/упак "Focus" Eco</t>
+  </si>
+  <si>
+    <t>121490</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая глубокая 475 мл, d153 мм, бел., ПП, 50 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
     <t>107209</t>
   </si>
   <si>
     <t>Контейнер 700 мл 1-секц. 230х170х37 мм, без крышки, черн., ПП, 50 шт/упак "ПолиЭр"</t>
   </si>
   <si>
+    <t>107211</t>
+  </si>
+  <si>
+    <t>Контейнер 1000 мл 1-секц. 230х170х50 мм, без крышки, черн., ПП, 50 шт/упак "ПолиЭр"</t>
+  </si>
+  <si>
     <t>102915</t>
   </si>
   <si>
     <t>Крышка к контейнеру купол. 230х170х22,5 мм, прозр., ПП, 50 шт/упак "ПолиЭр"</t>
   </si>
   <si>
+    <t>159500</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру d115хh8 мм, прозр., ПП, 50 шт/упак "ПолиЭр"</t>
+  </si>
+  <si>
+    <t>253043</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру для суши 235х162х25 мм, прозр., ПЭТ, 220 шт/кор "ПолиЭр"</t>
+  </si>
+  <si>
+    <t>253042</t>
+  </si>
+  <si>
+    <t>Контейнер для суши 1-секц. 235х162х25 мм, без крышки, черн., ПЭТ, 220 шт/кор "ПолиЭр"</t>
+  </si>
+  <si>
+    <t>103851</t>
+  </si>
+  <si>
+    <t>Упаковка для сэндвича под запайку 470 мл, треуг. 182х81х86 [165х66х86] мм, черн., ПП, 400 шт/кор (ОО</t>
+  </si>
+  <si>
     <t>501323</t>
   </si>
   <si>
     <t>Комплект столовых приборов №3 [лож.ст.+ вил.: 165 мм, бел., ПС+ салф.], 300 шт/кор</t>
   </si>
   <si>
+    <t>106101</t>
+  </si>
+  <si>
+    <t>Упаковка для бургера типа "Уголок" 170х150 мм, диз. "Food`корт", разноцв., бум., 1000 шт/кор (ООО Фл</t>
+  </si>
+  <si>
+    <t>107468</t>
+  </si>
+  <si>
+    <t>Капхолдер [манжета] 270х55 мм, крафт, карт., 50 шт/упак (ООО ПК Растр)</t>
+  </si>
+  <si>
+    <t>107335</t>
+  </si>
+  <si>
+    <t>Контейнер 375 мл 1-секц. 124,5х124,5х50,7 мм, без крышки, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>105265</t>
+  </si>
+  <si>
+    <t>Пакет "Майка" [250+120]х450 мм 9 мкм, бел., ПНД, 100 шт/упак (АО Артпласт)</t>
+  </si>
+  <si>
+    <t>105267</t>
+  </si>
+  <si>
+    <t>Пакет "Майка" [290+160]х550 мм 13 мкм, бел., ПНД, 100 шт/упак (АО Артпласт)</t>
+  </si>
+  <si>
+    <t>104962</t>
+  </si>
+  <si>
+    <t>Пакет [220+120]х250 мм с круч. ручками, крафт, бум., 250 шт/кор (ООО Демарт)</t>
+  </si>
+  <si>
+    <t>191220</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d172 мм, бел., сах. тростник, 50 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
     <t>106502</t>
   </si>
   <si>
     <t>Размешиватель 140 мм, коричн., бамбук, 500 шт/упак "GREEN MYSTERY"</t>
   </si>
   <si>
+    <t>254501</t>
+  </si>
+  <si>
+    <t>Ланч-бокс 1-секц. 250х210х65 мм, бел., ВПС 100 шт/кор "Алпина"</t>
+  </si>
+  <si>
     <t>223592</t>
   </si>
   <si>
     <t>Пакет фасовочный 250х400 мм 8 мкм, на втул., прозр., ПНД, 500 шт/рул (ООО РадугаУпак)</t>
   </si>
   <si>
+    <t>111613</t>
+  </si>
+  <si>
+    <t>Пакет [280+150]х320 мм с круч. ручками, крафт, бум., 250 шт/кор (ООО Демарт)</t>
+  </si>
+  <si>
+    <t>112308</t>
+  </si>
+  <si>
+    <t>Пакет вакуум. 160х250 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
+  </si>
+  <si>
+    <t>112340</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 175х130х13,5 мм, прозр., ПЭТ 50 шт/упак "OSQ" OpSalad 500</t>
+  </si>
+  <si>
+    <t>112416</t>
+  </si>
+  <si>
+    <t>Мешок для мусора 60 л, 62х74 см, черн., ПНД, 50 шт/рул "МИСТЕРИЯ"</t>
+  </si>
+  <si>
     <t>112685</t>
   </si>
   <si>
@@ -154,6 +340,54 @@
     <t>Пакет на вынос [120+80]х250 мм S без ручек, крафт, бум., 1000 шт/кор (ООО Тек-Пак)</t>
   </si>
   <si>
+    <t>113206</t>
+  </si>
+  <si>
+    <t>Стакан-шейкер одноразовый 300 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>113207</t>
+  </si>
+  <si>
+    <t>Стакан-шейкер одноразовый 400 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>113208</t>
+  </si>
+  <si>
+    <t>Стакан-шейкер одноразовый 500 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>113209</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d95 мм куполообразная с отверстием, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>113210</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d95 мм куполообразная без отверстия, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>113211</t>
+  </si>
+  <si>
+    <t>Контейнер 250 мл 1-секц. 124,5х124,5х38,4 мм, без крышки, черн., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>113212</t>
+  </si>
+  <si>
+    <t>Контейнер 375 мл 1-секц. 124,5х124,5х50,7 мм, без крышки, черн., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>113214</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 124,5х124,5х13,1 мм, прозр., ПЭТ, 25 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
     <t>113219</t>
   </si>
   <si>
@@ -172,24 +406,66 @@
     <t>Пакет "Майка" [250+120]х450 мм 10 мкм, бел., ПНД, 100 шт/упак (ООО Нижполимерупак)</t>
   </si>
   <si>
+    <t>113711</t>
+  </si>
+  <si>
+    <t>Коробка для лапши 900 мл, 165х130х50 мм, крафт, карт., 60 шт/упак "OSQ" Eco Fold Box</t>
+  </si>
+  <si>
     <t>113905</t>
   </si>
   <si>
     <t>Стакан бумажный 250 мл 2 сл., d80 мм, бел., карт., 20 шт/упак (ООО Паперскоп Рус)</t>
   </si>
   <si>
+    <t>114004</t>
+  </si>
+  <si>
+    <t>Контейнер 500 мл, 164х115х45 мм, без окна, без крышки, крафт-черн., карт., 600 шт/кор "OSQ" OpSalad </t>
+  </si>
+  <si>
+    <t>114019</t>
+  </si>
+  <si>
+    <t>Держатель для стаканов 2 яч. 90х180х50 мм, крафт-бел., карт., 450 шт/кор "OSQ" Eco CupHolder double</t>
+  </si>
+  <si>
     <t>114029</t>
   </si>
   <si>
     <t>Мешок кондитерский в рулоне 1-сл., 61 см, 90 мкм, прозр., ПЭ, 100 шт/рул (ООО Компания Лемио)</t>
   </si>
   <si>
+    <t>114220</t>
+  </si>
+  <si>
+    <t>Контейнер 250 мл 1-секц. 124,5х124,5х38,4 мм, без крышки, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>114531</t>
+  </si>
+  <si>
+    <t>Губка поролоновая для посуды 110х80х30 мм XXXL, цвет в ассорт., 10 шт/упак (ООО ПФ Прайд)</t>
+  </si>
+  <si>
+    <t>114791</t>
+  </si>
+  <si>
+    <t>Пакет на вынос [120+80]х250 мм S без ручек, крафт, бум., 1000 шт/кор (ООО Вита Групп)</t>
+  </si>
+  <si>
     <t>114977</t>
   </si>
   <si>
     <t>Трубочки для коктейлей 210 мм, d7 мм, черн., пласт. прямые в инд. упаковке, 200 шт/упак (ООО ПК Диап</t>
   </si>
   <si>
+    <t>115223</t>
+  </si>
+  <si>
+    <t>Бумага туалетная 1-сл. "Proff 54" Eco, бел., 35 м</t>
+  </si>
+  <si>
     <t>115478</t>
   </si>
   <si>
@@ -220,10 +496,70 @@
     <t>Крышка для стакана d90 мм с питейником тип З, прозр., ПП, 50 шт/упак (ООО ВЗЛП)</t>
   </si>
   <si>
+    <t>115882</t>
+  </si>
+  <si>
+    <t>Мыло кусковое хозяйственное"ММК" 72%, 200 г</t>
+  </si>
+  <si>
+    <t>115970</t>
+  </si>
+  <si>
+    <t>Стакан-шейкер одноразовый 200 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>115997</t>
+  </si>
+  <si>
+    <t>Упаковка для кондит. изделий 1200 мл, 1-секц. 252х173х43[226х148х39] мм, неразъем.крышка, прозр., ПЭ</t>
+  </si>
+  <si>
+    <t>116066</t>
+  </si>
+  <si>
+    <t>Стакан одноразовый 200 мл, прозр., ПП, 100 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>116198</t>
+  </si>
+  <si>
+    <t>Размешиватель 180 мм, инд. упак., древ. волокно, 500 шт/упак (ООО Компания Лемио)</t>
+  </si>
+  <si>
+    <t>116261</t>
+  </si>
+  <si>
+    <t>Сахар порционный 5 г, лого "Гелиос", стик, 2000 шт/кор (ТОО Компания Ника-2000)</t>
+  </si>
+  <si>
+    <t>116286</t>
+  </si>
+  <si>
+    <t>Контейнер 250 мл 1-секц. 137,7х137,7х34 мм, неразъем.крышка, прозр.-черн., ПЭТ, 400 шт/кор "Upax-Uni</t>
+  </si>
+  <si>
     <t>116288</t>
   </si>
   <si>
     <t>Трубочки для коктейлей 240 мм, d8 мм, фиолет., пласт. прямые в инд. упаковке, 200 шт/упак (ООО ПК Ди</t>
+  </si>
+  <si>
+    <t>450744</t>
+  </si>
+  <si>
+    <t>Бумага туалетная 2-сл. "Focus" Economic Choice, бел., 16,2 м, 8 рул/упак</t>
+  </si>
+  <si>
+    <t>108394</t>
+  </si>
+  <si>
+    <t>Пленка пищевая 450мм х 900м 9 мкм, прозр., ПВХ "P.V.Ran"</t>
+  </si>
+  <si>
+    <t>451356</t>
+  </si>
+  <si>
+    <t>Полотенца бумажные для диспенсеров 2-сл. с центр. вытяжкой, бел., 125 м "Focus" Jumbo</t>
   </si>
 </sst>
 </file>
@@ -361,7 +697,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H29"/>
+  <dimension ref="H85"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -440,18 +776,18 @@
       <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>266.18</v>
+      <c r="E3" s="7" t="n">
+        <v>1862</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="5" t="e"/>
       <c r="H3" s="6" t="n">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" ht="11" customHeight="true">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" ht="23" customHeight="true">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -464,15 +800,15 @@
       <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7" t="n">
-        <v>4143.73</v>
+      <c r="E4" s="4" t="n">
+        <v>308.54</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="5" t="e"/>
       <c r="H4" s="6" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" ht="11" customHeight="true">
@@ -489,17 +825,17 @@
         <v>18</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>409.33</v>
+        <v>266.18</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="5" t="e"/>
       <c r="H5" s="6" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" ht="11" customHeight="true">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" ht="23" customHeight="true">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -512,18 +848,18 @@
       <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>9.12</v>
+      <c r="E6" s="7" t="n">
+        <v>5003.67</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="5" t="e"/>
-      <c r="H6" s="8" t="n">
-        <v>96000</v>
-      </c>
-    </row>
-    <row r="7" ht="11" customHeight="true">
+      <c r="H6" s="6" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" ht="23" customHeight="true">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -536,15 +872,15 @@
       <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>7.04</v>
+      <c r="E7" s="7" t="n">
+        <v>2773.77</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="5" t="e"/>
-      <c r="H7" s="8" t="n">
-        <v>48000</v>
+      <c r="H7" s="6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8" ht="11" customHeight="true">
@@ -561,14 +897,14 @@
         <v>24</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>58.24</v>
+        <v>556.86</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="5" t="e"/>
-      <c r="H8" s="8" t="n">
-        <v>1200</v>
+      <c r="H8" s="6" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="9" ht="11" customHeight="true">
@@ -584,18 +920,18 @@
       <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="4" t="n">
-        <v>38.26</v>
+      <c r="E9" s="7" t="n">
+        <v>4143.73</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="5" t="e"/>
-      <c r="H9" s="8" t="n">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="10" ht="23" customHeight="true">
+      <c r="H9" s="6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" ht="11" customHeight="true">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -608,15 +944,15 @@
       <c r="D10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>13.41</v>
+      <c r="E10" s="7" t="n">
+        <v>4143.73</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="5" t="e"/>
-      <c r="H10" s="8" t="n">
-        <v>12000</v>
+      <c r="H10" s="6" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="11" ht="11" customHeight="true">
@@ -632,18 +968,18 @@
       <c r="D11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="4" t="n">
-        <v>0.9</v>
+      <c r="E11" s="7" t="n">
+        <v>4143.73</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="5" t="e"/>
-      <c r="H11" s="8" t="n">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="12" ht="23" customHeight="true">
+      <c r="H11" s="6" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" ht="11" customHeight="true">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -657,17 +993,17 @@
         <v>32</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>706.56</v>
+        <v>409.33</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="5" t="e"/>
       <c r="H12" s="6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" ht="11" customHeight="true">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" ht="23" customHeight="true">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -681,14 +1017,14 @@
         <v>34</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>524.77</v>
+        <v>5.66</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="5" t="e"/>
-      <c r="H13" s="6" t="n">
-        <v>400</v>
+      <c r="H13" s="8" t="n">
+        <v>9000</v>
       </c>
     </row>
     <row r="14" ht="11" customHeight="true">
@@ -705,14 +1041,14 @@
         <v>36</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>1</v>
+        <v>20.65</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="e"/>
       <c r="H14" s="8" t="n">
-        <v>100000</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="15" ht="11" customHeight="true">
@@ -729,14 +1065,14 @@
         <v>38</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>4.08</v>
+        <v>2.83</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="5" t="e"/>
       <c r="H15" s="8" t="n">
-        <v>100000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="16" ht="11" customHeight="true">
@@ -753,14 +1089,14 @@
         <v>40</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>32.97</v>
+        <v>4.2</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="5" t="e"/>
       <c r="H16" s="8" t="n">
-        <v>12600</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="17" ht="11" customHeight="true">
@@ -777,17 +1113,17 @@
         <v>42</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>5.75</v>
+        <v>2.01</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="5" t="e"/>
       <c r="H17" s="8" t="n">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="18" ht="23" customHeight="true">
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="18" ht="11" customHeight="true">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
@@ -801,14 +1137,14 @@
         <v>44</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>9.59</v>
+        <v>9.12</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="5" t="e"/>
       <c r="H18" s="8" t="n">
-        <v>15000</v>
+        <v>96000</v>
       </c>
     </row>
     <row r="19" ht="11" customHeight="true">
@@ -825,14 +1161,14 @@
         <v>46</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>4.27</v>
+        <v>7.04</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="5" t="e"/>
       <c r="H19" s="8" t="n">
-        <v>15000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="20" ht="23" customHeight="true">
@@ -849,14 +1185,14 @@
         <v>48</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>283.34</v>
+        <v>401.17</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="5" t="e"/>
       <c r="H20" s="6" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" ht="11" customHeight="true">
@@ -873,17 +1209,17 @@
         <v>50</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>18.85</v>
+        <v>9.34</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="5" t="e"/>
       <c r="H21" s="8" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" ht="23" customHeight="true">
+        <v>123000</v>
+      </c>
+    </row>
+    <row r="22" ht="11" customHeight="true">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
@@ -896,15 +1232,15 @@
       <c r="D22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="7" t="n">
-        <v>3298.53</v>
+      <c r="E22" s="4" t="n">
+        <v>58.24</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="5" t="e"/>
-      <c r="H22" s="6" t="n">
-        <v>700</v>
+      <c r="H22" s="8" t="n">
+        <v>1200</v>
       </c>
     </row>
     <row r="23" ht="23" customHeight="true">
@@ -921,17 +1257,17 @@
         <v>54</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>416.96</v>
+        <v>57.61</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="5" t="e"/>
-      <c r="H23" s="8" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="24" ht="23" customHeight="true">
+      <c r="H23" s="6" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" ht="11" customHeight="true">
       <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
@@ -945,14 +1281,14 @@
         <v>56</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>4.39</v>
+        <v>38.26</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="5" t="e"/>
       <c r="H24" s="8" t="n">
-        <v>30000</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="25" ht="11" customHeight="true">
@@ -968,15 +1304,15 @@
       <c r="D25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="7" t="n">
-        <v>6268.22</v>
+      <c r="E25" s="4" t="n">
+        <v>7.46</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="5" t="e"/>
-      <c r="H25" s="6" t="n">
-        <v>20</v>
+      <c r="H25" s="8" t="n">
+        <v>10000</v>
       </c>
     </row>
     <row r="26" ht="11" customHeight="true">
@@ -992,18 +1328,18 @@
       <c r="D26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="7" t="n">
-        <v>8786.98</v>
+      <c r="E26" s="4" t="n">
+        <v>34.06</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="5" t="e"/>
-      <c r="H26" s="6" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" ht="11" customHeight="true">
+      <c r="H26" s="8" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="27" ht="23" customHeight="true">
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1017,17 +1353,17 @@
         <v>62</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>6.77</v>
+        <v>30.76</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="5" t="e"/>
       <c r="H27" s="8" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="28" ht="11" customHeight="true">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="28" ht="23" customHeight="true">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -1041,14 +1377,14 @@
         <v>64</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>6.77</v>
+        <v>21.27</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="5" t="e"/>
       <c r="H28" s="8" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="29" ht="23" customHeight="true">
@@ -1064,13 +1400,1351 @@
       <c r="D29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="3" t="e"/>
+      <c r="E29" s="4" t="n">
+        <v>13.41</v>
+      </c>
       <c r="F29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="5" t="e"/>
-      <c r="H29" s="6" t="n">
+      <c r="H29" s="8" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="30" ht="23" customHeight="true">
+      <c r="A30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="5" t="e"/>
+      <c r="H30" s="8" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="31" ht="11" customHeight="true">
+      <c r="A31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="5" t="e"/>
+      <c r="H31" s="8" t="n">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="32" ht="23" customHeight="true">
+      <c r="A32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="5" t="e"/>
+      <c r="H32" s="8" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="33" ht="11" customHeight="true">
+      <c r="A33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>261.68</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="5" t="e"/>
+      <c r="H33" s="6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" ht="11" customHeight="true">
+      <c r="A34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="4" t="n">
+        <v>513.07</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="5" t="e"/>
+      <c r="H34" s="6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" ht="11" customHeight="true">
+      <c r="A35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="4" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="5" t="e"/>
+      <c r="H35" s="8" t="n">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="36" ht="23" customHeight="true">
+      <c r="A36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>18.98</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="5" t="e"/>
+      <c r="H36" s="8" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="37" ht="11" customHeight="true">
+      <c r="A37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="5" t="e"/>
+      <c r="H37" s="8" t="n">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="38" ht="11" customHeight="true">
+      <c r="A38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>26.19</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="5" t="e"/>
+      <c r="H38" s="6" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" ht="23" customHeight="true">
+      <c r="A39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>706.56</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="5" t="e"/>
+      <c r="H39" s="6" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" ht="11" customHeight="true">
+      <c r="A40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="4" t="n">
+        <v>33.17</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="5" t="e"/>
+      <c r="H40" s="8" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" ht="11" customHeight="true">
+      <c r="A41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="7" t="n">
+        <v>1607.33</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="5" t="e"/>
+      <c r="H41" s="6" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" ht="11" customHeight="true">
+      <c r="A42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="5" t="e"/>
+      <c r="H42" s="8" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="43" ht="11" customHeight="true">
+      <c r="A43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="4" t="n">
+        <v>233.62</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="5" t="e"/>
+      <c r="H43" s="6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" ht="11" customHeight="true">
+      <c r="A44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v>524.77</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="5" t="e"/>
+      <c r="H44" s="6" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" ht="11" customHeight="true">
+      <c r="A45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="5" t="e"/>
+      <c r="H45" s="8" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="46" ht="11" customHeight="true">
+      <c r="A46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="4" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="5" t="e"/>
+      <c r="H46" s="8" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="47" ht="11" customHeight="true">
+      <c r="A47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="4" t="n">
+        <v>32.97</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="5" t="e"/>
+      <c r="H47" s="8" t="n">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="48" ht="11" customHeight="true">
+      <c r="A48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="4" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="5" t="e"/>
+      <c r="H48" s="8" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="49" ht="11" customHeight="true">
+      <c r="A49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" s="4" t="n">
+        <v>17.06</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="5" t="e"/>
+      <c r="H49" s="8" t="n">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="50" ht="11" customHeight="true">
+      <c r="A50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" s="4" t="n">
+        <v>19.72</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="5" t="e"/>
+      <c r="H50" s="8" t="n">
+        <v>202000</v>
+      </c>
+    </row>
+    <row r="51" ht="11" customHeight="true">
+      <c r="A51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="4" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="5" t="e"/>
+      <c r="H51" s="8" t="n">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="52" ht="23" customHeight="true">
+      <c r="A52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" s="4" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="5" t="e"/>
+      <c r="H52" s="8" t="n">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="53" ht="23" customHeight="true">
+      <c r="A53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" s="4" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="5" t="e"/>
+      <c r="H53" s="8" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="54" ht="23" customHeight="true">
+      <c r="A54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E54" s="4" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="5" t="e"/>
+      <c r="H54" s="8" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="55" ht="23" customHeight="true">
+      <c r="A55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" s="4" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="5" t="e"/>
+      <c r="H55" s="8" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="56" ht="11" customHeight="true">
+      <c r="A56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E56" s="4" t="n">
+        <v>9.22</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="5" t="e"/>
+      <c r="H56" s="8" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="57" ht="23" customHeight="true">
+      <c r="A57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" s="4" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="5" t="e"/>
+      <c r="H57" s="8" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="58" ht="11" customHeight="true">
+      <c r="A58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E58" s="4" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="5" t="e"/>
+      <c r="H58" s="8" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="59" ht="23" customHeight="true">
+      <c r="A59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E59" s="4" t="n">
+        <v>283.34</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="5" t="e"/>
+      <c r="H59" s="6" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" ht="23" customHeight="true">
+      <c r="A60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E60" s="4" t="n">
+        <v>39.86</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="5" t="e"/>
+      <c r="H60" s="8" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="61" ht="11" customHeight="true">
+      <c r="A61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E61" s="4" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="5" t="e"/>
+      <c r="H61" s="8" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" ht="23" customHeight="true">
+      <c r="A62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" s="4" t="n">
+        <v>24.46</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="5" t="e"/>
+      <c r="H62" s="8" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="63" ht="23" customHeight="true">
+      <c r="A63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E63" s="4" t="n">
+        <v>20.02</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="5" t="e"/>
+      <c r="H63" s="8" t="n">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="64" ht="23" customHeight="true">
+      <c r="A64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E64" s="7" t="n">
+        <v>3298.53</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="5" t="e"/>
+      <c r="H64" s="6" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="65" ht="23" customHeight="true">
+      <c r="A65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E65" s="4" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="5" t="e"/>
+      <c r="H65" s="8" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="66" ht="23" customHeight="true">
+      <c r="A66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E66" s="4" t="n">
+        <v>287.72</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="5" t="e"/>
+      <c r="H66" s="6" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" ht="23" customHeight="true">
+      <c r="A67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E67" s="4" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="5" t="e"/>
+      <c r="H67" s="8" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="68" ht="23" customHeight="true">
+      <c r="A68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E68" s="4" t="n">
+        <v>416.96</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="5" t="e"/>
+      <c r="H68" s="8" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="69" ht="11" customHeight="true">
+      <c r="A69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E69" s="4" t="n">
+        <v>63.77</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="5" t="e"/>
+      <c r="H69" s="6" t="n">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="70" ht="23" customHeight="true">
+      <c r="A70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E70" s="4" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="5" t="e"/>
+      <c r="H70" s="8" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="71" ht="11" customHeight="true">
+      <c r="A71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E71" s="7" t="n">
+        <v>6268.22</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="5" t="e"/>
+      <c r="H71" s="6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" ht="11" customHeight="true">
+      <c r="A72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E72" s="7" t="n">
+        <v>8786.98</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="5" t="e"/>
+      <c r="H72" s="6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" ht="11" customHeight="true">
+      <c r="A73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E73" s="4" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="5" t="e"/>
+      <c r="H73" s="8" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="74" ht="11" customHeight="true">
+      <c r="A74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E74" s="4" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="5" t="e"/>
+      <c r="H74" s="8" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="75" ht="11" customHeight="true">
+      <c r="A75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E75" s="4" t="n">
+        <v>77.28</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="5" t="e"/>
+      <c r="H75" s="6" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" ht="11" customHeight="true">
+      <c r="A76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E76" s="4" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="5" t="e"/>
+      <c r="H76" s="8" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="77" ht="23" customHeight="true">
+      <c r="A77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E77" s="4" t="n">
+        <v>53.61</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="5" t="e"/>
+      <c r="H77" s="8" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="78" ht="11" customHeight="true">
+      <c r="A78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E78" s="4" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="5" t="e"/>
+      <c r="H78" s="8" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="79" ht="23" customHeight="true">
+      <c r="A79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E79" s="3" t="e"/>
+      <c r="F79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="5" t="e"/>
+      <c r="H79" s="8" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="80" ht="11" customHeight="true">
+      <c r="A80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E80" s="3" t="e"/>
+      <c r="F80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="5" t="e"/>
+      <c r="H80" s="8" t="n">
+        <v>926000</v>
+      </c>
+    </row>
+    <row r="81" ht="23" customHeight="true">
+      <c r="A81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E81" s="3" t="e"/>
+      <c r="F81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="5" t="e"/>
+      <c r="H81" s="8" t="n">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="82" ht="23" customHeight="true">
+      <c r="A82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E82" s="3" t="e"/>
+      <c r="F82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="5" t="e"/>
+      <c r="H82" s="6" t="n">
         <v>408</v>
+      </c>
+    </row>
+    <row r="83" ht="11" customHeight="true">
+      <c r="A83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E83" s="4" t="n">
+        <v>439.86</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="5" t="e"/>
+      <c r="H83" s="6" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" ht="11" customHeight="true">
+      <c r="A84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E84" s="7" t="n">
+        <v>3957.83</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="5" t="e"/>
+      <c r="H84" s="6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" ht="23" customHeight="true">
+      <c r="A85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E85" s="4" t="n">
+        <v>970.77</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="5" t="e"/>
+      <c r="H85" s="6" t="n">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data/В пути АЛМ.xlsx
+++ b/data/В пути АЛМ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>Дата</t>
   </si>
@@ -49,25 +49,349 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>06.05.2024 0:00:00</t>
+    <t>10.05.2024 0:00:00</t>
   </si>
   <si>
     <t>Алматы в Пути</t>
   </si>
   <si>
+    <t>100024</t>
+  </si>
+  <si>
+    <t>Коробка для пиццы 300х300х40 мм, бел., микрогофрокарт.Т-11 Е, 50 шт/кор (OOO КТК)</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>472153</t>
+  </si>
+  <si>
+    <t>Средство для очистки кухонных плит "Synergetic" От жира и нагара, канистра, 5000 мл</t>
+  </si>
+  <si>
+    <t>591810</t>
+  </si>
+  <si>
+    <t>Поддон 120х80х15 см "подЕВРО", без клейма (ООО ПаллетТрейд)</t>
+  </si>
+  <si>
+    <t>101041</t>
+  </si>
+  <si>
+    <t>Пика 120 мм, диз. "Гольф", беж., бамбук, 100 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>107255</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, прозр., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>107254</t>
+  </si>
+  <si>
+    <t>Крышка для стакана d80 мм с пробивным слотом и заглушкой, прозр., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
     <t>102319</t>
   </si>
   <si>
     <t>Крышка для стакана d80 мм с клапаном, черн., ПС, 100 шт/упак "Kado-Prim"</t>
   </si>
   <si>
-    <t>Нет</t>
+    <t>143080</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая 125 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>120100</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d205 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>123250</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d167 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>451459</t>
+  </si>
+  <si>
+    <t>Полотенца бумажные для диспенсеров 240х215 мм 3-сл. Z-сложен., бел., 200 лист/упак "Focus" Eco</t>
+  </si>
+  <si>
+    <t>121490</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая глубокая 475 мл, d153 мм, бел., ПП, 50 шт/упак "МИСТЕРИЯ"</t>
+  </si>
+  <si>
+    <t>101764</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 210 мм, d5 мм, диз. "Полоски", пласт. с гофроизгибом, 1000 шт/упак (ООО Экстр</t>
+  </si>
+  <si>
+    <t>150497</t>
+  </si>
+  <si>
+    <t>Контейнер 125 мл 1-секц. 108х82х25 мм, серия 108, без крышки, прозр., ПП, 100 шт/упак (ООО Алькор)</t>
+  </si>
+  <si>
+    <t>154625</t>
+  </si>
+  <si>
+    <t>Контейнер 500 мл 1-секц. 108х82х106 мм, серия 108, без крышки, прозр., ПП, 100 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>159497</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 108х82х8 мм, прозр., ПП, 100 шт/упак (ООО Алькор)</t>
+  </si>
+  <si>
+    <t>159625</t>
+  </si>
+  <si>
+    <t>Крышка к контейнеру 108х82х3 мм, прозр., ПП, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>106098</t>
+  </si>
+  <si>
+    <t>Упаковка для бургера типа "Уголок" 150х145 мм, бел., бум., 2500 шт/кор (ООО ФлексаПринт)</t>
+  </si>
+  <si>
+    <t>191230</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая d225 мм, бел., сах. тростник, 50 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>191234</t>
+  </si>
+  <si>
+    <t>Тарелка одноразовая мелкая 197х262 мм, бел., сах. тростник, 50 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>107416</t>
+  </si>
+  <si>
+    <t>Вилка одноразовая 162 мм, бел., кукурузный крахмал, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>254503</t>
+  </si>
+  <si>
+    <t>Ланч-бокс 3-секц. 250х210х65 мм, бел., ВПС 100 шт/кор "Алпина"</t>
+  </si>
+  <si>
+    <t>112278</t>
+  </si>
+  <si>
+    <t>Сахар порционный 5 г, стик, 1000 шт/кор (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>112413</t>
+  </si>
+  <si>
+    <t>Форма алюминиевая 1-секц. 1125 мл 225х175х35 мм, без крышки, алюм., 50 шт/упак (ООО Русал)</t>
+  </si>
+  <si>
+    <t>112713</t>
+  </si>
+  <si>
+    <t>Размешиватель 180 мм, древ. волокно, 1000 шт/упак (ООО Компания Лемио)</t>
+  </si>
+  <si>
+    <t>112888</t>
+  </si>
+  <si>
+    <t>Крышка для формы алюм. 220х170 мм, карт.фольг., 100 шт/упак (ООО Ламкарт)</t>
+  </si>
+  <si>
+    <t>113207</t>
+  </si>
+  <si>
+    <t>Стакан-шейкер одноразовый 400 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+  </si>
+  <si>
+    <t>113289</t>
+  </si>
+  <si>
+    <t>Чековая лента 80мм х 80м, d12 мм, бел., термобум. "Честный чек"</t>
+  </si>
+  <si>
+    <t>113367</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 250 мл 1 сл., d80 мм, бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113369</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 250 мл 1 сл., d80 мм, черн., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113370</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 300 мл 1 сл., d90 мм, черн., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113371</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 400 мл 1 сл., d90 мм, черн., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113377</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 250 мл 1 сл., d80 мм, красн., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113378</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 300 мл 1 сл., d90 мм, красн., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113380</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 185 мл 1 сл., d73 мм, диз. "Coffee", карт., 100 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113381</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 250 мл 1 сл., d80 мм, крафт-бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113383</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 400 мл 1 сл., d90 мм, крафт-бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113385</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 300 мл 2 сл., d90 мм, крафт-бел., карт., 20 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113395</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 250 мл 2 сл., d80 мм, черн., карт., 20 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113396</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 300 мл 2 сл., d90 мм, черн., карт., 20 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113397</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 400 мл 2 сл., d90 мм, черн., карт., 18 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113403</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 400 мл 2 сл., d90 мм, бел., карт., 18 шт/упак (ООО Паперскоп Рус)</t>
   </si>
   <si>
     <t>113506</t>
   </si>
   <si>
     <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, бел., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>113606</t>
+  </si>
+  <si>
+    <t>Размешиватель 140 мм, инд. упак., бамбук, 250 шт/упак "GREEN MYSTERY"</t>
+  </si>
+  <si>
+    <t>113903</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 100 мл 1 сл., d62 мм, диз. "Coffee", карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113905</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 250 мл 2 сл., d80 мм, бел., карт., 20 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>113907</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 300 мл 1 сл., d90 мм, бирюз., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>114149</t>
+  </si>
+  <si>
+    <t>Ложка одноразовая 140 мм, бел., кукурузный крахмал, 50 шт/упак (ООО ВЗЛП)</t>
+  </si>
+  <si>
+    <t>114628</t>
+  </si>
+  <si>
+    <t>Салфетки 250х250 мм 1-сл., бел., бум., 100 шт/упак (ИП Головкин С.В.)</t>
+  </si>
+  <si>
+    <t>114784</t>
+  </si>
+  <si>
+    <t>Пакет пищевой [100+60]х300 мм без руч., без окна, крафт, бум., 1300 шт/кор (ООО Вита Групп)</t>
+  </si>
+  <si>
+    <t>114977</t>
+  </si>
+  <si>
+    <t>Трубочки для коктейлей 210 мм, d7 мм, черн., пласт. прямые в инд. упаковке, 200 шт/упак (ООО ПК Диап</t>
+  </si>
+  <si>
+    <t>115771</t>
+  </si>
+  <si>
+    <t>Сахар порционный 5 г, лого "СВ", стик, 2000 шт/кор (ТОО Компания Ника-2000)</t>
+  </si>
+  <si>
+    <t>116264</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 400 мл 1 сл., d90 мм, желт., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>116429</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 250 мл 1 сл., d80 мм, желт., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>116430</t>
+  </si>
+  <si>
+    <t>Стакан бумажный 300 мл 1 сл., d90 мм, желт., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+  </si>
+  <si>
+    <t>108566</t>
+  </si>
+  <si>
+    <t>Бумага туалетная для диспенсеров 2-сл. "Focus" Jumbo, бел., 150 м</t>
   </si>
 </sst>
 </file>
@@ -160,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="0" applyAlignment="true">
       <alignment horizontal="left"/>
@@ -178,6 +502,12 @@
       <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
     <xf numFmtId="3" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" borderId="2" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -199,7 +529,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H3"/>
+  <dimension ref="H57"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -209,10 +539,10 @@
     <col min="2" max="2" width="17.5" style="1" customWidth="true"/>
     <col min="3" max="3" width="11.66796875" style="1" customWidth="true"/>
     <col min="4" max="4" width="74.66796875" style="1" customWidth="true"/>
-    <col min="5" max="5" width="8.5" style="1" customWidth="true"/>
+    <col min="5" max="5" width="11.66796875" style="1" customWidth="true"/>
     <col min="6" max="6" width="17.83203125" style="1" customWidth="true"/>
     <col min="7" max="7" width="10.83203125" style="1" customWidth="true"/>
-    <col min="8" max="8" width="9.33203125" style="1" customWidth="true"/>
+    <col min="8" max="8" width="10.5" style="1" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="40" customHeight="true">
@@ -241,7 +571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="11" customHeight="true">
+    <row r="2" ht="23" customHeight="true">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -255,14 +585,14 @@
         <v>11</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.02</v>
+        <v>65.49</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="5" t="e"/>
       <c r="H2" s="6" t="n">
-        <v>10000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="3" ht="23" customHeight="true">
@@ -278,15 +608,1301 @@
       <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="7" t="n">
+        <v>1973.61</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="e"/>
+      <c r="H3" s="8" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" ht="11" customHeight="true">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>3923.93</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="e"/>
+      <c r="H4" s="8" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="11" customHeight="true">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>185.72</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="e"/>
+      <c r="H5" s="8" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" ht="23" customHeight="true">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="e"/>
+      <c r="H6" s="6" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="7" ht="23" customHeight="true">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="e"/>
+      <c r="H7" s="6" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="8" ht="11" customHeight="true">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="e"/>
+      <c r="H8" s="6" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" ht="11" customHeight="true">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="e"/>
+      <c r="H9" s="6" t="n">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="10" ht="11" customHeight="true">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>9.62</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="e"/>
+      <c r="H10" s="6" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="11" ht="11" customHeight="true">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="e"/>
+      <c r="H11" s="6" t="n">
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="12" ht="23" customHeight="true">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>394.09</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="e"/>
+      <c r="H12" s="8" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" ht="11" customHeight="true">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5" t="e"/>
+      <c r="H13" s="6" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="14" ht="23" customHeight="true">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>807.86</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5" t="e"/>
+      <c r="H14" s="8" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" ht="23" customHeight="true">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5" t="e"/>
+      <c r="H15" s="6" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="16" ht="23" customHeight="true">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>9.38</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5" t="e"/>
+      <c r="H16" s="6" t="n">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="17" ht="11" customHeight="true">
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="5" t="e"/>
+      <c r="H17" s="6" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="18" ht="11" customHeight="true">
+      <c r="A18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="5" t="e"/>
+      <c r="H18" s="6" t="n">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="19" ht="23" customHeight="true">
+      <c r="A19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="5" t="e"/>
+      <c r="H19" s="6" t="n">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="20" ht="23" customHeight="true">
+      <c r="A20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>27.72</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="5" t="e"/>
+      <c r="H20" s="6" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="21" ht="23" customHeight="true">
+      <c r="A21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>29.35</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5" t="e"/>
+      <c r="H21" s="6" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="22" ht="11" customHeight="true">
+      <c r="A22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="5" t="e"/>
+      <c r="H22" s="6" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="23" ht="11" customHeight="true">
+      <c r="A23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>26.99</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="5" t="e"/>
+      <c r="H23" s="6" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="24" ht="11" customHeight="true">
+      <c r="A24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5" t="e"/>
+      <c r="H24" s="6" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="25" ht="23" customHeight="true">
+      <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>32.12</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="5" t="e"/>
+      <c r="H25" s="6" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" ht="11" customHeight="true">
+      <c r="A26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="5" t="e"/>
+      <c r="H26" s="6" t="n">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="27" ht="11" customHeight="true">
+      <c r="A27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="5" t="e"/>
+      <c r="H27" s="6" t="n">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="28" ht="11" customHeight="true">
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5" t="e"/>
+      <c r="H28" s="6" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="29" ht="11" customHeight="true">
+      <c r="A29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>397.05</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="5" t="e"/>
+      <c r="H29" s="6" t="n">
+        <v>6030</v>
+      </c>
+    </row>
+    <row r="30" ht="11" customHeight="true">
+      <c r="A30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="5" t="e"/>
+      <c r="H30" s="6" t="n">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="31" ht="11" customHeight="true">
+      <c r="A31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="5" t="e"/>
+      <c r="H31" s="6" t="n">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="32" ht="11" customHeight="true">
+      <c r="A32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="5" t="e"/>
+      <c r="H32" s="6" t="n">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="33" ht="11" customHeight="true">
+      <c r="A33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="5" t="e"/>
+      <c r="H33" s="6" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="34" ht="23" customHeight="true">
+      <c r="A34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="4" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="5" t="e"/>
+      <c r="H34" s="6" t="n">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="35" ht="23" customHeight="true">
+      <c r="A35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="4" t="n">
+        <v>16.97</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="5" t="e"/>
+      <c r="H35" s="6" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="36" ht="23" customHeight="true">
+      <c r="A36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="4" t="n">
+        <v>9.13</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="5" t="e"/>
+      <c r="H36" s="6" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="37" ht="23" customHeight="true">
+      <c r="A37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="4" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="5" t="e"/>
+      <c r="H37" s="6" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="38" ht="23" customHeight="true">
+      <c r="A38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="5" t="e"/>
+      <c r="H38" s="6" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="39" ht="23" customHeight="true">
+      <c r="A39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="5" t="e"/>
+      <c r="H39" s="6" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="40" ht="11" customHeight="true">
+      <c r="A40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="4" t="n">
+        <v>19.11</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="5" t="e"/>
+      <c r="H40" s="6" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="41" ht="11" customHeight="true">
+      <c r="A41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="4" t="n">
+        <v>26.83</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="5" t="e"/>
+      <c r="H41" s="6" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="42" ht="11" customHeight="true">
+      <c r="A42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>35.31</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="5" t="e"/>
+      <c r="H42" s="6" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="43" ht="11" customHeight="true">
+      <c r="A43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="4" t="n">
+        <v>34.35</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="5" t="e"/>
+      <c r="H43" s="6" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="44" ht="23" customHeight="true">
+      <c r="A44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" s="4" t="n">
         <v>7.47</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="e"/>
-      <c r="H3" s="6" t="n">
+      <c r="F44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="5" t="e"/>
+      <c r="H44" s="6" t="n">
         <v>20000</v>
+      </c>
+    </row>
+    <row r="45" ht="11" customHeight="true">
+      <c r="A45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="5" t="e"/>
+      <c r="H45" s="6" t="n">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="46" ht="23" customHeight="true">
+      <c r="A46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="4" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="5" t="e"/>
+      <c r="H46" s="6" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="47" ht="11" customHeight="true">
+      <c r="A47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="4" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="5" t="e"/>
+      <c r="H47" s="6" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="48" ht="23" customHeight="true">
+      <c r="A48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="4" t="n">
+        <v>17.83</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="5" t="e"/>
+      <c r="H48" s="6" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="49" ht="11" customHeight="true">
+      <c r="A49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" s="3" t="e"/>
+      <c r="F49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="5" t="e"/>
+      <c r="H49" s="6" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="50" ht="11" customHeight="true">
+      <c r="A50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" s="4" t="n">
+        <v>91.43</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="5" t="e"/>
+      <c r="H50" s="6" t="n">
+        <v>6132</v>
+      </c>
+    </row>
+    <row r="51" ht="23" customHeight="true">
+      <c r="A51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="3" t="e"/>
+      <c r="F51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="5" t="e"/>
+      <c r="H51" s="6" t="n">
+        <v>28600</v>
+      </c>
+    </row>
+    <row r="52" ht="23" customHeight="true">
+      <c r="A52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" s="4" t="n">
+        <v>410.12</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="5" t="e"/>
+      <c r="H52" s="6" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="53" ht="11" customHeight="true">
+      <c r="A53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" s="4" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="5" t="e"/>
+      <c r="H53" s="6" t="n">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="54" ht="11" customHeight="true">
+      <c r="A54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E54" s="3" t="e"/>
+      <c r="F54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="5" t="e"/>
+      <c r="H54" s="6" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="55" ht="11" customHeight="true">
+      <c r="A55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" s="3" t="e"/>
+      <c r="F55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="5" t="e"/>
+      <c r="H55" s="6" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="56" ht="11" customHeight="true">
+      <c r="A56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E56" s="3" t="e"/>
+      <c r="F56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="5" t="e"/>
+      <c r="H56" s="6" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="57" ht="11" customHeight="true">
+      <c r="A57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" s="4" t="n">
+        <v>450.79</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="5" t="e"/>
+      <c r="H57" s="8" t="n">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/В пути АЛМ.xlsx
+++ b/data/В пути АЛМ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>Дата</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Кон ост</t>
   </si>
   <si>
-    <t>10.05.2024 0:00:00</t>
+    <t>14.05.2024 0:00:00</t>
   </si>
   <si>
     <t>Алматы в Пути</t>
@@ -94,12 +94,6 @@
     <t>Крышка для стакана d80 мм с пробивным слотом и заглушкой, прозр., ПП, 50 шт/упак (ООО ВЗЛП)</t>
   </si>
   <si>
-    <t>102319</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d80 мм с клапаном, черн., ПС, 100 шт/упак "Kado-Prim"</t>
-  </si>
-  <si>
     <t>143080</t>
   </si>
   <si>
@@ -308,12 +302,6 @@
   </si>
   <si>
     <t>Стакан бумажный 400 мл 2 сл., d90 мм, бел., карт., 18 шт/упак (ООО Паперскоп Рус)</t>
-  </si>
-  <si>
-    <t>113506</t>
-  </si>
-  <si>
-    <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, бел., ПП, 50 шт/упак (ООО ВЗЛП)</t>
   </si>
   <si>
     <t>113606</t>
@@ -529,7 +517,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="H57"/>
+  <dimension ref="H55"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -729,14 +717,14 @@
         <v>24</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>4.02</v>
+        <v>2.15</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="5" t="e"/>
       <c r="H8" s="6" t="n">
-        <v>10000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="9" ht="11" customHeight="true">
@@ -753,14 +741,14 @@
         <v>26</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>2.15</v>
+        <v>9.62</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="5" t="e"/>
       <c r="H9" s="6" t="n">
-        <v>90000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="10" ht="11" customHeight="true">
@@ -777,17 +765,17 @@
         <v>28</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>9.62</v>
+        <v>7.36</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="5" t="e"/>
       <c r="H10" s="6" t="n">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="11" ht="11" customHeight="true">
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="11" ht="23" customHeight="true">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -801,17 +789,17 @@
         <v>30</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>7.36</v>
+        <v>394.09</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="5" t="e"/>
-      <c r="H11" s="6" t="n">
-        <v>112000</v>
-      </c>
-    </row>
-    <row r="12" ht="23" customHeight="true">
+      <c r="H11" s="8" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" ht="11" customHeight="true">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -825,17 +813,17 @@
         <v>32</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>394.09</v>
+        <v>9.85</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="5" t="e"/>
-      <c r="H12" s="8" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" ht="11" customHeight="true">
+      <c r="H12" s="6" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="13" ht="23" customHeight="true">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -849,14 +837,14 @@
         <v>34</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>9.85</v>
+        <v>807.86</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="5" t="e"/>
-      <c r="H13" s="6" t="n">
-        <v>50000</v>
+      <c r="H13" s="8" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="14" ht="23" customHeight="true">
@@ -873,14 +861,14 @@
         <v>36</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>807.86</v>
+        <v>4.5</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="e"/>
-      <c r="H14" s="8" t="n">
-        <v>120</v>
+      <c r="H14" s="6" t="n">
+        <v>15000</v>
       </c>
     </row>
     <row r="15" ht="23" customHeight="true">
@@ -897,17 +885,17 @@
         <v>38</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>4.5</v>
+        <v>9.38</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="5" t="e"/>
       <c r="H15" s="6" t="n">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="16" ht="23" customHeight="true">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="16" ht="11" customHeight="true">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -921,14 +909,14 @@
         <v>40</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>9.38</v>
+        <v>3.98</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="5" t="e"/>
       <c r="H16" s="6" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="17" ht="11" customHeight="true">
@@ -945,17 +933,17 @@
         <v>42</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>3.98</v>
+        <v>4.14</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="5" t="e"/>
       <c r="H17" s="6" t="n">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="18" ht="11" customHeight="true">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="18" ht="23" customHeight="true">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
@@ -969,14 +957,14 @@
         <v>44</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>4.14</v>
+        <v>3.96</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="5" t="e"/>
       <c r="H18" s="6" t="n">
-        <v>13000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="19" ht="23" customHeight="true">
@@ -993,14 +981,14 @@
         <v>46</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>3.96</v>
+        <v>27.72</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="5" t="e"/>
       <c r="H19" s="6" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="20" ht="23" customHeight="true">
@@ -1017,17 +1005,17 @@
         <v>48</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>27.72</v>
+        <v>29.35</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="5" t="e"/>
       <c r="H20" s="6" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="21" ht="23" customHeight="true">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="21" ht="11" customHeight="true">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1041,7 +1029,7 @@
         <v>50</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>29.35</v>
+        <v>6.19</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>12</v>
@@ -1065,14 +1053,14 @@
         <v>52</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>6.19</v>
+        <v>26.99</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="5" t="e"/>
       <c r="H22" s="6" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="23" ht="11" customHeight="true">
@@ -1089,17 +1077,17 @@
         <v>54</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>26.99</v>
+        <v>2.99</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="5" t="e"/>
       <c r="H23" s="6" t="n">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="24" ht="11" customHeight="true">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="24" ht="23" customHeight="true">
       <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
@@ -1113,17 +1101,17 @@
         <v>56</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>2.99</v>
+        <v>32.12</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="5" t="e"/>
       <c r="H24" s="6" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="25" ht="23" customHeight="true">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" ht="11" customHeight="true">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
@@ -1137,14 +1125,14 @@
         <v>58</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>32.12</v>
+        <v>1.29</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="5" t="e"/>
       <c r="H25" s="6" t="n">
-        <v>1000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="26" ht="11" customHeight="true">
@@ -1161,14 +1149,14 @@
         <v>60</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>1.29</v>
+        <v>10.44</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="5" t="e"/>
       <c r="H26" s="6" t="n">
-        <v>26000</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="27" ht="11" customHeight="true">
@@ -1185,14 +1173,14 @@
         <v>62</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>10.44</v>
+        <v>19.16</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="5" t="e"/>
       <c r="H27" s="6" t="n">
-        <v>3200</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="28" ht="11" customHeight="true">
@@ -1209,14 +1197,14 @@
         <v>64</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>19.16</v>
+        <v>397.05</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="5" t="e"/>
       <c r="H28" s="6" t="n">
-        <v>20000</v>
+        <v>6030</v>
       </c>
     </row>
     <row r="29" ht="11" customHeight="true">
@@ -1233,14 +1221,14 @@
         <v>66</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>397.05</v>
+        <v>10.23</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="5" t="e"/>
       <c r="H29" s="6" t="n">
-        <v>6030</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="30" ht="11" customHeight="true">
@@ -1257,14 +1245,14 @@
         <v>68</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>10.23</v>
+        <v>11.13</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="5" t="e"/>
       <c r="H30" s="6" t="n">
-        <v>70000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="31" ht="11" customHeight="true">
@@ -1281,14 +1269,14 @@
         <v>70</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>11.13</v>
+        <v>14.92</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="5" t="e"/>
       <c r="H31" s="6" t="n">
-        <v>32000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="32" ht="11" customHeight="true">
@@ -1305,17 +1293,17 @@
         <v>72</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>14.92</v>
+        <v>20.14</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="5" t="e"/>
       <c r="H32" s="6" t="n">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="33" ht="11" customHeight="true">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="33" ht="23" customHeight="true">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
@@ -1329,14 +1317,14 @@
         <v>74</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>20.14</v>
+        <v>11.13</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="5" t="e"/>
       <c r="H33" s="6" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="34" ht="23" customHeight="true">
@@ -1353,14 +1341,14 @@
         <v>76</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>11.13</v>
+        <v>16.97</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="5" t="e"/>
       <c r="H34" s="6" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="35" ht="23" customHeight="true">
@@ -1377,7 +1365,7 @@
         <v>78</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>16.97</v>
+        <v>9.13</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>12</v>
@@ -1401,14 +1389,14 @@
         <v>80</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>9.13</v>
+        <v>11.13</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="5" t="e"/>
       <c r="H36" s="6" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="37" ht="23" customHeight="true">
@@ -1425,14 +1413,14 @@
         <v>82</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>11.13</v>
+        <v>21.05</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="5" t="e"/>
       <c r="H37" s="6" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="38" ht="23" customHeight="true">
@@ -1449,17 +1437,17 @@
         <v>84</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>21.05</v>
+        <v>26.66</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="5" t="e"/>
       <c r="H38" s="6" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="39" ht="23" customHeight="true">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="39" ht="11" customHeight="true">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -1473,14 +1461,14 @@
         <v>86</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>26.66</v>
+        <v>19.11</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="5" t="e"/>
       <c r="H39" s="6" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="40" ht="11" customHeight="true">
@@ -1497,14 +1485,14 @@
         <v>88</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>19.11</v>
+        <v>26.83</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="5" t="e"/>
       <c r="H40" s="6" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="41" ht="11" customHeight="true">
@@ -1521,14 +1509,14 @@
         <v>90</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>26.83</v>
+        <v>35.31</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="5" t="e"/>
       <c r="H41" s="6" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="42" ht="11" customHeight="true">
@@ -1545,14 +1533,14 @@
         <v>92</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>35.31</v>
+        <v>34.35</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="5" t="e"/>
       <c r="H42" s="6" t="n">
-        <v>1800</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="43" ht="11" customHeight="true">
@@ -1569,14 +1557,14 @@
         <v>94</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>34.35</v>
+        <v>1.93</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="5" t="e"/>
       <c r="H43" s="6" t="n">
-        <v>18000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="44" ht="23" customHeight="true">
@@ -1593,14 +1581,14 @@
         <v>96</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>7.47</v>
+        <v>6.56</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G44" s="5" t="e"/>
       <c r="H44" s="6" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="45" ht="11" customHeight="true">
@@ -1617,14 +1605,14 @@
         <v>98</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>1.93</v>
+        <v>18.85</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="5" t="e"/>
       <c r="H45" s="6" t="n">
-        <v>75000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="46" ht="23" customHeight="true">
@@ -1641,7 +1629,7 @@
         <v>100</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>6.56</v>
+        <v>17.83</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>12</v>
@@ -1664,18 +1652,16 @@
       <c r="D47" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E47" s="4" t="n">
-        <v>18.85</v>
-      </c>
+      <c r="E47" s="3" t="e"/>
       <c r="F47" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="5" t="e"/>
       <c r="H47" s="6" t="n">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="48" ht="23" customHeight="true">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="48" ht="11" customHeight="true">
       <c r="A48" s="3" t="s">
         <v>8</v>
       </c>
@@ -1689,17 +1675,17 @@
         <v>104</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>17.83</v>
+        <v>91.43</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="5" t="e"/>
       <c r="H48" s="6" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="49" ht="11" customHeight="true">
+        <v>6132</v>
+      </c>
+    </row>
+    <row r="49" ht="23" customHeight="true">
       <c r="A49" s="3" t="s">
         <v>8</v>
       </c>
@@ -1718,10 +1704,10 @@
       </c>
       <c r="G49" s="5" t="e"/>
       <c r="H49" s="6" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="50" ht="11" customHeight="true">
+        <v>28600</v>
+      </c>
+    </row>
+    <row r="50" ht="23" customHeight="true">
       <c r="A50" s="3" t="s">
         <v>8</v>
       </c>
@@ -1735,17 +1721,17 @@
         <v>108</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>91.43</v>
+        <v>410.12</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G50" s="5" t="e"/>
       <c r="H50" s="6" t="n">
-        <v>6132</v>
-      </c>
-    </row>
-    <row r="51" ht="23" customHeight="true">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="51" ht="11" customHeight="true">
       <c r="A51" s="3" t="s">
         <v>8</v>
       </c>
@@ -1758,16 +1744,18 @@
       <c r="D51" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E51" s="3" t="e"/>
+      <c r="E51" s="4" t="n">
+        <v>2.97</v>
+      </c>
       <c r="F51" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G51" s="5" t="e"/>
       <c r="H51" s="6" t="n">
-        <v>28600</v>
-      </c>
-    </row>
-    <row r="52" ht="23" customHeight="true">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="52" ht="11" customHeight="true">
       <c r="A52" s="3" t="s">
         <v>8</v>
       </c>
@@ -1780,15 +1768,13 @@
       <c r="D52" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E52" s="4" t="n">
-        <v>410.12</v>
-      </c>
+      <c r="E52" s="3" t="e"/>
       <c r="F52" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G52" s="5" t="e"/>
       <c r="H52" s="6" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="53" ht="11" customHeight="true">
@@ -1804,15 +1790,13 @@
       <c r="D53" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E53" s="4" t="n">
-        <v>2.97</v>
-      </c>
+      <c r="E53" s="3" t="e"/>
       <c r="F53" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G53" s="5" t="e"/>
       <c r="H53" s="6" t="n">
-        <v>350000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="54" ht="11" customHeight="true">
@@ -1834,7 +1818,7 @@
       </c>
       <c r="G54" s="5" t="e"/>
       <c r="H54" s="6" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="55" ht="11" customHeight="true">
@@ -1850,58 +1834,14 @@
       <c r="D55" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E55" s="3" t="e"/>
+      <c r="E55" s="4" t="n">
+        <v>450.79</v>
+      </c>
       <c r="F55" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G55" s="5" t="e"/>
-      <c r="H55" s="6" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="56" ht="11" customHeight="true">
-      <c r="A56" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E56" s="3" t="e"/>
-      <c r="F56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="5" t="e"/>
-      <c r="H56" s="6" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="57" ht="11" customHeight="true">
-      <c r="A57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E57" s="4" t="n">
-        <v>450.79</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="5" t="e"/>
-      <c r="H57" s="8" t="n">
+      <c r="H55" s="8" t="n">
         <v>144</v>
       </c>
     </row>
